--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO    2023       " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>0210 C1</t>
+  </si>
+  <si>
+    <t>A-336990</t>
+  </si>
+  <si>
+    <t>A-336989</t>
+  </si>
+  <si>
+    <t>SESOS</t>
+  </si>
+  <si>
+    <t>A-336988</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2686,6 +2698,48 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2696,8 +2750,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF660033"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
   </colors>
@@ -12695,9 +12749,9 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13281,7 +13335,7 @@
       <c r="G11" s="58">
         <v>44973</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="414"/>
       <c r="I11" s="60">
         <v>11250</v>
       </c>
@@ -13298,8 +13352,8 @@
         <f t="shared" si="2"/>
         <v>568125</v>
       </c>
-      <c r="O11" s="72"/>
-      <c r="P11" s="74"/>
+      <c r="O11" s="378"/>
+      <c r="P11" s="379"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="65"/>
       <c r="S11" s="47"/>
@@ -13334,7 +13388,7 @@
       <c r="G12" s="58">
         <v>44974</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="414"/>
       <c r="I12" s="60">
         <v>11960</v>
       </c>
@@ -13351,8 +13405,8 @@
         <f t="shared" si="2"/>
         <v>588432</v>
       </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="74"/>
+      <c r="O12" s="378"/>
+      <c r="P12" s="379"/>
       <c r="Q12" s="64"/>
       <c r="R12" s="65"/>
       <c r="S12" s="47"/>
@@ -13387,7 +13441,7 @@
       <c r="G13" s="58">
         <v>44976</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="414"/>
       <c r="I13" s="60">
         <v>24090</v>
       </c>
@@ -13404,8 +13458,8 @@
         <f t="shared" si="2"/>
         <v>1185228</v>
       </c>
-      <c r="O13" s="75"/>
-      <c r="P13" s="74"/>
+      <c r="O13" s="378"/>
+      <c r="P13" s="379"/>
       <c r="Q13" s="64"/>
       <c r="R13" s="65"/>
       <c r="S13" s="47"/>
@@ -13499,7 +13553,9 @@
       <c r="G15" s="58">
         <v>44979</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="414">
+        <v>41504</v>
+      </c>
       <c r="I15" s="60">
         <v>19820</v>
       </c>
@@ -13516,8 +13572,12 @@
         <f t="shared" si="2"/>
         <v>975144</v>
       </c>
-      <c r="O15" s="75"/>
-      <c r="P15" s="74"/>
+      <c r="O15" s="378" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="379">
+        <v>44993</v>
+      </c>
       <c r="Q15" s="64"/>
       <c r="R15" s="65"/>
       <c r="S15" s="47"/>
@@ -13552,7 +13612,7 @@
       <c r="G16" s="58">
         <v>44981</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="414"/>
       <c r="I16" s="60">
         <v>22980</v>
       </c>
@@ -13569,8 +13629,8 @@
         <f t="shared" si="2"/>
         <v>1137510</v>
       </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="74"/>
+      <c r="O16" s="378"/>
+      <c r="P16" s="379"/>
       <c r="Q16" s="64"/>
       <c r="R16" s="65"/>
       <c r="S16" s="47"/>
@@ -13605,7 +13665,7 @@
       <c r="G17" s="58">
         <v>44983</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="414"/>
       <c r="I17" s="60">
         <v>26330</v>
       </c>
@@ -13622,8 +13682,8 @@
         <f t="shared" si="2"/>
         <v>1237510</v>
       </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="74"/>
+      <c r="O17" s="378"/>
+      <c r="P17" s="379"/>
       <c r="Q17" s="64"/>
       <c r="R17" s="65"/>
       <c r="S17" s="47"/>
@@ -15200,30 +15260,46 @@
       <c r="V61" s="50"/>
     </row>
     <row r="62" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="110"/>
-      <c r="B62" s="153" t="s">
-        <v>23</v>
+      <c r="A62" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="401" t="s">
+        <v>24</v>
       </c>
       <c r="C62" s="165"/>
       <c r="D62" s="160"/>
       <c r="E62" s="56"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="155"/>
+      <c r="F62" s="155">
+        <v>3559.63</v>
+      </c>
+      <c r="G62" s="156">
+        <v>44970</v>
+      </c>
+      <c r="H62" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="155">
+        <v>3559.63</v>
+      </c>
       <c r="J62" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K62" s="40"/>
+      <c r="K62" s="40">
+        <v>23</v>
+      </c>
       <c r="L62" s="61"/>
       <c r="M62" s="61"/>
       <c r="N62" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="158"/>
-      <c r="P62" s="58"/>
+        <v>81871.490000000005</v>
+      </c>
+      <c r="O62" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="P62" s="413">
+        <v>44992</v>
+      </c>
       <c r="Q62" s="166"/>
       <c r="R62" s="125"/>
       <c r="S62" s="48"/>
@@ -15282,30 +15358,47 @@
       <c r="V63" s="50"/>
     </row>
     <row r="64" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="142"/>
+      <c r="A64" s="101" t="s">
+        <v>82</v>
+      </c>
       <c r="B64" s="167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="170"/>
       <c r="D64" s="160"/>
       <c r="E64" s="56"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="155"/>
+      <c r="F64" s="155">
+        <f>942.4+901.13+919.27</f>
+        <v>2762.8</v>
+      </c>
+      <c r="G64" s="156">
+        <v>44971</v>
+      </c>
+      <c r="H64" s="171" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="155">
+        <v>2762.8</v>
+      </c>
       <c r="J64" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K64" s="40"/>
+      <c r="K64" s="40">
+        <v>23</v>
+      </c>
       <c r="L64" s="61"/>
       <c r="M64" s="61"/>
       <c r="N64" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="169"/>
-      <c r="P64" s="58"/>
+        <v>63544.4</v>
+      </c>
+      <c r="O64" s="382" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="384">
+        <v>44992</v>
+      </c>
       <c r="Q64" s="166"/>
       <c r="R64" s="125"/>
       <c r="S64" s="48"/>
@@ -15314,28 +15407,46 @@
       <c r="V64" s="50"/>
     </row>
     <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="172"/>
-      <c r="B65" s="167"/>
+      <c r="A65" s="402" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="167" t="s">
+        <v>111</v>
+      </c>
       <c r="C65" s="173"/>
       <c r="D65" s="174"/>
       <c r="E65" s="56"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="175"/>
-      <c r="I65" s="155"/>
+      <c r="F65" s="155">
+        <v>1224</v>
+      </c>
+      <c r="G65" s="404">
+        <v>44973</v>
+      </c>
+      <c r="H65" s="406" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="155">
+        <v>1224</v>
+      </c>
       <c r="J65" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K65" s="40"/>
+      <c r="K65" s="40">
+        <v>67</v>
+      </c>
       <c r="L65" s="61"/>
       <c r="M65" s="61"/>
       <c r="N65" s="42">
         <f>K65*I65</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="169"/>
-      <c r="P65" s="58"/>
+        <v>82008</v>
+      </c>
+      <c r="O65" s="408" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="409">
+        <v>44992</v>
+      </c>
       <c r="Q65" s="166"/>
       <c r="R65" s="125"/>
       <c r="S65" s="48"/>
@@ -15344,28 +15455,36 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="152"/>
-      <c r="B66" s="167"/>
+      <c r="A66" s="403"/>
+      <c r="B66" s="167" t="s">
+        <v>24</v>
+      </c>
       <c r="C66" s="170"/>
       <c r="D66" s="174"/>
       <c r="E66" s="56"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="168"/>
-      <c r="I66" s="155"/>
+      <c r="F66" s="155">
+        <v>902.95899999999995</v>
+      </c>
+      <c r="G66" s="405"/>
+      <c r="H66" s="407"/>
+      <c r="I66" s="155">
+        <v>902.95899999999995</v>
+      </c>
       <c r="J66" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K66" s="40"/>
+      <c r="K66" s="40">
+        <v>23</v>
+      </c>
       <c r="L66" s="61"/>
       <c r="M66" s="61"/>
       <c r="N66" s="42">
         <f>K66*I66</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="169"/>
-      <c r="P66" s="58"/>
+        <v>20768.056999999997</v>
+      </c>
+      <c r="O66" s="410"/>
+      <c r="P66" s="411"/>
       <c r="Q66" s="166"/>
       <c r="R66" s="125"/>
       <c r="S66" s="176"/>
@@ -21766,7 +21885,7 @@
       <c r="H262" s="387"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
-        <v>257574.82</v>
+        <v>266024.20899999997</v>
       </c>
       <c r="J262" s="304"/>
       <c r="K262" s="300"/>
@@ -21865,7 +21984,7 @@
       <c r="M266" s="322"/>
       <c r="N266" s="323">
         <f>SUM(N4:N265)</f>
-        <v>13161655.24</v>
+        <v>13409847.187000001</v>
       </c>
       <c r="O266" s="324"/>
       <c r="Q266" s="325">
@@ -21925,7 +22044,7 @@
       <c r="M269" s="339"/>
       <c r="N269" s="340">
         <f>V266+S266+Q266+N266+L266</f>
-        <v>13161655.24</v>
+        <v>13409847.187000001</v>
       </c>
       <c r="O269" s="341"/>
       <c r="R269" s="310"/>
@@ -22336,7 +22455,7 @@
       <c r="V295"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="F262:H262"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -22345,6 +22464,11 @@
     <mergeCell ref="L90:M91"/>
     <mergeCell ref="O97:O98"/>
     <mergeCell ref="P97:P98"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22358,8 +22482,8 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO    2023       " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="117">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -309,13 +309,7 @@
     <t>ENTRADAS DEL MES DE       M A R Z O             2 0 2 3</t>
   </si>
   <si>
-    <t xml:space="preserve">DISTRIBUIDORA PEPE FILETE DE PEUBLA </t>
-  </si>
-  <si>
     <t>CANALES 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALFONSO ESPINDORA </t>
   </si>
   <si>
     <t>CANALES 250</t>
@@ -368,6 +362,24 @@
   <si>
     <t>A-336988</t>
   </si>
+  <si>
+    <t>ABASTECEDORA ROEL</t>
+  </si>
+  <si>
+    <t>QUESO MANCHEGO GOUDA</t>
+  </si>
+  <si>
+    <t>FOLIO CENTAL 11298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA PEPE FILETE  </t>
+  </si>
+  <si>
+    <t>PULPA DE ESPALDILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA PEPE FILETE DE PUEBLA </t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +392,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +793,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF660033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1609,7 +1629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="415">
+  <cellXfs count="416">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2654,6 +2674,18 @@
     <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2699,9 +2731,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2723,22 +2752,16 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2750,6 +2773,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF660033"/>
       <color rgb="FF66CCFF"/>
@@ -3067,49 +3091,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="392" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="389" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="389"/>
+      <c r="S1" s="393" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="393"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="391" t="s">
+      <c r="W1" s="395" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="392"/>
+      <c r="X1" s="396"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -3117,8 +3141,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="390"/>
-      <c r="T2" s="390"/>
+      <c r="S2" s="394"/>
+      <c r="T2" s="394"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -3163,10 +3187,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="393" t="s">
+      <c r="O3" s="397" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="394"/>
+      <c r="P3" s="398"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -6487,8 +6511,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="395"/>
-      <c r="M90" s="396"/>
+      <c r="L90" s="399"/>
+      <c r="M90" s="400"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6520,8 +6544,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="395"/>
-      <c r="M91" s="396"/>
+      <c r="L91" s="399"/>
+      <c r="M91" s="400"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6724,8 +6748,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="397"/>
-      <c r="P97" s="399"/>
+      <c r="O97" s="401"/>
+      <c r="P97" s="403"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -6757,8 +6781,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="398"/>
-      <c r="P98" s="400"/>
+      <c r="O98" s="402"/>
+      <c r="P98" s="404"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -12150,11 +12174,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="386" t="s">
+      <c r="F262" s="390" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="386"/>
-      <c r="H262" s="387"/>
+      <c r="G262" s="390"/>
+      <c r="H262" s="391"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -12749,9 +12773,9 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12780,49 +12804,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="392" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="389" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="389"/>
+      <c r="S1" s="393" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="393"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="391" t="s">
+      <c r="W1" s="395" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="392"/>
+      <c r="X1" s="396"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -12830,8 +12854,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="390"/>
-      <c r="T2" s="390"/>
+      <c r="S2" s="394"/>
+      <c r="T2" s="394"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -12876,10 +12900,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="393" t="s">
+      <c r="O3" s="397" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="394"/>
+      <c r="P3" s="398"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -13145,7 +13169,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="56">
         <v>58</v>
@@ -13204,7 +13228,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="56">
         <v>58</v>
@@ -13263,7 +13287,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="56">
         <v>53</v>
@@ -13320,7 +13344,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="73">
         <v>53</v>
@@ -13335,7 +13359,9 @@
       <c r="G11" s="58">
         <v>44973</v>
       </c>
-      <c r="H11" s="414"/>
+      <c r="H11" s="389">
+        <v>41438</v>
+      </c>
       <c r="I11" s="60">
         <v>11250</v>
       </c>
@@ -13352,8 +13378,12 @@
         <f t="shared" si="2"/>
         <v>568125</v>
       </c>
-      <c r="O11" s="378"/>
-      <c r="P11" s="379"/>
+      <c r="O11" s="378" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="379">
+        <v>44988</v>
+      </c>
       <c r="Q11" s="64"/>
       <c r="R11" s="65"/>
       <c r="S11" s="47"/>
@@ -13373,7 +13403,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="56">
         <v>53</v>
@@ -13388,7 +13418,9 @@
       <c r="G12" s="58">
         <v>44974</v>
       </c>
-      <c r="H12" s="414"/>
+      <c r="H12" s="389">
+        <v>41459</v>
+      </c>
       <c r="I12" s="60">
         <v>11960</v>
       </c>
@@ -13405,8 +13437,12 @@
         <f t="shared" si="2"/>
         <v>588432</v>
       </c>
-      <c r="O12" s="378"/>
-      <c r="P12" s="379"/>
+      <c r="O12" s="378" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="379">
+        <v>44988</v>
+      </c>
       <c r="Q12" s="64"/>
       <c r="R12" s="65"/>
       <c r="S12" s="47"/>
@@ -13426,7 +13462,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="56">
         <v>53</v>
@@ -13441,7 +13477,9 @@
       <c r="G13" s="58">
         <v>44976</v>
       </c>
-      <c r="H13" s="414"/>
+      <c r="H13" s="389">
+        <v>41479</v>
+      </c>
       <c r="I13" s="60">
         <v>24090</v>
       </c>
@@ -13458,8 +13496,12 @@
         <f t="shared" si="2"/>
         <v>1185228</v>
       </c>
-      <c r="O13" s="378"/>
-      <c r="P13" s="379"/>
+      <c r="O13" s="378" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="379">
+        <v>44992</v>
+      </c>
       <c r="Q13" s="64"/>
       <c r="R13" s="65"/>
       <c r="S13" s="47"/>
@@ -13479,7 +13521,7 @@
         <v>80</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="56">
         <v>50</v>
@@ -13538,7 +13580,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" s="56">
         <v>53</v>
@@ -13553,7 +13595,7 @@
       <c r="G15" s="58">
         <v>44979</v>
       </c>
-      <c r="H15" s="414">
+      <c r="H15" s="389">
         <v>41504</v>
       </c>
       <c r="I15" s="60">
@@ -13597,7 +13639,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="56">
         <v>53</v>
@@ -13612,7 +13654,9 @@
       <c r="G16" s="58">
         <v>44981</v>
       </c>
-      <c r="H16" s="414"/>
+      <c r="H16" s="389">
+        <v>41530</v>
+      </c>
       <c r="I16" s="60">
         <v>22980</v>
       </c>
@@ -13629,8 +13673,12 @@
         <f t="shared" si="2"/>
         <v>1137510</v>
       </c>
-      <c r="O16" s="378"/>
-      <c r="P16" s="379"/>
+      <c r="O16" s="378" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="379">
+        <v>44995</v>
+      </c>
       <c r="Q16" s="64"/>
       <c r="R16" s="65"/>
       <c r="S16" s="47"/>
@@ -13650,7 +13698,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="56">
         <v>53</v>
@@ -13665,7 +13713,7 @@
       <c r="G17" s="58">
         <v>44983</v>
       </c>
-      <c r="H17" s="414"/>
+      <c r="H17" s="389"/>
       <c r="I17" s="60">
         <v>26330</v>
       </c>
@@ -15263,7 +15311,7 @@
       <c r="A62" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="401" t="s">
+      <c r="B62" s="386" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="165"/>
@@ -15276,7 +15324,7 @@
         <v>44970</v>
       </c>
       <c r="H62" s="164" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I62" s="155">
         <v>3559.63</v>
@@ -15294,10 +15342,10 @@
         <f t="shared" si="2"/>
         <v>81871.490000000005</v>
       </c>
-      <c r="O62" s="412" t="s">
+      <c r="O62" s="387" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="413">
+      <c r="P62" s="388">
         <v>44992</v>
       </c>
       <c r="Q62" s="166"/>
@@ -15375,7 +15423,7 @@
         <v>44971</v>
       </c>
       <c r="H64" s="171" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I64" s="155">
         <v>2762.8</v>
@@ -15407,11 +15455,11 @@
       <c r="V64" s="50"/>
     </row>
     <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="402" t="s">
+      <c r="A65" s="405" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="167" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="173"/>
       <c r="D65" s="174"/>
@@ -15419,11 +15467,11 @@
       <c r="F65" s="155">
         <v>1224</v>
       </c>
-      <c r="G65" s="404">
+      <c r="G65" s="407">
         <v>44973</v>
       </c>
-      <c r="H65" s="406" t="s">
-        <v>112</v>
+      <c r="H65" s="409" t="s">
+        <v>110</v>
       </c>
       <c r="I65" s="155">
         <v>1224</v>
@@ -15441,10 +15489,10 @@
         <f>K65*I65</f>
         <v>82008</v>
       </c>
-      <c r="O65" s="408" t="s">
+      <c r="O65" s="411" t="s">
         <v>21</v>
       </c>
-      <c r="P65" s="409">
+      <c r="P65" s="413">
         <v>44992</v>
       </c>
       <c r="Q65" s="166"/>
@@ -15455,7 +15503,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="403"/>
+      <c r="A66" s="406"/>
       <c r="B66" s="167" t="s">
         <v>24</v>
       </c>
@@ -15465,8 +15513,8 @@
       <c r="F66" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G66" s="405"/>
-      <c r="H66" s="407"/>
+      <c r="G66" s="408"/>
+      <c r="H66" s="410"/>
       <c r="I66" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -15483,8 +15531,8 @@
         <f>K66*I66</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O66" s="410"/>
-      <c r="P66" s="411"/>
+      <c r="O66" s="412"/>
+      <c r="P66" s="414"/>
       <c r="Q66" s="166"/>
       <c r="R66" s="125"/>
       <c r="S66" s="176"/>
@@ -15493,28 +15541,47 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="101"/>
-      <c r="B67" s="167"/>
+      <c r="A67" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="167" t="s">
+        <v>115</v>
+      </c>
       <c r="C67" s="170"/>
       <c r="D67" s="160"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="155"/>
+      <c r="F67" s="155">
+        <f>217.4+131.8</f>
+        <v>349.20000000000005</v>
+      </c>
+      <c r="G67" s="156">
+        <v>44973</v>
+      </c>
+      <c r="H67" s="59">
+        <v>41431</v>
+      </c>
+      <c r="I67" s="155">
+        <v>349.2</v>
+      </c>
       <c r="J67" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K67" s="40"/>
+      <c r="K67" s="40">
+        <v>55</v>
+      </c>
       <c r="L67" s="61"/>
       <c r="M67" s="61"/>
       <c r="N67" s="42">
         <f>K67*I67</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="169"/>
-      <c r="P67" s="58"/>
+        <v>19206</v>
+      </c>
+      <c r="O67" s="382" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" s="384">
+        <v>44988</v>
+      </c>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16215,8 +16282,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="395"/>
-      <c r="M90" s="396"/>
+      <c r="L90" s="399"/>
+      <c r="M90" s="400"/>
       <c r="N90" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16248,8 +16315,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="395"/>
-      <c r="M91" s="396"/>
+      <c r="L91" s="399"/>
+      <c r="M91" s="400"/>
       <c r="N91" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16452,8 +16519,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O97" s="397"/>
-      <c r="P97" s="399"/>
+      <c r="O97" s="401"/>
+      <c r="P97" s="403"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -16485,8 +16552,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O98" s="398"/>
-      <c r="P98" s="400"/>
+      <c r="O98" s="402"/>
+      <c r="P98" s="404"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -21878,14 +21945,14 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="386" t="s">
+      <c r="F262" s="390" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="386"/>
-      <c r="H262" s="387"/>
+      <c r="G262" s="390"/>
+      <c r="H262" s="391"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
-        <v>266024.20899999997</v>
+        <v>266373.40899999999</v>
       </c>
       <c r="J262" s="304"/>
       <c r="K262" s="300"/>
@@ -21984,7 +22051,7 @@
       <c r="M266" s="322"/>
       <c r="N266" s="323">
         <f>SUM(N4:N265)</f>
-        <v>13409847.187000001</v>
+        <v>13429053.187000001</v>
       </c>
       <c r="O266" s="324"/>
       <c r="Q266" s="325">
@@ -22044,7 +22111,7 @@
       <c r="M269" s="339"/>
       <c r="N269" s="340">
         <f>V266+S266+Q266+N266+L266</f>
-        <v>13409847.187000001</v>
+        <v>13429053.187000001</v>
       </c>
       <c r="O269" s="341"/>
       <c r="R269" s="310"/>
@@ -22482,8 +22549,11 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22491,8 +22561,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -22512,49 +22582,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="392" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="389" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="389"/>
+      <c r="S1" s="393" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="393"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="391" t="s">
+      <c r="W1" s="395" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="392"/>
+      <c r="X1" s="396"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
+      <c r="A2" s="392"/>
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -22562,8 +22632,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="390"/>
-      <c r="T2" s="390"/>
+      <c r="S2" s="394"/>
+      <c r="T2" s="394"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -22608,10 +22678,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="393" t="s">
+      <c r="O3" s="397" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="394"/>
+      <c r="P3" s="398"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -22635,13 +22705,13 @@
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="369" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>94</v>
-      </c>
       <c r="C4" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="33">
         <v>50</v>
@@ -22656,7 +22726,9 @@
       <c r="G4" s="36">
         <v>44987</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="37">
+        <v>41588</v>
+      </c>
       <c r="I4" s="38">
         <v>12650</v>
       </c>
@@ -22673,8 +22745,12 @@
         <f t="shared" ref="N4:N117" si="2">K4*I4</f>
         <v>569250</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
+      <c r="O4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="44">
+        <v>45001</v>
+      </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="46"/>
       <c r="S4" s="47"/>
@@ -22688,13 +22764,13 @@
     </row>
     <row r="5" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="56">
         <v>50</v>
@@ -22709,7 +22785,9 @@
       <c r="G5" s="58">
         <v>44988</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="59">
+        <v>41598</v>
+      </c>
       <c r="I5" s="60">
         <v>25960</v>
       </c>
@@ -22726,8 +22804,12 @@
         <f>K5*I5</f>
         <v>1168200</v>
       </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
+      <c r="O5" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="63">
+        <v>45002</v>
+      </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="65"/>
       <c r="S5" s="47"/>
@@ -22740,11 +22822,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="368" t="s">
-        <v>95</v>
+      <c r="A6" s="415" t="s">
+        <v>81</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="55"/>
       <c r="D6" s="56"/>
@@ -22758,7 +22840,9 @@
       <c r="G6" s="58">
         <v>44989</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="59">
+        <v>2687</v>
+      </c>
       <c r="I6" s="60">
         <v>10091</v>
       </c>
@@ -22767,16 +22851,20 @@
         <v>0</v>
       </c>
       <c r="K6" s="40">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="61"/>
       <c r="N6" s="42">
         <f>K6*I6</f>
-        <v>474277</v>
-      </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
+        <v>444004</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="63">
+        <v>44999</v>
+      </c>
       <c r="Q6" s="64"/>
       <c r="R6" s="65"/>
       <c r="S6" s="47"/>
@@ -22789,8 +22877,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="369" t="s">
-        <v>93</v>
+      <c r="A7" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>58</v>
@@ -22839,10 +22927,10 @@
     </row>
     <row r="8" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="56"/>
@@ -22887,8 +22975,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71" t="s">
-        <v>93</v>
+      <c r="A9" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>58</v>
@@ -22936,8 +23024,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
-        <v>93</v>
+      <c r="A10" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>58</v>
@@ -24625,16 +24713,14 @@
       <c r="U56" s="49"/>
       <c r="V56" s="50"/>
     </row>
-    <row r="57" spans="1:24" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A57" s="152" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="154" t="s">
-        <v>74</v>
-      </c>
+      <c r="C57" s="154"/>
       <c r="D57" s="116"/>
       <c r="E57" s="56"/>
       <c r="F57" s="155"/>
@@ -24823,33 +24909,47 @@
       <c r="U62" s="49"/>
       <c r="V62" s="50"/>
     </row>
-    <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="99"/>
+    <row r="63" spans="1:24" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="99" t="s">
+        <v>111</v>
+      </c>
       <c r="B63" s="167" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="381" t="s">
-        <v>84</v>
+        <v>112</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>113</v>
       </c>
       <c r="D63" s="160"/>
       <c r="E63" s="56"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="156"/>
+      <c r="F63" s="155">
+        <v>419.9</v>
+      </c>
+      <c r="G63" s="156">
+        <v>44993</v>
+      </c>
       <c r="H63" s="168"/>
-      <c r="I63" s="155"/>
+      <c r="I63" s="155">
+        <v>419.9</v>
+      </c>
       <c r="J63" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K63" s="40"/>
+      <c r="K63" s="40">
+        <v>132</v>
+      </c>
       <c r="L63" s="61"/>
       <c r="M63" s="61"/>
       <c r="N63" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="169"/>
-      <c r="P63" s="120"/>
+        <v>55426.799999999996</v>
+      </c>
+      <c r="O63" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P63" s="120">
+        <v>45001</v>
+      </c>
       <c r="Q63" s="166"/>
       <c r="R63" s="125"/>
       <c r="S63" s="48"/>
@@ -25672,8 +25772,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="395"/>
-      <c r="M90" s="396"/>
+      <c r="L90" s="399"/>
+      <c r="M90" s="400"/>
       <c r="N90" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25705,8 +25805,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="395"/>
-      <c r="M91" s="396"/>
+      <c r="L91" s="399"/>
+      <c r="M91" s="400"/>
       <c r="N91" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25909,8 +26009,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O97" s="397"/>
-      <c r="P97" s="399"/>
+      <c r="O97" s="401"/>
+      <c r="P97" s="403"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -25942,8 +26042,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O98" s="398"/>
-      <c r="P98" s="400"/>
+      <c r="O98" s="402"/>
+      <c r="P98" s="404"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -31335,14 +31435,14 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="386" t="s">
+      <c r="F262" s="390" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="386"/>
-      <c r="H262" s="387"/>
+      <c r="G262" s="390"/>
+      <c r="H262" s="391"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
-        <v>150741</v>
+        <v>151160.9</v>
       </c>
       <c r="J262" s="304"/>
       <c r="K262" s="300"/>
@@ -31441,7 +31541,7 @@
       <c r="M266" s="322"/>
       <c r="N266" s="323">
         <f>SUM(N4:N265)</f>
-        <v>6713327</v>
+        <v>6738480.7999999998</v>
       </c>
       <c r="O266" s="324"/>
       <c r="Q266" s="325">
@@ -31501,7 +31601,7 @@
       <c r="M269" s="339"/>
       <c r="N269" s="340">
         <f>V266+S266+Q266+N266+L266</f>
-        <v>6713327</v>
+        <v>6738480.7999999998</v>
       </c>
       <c r="O269" s="341"/>
       <c r="R269" s="310"/>
@@ -31929,11 +32029,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="40.85546875" style="334" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO    2023       " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="136">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -379,6 +379,63 @@
   </si>
   <si>
     <t xml:space="preserve">DISTRIBUIDORA PEPE FILETE DE PUEBLA </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>chorizo blanco</t>
+  </si>
+  <si>
+    <t>A-337151</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>Transferencia NLP   S</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11288</t>
+  </si>
+  <si>
+    <t>YORK</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11286</t>
+  </si>
+  <si>
+    <t>A-337116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMERICANO </t>
+  </si>
+  <si>
+    <t>PATA</t>
+  </si>
+  <si>
+    <t>Transferencia NLP S</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11282</t>
+  </si>
+  <si>
+    <t>A-337054</t>
+  </si>
+  <si>
+    <t>CHORIZO B</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11277</t>
+  </si>
+  <si>
+    <t>A-336984</t>
   </si>
 </sst>
 </file>
@@ -892,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1624,12 +1681,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="416">
+  <cellXfs count="467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2686,6 +2934,12 @@
     <xf numFmtId="1" fontId="29" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2761,7 +3015,154 @@
     <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2773,8 +3174,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF660033"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
@@ -3091,49 +3492,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="393" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="393"/>
+      <c r="S1" s="395" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="395"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="395" t="s">
+      <c r="W1" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="396"/>
+      <c r="X1" s="398"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="392"/>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
+      <c r="A2" s="394"/>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -3141,8 +3542,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="394"/>
-      <c r="T2" s="394"/>
+      <c r="S2" s="396"/>
+      <c r="T2" s="396"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -3187,10 +3588,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="397" t="s">
+      <c r="O3" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="398"/>
+      <c r="P3" s="400"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -6511,8 +6912,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="399"/>
-      <c r="M90" s="400"/>
+      <c r="L90" s="401"/>
+      <c r="M90" s="402"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6544,8 +6945,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="399"/>
-      <c r="M91" s="400"/>
+      <c r="L91" s="401"/>
+      <c r="M91" s="402"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6748,8 +7149,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="401"/>
-      <c r="P97" s="403"/>
+      <c r="O97" s="403"/>
+      <c r="P97" s="405"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -6781,8 +7182,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="402"/>
-      <c r="P98" s="404"/>
+      <c r="O98" s="404"/>
+      <c r="P98" s="406"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -12174,11 +12575,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="390" t="s">
+      <c r="F262" s="392" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="390"/>
-      <c r="H262" s="391"/>
+      <c r="G262" s="392"/>
+      <c r="H262" s="393"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -12771,18 +13172,18 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:X295"/>
+  <dimension ref="A1:X304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="296" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
@@ -12804,49 +13205,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="394" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="393" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="393"/>
+      <c r="S1" s="395" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="395"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="395" t="s">
+      <c r="W1" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="396"/>
+      <c r="X1" s="398"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="392"/>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
+      <c r="A2" s="394"/>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -12854,8 +13255,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="394"/>
-      <c r="T2" s="394"/>
+      <c r="S2" s="396"/>
+      <c r="T2" s="396"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -12900,10 +13301,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="397" t="s">
+      <c r="O3" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="398"/>
+      <c r="P3" s="400"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -12955,7 +13356,7 @@
         <v>20908.400000000001</v>
       </c>
       <c r="J4" s="377">
-        <f t="shared" ref="J4:J123" si="1">I4-F4</f>
+        <f t="shared" ref="J4:J132" si="1">I4-F4</f>
         <v>98.400000000001455</v>
       </c>
       <c r="K4" s="40">
@@ -12964,7 +13365,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42">
-        <f t="shared" ref="N4:N117" si="2">K4*I4</f>
+        <f t="shared" ref="N4:N126" si="2">K4*I4</f>
         <v>1160416.2000000002</v>
       </c>
       <c r="O4" s="43" t="s">
@@ -13713,7 +14114,9 @@
       <c r="G17" s="58">
         <v>44983</v>
       </c>
-      <c r="H17" s="389"/>
+      <c r="H17" s="389">
+        <v>41554</v>
+      </c>
       <c r="I17" s="60">
         <v>26330</v>
       </c>
@@ -13730,8 +14133,12 @@
         <f t="shared" si="2"/>
         <v>1237510</v>
       </c>
-      <c r="O17" s="378"/>
-      <c r="P17" s="379"/>
+      <c r="O17" s="378" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="379">
+        <v>44998</v>
+      </c>
       <c r="Q17" s="64"/>
       <c r="R17" s="65"/>
       <c r="S17" s="47"/>
@@ -15454,46 +15861,48 @@
       <c r="U64" s="49"/>
       <c r="V64" s="50"/>
     </row>
-    <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="405" t="s">
+    <row r="65" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="142" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="173"/>
-      <c r="D65" s="174"/>
+        <v>133</v>
+      </c>
+      <c r="C65" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="160"/>
       <c r="E65" s="56"/>
       <c r="F65" s="155">
-        <v>1224</v>
-      </c>
-      <c r="G65" s="407">
-        <v>44973</v>
-      </c>
-      <c r="H65" s="409" t="s">
-        <v>110</v>
+        <v>54193</v>
+      </c>
+      <c r="G65" s="147">
+        <v>44971</v>
+      </c>
+      <c r="H65" s="180" t="s">
+        <v>135</v>
       </c>
       <c r="I65" s="155">
-        <v>1224</v>
+        <v>54193</v>
       </c>
       <c r="J65" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K65" s="40">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="L65" s="61"/>
       <c r="M65" s="61"/>
       <c r="N65" s="42">
-        <f>K65*I65</f>
-        <v>82008</v>
-      </c>
-      <c r="O65" s="411" t="s">
-        <v>21</v>
-      </c>
-      <c r="P65" s="413">
-        <v>44992</v>
+        <f t="shared" si="2"/>
+        <v>54193</v>
+      </c>
+      <c r="O65" s="466" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" s="450">
+        <v>45000</v>
       </c>
       <c r="Q65" s="166"/>
       <c r="R65" s="125"/>
@@ -15502,86 +15911,85 @@
       <c r="U65" s="49"/>
       <c r="V65" s="50"/>
     </row>
-    <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="406"/>
+    <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="407" t="s">
+        <v>82</v>
+      </c>
       <c r="B66" s="167" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="170"/>
+        <v>109</v>
+      </c>
+      <c r="C66" s="173"/>
       <c r="D66" s="174"/>
       <c r="E66" s="56"/>
       <c r="F66" s="155">
-        <v>902.95899999999995</v>
-      </c>
-      <c r="G66" s="408"/>
-      <c r="H66" s="410"/>
+        <v>1224</v>
+      </c>
+      <c r="G66" s="409">
+        <v>44973</v>
+      </c>
+      <c r="H66" s="411" t="s">
+        <v>110</v>
+      </c>
       <c r="I66" s="155">
-        <v>902.95899999999995</v>
+        <v>1224</v>
       </c>
       <c r="J66" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K66" s="40">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="L66" s="61"/>
       <c r="M66" s="61"/>
       <c r="N66" s="42">
         <f>K66*I66</f>
-        <v>20768.056999999997</v>
-      </c>
-      <c r="O66" s="412"/>
-      <c r="P66" s="414"/>
+        <v>82008</v>
+      </c>
+      <c r="O66" s="413" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="415">
+        <v>44992</v>
+      </c>
       <c r="Q66" s="166"/>
       <c r="R66" s="125"/>
-      <c r="S66" s="176"/>
-      <c r="T66" s="177"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
       <c r="U66" s="49"/>
       <c r="V66" s="50"/>
     </row>
-    <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="101" t="s">
-        <v>114</v>
-      </c>
+    <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="408"/>
       <c r="B67" s="167" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C67" s="170"/>
-      <c r="D67" s="160"/>
+      <c r="D67" s="174"/>
       <c r="E67" s="56"/>
       <c r="F67" s="155">
-        <f>217.4+131.8</f>
-        <v>349.20000000000005</v>
-      </c>
-      <c r="G67" s="156">
-        <v>44973</v>
-      </c>
-      <c r="H67" s="59">
-        <v>41431</v>
-      </c>
+        <v>902.95899999999995</v>
+      </c>
+      <c r="G67" s="410"/>
+      <c r="H67" s="412"/>
       <c r="I67" s="155">
-        <v>349.2</v>
+        <v>902.95899999999995</v>
       </c>
       <c r="J67" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K67" s="40">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="L67" s="61"/>
       <c r="M67" s="61"/>
       <c r="N67" s="42">
         <f>K67*I67</f>
-        <v>19206</v>
-      </c>
-      <c r="O67" s="382" t="s">
-        <v>78</v>
-      </c>
-      <c r="P67" s="384">
-        <v>44988</v>
-      </c>
+        <v>20768.056999999997</v>
+      </c>
+      <c r="O67" s="414"/>
+      <c r="P67" s="416"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -15589,29 +15997,48 @@
       <c r="U67" s="49"/>
       <c r="V67" s="50"/>
     </row>
-    <row r="68" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="142"/>
-      <c r="B68" s="178"/>
+    <row r="68" spans="1:22" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="167" t="s">
+        <v>115</v>
+      </c>
       <c r="C68" s="179"/>
       <c r="D68" s="160"/>
       <c r="E68" s="56"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="180"/>
-      <c r="I68" s="155"/>
+      <c r="F68" s="155">
+        <f>217.4+131.8</f>
+        <v>349.20000000000005</v>
+      </c>
+      <c r="G68" s="147">
+        <v>44973</v>
+      </c>
+      <c r="H68" s="391">
+        <v>41431</v>
+      </c>
+      <c r="I68" s="155">
+        <v>349.2</v>
+      </c>
       <c r="J68" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K68" s="40"/>
+      <c r="K68" s="40">
+        <v>55</v>
+      </c>
       <c r="L68" s="61"/>
       <c r="M68" s="61"/>
       <c r="N68" s="42">
-        <f t="shared" ref="N68:N71" si="4">K68*I68</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="169"/>
-      <c r="P68" s="58"/>
+        <f>K68*I68</f>
+        <v>19206</v>
+      </c>
+      <c r="O68" s="449" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" s="450">
+        <v>44988</v>
+      </c>
       <c r="Q68" s="166"/>
       <c r="R68" s="125"/>
       <c r="S68" s="176"/>
@@ -15619,29 +16046,49 @@
       <c r="U68" s="49"/>
       <c r="V68" s="50"/>
     </row>
-    <row r="69" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="152"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="181"/>
-      <c r="D69" s="174"/>
+    <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="451" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="435" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="455" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="454"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="164"/>
-      <c r="I69" s="155"/>
+      <c r="F69" s="459">
+        <v>80.7</v>
+      </c>
+      <c r="G69" s="460">
+        <v>44979</v>
+      </c>
+      <c r="H69" s="457" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" s="440">
+        <v>80.7</v>
+      </c>
       <c r="J69" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K69" s="40"/>
+      <c r="K69" s="40">
+        <v>110</v>
+      </c>
       <c r="L69" s="61"/>
       <c r="M69" s="61"/>
       <c r="N69" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="169"/>
-      <c r="P69" s="58"/>
+        <f>K69*I69</f>
+        <v>8877</v>
+      </c>
+      <c r="O69" s="462" t="s">
+        <v>128</v>
+      </c>
+      <c r="P69" s="463">
+        <v>45000</v>
+      </c>
       <c r="Q69" s="166"/>
       <c r="R69" s="125"/>
       <c r="S69" s="176"/>
@@ -15649,29 +16096,37 @@
       <c r="U69" s="49"/>
       <c r="V69" s="50"/>
     </row>
-    <row r="70" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="152"/>
-      <c r="B70" s="167"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="174"/>
+    <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="452"/>
+      <c r="B70" s="453" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="456"/>
+      <c r="D70" s="454"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="156"/>
-      <c r="H70" s="164"/>
-      <c r="I70" s="155"/>
+      <c r="F70" s="459">
+        <v>151.4</v>
+      </c>
+      <c r="G70" s="461"/>
+      <c r="H70" s="458"/>
+      <c r="I70" s="440">
+        <v>151.4</v>
+      </c>
       <c r="J70" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K70" s="40"/>
+      <c r="K70" s="40">
+        <v>60</v>
+      </c>
       <c r="L70" s="61"/>
       <c r="M70" s="61"/>
       <c r="N70" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="158"/>
-      <c r="P70" s="58"/>
+        <f t="shared" ref="N70:N80" si="4">K70*I70</f>
+        <v>9084</v>
+      </c>
+      <c r="O70" s="464"/>
+      <c r="P70" s="465"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -15680,28 +16135,48 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="152"/>
-      <c r="B71" s="167"/>
-      <c r="C71" s="182"/>
-      <c r="D71" s="174"/>
+      <c r="A71" s="433" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="435" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="431" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="429"/>
       <c r="E71" s="56"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="164"/>
-      <c r="I71" s="155"/>
+      <c r="F71" s="155">
+        <v>130.16</v>
+      </c>
+      <c r="G71" s="438">
+        <v>44982</v>
+      </c>
+      <c r="H71" s="442" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" s="440">
+        <v>130.16</v>
+      </c>
       <c r="J71" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K71" s="40"/>
+      <c r="K71" s="40">
+        <v>80</v>
+      </c>
       <c r="L71" s="61"/>
       <c r="M71" s="61"/>
       <c r="N71" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="158"/>
-      <c r="P71" s="58"/>
+        <v>10412.799999999999</v>
+      </c>
+      <c r="O71" s="423" t="s">
+        <v>128</v>
+      </c>
+      <c r="P71" s="424">
+        <v>45000</v>
+      </c>
       <c r="Q71" s="166"/>
       <c r="R71" s="125"/>
       <c r="S71" s="176"/>
@@ -15709,29 +16184,37 @@
       <c r="U71" s="49"/>
       <c r="V71" s="50"/>
     </row>
-    <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="152"/>
-      <c r="B72" s="167"/>
-      <c r="C72" s="170"/>
-      <c r="D72" s="174"/>
+    <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="433"/>
+      <c r="B72" s="435" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="437"/>
+      <c r="D72" s="429"/>
       <c r="E72" s="56"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="156"/>
-      <c r="H72" s="168"/>
-      <c r="I72" s="155"/>
+      <c r="F72" s="155">
+        <v>89.64</v>
+      </c>
+      <c r="G72" s="438"/>
+      <c r="H72" s="443"/>
+      <c r="I72" s="440">
+        <v>89.64</v>
+      </c>
       <c r="J72" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K72" s="40"/>
+      <c r="K72" s="40">
+        <v>70</v>
+      </c>
       <c r="L72" s="61"/>
       <c r="M72" s="61"/>
       <c r="N72" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="158"/>
-      <c r="P72" s="183"/>
+        <f t="shared" si="4"/>
+        <v>6274.8</v>
+      </c>
+      <c r="O72" s="448"/>
+      <c r="P72" s="447"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -15739,29 +16222,37 @@
       <c r="U72" s="49"/>
       <c r="V72" s="50"/>
     </row>
-    <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="152"/>
-      <c r="B73" s="178"/>
-      <c r="C73" s="170"/>
-      <c r="D73" s="170"/>
+    <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="434"/>
+      <c r="B73" s="435" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="432"/>
+      <c r="D73" s="429"/>
       <c r="E73" s="56"/>
-      <c r="F73" s="155"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="168"/>
-      <c r="I73" s="155"/>
+      <c r="F73" s="155">
+        <v>152.78</v>
+      </c>
+      <c r="G73" s="439"/>
+      <c r="H73" s="444"/>
+      <c r="I73" s="440">
+        <v>152.78</v>
+      </c>
       <c r="J73" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K73" s="40"/>
+      <c r="K73" s="40">
+        <v>38</v>
+      </c>
       <c r="L73" s="61"/>
       <c r="M73" s="61"/>
       <c r="N73" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="158"/>
-      <c r="P73" s="183"/>
+        <f t="shared" si="4"/>
+        <v>5805.64</v>
+      </c>
+      <c r="O73" s="425"/>
+      <c r="P73" s="426"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -15769,15 +16260,15 @@
       <c r="U73" s="49"/>
       <c r="V73" s="50"/>
     </row>
-    <row r="74" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="152"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="170"/>
+    <row r="74" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="172"/>
+      <c r="B74" s="167"/>
+      <c r="C74" s="436"/>
       <c r="D74" s="174"/>
       <c r="E74" s="56"/>
       <c r="F74" s="155"/>
       <c r="G74" s="156"/>
-      <c r="H74" s="168"/>
+      <c r="H74" s="441"/>
       <c r="I74" s="155"/>
       <c r="J74" s="39">
         <f t="shared" si="1"/>
@@ -15786,28 +16277,25 @@
       <c r="K74" s="40"/>
       <c r="L74" s="61"/>
       <c r="M74" s="61"/>
-      <c r="N74" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="158"/>
-      <c r="P74" s="183"/>
-      <c r="Q74" s="158"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="445"/>
+      <c r="P74" s="446"/>
+      <c r="Q74" s="166"/>
       <c r="R74" s="125"/>
       <c r="S74" s="176"/>
       <c r="T74" s="177"/>
       <c r="U74" s="49"/>
       <c r="V74" s="50"/>
     </row>
-    <row r="75" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="152"/>
       <c r="B75" s="167"/>
-      <c r="C75" s="170"/>
-      <c r="D75" s="170"/>
+      <c r="C75" s="181"/>
+      <c r="D75" s="174"/>
       <c r="E75" s="56"/>
       <c r="F75" s="155"/>
       <c r="G75" s="156"/>
-      <c r="H75" s="168"/>
+      <c r="H75" s="164"/>
       <c r="I75" s="155"/>
       <c r="J75" s="39">
         <f t="shared" si="1"/>
@@ -15816,27 +16304,24 @@
       <c r="K75" s="40"/>
       <c r="L75" s="61"/>
       <c r="M75" s="61"/>
-      <c r="N75" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="158"/>
-      <c r="P75" s="183"/>
-      <c r="Q75" s="158"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="427"/>
+      <c r="P75" s="420"/>
+      <c r="Q75" s="166"/>
       <c r="R75" s="125"/>
       <c r="S75" s="176"/>
       <c r="T75" s="177"/>
       <c r="U75" s="49"/>
       <c r="V75" s="50"/>
     </row>
-    <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="152"/>
-      <c r="B76" s="178"/>
-      <c r="C76" s="170"/>
-      <c r="D76" s="170"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="181"/>
+      <c r="D76" s="174"/>
       <c r="E76" s="56"/>
       <c r="F76" s="155"/>
-      <c r="G76" s="185"/>
+      <c r="G76" s="156"/>
       <c r="H76" s="164"/>
       <c r="I76" s="155"/>
       <c r="J76" s="39">
@@ -15846,27 +16331,24 @@
       <c r="K76" s="40"/>
       <c r="L76" s="61"/>
       <c r="M76" s="61"/>
-      <c r="N76" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="158"/>
-      <c r="P76" s="186"/>
-      <c r="Q76" s="158"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="427"/>
+      <c r="P76" s="420"/>
+      <c r="Q76" s="166"/>
       <c r="R76" s="125"/>
       <c r="S76" s="176"/>
       <c r="T76" s="177"/>
       <c r="U76" s="49"/>
       <c r="V76" s="50"/>
     </row>
-    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="152"/>
-      <c r="B77" s="178"/>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="56"/>
       <c r="F77" s="155"/>
-      <c r="G77" s="185"/>
+      <c r="G77" s="156"/>
       <c r="H77" s="164"/>
       <c r="I77" s="155"/>
       <c r="J77" s="39">
@@ -15876,27 +16358,24 @@
       <c r="K77" s="40"/>
       <c r="L77" s="61"/>
       <c r="M77" s="61"/>
-      <c r="N77" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="158"/>
-      <c r="P77" s="186"/>
-      <c r="Q77" s="158"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="427"/>
+      <c r="P77" s="420"/>
+      <c r="Q77" s="166"/>
       <c r="R77" s="125"/>
       <c r="S77" s="176"/>
       <c r="T77" s="177"/>
       <c r="U77" s="49"/>
       <c r="V77" s="50"/>
     </row>
-    <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="152"/>
-      <c r="B78" s="178"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="B78" s="167"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="56"/>
       <c r="F78" s="155"/>
-      <c r="G78" s="185"/>
+      <c r="G78" s="156"/>
       <c r="H78" s="164"/>
       <c r="I78" s="155"/>
       <c r="J78" s="39">
@@ -15906,27 +16385,26 @@
       <c r="K78" s="40"/>
       <c r="L78" s="61"/>
       <c r="M78" s="61"/>
-      <c r="N78" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="158"/>
-      <c r="P78" s="186"/>
-      <c r="Q78" s="158"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="427"/>
+      <c r="P78" s="420"/>
+      <c r="Q78" s="166"/>
       <c r="R78" s="125"/>
       <c r="S78" s="176"/>
       <c r="T78" s="177"/>
       <c r="U78" s="49"/>
       <c r="V78" s="50"/>
     </row>
-    <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="152"/>
-      <c r="B79" s="178"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+    <row r="79" spans="1:22" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="167"/>
+      <c r="C79" s="430"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="56"/>
       <c r="F79" s="155"/>
-      <c r="G79" s="185"/>
+      <c r="G79" s="156"/>
       <c r="H79" s="164"/>
       <c r="I79" s="155"/>
       <c r="J79" s="39">
@@ -15937,123 +16415,153 @@
       <c r="L79" s="61"/>
       <c r="M79" s="61"/>
       <c r="N79" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="158"/>
-      <c r="P79" s="186"/>
-      <c r="Q79" s="158"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="419"/>
+      <c r="P79" s="420"/>
+      <c r="Q79" s="166"/>
       <c r="R79" s="125"/>
       <c r="S79" s="176"/>
       <c r="T79" s="177"/>
       <c r="U79" s="49"/>
       <c r="V79" s="50"/>
     </row>
-    <row r="80" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="152"/>
-      <c r="B80" s="167"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="174"/>
+    <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="407" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="428" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="431" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="429"/>
       <c r="E80" s="56"/>
-      <c r="F80" s="155"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="168"/>
-      <c r="I80" s="155"/>
+      <c r="F80" s="155">
+        <v>108.66</v>
+      </c>
+      <c r="G80" s="156">
+        <v>44985</v>
+      </c>
+      <c r="H80" s="417" t="s">
+        <v>119</v>
+      </c>
+      <c r="I80" s="155">
+        <v>108.66</v>
+      </c>
       <c r="J80" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K80" s="40"/>
+      <c r="K80" s="40">
+        <v>60</v>
+      </c>
       <c r="L80" s="61"/>
       <c r="M80" s="61"/>
       <c r="N80" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O80" s="158"/>
-      <c r="P80" s="183"/>
-      <c r="Q80" s="158"/>
+        <f t="shared" si="4"/>
+        <v>6519.5999999999995</v>
+      </c>
+      <c r="O80" s="423" t="s">
+        <v>121</v>
+      </c>
+      <c r="P80" s="424">
+        <v>45000</v>
+      </c>
+      <c r="Q80" s="166"/>
       <c r="R80" s="125"/>
       <c r="S80" s="176"/>
       <c r="T80" s="177"/>
       <c r="U80" s="49"/>
       <c r="V80" s="50"/>
     </row>
-    <row r="81" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="152"/>
-      <c r="B81" s="167"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="187"/>
+    <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="408"/>
+      <c r="B81" s="428" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="432"/>
+      <c r="D81" s="429"/>
       <c r="E81" s="56"/>
-      <c r="F81" s="155"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="168"/>
-      <c r="I81" s="155"/>
+      <c r="F81" s="155">
+        <v>76.94</v>
+      </c>
+      <c r="G81" s="156">
+        <v>44985</v>
+      </c>
+      <c r="H81" s="418"/>
+      <c r="I81" s="155">
+        <v>76.94</v>
+      </c>
       <c r="J81" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K81" s="81"/>
+      <c r="K81" s="40">
+        <v>80</v>
+      </c>
       <c r="L81" s="61"/>
       <c r="M81" s="61"/>
       <c r="N81" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O81" s="158"/>
-      <c r="P81" s="183"/>
-      <c r="Q81" s="158"/>
+        <v>6155.2</v>
+      </c>
+      <c r="O81" s="425"/>
+      <c r="P81" s="426"/>
+      <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
       <c r="T81" s="177"/>
       <c r="U81" s="49"/>
       <c r="V81" s="50"/>
     </row>
-    <row r="82" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="152"/>
-      <c r="B82" s="167"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="187"/>
+      <c r="B82" s="178"/>
+      <c r="C82" s="173"/>
+      <c r="D82" s="170"/>
       <c r="E82" s="56"/>
       <c r="F82" s="155"/>
       <c r="G82" s="156"/>
-      <c r="H82" s="164"/>
+      <c r="H82" s="168"/>
       <c r="I82" s="155"/>
       <c r="J82" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K82" s="81"/>
+      <c r="K82" s="40"/>
       <c r="L82" s="61"/>
       <c r="M82" s="61"/>
       <c r="N82" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O82" s="158"/>
-      <c r="P82" s="186"/>
-      <c r="Q82" s="158"/>
+      <c r="O82" s="421"/>
+      <c r="P82" s="422"/>
+      <c r="Q82" s="166"/>
       <c r="R82" s="125"/>
       <c r="S82" s="176"/>
       <c r="T82" s="177"/>
       <c r="U82" s="49"/>
       <c r="V82" s="50"/>
     </row>
-    <row r="83" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="152"/>
-      <c r="B83" s="167"/>
+      <c r="B83" s="184"/>
       <c r="C83" s="170"/>
-      <c r="D83" s="187"/>
+      <c r="D83" s="174"/>
       <c r="E83" s="56"/>
       <c r="F83" s="155"/>
       <c r="G83" s="156"/>
-      <c r="H83" s="164"/>
+      <c r="H83" s="168"/>
       <c r="I83" s="155"/>
       <c r="J83" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K83" s="81"/>
+      <c r="K83" s="40"/>
       <c r="L83" s="61"/>
       <c r="M83" s="61"/>
       <c r="N83" s="42">
@@ -16061,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="158"/>
-      <c r="P83" s="186"/>
+      <c r="P83" s="183"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -16069,21 +16577,21 @@
       <c r="U83" s="49"/>
       <c r="V83" s="50"/>
     </row>
-    <row r="84" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="152"/>
       <c r="B84" s="167"/>
       <c r="C84" s="170"/>
-      <c r="D84" s="181"/>
+      <c r="D84" s="170"/>
       <c r="E84" s="56"/>
       <c r="F84" s="155"/>
       <c r="G84" s="156"/>
-      <c r="H84" s="164"/>
+      <c r="H84" s="168"/>
       <c r="I84" s="155"/>
       <c r="J84" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K84" s="81"/>
+      <c r="K84" s="40"/>
       <c r="L84" s="61"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
@@ -16091,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="158"/>
-      <c r="P84" s="186"/>
+      <c r="P84" s="183"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -16099,24 +16607,21 @@
       <c r="U84" s="49"/>
       <c r="V84" s="50"/>
     </row>
-    <row r="85" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="152"/>
-      <c r="B85" s="167"/>
+      <c r="B85" s="178"/>
       <c r="C85" s="170"/>
-      <c r="D85" s="181"/>
-      <c r="E85" s="56">
-        <f t="shared" ref="E85:E150" si="5">D85*F85</f>
-        <v>0</v>
-      </c>
+      <c r="D85" s="170"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="155"/>
-      <c r="G85" s="156"/>
+      <c r="G85" s="185"/>
       <c r="H85" s="164"/>
       <c r="I85" s="155"/>
       <c r="J85" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K85" s="81"/>
+      <c r="K85" s="40"/>
       <c r="L85" s="61"/>
       <c r="M85" s="61"/>
       <c r="N85" s="42">
@@ -16132,24 +16637,21 @@
       <c r="U85" s="49"/>
       <c r="V85" s="50"/>
     </row>
-    <row r="86" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="98"/>
-      <c r="B86" s="167"/>
-      <c r="C86" s="188"/>
-      <c r="D86" s="187"/>
-      <c r="E86" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+    <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="152"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="155"/>
-      <c r="G86" s="156"/>
-      <c r="H86" s="168"/>
+      <c r="G86" s="185"/>
+      <c r="H86" s="164"/>
       <c r="I86" s="155"/>
       <c r="J86" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K86" s="81"/>
+      <c r="K86" s="40"/>
       <c r="L86" s="61"/>
       <c r="M86" s="61"/>
       <c r="N86" s="42">
@@ -16157,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="158"/>
-      <c r="P86" s="183"/>
+      <c r="P86" s="186"/>
       <c r="Q86" s="158"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
@@ -16165,24 +16667,21 @@
       <c r="U86" s="49"/>
       <c r="V86" s="50"/>
     </row>
-    <row r="87" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="98"/>
-      <c r="B87" s="167"/>
-      <c r="C87" s="189"/>
-      <c r="D87" s="187"/>
-      <c r="E87" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+    <row r="87" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="152"/>
+      <c r="B87" s="178"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="155"/>
-      <c r="G87" s="156"/>
-      <c r="H87" s="168"/>
+      <c r="G87" s="185"/>
+      <c r="H87" s="164"/>
       <c r="I87" s="155"/>
       <c r="J87" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K87" s="81"/>
+      <c r="K87" s="40"/>
       <c r="L87" s="61"/>
       <c r="M87" s="61"/>
       <c r="N87" s="42">
@@ -16190,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="158"/>
-      <c r="P87" s="190"/>
+      <c r="P87" s="186"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -16198,24 +16697,21 @@
       <c r="U87" s="49"/>
       <c r="V87" s="50"/>
     </row>
-    <row r="88" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="98"/>
-      <c r="B88" s="167"/>
-      <c r="C88" s="187"/>
-      <c r="D88" s="191"/>
-      <c r="E88" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+    <row r="88" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="152"/>
+      <c r="B88" s="178"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="170"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="155"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="168"/>
+      <c r="G88" s="185"/>
+      <c r="H88" s="164"/>
       <c r="I88" s="155"/>
       <c r="J88" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K88" s="81"/>
+      <c r="K88" s="40"/>
       <c r="L88" s="61"/>
       <c r="M88" s="61"/>
       <c r="N88" s="42">
@@ -16223,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="158"/>
-      <c r="P88" s="190"/>
+      <c r="P88" s="186"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -16231,24 +16727,21 @@
       <c r="U88" s="49"/>
       <c r="V88" s="50"/>
     </row>
-    <row r="89" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="110"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="187"/>
-      <c r="D89" s="191"/>
-      <c r="E89" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="60"/>
+    <row r="89" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="152"/>
+      <c r="B89" s="167"/>
+      <c r="C89" s="170"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="155"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="168"/>
+      <c r="I89" s="155"/>
       <c r="J89" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K89" s="81"/>
+      <c r="K89" s="40"/>
       <c r="L89" s="61"/>
       <c r="M89" s="61"/>
       <c r="N89" s="42">
@@ -16256,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="158"/>
-      <c r="P89" s="190"/>
+      <c r="P89" s="183"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -16264,32 +16757,29 @@
       <c r="U89" s="49"/>
       <c r="V89" s="50"/>
     </row>
-    <row r="90" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="110"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="192"/>
-      <c r="D90" s="191"/>
-      <c r="E90" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="60"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="60"/>
+    <row r="90" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="152"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="187"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="156"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="155"/>
       <c r="J90" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="399"/>
-      <c r="M90" s="400"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
       <c r="N90" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O90" s="158"/>
-      <c r="P90" s="190"/>
+      <c r="P90" s="183"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="125"/>
       <c r="S90" s="176"/>
@@ -16297,32 +16787,29 @@
       <c r="U90" s="49"/>
       <c r="V90" s="50"/>
     </row>
-    <row r="91" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="110"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="182"/>
-      <c r="D91" s="191"/>
-      <c r="E91" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="60"/>
+    <row r="91" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="152"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="187"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="155"/>
+      <c r="G91" s="156"/>
+      <c r="H91" s="164"/>
+      <c r="I91" s="155"/>
       <c r="J91" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="399"/>
-      <c r="M91" s="400"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
       <c r="N91" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O91" s="158"/>
-      <c r="P91" s="190"/>
+      <c r="P91" s="186"/>
       <c r="Q91" s="158"/>
       <c r="R91" s="125"/>
       <c r="S91" s="176"/>
@@ -16330,32 +16817,29 @@
       <c r="U91" s="49"/>
       <c r="V91" s="50"/>
     </row>
-    <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="193"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="194"/>
-      <c r="D92" s="191"/>
-      <c r="E92" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="60"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="60"/>
+    <row r="92" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="152"/>
+      <c r="B92" s="167"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="187"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="155"/>
+      <c r="G92" s="156"/>
+      <c r="H92" s="164"/>
+      <c r="I92" s="155"/>
       <c r="J92" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K92" s="81"/>
-      <c r="L92" s="195"/>
-      <c r="M92" s="195"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
       <c r="N92" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O92" s="158"/>
-      <c r="P92" s="190"/>
+      <c r="P92" s="186"/>
       <c r="Q92" s="158"/>
       <c r="R92" s="125"/>
       <c r="S92" s="176"/>
@@ -16363,32 +16847,29 @@
       <c r="U92" s="49"/>
       <c r="V92" s="50"/>
     </row>
-    <row r="93" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="196"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="191"/>
-      <c r="E93" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="60"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="60"/>
+    <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="152"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="170"/>
+      <c r="D93" s="181"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="155"/>
+      <c r="G93" s="156"/>
+      <c r="H93" s="164"/>
+      <c r="I93" s="155"/>
       <c r="J93" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K93" s="81"/>
-      <c r="L93" s="195"/>
-      <c r="M93" s="195"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
       <c r="N93" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O93" s="158"/>
-      <c r="P93" s="190"/>
+      <c r="P93" s="186"/>
       <c r="Q93" s="158"/>
       <c r="R93" s="125"/>
       <c r="S93" s="176"/>
@@ -16396,19 +16877,19 @@
       <c r="U93" s="49"/>
       <c r="V93" s="50"/>
     </row>
-    <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="101"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="191"/>
+    <row r="94" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="152"/>
+      <c r="B94" s="167"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="181"/>
       <c r="E94" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="60"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="60"/>
+        <f t="shared" ref="E94:E159" si="5">D94*F94</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="155"/>
+      <c r="G94" s="156"/>
+      <c r="H94" s="164"/>
+      <c r="I94" s="155"/>
       <c r="J94" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16421,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="158"/>
-      <c r="P94" s="190"/>
+      <c r="P94" s="186"/>
       <c r="Q94" s="158"/>
       <c r="R94" s="125"/>
       <c r="S94" s="176"/>
@@ -16429,19 +16910,19 @@
       <c r="U94" s="49"/>
       <c r="V94" s="50"/>
     </row>
-    <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="101"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="191"/>
-      <c r="D95" s="191"/>
+    <row r="95" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="98"/>
+      <c r="B95" s="167"/>
+      <c r="C95" s="188"/>
+      <c r="D95" s="187"/>
       <c r="E95" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="60"/>
+      <c r="F95" s="155"/>
+      <c r="G95" s="156"/>
+      <c r="H95" s="168"/>
+      <c r="I95" s="155"/>
       <c r="J95" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16454,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="158"/>
-      <c r="P95" s="190"/>
+      <c r="P95" s="183"/>
       <c r="Q95" s="158"/>
       <c r="R95" s="125"/>
       <c r="S95" s="176"/>
@@ -16462,19 +16943,19 @@
       <c r="U95" s="49"/>
       <c r="V95" s="50"/>
     </row>
-    <row r="96" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="101"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="191"/>
-      <c r="D96" s="191"/>
+    <row r="96" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="98"/>
+      <c r="B96" s="167"/>
+      <c r="C96" s="189"/>
+      <c r="D96" s="187"/>
       <c r="E96" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F96" s="60"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="60"/>
+      <c r="F96" s="155"/>
+      <c r="G96" s="156"/>
+      <c r="H96" s="168"/>
+      <c r="I96" s="155"/>
       <c r="J96" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16495,19 +16976,19 @@
       <c r="U96" s="49"/>
       <c r="V96" s="50"/>
     </row>
-    <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="110"/>
-      <c r="B97" s="99"/>
+    <row r="97" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="98"/>
+      <c r="B97" s="167"/>
       <c r="C97" s="187"/>
       <c r="D97" s="191"/>
       <c r="E97" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="60"/>
+      <c r="F97" s="155"/>
+      <c r="G97" s="156"/>
+      <c r="H97" s="168"/>
+      <c r="I97" s="155"/>
       <c r="J97" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16519,8 +17000,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O97" s="401"/>
-      <c r="P97" s="403"/>
+      <c r="O97" s="158"/>
+      <c r="P97" s="190"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -16528,7 +17009,7 @@
       <c r="U97" s="49"/>
       <c r="V97" s="50"/>
     </row>
-    <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="110"/>
       <c r="B98" s="99"/>
       <c r="C98" s="187"/>
@@ -16552,8 +17033,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O98" s="402"/>
-      <c r="P98" s="404"/>
+      <c r="O98" s="158"/>
+      <c r="P98" s="190"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -16562,9 +17043,9 @@
       <c r="V98" s="50"/>
     </row>
     <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="99"/>
+      <c r="A99" s="110"/>
       <c r="B99" s="99"/>
-      <c r="C99" s="191"/>
+      <c r="C99" s="192"/>
       <c r="D99" s="191"/>
       <c r="E99" s="56">
         <f t="shared" si="5"/>
@@ -16579,8 +17060,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="61"/>
-      <c r="M99" s="61"/>
+      <c r="L99" s="401"/>
+      <c r="M99" s="402"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16595,9 +17076,9 @@
       <c r="V99" s="50"/>
     </row>
     <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="99"/>
+      <c r="A100" s="110"/>
       <c r="B100" s="99"/>
-      <c r="C100" s="191"/>
+      <c r="C100" s="182"/>
       <c r="D100" s="191"/>
       <c r="E100" s="56">
         <f t="shared" si="5"/>
@@ -16612,8 +17093,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="61"/>
-      <c r="M100" s="61"/>
+      <c r="L100" s="401"/>
+      <c r="M100" s="402"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16627,11 +17108,11 @@
       <c r="U100" s="49"/>
       <c r="V100" s="50"/>
     </row>
-    <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="102"/>
+    <row r="101" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="193"/>
       <c r="B101" s="99"/>
-      <c r="C101" s="197"/>
-      <c r="D101" s="197"/>
+      <c r="C101" s="194"/>
+      <c r="D101" s="191"/>
       <c r="E101" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16645,8 +17126,8 @@
         <v>0</v>
       </c>
       <c r="K101" s="81"/>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
+      <c r="L101" s="195"/>
+      <c r="M101" s="195"/>
       <c r="N101" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16660,11 +17141,11 @@
       <c r="U101" s="49"/>
       <c r="V101" s="50"/>
     </row>
-    <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="152"/>
-      <c r="B102" s="110"/>
-      <c r="C102" s="194"/>
-      <c r="D102" s="194"/>
+    <row r="102" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="196"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="191"/>
       <c r="E102" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16678,8 +17159,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="61"/>
-      <c r="M102" s="61"/>
+      <c r="L102" s="195"/>
+      <c r="M102" s="195"/>
       <c r="N102" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16693,11 +17174,11 @@
       <c r="U102" s="49"/>
       <c r="V102" s="50"/>
     </row>
-    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="152"/>
-      <c r="B103" s="110"/>
-      <c r="C103" s="197"/>
-      <c r="D103" s="197"/>
+    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="101"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="191"/>
+      <c r="D103" s="191"/>
       <c r="E103" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16726,11 +17207,11 @@
       <c r="U103" s="49"/>
       <c r="V103" s="50"/>
     </row>
-    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="152"/>
-      <c r="B104" s="110"/>
-      <c r="C104" s="197"/>
-      <c r="D104" s="197"/>
+    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="101"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="191"/>
+      <c r="D104" s="191"/>
       <c r="E104" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16762,8 +17243,8 @@
     <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="101"/>
       <c r="B105" s="99"/>
-      <c r="C105" s="197"/>
-      <c r="D105" s="197"/>
+      <c r="C105" s="191"/>
+      <c r="D105" s="191"/>
       <c r="E105" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16788,15 +17269,15 @@
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
-      <c r="T105" s="176"/>
+      <c r="T105" s="177"/>
       <c r="U105" s="49"/>
       <c r="V105" s="50"/>
     </row>
     <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="101"/>
+      <c r="A106" s="110"/>
       <c r="B106" s="99"/>
-      <c r="C106" s="197"/>
-      <c r="D106" s="197"/>
+      <c r="C106" s="187"/>
+      <c r="D106" s="191"/>
       <c r="E106" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16816,20 +17297,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="158"/>
-      <c r="P106" s="190"/>
+      <c r="O106" s="403"/>
+      <c r="P106" s="405"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
-      <c r="T106" s="176"/>
+      <c r="T106" s="177"/>
       <c r="U106" s="49"/>
       <c r="V106" s="50"/>
     </row>
     <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="101"/>
+      <c r="A107" s="110"/>
       <c r="B107" s="99"/>
-      <c r="C107" s="197"/>
-      <c r="D107" s="197"/>
+      <c r="C107" s="187"/>
+      <c r="D107" s="191"/>
       <c r="E107" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16849,20 +17330,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="158"/>
-      <c r="P107" s="190"/>
+      <c r="O107" s="404"/>
+      <c r="P107" s="406"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
-      <c r="T107" s="176"/>
+      <c r="T107" s="177"/>
       <c r="U107" s="49"/>
       <c r="V107" s="50"/>
     </row>
-    <row r="108" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="99"/>
-      <c r="B108" s="198"/>
-      <c r="C108" s="197"/>
-      <c r="D108" s="197"/>
+      <c r="B108" s="99"/>
+      <c r="C108" s="191"/>
+      <c r="D108" s="191"/>
       <c r="E108" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16894,8 +17375,8 @@
     <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="99"/>
       <c r="B109" s="99"/>
-      <c r="C109" s="197"/>
-      <c r="D109" s="197"/>
+      <c r="C109" s="191"/>
+      <c r="D109" s="191"/>
       <c r="E109" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16925,7 +17406,7 @@
       <c r="V109" s="50"/>
     </row>
     <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="99"/>
+      <c r="A110" s="102"/>
       <c r="B110" s="99"/>
       <c r="C110" s="197"/>
       <c r="D110" s="197"/>
@@ -16957,11 +17438,11 @@
       <c r="U110" s="49"/>
       <c r="V110" s="50"/>
     </row>
-    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A111" s="152"/>
-      <c r="B111" s="99"/>
-      <c r="C111" s="197"/>
-      <c r="D111" s="197"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="194"/>
+      <c r="D111" s="194"/>
       <c r="E111" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -16990,18 +17471,18 @@
       <c r="U111" s="49"/>
       <c r="V111" s="50"/>
     </row>
-    <row r="112" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="199"/>
-      <c r="B112" s="199"/>
-      <c r="C112" s="200"/>
-      <c r="D112" s="200"/>
-      <c r="E112" s="201">
+    <row r="112" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="152"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="197"/>
+      <c r="D112" s="197"/>
+      <c r="E112" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F112" s="38"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="37"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="59"/>
       <c r="I112" s="60"/>
       <c r="J112" s="39">
         <f t="shared" si="1"/>
@@ -17023,12 +17504,12 @@
       <c r="U112" s="49"/>
       <c r="V112" s="50"/>
     </row>
-    <row r="113" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="99"/>
-      <c r="B113" s="99"/>
+    <row r="113" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="152"/>
+      <c r="B113" s="110"/>
       <c r="C113" s="197"/>
       <c r="D113" s="197"/>
-      <c r="E113" s="34">
+      <c r="E113" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17056,12 +17537,12 @@
       <c r="U113" s="49"/>
       <c r="V113" s="50"/>
     </row>
-    <row r="114" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="110"/>
+    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="101"/>
       <c r="B114" s="99"/>
       <c r="C114" s="197"/>
       <c r="D114" s="197"/>
-      <c r="E114" s="34">
+      <c r="E114" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17085,16 +17566,16 @@
       <c r="Q114" s="158"/>
       <c r="R114" s="125"/>
       <c r="S114" s="176"/>
-      <c r="T114" s="177"/>
+      <c r="T114" s="176"/>
       <c r="U114" s="49"/>
       <c r="V114" s="50"/>
     </row>
-    <row r="115" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="110"/>
+    <row r="115" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="101"/>
       <c r="B115" s="99"/>
       <c r="C115" s="197"/>
       <c r="D115" s="197"/>
-      <c r="E115" s="34">
+      <c r="E115" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17118,16 +17599,16 @@
       <c r="Q115" s="158"/>
       <c r="R115" s="125"/>
       <c r="S115" s="176"/>
-      <c r="T115" s="177"/>
+      <c r="T115" s="176"/>
       <c r="U115" s="49"/>
       <c r="V115" s="50"/>
     </row>
-    <row r="116" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="110"/>
+    <row r="116" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="101"/>
       <c r="B116" s="99"/>
       <c r="C116" s="197"/>
       <c r="D116" s="197"/>
-      <c r="E116" s="34">
+      <c r="E116" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17151,16 +17632,16 @@
       <c r="Q116" s="158"/>
       <c r="R116" s="125"/>
       <c r="S116" s="176"/>
-      <c r="T116" s="177"/>
+      <c r="T116" s="176"/>
       <c r="U116" s="49"/>
       <c r="V116" s="50"/>
     </row>
-    <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="99"/>
-      <c r="B117" s="99"/>
+      <c r="B117" s="198"/>
       <c r="C117" s="197"/>
       <c r="D117" s="197"/>
-      <c r="E117" s="34">
+      <c r="E117" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17188,12 +17669,12 @@
       <c r="U117" s="49"/>
       <c r="V117" s="50"/>
     </row>
-    <row r="118" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="98"/>
+    <row r="118" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="99"/>
       <c r="B118" s="99"/>
       <c r="C118" s="197"/>
       <c r="D118" s="197"/>
-      <c r="E118" s="34">
+      <c r="E118" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17209,7 +17690,7 @@
       <c r="L118" s="61"/>
       <c r="M118" s="61"/>
       <c r="N118" s="42">
-        <f t="shared" ref="N118:N181" si="6">K118*I118</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O118" s="158"/>
@@ -17221,12 +17702,12 @@
       <c r="U118" s="49"/>
       <c r="V118" s="50"/>
     </row>
-    <row r="119" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="101"/>
+    <row r="119" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="99"/>
       <c r="B119" s="99"/>
       <c r="C119" s="197"/>
       <c r="D119" s="197"/>
-      <c r="E119" s="34">
+      <c r="E119" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17242,7 +17723,7 @@
       <c r="L119" s="61"/>
       <c r="M119" s="61"/>
       <c r="N119" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O119" s="158"/>
@@ -17254,12 +17735,12 @@
       <c r="U119" s="49"/>
       <c r="V119" s="50"/>
     </row>
-    <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="101"/>
+    <row r="120" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="152"/>
       <c r="B120" s="99"/>
       <c r="C120" s="197"/>
       <c r="D120" s="197"/>
-      <c r="E120" s="34">
+      <c r="E120" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17275,7 +17756,7 @@
       <c r="L120" s="61"/>
       <c r="M120" s="61"/>
       <c r="N120" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O120" s="158"/>
@@ -17287,18 +17768,18 @@
       <c r="U120" s="49"/>
       <c r="V120" s="50"/>
     </row>
-    <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="202"/>
-      <c r="B121" s="99"/>
-      <c r="C121" s="197"/>
-      <c r="D121" s="197"/>
-      <c r="E121" s="34">
+    <row r="121" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="199"/>
+      <c r="B121" s="199"/>
+      <c r="C121" s="200"/>
+      <c r="D121" s="200"/>
+      <c r="E121" s="201">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="58"/>
-      <c r="H121" s="59"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="37"/>
       <c r="I121" s="60"/>
       <c r="J121" s="39">
         <f t="shared" si="1"/>
@@ -17308,7 +17789,7 @@
       <c r="L121" s="61"/>
       <c r="M121" s="61"/>
       <c r="N121" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O121" s="158"/>
@@ -17321,7 +17802,7 @@
       <c r="V121" s="50"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="203"/>
+      <c r="A122" s="99"/>
       <c r="B122" s="99"/>
       <c r="C122" s="197"/>
       <c r="D122" s="197"/>
@@ -17341,7 +17822,7 @@
       <c r="L122" s="61"/>
       <c r="M122" s="61"/>
       <c r="N122" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O122" s="158"/>
@@ -17354,7 +17835,7 @@
       <c r="V122" s="50"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="204"/>
+      <c r="A123" s="110"/>
       <c r="B123" s="99"/>
       <c r="C123" s="197"/>
       <c r="D123" s="197"/>
@@ -17374,7 +17855,7 @@
       <c r="L123" s="61"/>
       <c r="M123" s="61"/>
       <c r="N123" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O123" s="158"/>
@@ -17387,10 +17868,10 @@
       <c r="V123" s="50"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="204"/>
+      <c r="A124" s="110"/>
       <c r="B124" s="99"/>
-      <c r="C124" s="154"/>
-      <c r="D124" s="154"/>
+      <c r="C124" s="197"/>
+      <c r="D124" s="197"/>
       <c r="E124" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -17400,14 +17881,14 @@
       <c r="H124" s="59"/>
       <c r="I124" s="60"/>
       <c r="J124" s="39">
-        <f t="shared" ref="J124:J187" si="7">I124-F124</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K124" s="81"/>
       <c r="L124" s="61"/>
       <c r="M124" s="61"/>
       <c r="N124" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O124" s="158"/>
@@ -17420,7 +17901,7 @@
       <c r="V124" s="50"/>
     </row>
     <row r="125" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="203"/>
+      <c r="A125" s="110"/>
       <c r="B125" s="99"/>
       <c r="C125" s="197"/>
       <c r="D125" s="197"/>
@@ -17430,17 +17911,17 @@
       </c>
       <c r="F125" s="60"/>
       <c r="G125" s="58"/>
-      <c r="H125" s="205"/>
+      <c r="H125" s="59"/>
       <c r="I125" s="60"/>
       <c r="J125" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K125" s="81"/>
       <c r="L125" s="61"/>
       <c r="M125" s="61"/>
       <c r="N125" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O125" s="158"/>
@@ -17453,27 +17934,27 @@
       <c r="V125" s="50"/>
     </row>
     <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="203"/>
+      <c r="A126" s="99"/>
       <c r="B126" s="99"/>
-      <c r="C126" s="154"/>
-      <c r="D126" s="154"/>
+      <c r="C126" s="197"/>
+      <c r="D126" s="197"/>
       <c r="E126" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F126" s="60"/>
       <c r="G126" s="58"/>
-      <c r="H126" s="205"/>
+      <c r="H126" s="59"/>
       <c r="I126" s="60"/>
       <c r="J126" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K126" s="81"/>
       <c r="L126" s="61"/>
       <c r="M126" s="61"/>
       <c r="N126" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O126" s="158"/>
@@ -17486,7 +17967,7 @@
       <c r="V126" s="50"/>
     </row>
     <row r="127" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="203"/>
+      <c r="A127" s="98"/>
       <c r="B127" s="99"/>
       <c r="C127" s="197"/>
       <c r="D127" s="197"/>
@@ -17496,17 +17977,17 @@
       </c>
       <c r="F127" s="60"/>
       <c r="G127" s="58"/>
-      <c r="H127" s="205"/>
+      <c r="H127" s="59"/>
       <c r="I127" s="60"/>
       <c r="J127" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K127" s="81"/>
       <c r="L127" s="61"/>
       <c r="M127" s="61"/>
       <c r="N127" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N127:N190" si="6">K127*I127</f>
         <v>0</v>
       </c>
       <c r="O127" s="158"/>
@@ -17519,20 +18000,20 @@
       <c r="V127" s="50"/>
     </row>
     <row r="128" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="203"/>
+      <c r="A128" s="101"/>
       <c r="B128" s="99"/>
-      <c r="C128" s="194"/>
-      <c r="D128" s="194"/>
+      <c r="C128" s="197"/>
+      <c r="D128" s="197"/>
       <c r="E128" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F128" s="60"/>
       <c r="G128" s="58"/>
-      <c r="H128" s="205"/>
+      <c r="H128" s="59"/>
       <c r="I128" s="60"/>
       <c r="J128" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K128" s="81"/>
@@ -17543,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="158"/>
-      <c r="P128" s="183"/>
+      <c r="P128" s="190"/>
       <c r="Q128" s="158"/>
       <c r="R128" s="125"/>
       <c r="S128" s="176"/>
@@ -17551,8 +18032,8 @@
       <c r="U128" s="49"/>
       <c r="V128" s="50"/>
     </row>
-    <row r="129" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="99"/>
+    <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="101"/>
       <c r="B129" s="99"/>
       <c r="C129" s="197"/>
       <c r="D129" s="197"/>
@@ -17562,10 +18043,10 @@
       </c>
       <c r="F129" s="60"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="206"/>
+      <c r="H129" s="59"/>
       <c r="I129" s="60"/>
       <c r="J129" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K129" s="81"/>
@@ -17576,16 +18057,16 @@
         <v>0</v>
       </c>
       <c r="O129" s="158"/>
-      <c r="P129" s="207"/>
+      <c r="P129" s="190"/>
       <c r="Q129" s="158"/>
-      <c r="R129" s="208"/>
+      <c r="R129" s="125"/>
       <c r="S129" s="176"/>
       <c r="T129" s="177"/>
       <c r="U129" s="49"/>
       <c r="V129" s="50"/>
     </row>
-    <row r="130" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="99"/>
+    <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="202"/>
       <c r="B130" s="99"/>
       <c r="C130" s="197"/>
       <c r="D130" s="197"/>
@@ -17595,10 +18076,10 @@
       </c>
       <c r="F130" s="60"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="206"/>
+      <c r="H130" s="59"/>
       <c r="I130" s="60"/>
       <c r="J130" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K130" s="81"/>
@@ -17609,16 +18090,16 @@
         <v>0</v>
       </c>
       <c r="O130" s="158"/>
-      <c r="P130" s="207"/>
+      <c r="P130" s="190"/>
       <c r="Q130" s="158"/>
-      <c r="R130" s="208"/>
+      <c r="R130" s="125"/>
       <c r="S130" s="176"/>
       <c r="T130" s="177"/>
       <c r="U130" s="49"/>
       <c r="V130" s="50"/>
     </row>
-    <row r="131" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="99"/>
+    <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="203"/>
       <c r="B131" s="99"/>
       <c r="C131" s="197"/>
       <c r="D131" s="197"/>
@@ -17628,10 +18109,10 @@
       </c>
       <c r="F131" s="60"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="206"/>
+      <c r="H131" s="59"/>
       <c r="I131" s="60"/>
       <c r="J131" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K131" s="81"/>
@@ -17642,16 +18123,16 @@
         <v>0</v>
       </c>
       <c r="O131" s="158"/>
-      <c r="P131" s="207"/>
+      <c r="P131" s="190"/>
       <c r="Q131" s="158"/>
-      <c r="R131" s="208"/>
+      <c r="R131" s="125"/>
       <c r="S131" s="176"/>
       <c r="T131" s="177"/>
       <c r="U131" s="49"/>
       <c r="V131" s="50"/>
     </row>
-    <row r="132" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="99"/>
+    <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="204"/>
       <c r="B132" s="99"/>
       <c r="C132" s="197"/>
       <c r="D132" s="197"/>
@@ -17661,10 +18142,10 @@
       </c>
       <c r="F132" s="60"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="206"/>
+      <c r="H132" s="59"/>
       <c r="I132" s="60"/>
       <c r="J132" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K132" s="81"/>
@@ -17675,29 +18156,29 @@
         <v>0</v>
       </c>
       <c r="O132" s="158"/>
-      <c r="P132" s="207"/>
+      <c r="P132" s="190"/>
       <c r="Q132" s="158"/>
-      <c r="R132" s="208"/>
+      <c r="R132" s="125"/>
       <c r="S132" s="176"/>
       <c r="T132" s="177"/>
       <c r="U132" s="49"/>
       <c r="V132" s="50"/>
     </row>
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="102"/>
+      <c r="A133" s="204"/>
       <c r="B133" s="99"/>
-      <c r="C133" s="197"/>
-      <c r="D133" s="197"/>
+      <c r="C133" s="154"/>
+      <c r="D133" s="154"/>
       <c r="E133" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F133" s="60"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="205"/>
+      <c r="H133" s="59"/>
       <c r="I133" s="60"/>
       <c r="J133" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J133:J196" si="7">I133-F133</f>
         <v>0</v>
       </c>
       <c r="K133" s="81"/>
@@ -17707,17 +18188,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O133" s="69"/>
-      <c r="P133" s="209"/>
-      <c r="Q133" s="210"/>
-      <c r="R133" s="208"/>
+      <c r="O133" s="158"/>
+      <c r="P133" s="190"/>
+      <c r="Q133" s="158"/>
+      <c r="R133" s="125"/>
       <c r="S133" s="176"/>
       <c r="T133" s="177"/>
       <c r="U133" s="49"/>
       <c r="V133" s="50"/>
     </row>
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="99"/>
+      <c r="A134" s="203"/>
       <c r="B134" s="99"/>
       <c r="C134" s="197"/>
       <c r="D134" s="197"/>
@@ -17740,20 +18221,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O134" s="69"/>
-      <c r="P134" s="209"/>
-      <c r="Q134" s="210"/>
-      <c r="R134" s="208"/>
+      <c r="O134" s="158"/>
+      <c r="P134" s="190"/>
+      <c r="Q134" s="158"/>
+      <c r="R134" s="125"/>
       <c r="S134" s="176"/>
       <c r="T134" s="177"/>
       <c r="U134" s="49"/>
       <c r="V134" s="50"/>
     </row>
     <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="101"/>
+      <c r="A135" s="203"/>
       <c r="B135" s="99"/>
-      <c r="C135" s="181"/>
-      <c r="D135" s="181"/>
+      <c r="C135" s="154"/>
+      <c r="D135" s="154"/>
       <c r="E135" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -17773,20 +18254,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O135" s="69"/>
-      <c r="P135" s="209"/>
-      <c r="Q135" s="210"/>
-      <c r="R135" s="208"/>
+      <c r="O135" s="158"/>
+      <c r="P135" s="190"/>
+      <c r="Q135" s="158"/>
+      <c r="R135" s="125"/>
       <c r="S135" s="176"/>
       <c r="T135" s="177"/>
       <c r="U135" s="49"/>
       <c r="V135" s="50"/>
     </row>
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="101"/>
+      <c r="A136" s="203"/>
       <c r="B136" s="99"/>
-      <c r="C136" s="181"/>
-      <c r="D136" s="181"/>
+      <c r="C136" s="197"/>
+      <c r="D136" s="197"/>
       <c r="E136" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -17806,20 +18287,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O136" s="69"/>
-      <c r="P136" s="209"/>
-      <c r="Q136" s="210"/>
-      <c r="R136" s="208"/>
+      <c r="O136" s="158"/>
+      <c r="P136" s="190"/>
+      <c r="Q136" s="158"/>
+      <c r="R136" s="125"/>
       <c r="S136" s="176"/>
       <c r="T136" s="177"/>
       <c r="U136" s="49"/>
       <c r="V136" s="50"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="101"/>
+      <c r="A137" s="203"/>
       <c r="B137" s="99"/>
-      <c r="C137" s="181"/>
-      <c r="D137" s="181"/>
+      <c r="C137" s="194"/>
+      <c r="D137" s="194"/>
       <c r="E137" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -17839,27 +18320,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O137" s="69"/>
-      <c r="P137" s="209"/>
-      <c r="Q137" s="210"/>
-      <c r="R137" s="208"/>
+      <c r="O137" s="158"/>
+      <c r="P137" s="183"/>
+      <c r="Q137" s="158"/>
+      <c r="R137" s="125"/>
       <c r="S137" s="176"/>
       <c r="T137" s="177"/>
       <c r="U137" s="49"/>
       <c r="V137" s="50"/>
     </row>
-    <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="101"/>
+    <row r="138" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="99"/>
       <c r="B138" s="99"/>
-      <c r="C138" s="181"/>
-      <c r="D138" s="181"/>
+      <c r="C138" s="197"/>
+      <c r="D138" s="197"/>
       <c r="E138" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F138" s="60"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="205"/>
+      <c r="H138" s="206"/>
       <c r="I138" s="60"/>
       <c r="J138" s="39">
         <f t="shared" si="7"/>
@@ -17872,27 +18353,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O138" s="69"/>
-      <c r="P138" s="209"/>
-      <c r="Q138" s="210"/>
+      <c r="O138" s="158"/>
+      <c r="P138" s="207"/>
+      <c r="Q138" s="158"/>
       <c r="R138" s="208"/>
       <c r="S138" s="176"/>
       <c r="T138" s="177"/>
       <c r="U138" s="49"/>
       <c r="V138" s="50"/>
     </row>
-    <row r="139" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="101"/>
+    <row r="139" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="99"/>
       <c r="B139" s="99"/>
-      <c r="C139" s="181"/>
-      <c r="D139" s="181"/>
+      <c r="C139" s="197"/>
+      <c r="D139" s="197"/>
       <c r="E139" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F139" s="60"/>
       <c r="G139" s="58"/>
-      <c r="H139" s="205"/>
+      <c r="H139" s="206"/>
       <c r="I139" s="60"/>
       <c r="J139" s="39">
         <f t="shared" si="7"/>
@@ -17905,17 +18386,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O139" s="69"/>
-      <c r="P139" s="209"/>
-      <c r="Q139" s="210"/>
+      <c r="O139" s="158"/>
+      <c r="P139" s="207"/>
+      <c r="Q139" s="158"/>
       <c r="R139" s="208"/>
       <c r="S139" s="176"/>
       <c r="T139" s="177"/>
       <c r="U139" s="49"/>
       <c r="V139" s="50"/>
     </row>
-    <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="203"/>
+    <row r="140" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="99"/>
       <c r="B140" s="99"/>
       <c r="C140" s="197"/>
       <c r="D140" s="197"/>
@@ -17925,7 +18406,7 @@
       </c>
       <c r="F140" s="60"/>
       <c r="G140" s="58"/>
-      <c r="H140" s="205"/>
+      <c r="H140" s="206"/>
       <c r="I140" s="60"/>
       <c r="J140" s="39">
         <f t="shared" si="7"/>
@@ -17938,27 +18419,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O140" s="69"/>
-      <c r="P140" s="209"/>
-      <c r="Q140" s="210"/>
+      <c r="O140" s="158"/>
+      <c r="P140" s="207"/>
+      <c r="Q140" s="158"/>
       <c r="R140" s="208"/>
       <c r="S140" s="176"/>
       <c r="T140" s="177"/>
       <c r="U140" s="49"/>
       <c r="V140" s="50"/>
     </row>
-    <row r="141" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="169"/>
+    <row r="141" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="99"/>
       <c r="B141" s="99"/>
-      <c r="C141" s="182"/>
-      <c r="D141" s="182"/>
+      <c r="C141" s="197"/>
+      <c r="D141" s="197"/>
       <c r="E141" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F141" s="60"/>
       <c r="G141" s="58"/>
-      <c r="H141" s="205"/>
+      <c r="H141" s="206"/>
       <c r="I141" s="60"/>
       <c r="J141" s="39">
         <f t="shared" si="7"/>
@@ -17971,9 +18452,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O141" s="69"/>
-      <c r="P141" s="209"/>
-      <c r="Q141" s="210"/>
+      <c r="O141" s="158"/>
+      <c r="P141" s="207"/>
+      <c r="Q141" s="158"/>
       <c r="R141" s="208"/>
       <c r="S141" s="176"/>
       <c r="T141" s="177"/>
@@ -17981,10 +18462,10 @@
       <c r="V141" s="50"/>
     </row>
     <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="169"/>
+      <c r="A142" s="102"/>
       <c r="B142" s="99"/>
-      <c r="C142" s="182"/>
-      <c r="D142" s="182"/>
+      <c r="C142" s="197"/>
+      <c r="D142" s="197"/>
       <c r="E142" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -18006,7 +18487,7 @@
       </c>
       <c r="O142" s="69"/>
       <c r="P142" s="209"/>
-      <c r="Q142" s="211"/>
+      <c r="Q142" s="210"/>
       <c r="R142" s="208"/>
       <c r="S142" s="176"/>
       <c r="T142" s="177"/>
@@ -18014,10 +18495,10 @@
       <c r="V142" s="50"/>
     </row>
     <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="169"/>
+      <c r="A143" s="99"/>
       <c r="B143" s="99"/>
-      <c r="C143" s="182"/>
-      <c r="D143" s="182"/>
+      <c r="C143" s="197"/>
+      <c r="D143" s="197"/>
       <c r="E143" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -18047,10 +18528,10 @@
       <c r="V143" s="50"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="203"/>
+      <c r="A144" s="101"/>
       <c r="B144" s="99"/>
-      <c r="C144" s="197"/>
-      <c r="D144" s="197"/>
+      <c r="C144" s="181"/>
+      <c r="D144" s="181"/>
       <c r="E144" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -18071,7 +18552,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="69"/>
-      <c r="P144" s="212"/>
+      <c r="P144" s="209"/>
       <c r="Q144" s="210"/>
       <c r="R144" s="208"/>
       <c r="S144" s="176"/>
@@ -18079,18 +18560,18 @@
       <c r="U144" s="49"/>
       <c r="V144" s="50"/>
     </row>
-    <row r="145" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="203"/>
+    <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="101"/>
       <c r="B145" s="99"/>
-      <c r="C145" s="197"/>
-      <c r="D145" s="197"/>
+      <c r="C145" s="181"/>
+      <c r="D145" s="181"/>
       <c r="E145" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F145" s="60"/>
       <c r="G145" s="58"/>
-      <c r="H145" s="206"/>
+      <c r="H145" s="205"/>
       <c r="I145" s="60"/>
       <c r="J145" s="39">
         <f t="shared" si="7"/>
@@ -18104,7 +18585,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="69"/>
-      <c r="P145" s="212"/>
+      <c r="P145" s="209"/>
       <c r="Q145" s="210"/>
       <c r="R145" s="208"/>
       <c r="S145" s="176"/>
@@ -18113,17 +18594,17 @@
       <c r="V145" s="50"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="203"/>
+      <c r="A146" s="101"/>
       <c r="B146" s="99"/>
-      <c r="C146" s="197"/>
-      <c r="D146" s="197"/>
+      <c r="C146" s="181"/>
+      <c r="D146" s="181"/>
       <c r="E146" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F146" s="60"/>
       <c r="G146" s="58"/>
-      <c r="H146" s="213"/>
+      <c r="H146" s="205"/>
       <c r="I146" s="60"/>
       <c r="J146" s="39">
         <f t="shared" si="7"/>
@@ -18137,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="69"/>
-      <c r="P146" s="212"/>
+      <c r="P146" s="209"/>
       <c r="Q146" s="210"/>
       <c r="R146" s="208"/>
       <c r="S146" s="176"/>
@@ -18146,10 +18627,10 @@
       <c r="V146" s="50"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="203"/>
+      <c r="A147" s="101"/>
       <c r="B147" s="99"/>
-      <c r="C147" s="197"/>
-      <c r="D147" s="197"/>
+      <c r="C147" s="181"/>
+      <c r="D147" s="181"/>
       <c r="E147" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -18170,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="69"/>
-      <c r="P147" s="212"/>
+      <c r="P147" s="209"/>
       <c r="Q147" s="210"/>
       <c r="R147" s="208"/>
       <c r="S147" s="176"/>
@@ -18179,17 +18660,17 @@
       <c r="V147" s="50"/>
     </row>
     <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="214"/>
+      <c r="A148" s="101"/>
       <c r="B148" s="99"/>
-      <c r="C148" s="197"/>
-      <c r="D148" s="197"/>
+      <c r="C148" s="181"/>
+      <c r="D148" s="181"/>
       <c r="E148" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F148" s="60"/>
       <c r="G148" s="58"/>
-      <c r="H148" s="215"/>
+      <c r="H148" s="205"/>
       <c r="I148" s="60"/>
       <c r="J148" s="39">
         <f t="shared" si="7"/>
@@ -18202,17 +18683,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O148" s="216"/>
-      <c r="P148" s="217"/>
-      <c r="Q148" s="218"/>
-      <c r="R148" s="219"/>
+      <c r="O148" s="69"/>
+      <c r="P148" s="209"/>
+      <c r="Q148" s="210"/>
+      <c r="R148" s="208"/>
       <c r="S148" s="176"/>
       <c r="T148" s="177"/>
       <c r="U148" s="49"/>
       <c r="V148" s="50"/>
     </row>
     <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="220"/>
+      <c r="A149" s="203"/>
       <c r="B149" s="99"/>
       <c r="C149" s="197"/>
       <c r="D149" s="197"/>
@@ -18221,8 +18702,8 @@
         <v>0</v>
       </c>
       <c r="F149" s="60"/>
-      <c r="G149" s="221"/>
-      <c r="H149" s="222"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="205"/>
       <c r="I149" s="60"/>
       <c r="J149" s="39">
         <f t="shared" si="7"/>
@@ -18235,8 +18716,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O149" s="223"/>
-      <c r="P149" s="224"/>
+      <c r="O149" s="69"/>
+      <c r="P149" s="209"/>
       <c r="Q149" s="210"/>
       <c r="R149" s="208"/>
       <c r="S149" s="176"/>
@@ -18245,17 +18726,17 @@
       <c r="V149" s="50"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="204"/>
+      <c r="A150" s="169"/>
       <c r="B150" s="99"/>
-      <c r="C150" s="197"/>
-      <c r="D150" s="197"/>
+      <c r="C150" s="182"/>
+      <c r="D150" s="182"/>
       <c r="E150" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F150" s="60"/>
-      <c r="G150" s="224"/>
-      <c r="H150" s="215"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="205"/>
       <c r="I150" s="60"/>
       <c r="J150" s="39">
         <f t="shared" si="7"/>
@@ -18268,8 +18749,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O150" s="223"/>
-      <c r="P150" s="224"/>
+      <c r="O150" s="69"/>
+      <c r="P150" s="209"/>
       <c r="Q150" s="210"/>
       <c r="R150" s="208"/>
       <c r="S150" s="176"/>
@@ -18278,66 +18759,64 @@
       <c r="V150" s="50"/>
     </row>
     <row r="151" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="204"/>
+      <c r="A151" s="169"/>
       <c r="B151" s="99"/>
-      <c r="C151" s="197"/>
-      <c r="D151" s="197"/>
+      <c r="C151" s="182"/>
+      <c r="D151" s="182"/>
       <c r="E151" s="34">
-        <f t="shared" ref="E151:E220" si="8">D151*F151</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F151" s="60"/>
-      <c r="G151" s="224"/>
-      <c r="H151" s="222"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="205"/>
       <c r="I151" s="60"/>
       <c r="J151" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K151" s="225"/>
+      <c r="K151" s="81"/>
       <c r="L151" s="61"/>
-      <c r="M151" s="61" t="s">
-        <v>26</v>
-      </c>
+      <c r="M151" s="61"/>
       <c r="N151" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O151" s="216"/>
-      <c r="P151" s="217"/>
-      <c r="Q151" s="218"/>
-      <c r="R151" s="219"/>
+      <c r="O151" s="69"/>
+      <c r="P151" s="209"/>
+      <c r="Q151" s="211"/>
+      <c r="R151" s="208"/>
       <c r="S151" s="176"/>
       <c r="T151" s="177"/>
       <c r="U151" s="49"/>
       <c r="V151" s="50"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="203"/>
+      <c r="A152" s="169"/>
       <c r="B152" s="99"/>
-      <c r="C152" s="197"/>
-      <c r="D152" s="197"/>
+      <c r="C152" s="182"/>
+      <c r="D152" s="182"/>
       <c r="E152" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F152" s="60"/>
-      <c r="G152" s="224"/>
-      <c r="H152" s="222"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="205"/>
       <c r="I152" s="60"/>
       <c r="J152" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K152" s="225"/>
+      <c r="K152" s="81"/>
       <c r="L152" s="61"/>
       <c r="M152" s="61"/>
       <c r="N152" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O152" s="223"/>
-      <c r="P152" s="224"/>
+      <c r="O152" s="69"/>
+      <c r="P152" s="209"/>
       <c r="Q152" s="210"/>
       <c r="R152" s="208"/>
       <c r="S152" s="176"/>
@@ -18346,17 +18825,17 @@
       <c r="V152" s="50"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="169"/>
+      <c r="A153" s="203"/>
       <c r="B153" s="99"/>
-      <c r="C153" s="226"/>
-      <c r="D153" s="226"/>
+      <c r="C153" s="197"/>
+      <c r="D153" s="197"/>
       <c r="E153" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F153" s="60"/>
-      <c r="G153" s="224"/>
-      <c r="H153" s="227"/>
+      <c r="G153" s="58"/>
+      <c r="H153" s="205"/>
       <c r="I153" s="60"/>
       <c r="J153" s="39">
         <f t="shared" si="7"/>
@@ -18369,43 +18848,43 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O153" s="228"/>
-      <c r="P153" s="229"/>
-      <c r="Q153" s="124"/>
-      <c r="R153" s="125"/>
+      <c r="O153" s="69"/>
+      <c r="P153" s="212"/>
+      <c r="Q153" s="210"/>
+      <c r="R153" s="208"/>
       <c r="S153" s="176"/>
       <c r="T153" s="177"/>
       <c r="U153" s="49"/>
       <c r="V153" s="50"/>
     </row>
-    <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="230"/>
+    <row r="154" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="203"/>
       <c r="B154" s="99"/>
       <c r="C154" s="197"/>
       <c r="D154" s="197"/>
       <c r="E154" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F154" s="60"/>
-      <c r="G154" s="224"/>
-      <c r="H154" s="205"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="206"/>
       <c r="I154" s="60"/>
       <c r="J154" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K154" s="225"/>
-      <c r="L154" s="231"/>
-      <c r="M154" s="231"/>
+      <c r="K154" s="81"/>
+      <c r="L154" s="61"/>
+      <c r="M154" s="61"/>
       <c r="N154" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O154" s="228"/>
-      <c r="P154" s="229"/>
-      <c r="Q154" s="218"/>
-      <c r="R154" s="219"/>
+      <c r="O154" s="69"/>
+      <c r="P154" s="212"/>
+      <c r="Q154" s="210"/>
+      <c r="R154" s="208"/>
       <c r="S154" s="176"/>
       <c r="T154" s="177"/>
       <c r="U154" s="49"/>
@@ -18417,86 +18896,86 @@
       <c r="C155" s="197"/>
       <c r="D155" s="197"/>
       <c r="E155" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F155" s="60"/>
-      <c r="G155" s="224"/>
-      <c r="H155" s="205"/>
+      <c r="G155" s="58"/>
+      <c r="H155" s="213"/>
       <c r="I155" s="60"/>
       <c r="J155" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K155" s="225"/>
-      <c r="L155" s="231"/>
-      <c r="M155" s="231"/>
+      <c r="K155" s="81"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="61"/>
       <c r="N155" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O155" s="69"/>
-      <c r="P155" s="209"/>
-      <c r="Q155" s="218"/>
-      <c r="R155" s="219"/>
+      <c r="P155" s="212"/>
+      <c r="Q155" s="210"/>
+      <c r="R155" s="208"/>
       <c r="S155" s="176"/>
       <c r="T155" s="177"/>
       <c r="U155" s="49"/>
       <c r="V155" s="50"/>
     </row>
     <row r="156" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="204"/>
+      <c r="A156" s="203"/>
       <c r="B156" s="99"/>
       <c r="C156" s="197"/>
       <c r="D156" s="197"/>
       <c r="E156" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F156" s="60"/>
-      <c r="G156" s="224"/>
-      <c r="H156" s="232"/>
+      <c r="G156" s="58"/>
+      <c r="H156" s="205"/>
       <c r="I156" s="60"/>
       <c r="J156" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K156" s="233"/>
-      <c r="L156" s="231"/>
-      <c r="M156" s="231"/>
+      <c r="K156" s="81"/>
+      <c r="L156" s="61"/>
+      <c r="M156" s="61"/>
       <c r="N156" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O156" s="223"/>
-      <c r="P156" s="224"/>
-      <c r="Q156" s="218"/>
-      <c r="R156" s="219"/>
+      <c r="O156" s="69"/>
+      <c r="P156" s="212"/>
+      <c r="Q156" s="210"/>
+      <c r="R156" s="208"/>
       <c r="S156" s="176"/>
       <c r="T156" s="177"/>
       <c r="U156" s="49"/>
       <c r="V156" s="50"/>
     </row>
-    <row r="157" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="204"/>
+    <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="214"/>
       <c r="B157" s="99"/>
       <c r="C157" s="197"/>
       <c r="D157" s="197"/>
       <c r="E157" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F157" s="60"/>
-      <c r="G157" s="224"/>
-      <c r="H157" s="205"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="215"/>
       <c r="I157" s="60"/>
       <c r="J157" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K157" s="234"/>
-      <c r="L157" s="235"/>
-      <c r="M157" s="235"/>
+      <c r="K157" s="81"/>
+      <c r="L157" s="61"/>
+      <c r="M157" s="61"/>
       <c r="N157" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18511,91 +18990,93 @@
       <c r="V157" s="50"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="236"/>
+      <c r="A158" s="220"/>
       <c r="B158" s="99"/>
       <c r="C158" s="197"/>
       <c r="D158" s="197"/>
       <c r="E158" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F158" s="237"/>
-      <c r="G158" s="224"/>
-      <c r="H158" s="213"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="60"/>
+      <c r="G158" s="221"/>
+      <c r="H158" s="222"/>
       <c r="I158" s="60"/>
       <c r="J158" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K158" s="234"/>
-      <c r="L158" s="238"/>
-      <c r="M158" s="238"/>
+      <c r="K158" s="81"/>
+      <c r="L158" s="61"/>
+      <c r="M158" s="61"/>
       <c r="N158" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O158" s="223"/>
       <c r="P158" s="224"/>
-      <c r="Q158" s="218"/>
-      <c r="R158" s="219"/>
+      <c r="Q158" s="210"/>
+      <c r="R158" s="208"/>
       <c r="S158" s="176"/>
       <c r="T158" s="177"/>
       <c r="U158" s="49"/>
       <c r="V158" s="50"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="214"/>
+      <c r="A159" s="204"/>
       <c r="B159" s="99"/>
       <c r="C159" s="197"/>
       <c r="D159" s="197"/>
       <c r="E159" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F159" s="60"/>
       <c r="G159" s="224"/>
-      <c r="H159" s="205"/>
+      <c r="H159" s="215"/>
       <c r="I159" s="60"/>
       <c r="J159" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K159" s="234"/>
-      <c r="L159" s="231"/>
-      <c r="M159" s="231"/>
+      <c r="K159" s="81"/>
+      <c r="L159" s="61"/>
+      <c r="M159" s="61"/>
       <c r="N159" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O159" s="216"/>
-      <c r="P159" s="217"/>
-      <c r="Q159" s="218"/>
-      <c r="R159" s="219"/>
+      <c r="O159" s="223"/>
+      <c r="P159" s="224"/>
+      <c r="Q159" s="210"/>
+      <c r="R159" s="208"/>
       <c r="S159" s="176"/>
       <c r="T159" s="177"/>
       <c r="U159" s="49"/>
       <c r="V159" s="50"/>
     </row>
-    <row r="160" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="204"/>
       <c r="B160" s="99"/>
       <c r="C160" s="197"/>
       <c r="D160" s="197"/>
       <c r="E160" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E160:E229" si="8">D160*F160</f>
         <v>0</v>
       </c>
       <c r="F160" s="60"/>
       <c r="G160" s="224"/>
-      <c r="H160" s="239"/>
+      <c r="H160" s="222"/>
       <c r="I160" s="60"/>
       <c r="J160" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K160" s="81"/>
-      <c r="L160" s="231"/>
-      <c r="M160" s="231"/>
+      <c r="K160" s="225"/>
+      <c r="L160" s="61"/>
+      <c r="M160" s="61" t="s">
+        <v>26</v>
+      </c>
       <c r="N160" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18610,7 +19091,7 @@
       <c r="V160" s="50"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="204"/>
+      <c r="A161" s="203"/>
       <c r="B161" s="99"/>
       <c r="C161" s="197"/>
       <c r="D161" s="197"/>
@@ -18620,63 +19101,63 @@
       </c>
       <c r="F161" s="60"/>
       <c r="G161" s="224"/>
-      <c r="H161" s="215"/>
+      <c r="H161" s="222"/>
       <c r="I161" s="60"/>
       <c r="J161" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K161" s="234"/>
-      <c r="L161" s="231"/>
-      <c r="M161" s="231"/>
+      <c r="K161" s="225"/>
+      <c r="L161" s="61"/>
+      <c r="M161" s="61"/>
       <c r="N161" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O161" s="216"/>
-      <c r="P161" s="217"/>
-      <c r="Q161" s="218"/>
-      <c r="R161" s="219"/>
+      <c r="O161" s="223"/>
+      <c r="P161" s="224"/>
+      <c r="Q161" s="210"/>
+      <c r="R161" s="208"/>
       <c r="S161" s="176"/>
       <c r="T161" s="177"/>
       <c r="U161" s="49"/>
       <c r="V161" s="50"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="204"/>
+      <c r="A162" s="169"/>
       <c r="B162" s="99"/>
-      <c r="C162" s="197"/>
-      <c r="D162" s="197"/>
+      <c r="C162" s="226"/>
+      <c r="D162" s="226"/>
       <c r="E162" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F162" s="60"/>
       <c r="G162" s="224"/>
-      <c r="H162" s="175"/>
+      <c r="H162" s="227"/>
       <c r="I162" s="60"/>
       <c r="J162" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K162" s="234"/>
-      <c r="L162" s="231"/>
-      <c r="M162" s="231"/>
+      <c r="K162" s="81"/>
+      <c r="L162" s="61"/>
+      <c r="M162" s="61"/>
       <c r="N162" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O162" s="216"/>
-      <c r="P162" s="217"/>
-      <c r="Q162" s="218"/>
-      <c r="R162" s="219"/>
+      <c r="O162" s="228"/>
+      <c r="P162" s="229"/>
+      <c r="Q162" s="124"/>
+      <c r="R162" s="125"/>
       <c r="S162" s="176"/>
       <c r="T162" s="177"/>
       <c r="U162" s="49"/>
       <c r="V162" s="50"/>
     </row>
     <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="204"/>
+      <c r="A163" s="230"/>
       <c r="B163" s="99"/>
       <c r="C163" s="197"/>
       <c r="D163" s="197"/>
@@ -18686,21 +19167,21 @@
       </c>
       <c r="F163" s="60"/>
       <c r="G163" s="224"/>
-      <c r="H163" s="240"/>
+      <c r="H163" s="205"/>
       <c r="I163" s="60"/>
       <c r="J163" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K163" s="234"/>
-      <c r="L163" s="241"/>
-      <c r="M163" s="241"/>
+      <c r="K163" s="225"/>
+      <c r="L163" s="231"/>
+      <c r="M163" s="231"/>
       <c r="N163" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O163" s="216"/>
-      <c r="P163" s="217"/>
+      <c r="O163" s="228"/>
+      <c r="P163" s="229"/>
       <c r="Q163" s="218"/>
       <c r="R163" s="219"/>
       <c r="S163" s="176"/>
@@ -18709,7 +19190,7 @@
       <c r="V163" s="50"/>
     </row>
     <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="204"/>
+      <c r="A164" s="203"/>
       <c r="B164" s="99"/>
       <c r="C164" s="197"/>
       <c r="D164" s="197"/>
@@ -18719,21 +19200,21 @@
       </c>
       <c r="F164" s="60"/>
       <c r="G164" s="224"/>
-      <c r="H164" s="175"/>
+      <c r="H164" s="205"/>
       <c r="I164" s="60"/>
       <c r="J164" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K164" s="234"/>
-      <c r="L164" s="241"/>
-      <c r="M164" s="241"/>
+      <c r="K164" s="225"/>
+      <c r="L164" s="231"/>
+      <c r="M164" s="231"/>
       <c r="N164" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O164" s="216"/>
-      <c r="P164" s="217"/>
+      <c r="O164" s="69"/>
+      <c r="P164" s="209"/>
       <c r="Q164" s="218"/>
       <c r="R164" s="219"/>
       <c r="S164" s="176"/>
@@ -18752,21 +19233,21 @@
       </c>
       <c r="F165" s="60"/>
       <c r="G165" s="224"/>
-      <c r="H165" s="175"/>
+      <c r="H165" s="232"/>
       <c r="I165" s="60"/>
       <c r="J165" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K165" s="234"/>
-      <c r="L165" s="241"/>
-      <c r="M165" s="241"/>
+      <c r="K165" s="233"/>
+      <c r="L165" s="231"/>
+      <c r="M165" s="231"/>
       <c r="N165" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O165" s="216"/>
-      <c r="P165" s="217"/>
+      <c r="O165" s="223"/>
+      <c r="P165" s="224"/>
       <c r="Q165" s="218"/>
       <c r="R165" s="219"/>
       <c r="S165" s="176"/>
@@ -18774,7 +19255,7 @@
       <c r="U165" s="49"/>
       <c r="V165" s="50"/>
     </row>
-    <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="204"/>
       <c r="B166" s="99"/>
       <c r="C166" s="197"/>
@@ -18785,15 +19266,15 @@
       </c>
       <c r="F166" s="60"/>
       <c r="G166" s="224"/>
-      <c r="H166" s="175"/>
+      <c r="H166" s="205"/>
       <c r="I166" s="60"/>
       <c r="J166" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K166" s="81"/>
-      <c r="L166" s="61"/>
-      <c r="M166" s="61"/>
+      <c r="K166" s="234"/>
+      <c r="L166" s="235"/>
+      <c r="M166" s="235"/>
       <c r="N166" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -18808,99 +19289,99 @@
       <c r="V166" s="50"/>
     </row>
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="204"/>
+      <c r="A167" s="236"/>
       <c r="B167" s="99"/>
-      <c r="C167" s="242"/>
-      <c r="D167" s="242"/>
+      <c r="C167" s="197"/>
+      <c r="D167" s="197"/>
       <c r="E167" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F167" s="60"/>
+      <c r="F167" s="237"/>
       <c r="G167" s="224"/>
-      <c r="H167" s="175"/>
+      <c r="H167" s="213"/>
       <c r="I167" s="60"/>
       <c r="J167" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K167" s="81"/>
-      <c r="L167" s="61"/>
-      <c r="M167" s="61"/>
+      <c r="K167" s="234"/>
+      <c r="L167" s="238"/>
+      <c r="M167" s="238"/>
       <c r="N167" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O167" s="223"/>
-      <c r="P167" s="243"/>
-      <c r="Q167" s="124"/>
-      <c r="R167" s="125"/>
+      <c r="P167" s="224"/>
+      <c r="Q167" s="218"/>
+      <c r="R167" s="219"/>
       <c r="S167" s="176"/>
       <c r="T167" s="177"/>
       <c r="U167" s="49"/>
       <c r="V167" s="50"/>
     </row>
     <row r="168" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="204"/>
+      <c r="A168" s="214"/>
       <c r="B168" s="99"/>
-      <c r="C168" s="242"/>
-      <c r="D168" s="242"/>
+      <c r="C168" s="197"/>
+      <c r="D168" s="197"/>
       <c r="E168" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F168" s="60"/>
       <c r="G168" s="224"/>
-      <c r="H168" s="175"/>
+      <c r="H168" s="205"/>
       <c r="I168" s="60"/>
       <c r="J168" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K168" s="81"/>
-      <c r="L168" s="61"/>
-      <c r="M168" s="61"/>
+      <c r="K168" s="234"/>
+      <c r="L168" s="231"/>
+      <c r="M168" s="231"/>
       <c r="N168" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O168" s="223"/>
-      <c r="P168" s="243"/>
-      <c r="Q168" s="124"/>
-      <c r="R168" s="125"/>
+      <c r="O168" s="216"/>
+      <c r="P168" s="217"/>
+      <c r="Q168" s="218"/>
+      <c r="R168" s="219"/>
       <c r="S168" s="176"/>
       <c r="T168" s="177"/>
       <c r="U168" s="49"/>
       <c r="V168" s="50"/>
     </row>
-    <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="101"/>
+    <row r="169" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="204"/>
       <c r="B169" s="99"/>
-      <c r="C169" s="226"/>
-      <c r="D169" s="226"/>
+      <c r="C169" s="197"/>
+      <c r="D169" s="197"/>
       <c r="E169" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F169" s="60"/>
       <c r="G169" s="224"/>
-      <c r="H169" s="227"/>
+      <c r="H169" s="239"/>
       <c r="I169" s="60"/>
       <c r="J169" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K169" s="81"/>
-      <c r="L169" s="61"/>
-      <c r="M169" s="61"/>
+      <c r="L169" s="231"/>
+      <c r="M169" s="231"/>
       <c r="N169" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O169" s="69"/>
-      <c r="P169" s="209"/>
-      <c r="Q169" s="124"/>
-      <c r="R169" s="125"/>
+      <c r="O169" s="216"/>
+      <c r="P169" s="217"/>
+      <c r="Q169" s="218"/>
+      <c r="R169" s="219"/>
       <c r="S169" s="176"/>
       <c r="T169" s="177"/>
       <c r="U169" s="49"/>
@@ -18909,180 +19390,180 @@
     <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="204"/>
       <c r="B170" s="99"/>
-      <c r="C170" s="244"/>
-      <c r="D170" s="244"/>
+      <c r="C170" s="197"/>
+      <c r="D170" s="197"/>
       <c r="E170" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F170" s="60"/>
       <c r="G170" s="224"/>
-      <c r="H170" s="59"/>
+      <c r="H170" s="215"/>
       <c r="I170" s="60"/>
       <c r="J170" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K170" s="81"/>
-      <c r="L170" s="61"/>
-      <c r="M170" s="61"/>
+      <c r="K170" s="234"/>
+      <c r="L170" s="231"/>
+      <c r="M170" s="231"/>
       <c r="N170" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O170" s="69"/>
-      <c r="P170" s="209"/>
-      <c r="Q170" s="124"/>
-      <c r="R170" s="125"/>
+      <c r="O170" s="216"/>
+      <c r="P170" s="217"/>
+      <c r="Q170" s="218"/>
+      <c r="R170" s="219"/>
       <c r="S170" s="176"/>
       <c r="T170" s="177"/>
       <c r="U170" s="49"/>
       <c r="V170" s="50"/>
     </row>
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="169"/>
+      <c r="A171" s="204"/>
       <c r="B171" s="99"/>
-      <c r="C171" s="226"/>
-      <c r="D171" s="226"/>
+      <c r="C171" s="197"/>
+      <c r="D171" s="197"/>
       <c r="E171" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F171" s="60"/>
       <c r="G171" s="224"/>
-      <c r="H171" s="227"/>
+      <c r="H171" s="175"/>
       <c r="I171" s="60"/>
       <c r="J171" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K171" s="81"/>
-      <c r="L171" s="61"/>
-      <c r="M171" s="61"/>
+      <c r="K171" s="234"/>
+      <c r="L171" s="231"/>
+      <c r="M171" s="231"/>
       <c r="N171" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O171" s="69"/>
-      <c r="P171" s="209"/>
-      <c r="Q171" s="124"/>
-      <c r="R171" s="125"/>
+      <c r="O171" s="216"/>
+      <c r="P171" s="217"/>
+      <c r="Q171" s="218"/>
+      <c r="R171" s="219"/>
       <c r="S171" s="176"/>
       <c r="T171" s="177"/>
       <c r="U171" s="49"/>
       <c r="V171" s="50"/>
     </row>
-    <row r="172" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="245"/>
-      <c r="B172" s="246"/>
-      <c r="C172" s="181"/>
-      <c r="D172" s="181"/>
+    <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="204"/>
+      <c r="B172" s="99"/>
+      <c r="C172" s="197"/>
+      <c r="D172" s="197"/>
       <c r="E172" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F172" s="60"/>
       <c r="G172" s="224"/>
-      <c r="H172" s="227"/>
+      <c r="H172" s="240"/>
       <c r="I172" s="60"/>
       <c r="J172" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K172" s="81"/>
-      <c r="L172" s="61"/>
-      <c r="M172" s="61"/>
+      <c r="K172" s="234"/>
+      <c r="L172" s="241"/>
+      <c r="M172" s="241"/>
       <c r="N172" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O172" s="228"/>
-      <c r="P172" s="229"/>
-      <c r="Q172" s="124"/>
-      <c r="R172" s="125"/>
+      <c r="O172" s="216"/>
+      <c r="P172" s="217"/>
+      <c r="Q172" s="218"/>
+      <c r="R172" s="219"/>
       <c r="S172" s="176"/>
       <c r="T172" s="177"/>
       <c r="U172" s="49"/>
       <c r="V172" s="50"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="169"/>
+      <c r="A173" s="204"/>
       <c r="B173" s="99"/>
-      <c r="C173" s="247"/>
-      <c r="D173" s="247"/>
+      <c r="C173" s="197"/>
+      <c r="D173" s="197"/>
       <c r="E173" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F173" s="60"/>
       <c r="G173" s="224"/>
-      <c r="H173" s="227"/>
+      <c r="H173" s="175"/>
       <c r="I173" s="60"/>
       <c r="J173" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K173" s="81"/>
-      <c r="L173" s="61"/>
-      <c r="M173" s="61"/>
+      <c r="K173" s="234"/>
+      <c r="L173" s="241"/>
+      <c r="M173" s="241"/>
       <c r="N173" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O173" s="69"/>
-      <c r="P173" s="209"/>
-      <c r="Q173" s="124"/>
-      <c r="R173" s="125"/>
+      <c r="O173" s="216"/>
+      <c r="P173" s="217"/>
+      <c r="Q173" s="218"/>
+      <c r="R173" s="219"/>
       <c r="S173" s="176"/>
       <c r="T173" s="177"/>
       <c r="U173" s="49"/>
       <c r="V173" s="50"/>
     </row>
     <row r="174" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="169"/>
+      <c r="A174" s="204"/>
       <c r="B174" s="99"/>
-      <c r="C174" s="247"/>
-      <c r="D174" s="247"/>
+      <c r="C174" s="197"/>
+      <c r="D174" s="197"/>
       <c r="E174" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F174" s="60"/>
       <c r="G174" s="224"/>
-      <c r="H174" s="227"/>
+      <c r="H174" s="175"/>
       <c r="I174" s="60"/>
       <c r="J174" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K174" s="81"/>
-      <c r="L174" s="61"/>
-      <c r="M174" s="61"/>
+      <c r="K174" s="234"/>
+      <c r="L174" s="241"/>
+      <c r="M174" s="241"/>
       <c r="N174" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O174" s="69"/>
-      <c r="P174" s="209"/>
-      <c r="Q174" s="124"/>
-      <c r="R174" s="125"/>
+      <c r="O174" s="216"/>
+      <c r="P174" s="217"/>
+      <c r="Q174" s="218"/>
+      <c r="R174" s="219"/>
       <c r="S174" s="176"/>
       <c r="T174" s="177"/>
       <c r="U174" s="49"/>
       <c r="V174" s="50"/>
     </row>
     <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="248"/>
+      <c r="A175" s="204"/>
       <c r="B175" s="99"/>
-      <c r="C175" s="249"/>
-      <c r="D175" s="249"/>
+      <c r="C175" s="197"/>
+      <c r="D175" s="197"/>
       <c r="E175" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F175" s="60"/>
       <c r="G175" s="224"/>
-      <c r="H175" s="227"/>
+      <c r="H175" s="175"/>
       <c r="I175" s="60"/>
       <c r="J175" s="39">
         <f t="shared" si="7"/>
@@ -19095,27 +19576,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O175" s="69"/>
-      <c r="P175" s="209"/>
-      <c r="Q175" s="124"/>
-      <c r="R175" s="125"/>
+      <c r="O175" s="216"/>
+      <c r="P175" s="217"/>
+      <c r="Q175" s="218"/>
+      <c r="R175" s="219"/>
       <c r="S175" s="176"/>
       <c r="T175" s="177"/>
       <c r="U175" s="49"/>
       <c r="V175" s="50"/>
     </row>
     <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="169"/>
+      <c r="A176" s="204"/>
       <c r="B176" s="99"/>
-      <c r="C176" s="250"/>
-      <c r="D176" s="250"/>
+      <c r="C176" s="242"/>
+      <c r="D176" s="242"/>
       <c r="E176" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F176" s="60"/>
-      <c r="G176" s="251"/>
-      <c r="H176" s="227"/>
+      <c r="G176" s="224"/>
+      <c r="H176" s="175"/>
       <c r="I176" s="60"/>
       <c r="J176" s="39">
         <f t="shared" si="7"/>
@@ -19128,8 +19609,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O176" s="62"/>
-      <c r="P176" s="252"/>
+      <c r="O176" s="223"/>
+      <c r="P176" s="243"/>
       <c r="Q176" s="124"/>
       <c r="R176" s="125"/>
       <c r="S176" s="176"/>
@@ -19138,17 +19619,17 @@
       <c r="V176" s="50"/>
     </row>
     <row r="177" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="169"/>
+      <c r="A177" s="204"/>
       <c r="B177" s="99"/>
-      <c r="C177" s="250"/>
-      <c r="D177" s="250"/>
+      <c r="C177" s="242"/>
+      <c r="D177" s="242"/>
       <c r="E177" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F177" s="60"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="227"/>
+      <c r="G177" s="224"/>
+      <c r="H177" s="175"/>
       <c r="I177" s="60"/>
       <c r="J177" s="39">
         <f t="shared" si="7"/>
@@ -19161,8 +19642,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O177" s="62"/>
-      <c r="P177" s="252"/>
+      <c r="O177" s="223"/>
+      <c r="P177" s="243"/>
       <c r="Q177" s="124"/>
       <c r="R177" s="125"/>
       <c r="S177" s="176"/>
@@ -19170,71 +19651,77 @@
       <c r="U177" s="49"/>
       <c r="V177" s="50"/>
     </row>
-    <row r="178" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="169"/>
-      <c r="B178" s="203"/>
-      <c r="C178" s="253"/>
-      <c r="D178" s="253"/>
+    <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="101"/>
+      <c r="B178" s="99"/>
+      <c r="C178" s="226"/>
+      <c r="D178" s="226"/>
       <c r="E178" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F178" s="254"/>
+      <c r="F178" s="60"/>
       <c r="G178" s="224"/>
-      <c r="H178" s="255"/>
-      <c r="I178" s="254"/>
+      <c r="H178" s="227"/>
+      <c r="I178" s="60"/>
       <c r="J178" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="K178" s="81"/>
+      <c r="L178" s="61"/>
+      <c r="M178" s="61"/>
       <c r="N178" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O178" s="257"/>
-      <c r="P178" s="243"/>
-      <c r="Q178" s="258"/>
-      <c r="R178" s="259"/>
-      <c r="S178" s="260"/>
-      <c r="T178" s="261"/>
-      <c r="U178" s="262"/>
-      <c r="V178" s="263"/>
+      <c r="O178" s="69"/>
+      <c r="P178" s="209"/>
+      <c r="Q178" s="124"/>
+      <c r="R178" s="125"/>
+      <c r="S178" s="176"/>
+      <c r="T178" s="177"/>
+      <c r="U178" s="49"/>
+      <c r="V178" s="50"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="169"/>
+      <c r="A179" s="204"/>
       <c r="B179" s="99"/>
-      <c r="C179" s="249"/>
-      <c r="D179" s="249"/>
+      <c r="C179" s="244"/>
+      <c r="D179" s="244"/>
       <c r="E179" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F179" s="254"/>
+      <c r="F179" s="60"/>
       <c r="G179" s="224"/>
-      <c r="H179" s="255"/>
-      <c r="I179" s="254"/>
+      <c r="H179" s="59"/>
+      <c r="I179" s="60"/>
       <c r="J179" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="K179" s="81"/>
+      <c r="L179" s="61"/>
+      <c r="M179" s="61"/>
       <c r="N179" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O179" s="257"/>
-      <c r="P179" s="243"/>
-      <c r="Q179" s="258"/>
-      <c r="R179" s="259"/>
-      <c r="S179" s="260"/>
-      <c r="T179" s="261"/>
-      <c r="U179" s="262"/>
-      <c r="V179" s="263"/>
+      <c r="O179" s="69"/>
+      <c r="P179" s="209"/>
+      <c r="Q179" s="124"/>
+      <c r="R179" s="125"/>
+      <c r="S179" s="176"/>
+      <c r="T179" s="177"/>
+      <c r="U179" s="49"/>
+      <c r="V179" s="50"/>
     </row>
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="169"/>
       <c r="B180" s="99"/>
-      <c r="C180" s="249"/>
-      <c r="D180" s="249"/>
+      <c r="C180" s="226"/>
+      <c r="D180" s="226"/>
       <c r="E180" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19263,11 +19750,11 @@
       <c r="U180" s="49"/>
       <c r="V180" s="50"/>
     </row>
-    <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="169"/>
-      <c r="B181" s="99"/>
-      <c r="C181" s="249"/>
-      <c r="D181" s="249"/>
+    <row r="181" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="245"/>
+      <c r="B181" s="246"/>
+      <c r="C181" s="181"/>
+      <c r="D181" s="181"/>
       <c r="E181" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19287,8 +19774,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O181" s="69"/>
-      <c r="P181" s="209"/>
+      <c r="O181" s="228"/>
+      <c r="P181" s="229"/>
       <c r="Q181" s="124"/>
       <c r="R181" s="125"/>
       <c r="S181" s="176"/>
@@ -19299,14 +19786,14 @@
     <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="169"/>
       <c r="B182" s="99"/>
-      <c r="C182" s="264"/>
-      <c r="D182" s="264"/>
+      <c r="C182" s="247"/>
+      <c r="D182" s="247"/>
       <c r="E182" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F182" s="60"/>
-      <c r="G182" s="251"/>
+      <c r="G182" s="224"/>
       <c r="H182" s="227"/>
       <c r="I182" s="60"/>
       <c r="J182" s="39">
@@ -19317,7 +19804,7 @@
       <c r="L182" s="61"/>
       <c r="M182" s="61"/>
       <c r="N182" s="42">
-        <f t="shared" ref="N182:N245" si="9">K182*I182</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O182" s="69"/>
@@ -19332,14 +19819,14 @@
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="169"/>
       <c r="B183" s="99"/>
-      <c r="C183" s="264"/>
-      <c r="D183" s="264"/>
+      <c r="C183" s="247"/>
+      <c r="D183" s="247"/>
       <c r="E183" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F183" s="60"/>
-      <c r="G183" s="251"/>
+      <c r="G183" s="224"/>
       <c r="H183" s="227"/>
       <c r="I183" s="60"/>
       <c r="J183" s="39">
@@ -19350,7 +19837,7 @@
       <c r="L183" s="61"/>
       <c r="M183" s="61"/>
       <c r="N183" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O183" s="69"/>
@@ -19363,16 +19850,16 @@
       <c r="V183" s="50"/>
     </row>
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="169"/>
+      <c r="A184" s="248"/>
       <c r="B184" s="99"/>
-      <c r="C184" s="264"/>
-      <c r="D184" s="264"/>
+      <c r="C184" s="249"/>
+      <c r="D184" s="249"/>
       <c r="E184" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F184" s="60"/>
-      <c r="G184" s="251"/>
+      <c r="G184" s="224"/>
       <c r="H184" s="227"/>
       <c r="I184" s="60"/>
       <c r="J184" s="39">
@@ -19383,7 +19870,7 @@
       <c r="L184" s="61"/>
       <c r="M184" s="61"/>
       <c r="N184" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O184" s="69"/>
@@ -19395,11 +19882,11 @@
       <c r="U184" s="49"/>
       <c r="V184" s="50"/>
     </row>
-    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="169"/>
-      <c r="B185" s="203"/>
-      <c r="C185" s="265"/>
-      <c r="D185" s="265"/>
+      <c r="B185" s="99"/>
+      <c r="C185" s="250"/>
+      <c r="D185" s="250"/>
       <c r="E185" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19416,11 +19903,11 @@
       <c r="L185" s="61"/>
       <c r="M185" s="61"/>
       <c r="N185" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O185" s="69"/>
-      <c r="P185" s="209"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O185" s="62"/>
+      <c r="P185" s="252"/>
       <c r="Q185" s="124"/>
       <c r="R185" s="125"/>
       <c r="S185" s="176"/>
@@ -19431,14 +19918,14 @@
     <row r="186" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="169"/>
       <c r="B186" s="99"/>
-      <c r="C186" s="264"/>
-      <c r="D186" s="264"/>
+      <c r="C186" s="250"/>
+      <c r="D186" s="250"/>
       <c r="E186" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F186" s="60"/>
-      <c r="G186" s="251"/>
+      <c r="G186" s="58"/>
       <c r="H186" s="227"/>
       <c r="I186" s="60"/>
       <c r="J186" s="39">
@@ -19449,11 +19936,11 @@
       <c r="L186" s="61"/>
       <c r="M186" s="61"/>
       <c r="N186" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O186" s="69"/>
-      <c r="P186" s="209"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O186" s="62"/>
+      <c r="P186" s="252"/>
       <c r="Q186" s="124"/>
       <c r="R186" s="125"/>
       <c r="S186" s="176"/>
@@ -19461,77 +19948,71 @@
       <c r="U186" s="49"/>
       <c r="V186" s="50"/>
     </row>
-    <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="169"/>
-      <c r="B187" s="99"/>
-      <c r="C187" s="244"/>
-      <c r="D187" s="244"/>
+      <c r="B187" s="203"/>
+      <c r="C187" s="253"/>
+      <c r="D187" s="253"/>
       <c r="E187" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F187" s="60"/>
+      <c r="F187" s="254"/>
       <c r="G187" s="224"/>
-      <c r="H187" s="227"/>
-      <c r="I187" s="60"/>
+      <c r="H187" s="255"/>
+      <c r="I187" s="254"/>
       <c r="J187" s="39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K187" s="81"/>
-      <c r="L187" s="61"/>
-      <c r="M187" s="61"/>
       <c r="N187" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O187" s="69"/>
-      <c r="P187" s="209"/>
-      <c r="Q187" s="124"/>
-      <c r="R187" s="125"/>
-      <c r="S187" s="176"/>
-      <c r="T187" s="177"/>
-      <c r="U187" s="49"/>
-      <c r="V187" s="50"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O187" s="257"/>
+      <c r="P187" s="243"/>
+      <c r="Q187" s="258"/>
+      <c r="R187" s="259"/>
+      <c r="S187" s="260"/>
+      <c r="T187" s="261"/>
+      <c r="U187" s="262"/>
+      <c r="V187" s="263"/>
     </row>
     <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="169"/>
       <c r="B188" s="99"/>
-      <c r="C188" s="244"/>
-      <c r="D188" s="244"/>
+      <c r="C188" s="249"/>
+      <c r="D188" s="249"/>
       <c r="E188" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F188" s="60"/>
+      <c r="F188" s="254"/>
       <c r="G188" s="224"/>
-      <c r="H188" s="227"/>
-      <c r="I188" s="60"/>
+      <c r="H188" s="255"/>
+      <c r="I188" s="254"/>
       <c r="J188" s="39">
-        <f t="shared" ref="J188:J251" si="10">I188-F188</f>
-        <v>0</v>
-      </c>
-      <c r="K188" s="81"/>
-      <c r="L188" s="61"/>
-      <c r="M188" s="61"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="N188" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O188" s="69"/>
-      <c r="P188" s="209"/>
-      <c r="Q188" s="124"/>
-      <c r="R188" s="125"/>
-      <c r="S188" s="176"/>
-      <c r="T188" s="177"/>
-      <c r="U188" s="49"/>
-      <c r="V188" s="50"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O188" s="257"/>
+      <c r="P188" s="243"/>
+      <c r="Q188" s="258"/>
+      <c r="R188" s="259"/>
+      <c r="S188" s="260"/>
+      <c r="T188" s="261"/>
+      <c r="U188" s="262"/>
+      <c r="V188" s="263"/>
     </row>
     <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="169"/>
       <c r="B189" s="99"/>
-      <c r="C189" s="244"/>
-      <c r="D189" s="244"/>
+      <c r="C189" s="249"/>
+      <c r="D189" s="249"/>
       <c r="E189" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19541,14 +20022,14 @@
       <c r="H189" s="227"/>
       <c r="I189" s="60"/>
       <c r="J189" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K189" s="81"/>
       <c r="L189" s="61"/>
       <c r="M189" s="61"/>
       <c r="N189" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O189" s="69"/>
@@ -19563,8 +20044,8 @@
     <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="169"/>
       <c r="B190" s="99"/>
-      <c r="C190" s="244"/>
-      <c r="D190" s="244"/>
+      <c r="C190" s="249"/>
+      <c r="D190" s="249"/>
       <c r="E190" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -19574,14 +20055,14 @@
       <c r="H190" s="227"/>
       <c r="I190" s="60"/>
       <c r="J190" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K190" s="81"/>
       <c r="L190" s="61"/>
       <c r="M190" s="61"/>
       <c r="N190" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O190" s="69"/>
@@ -19593,28 +20074,28 @@
       <c r="U190" s="49"/>
       <c r="V190" s="50"/>
     </row>
-    <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="248"/>
-      <c r="B191" s="203"/>
-      <c r="C191" s="249"/>
-      <c r="D191" s="249"/>
+    <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="169"/>
+      <c r="B191" s="99"/>
+      <c r="C191" s="264"/>
+      <c r="D191" s="264"/>
       <c r="E191" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F191" s="60"/>
-      <c r="G191" s="224"/>
+      <c r="G191" s="251"/>
       <c r="H191" s="227"/>
       <c r="I191" s="60"/>
       <c r="J191" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K191" s="81"/>
       <c r="L191" s="61"/>
       <c r="M191" s="61"/>
       <c r="N191" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N191:N254" si="9">K191*I191</f>
         <v>0</v>
       </c>
       <c r="O191" s="69"/>
@@ -19627,20 +20108,20 @@
       <c r="V191" s="50"/>
     </row>
     <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="266"/>
+      <c r="A192" s="169"/>
       <c r="B192" s="99"/>
-      <c r="C192" s="250"/>
-      <c r="D192" s="250"/>
+      <c r="C192" s="264"/>
+      <c r="D192" s="264"/>
       <c r="E192" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F192" s="60"/>
-      <c r="G192" s="58"/>
+      <c r="G192" s="251"/>
       <c r="H192" s="227"/>
       <c r="I192" s="60"/>
       <c r="J192" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K192" s="81"/>
@@ -19650,8 +20131,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O192" s="62"/>
-      <c r="P192" s="252"/>
+      <c r="O192" s="69"/>
+      <c r="P192" s="209"/>
       <c r="Q192" s="124"/>
       <c r="R192" s="125"/>
       <c r="S192" s="176"/>
@@ -19659,21 +20140,21 @@
       <c r="U192" s="49"/>
       <c r="V192" s="50"/>
     </row>
-    <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="169"/>
-      <c r="B193" s="203"/>
-      <c r="C193" s="267"/>
-      <c r="D193" s="267"/>
+      <c r="B193" s="99"/>
+      <c r="C193" s="264"/>
+      <c r="D193" s="264"/>
       <c r="E193" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F193" s="60"/>
-      <c r="G193" s="224"/>
+      <c r="G193" s="251"/>
       <c r="H193" s="227"/>
       <c r="I193" s="60"/>
       <c r="J193" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K193" s="81"/>
@@ -19695,18 +20176,18 @@
     <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="169"/>
       <c r="B194" s="203"/>
-      <c r="C194" s="267"/>
-      <c r="D194" s="267"/>
+      <c r="C194" s="265"/>
+      <c r="D194" s="265"/>
       <c r="E194" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F194" s="60"/>
-      <c r="G194" s="224"/>
+      <c r="G194" s="251"/>
       <c r="H194" s="227"/>
       <c r="I194" s="60"/>
       <c r="J194" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K194" s="81"/>
@@ -19725,21 +20206,21 @@
       <c r="U194" s="49"/>
       <c r="V194" s="50"/>
     </row>
-    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="169"/>
-      <c r="B195" s="203"/>
-      <c r="C195" s="267"/>
-      <c r="D195" s="267"/>
+      <c r="B195" s="99"/>
+      <c r="C195" s="264"/>
+      <c r="D195" s="264"/>
       <c r="E195" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F195" s="60"/>
-      <c r="G195" s="224"/>
+      <c r="G195" s="251"/>
       <c r="H195" s="227"/>
       <c r="I195" s="60"/>
       <c r="J195" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K195" s="81"/>
@@ -19758,21 +20239,21 @@
       <c r="U195" s="49"/>
       <c r="V195" s="50"/>
     </row>
-    <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="169"/>
-      <c r="B196" s="203"/>
-      <c r="C196" s="267"/>
-      <c r="D196" s="267"/>
+      <c r="B196" s="99"/>
+      <c r="C196" s="244"/>
+      <c r="D196" s="244"/>
       <c r="E196" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F196" s="268"/>
-      <c r="G196" s="251"/>
+      <c r="F196" s="60"/>
+      <c r="G196" s="224"/>
       <c r="H196" s="227"/>
       <c r="I196" s="60"/>
       <c r="J196" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K196" s="81"/>
@@ -19791,21 +20272,21 @@
       <c r="U196" s="49"/>
       <c r="V196" s="50"/>
     </row>
-    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="169"/>
-      <c r="B197" s="203"/>
-      <c r="C197" s="267"/>
-      <c r="D197" s="267"/>
+      <c r="B197" s="99"/>
+      <c r="C197" s="244"/>
+      <c r="D197" s="244"/>
       <c r="E197" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F197" s="268"/>
-      <c r="G197" s="251"/>
+      <c r="F197" s="60"/>
+      <c r="G197" s="224"/>
       <c r="H197" s="227"/>
       <c r="I197" s="60"/>
       <c r="J197" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J197:J260" si="10">I197-F197</f>
         <v>0</v>
       </c>
       <c r="K197" s="81"/>
@@ -19824,17 +20305,17 @@
       <c r="U197" s="49"/>
       <c r="V197" s="50"/>
     </row>
-    <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="169"/>
-      <c r="B198" s="203"/>
-      <c r="C198" s="267"/>
-      <c r="D198" s="267"/>
+      <c r="B198" s="99"/>
+      <c r="C198" s="244"/>
+      <c r="D198" s="244"/>
       <c r="E198" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F198" s="268"/>
-      <c r="G198" s="251"/>
+      <c r="F198" s="60"/>
+      <c r="G198" s="224"/>
       <c r="H198" s="227"/>
       <c r="I198" s="60"/>
       <c r="J198" s="39">
@@ -19857,17 +20338,17 @@
       <c r="U198" s="49"/>
       <c r="V198" s="50"/>
     </row>
-    <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="169"/>
-      <c r="B199" s="203"/>
-      <c r="C199" s="267"/>
-      <c r="D199" s="267"/>
+      <c r="B199" s="99"/>
+      <c r="C199" s="244"/>
+      <c r="D199" s="244"/>
       <c r="E199" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F199" s="268"/>
-      <c r="G199" s="251"/>
+      <c r="F199" s="60"/>
+      <c r="G199" s="224"/>
       <c r="H199" s="227"/>
       <c r="I199" s="60"/>
       <c r="J199" s="39">
@@ -19891,16 +20372,16 @@
       <c r="V199" s="50"/>
     </row>
     <row r="200" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="169"/>
+      <c r="A200" s="248"/>
       <c r="B200" s="203"/>
-      <c r="C200" s="267"/>
-      <c r="D200" s="267"/>
+      <c r="C200" s="249"/>
+      <c r="D200" s="249"/>
       <c r="E200" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F200" s="268"/>
-      <c r="G200" s="251"/>
+      <c r="F200" s="60"/>
+      <c r="G200" s="224"/>
       <c r="H200" s="227"/>
       <c r="I200" s="60"/>
       <c r="J200" s="39">
@@ -19923,17 +20404,17 @@
       <c r="U200" s="49"/>
       <c r="V200" s="50"/>
     </row>
-    <row r="201" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="169"/>
-      <c r="B201" s="203"/>
-      <c r="C201" s="267"/>
-      <c r="D201" s="267"/>
+    <row r="201" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="266"/>
+      <c r="B201" s="99"/>
+      <c r="C201" s="250"/>
+      <c r="D201" s="250"/>
       <c r="E201" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F201" s="268"/>
-      <c r="G201" s="251"/>
+      <c r="F201" s="60"/>
+      <c r="G201" s="58"/>
       <c r="H201" s="227"/>
       <c r="I201" s="60"/>
       <c r="J201" s="39">
@@ -19947,8 +20428,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O201" s="69"/>
-      <c r="P201" s="209"/>
+      <c r="O201" s="62"/>
+      <c r="P201" s="252"/>
       <c r="Q201" s="124"/>
       <c r="R201" s="125"/>
       <c r="S201" s="176"/>
@@ -19965,8 +20446,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F202" s="268"/>
-      <c r="G202" s="251"/>
+      <c r="F202" s="60"/>
+      <c r="G202" s="224"/>
       <c r="H202" s="227"/>
       <c r="I202" s="60"/>
       <c r="J202" s="39">
@@ -19999,7 +20480,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="60"/>
-      <c r="G203" s="251"/>
+      <c r="G203" s="224"/>
       <c r="H203" s="227"/>
       <c r="I203" s="60"/>
       <c r="J203" s="39">
@@ -20025,8 +20506,8 @@
     <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="169"/>
       <c r="B204" s="203"/>
-      <c r="C204" s="244"/>
-      <c r="D204" s="244"/>
+      <c r="C204" s="267"/>
+      <c r="D204" s="267"/>
       <c r="E204" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -20058,14 +20539,14 @@
     <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="169"/>
       <c r="B205" s="203"/>
-      <c r="C205" s="244"/>
-      <c r="D205" s="244"/>
+      <c r="C205" s="267"/>
+      <c r="D205" s="267"/>
       <c r="E205" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F205" s="60"/>
-      <c r="G205" s="224"/>
+      <c r="F205" s="268"/>
+      <c r="G205" s="251"/>
       <c r="H205" s="227"/>
       <c r="I205" s="60"/>
       <c r="J205" s="39">
@@ -20091,14 +20572,14 @@
     <row r="206" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="169"/>
       <c r="B206" s="203"/>
-      <c r="C206" s="244"/>
-      <c r="D206" s="244"/>
+      <c r="C206" s="267"/>
+      <c r="D206" s="267"/>
       <c r="E206" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F206" s="60"/>
-      <c r="G206" s="224"/>
+      <c r="F206" s="268"/>
+      <c r="G206" s="251"/>
       <c r="H206" s="227"/>
       <c r="I206" s="60"/>
       <c r="J206" s="39">
@@ -20124,14 +20605,14 @@
     <row r="207" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="169"/>
       <c r="B207" s="203"/>
-      <c r="C207" s="244"/>
-      <c r="D207" s="244"/>
+      <c r="C207" s="267"/>
+      <c r="D207" s="267"/>
       <c r="E207" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F207" s="60"/>
-      <c r="G207" s="224"/>
+      <c r="F207" s="268"/>
+      <c r="G207" s="251"/>
       <c r="H207" s="227"/>
       <c r="I207" s="60"/>
       <c r="J207" s="39">
@@ -20157,14 +20638,14 @@
     <row r="208" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="169"/>
       <c r="B208" s="203"/>
-      <c r="C208" s="244"/>
-      <c r="D208" s="244"/>
+      <c r="C208" s="267"/>
+      <c r="D208" s="267"/>
       <c r="E208" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F208" s="60"/>
-      <c r="G208" s="224"/>
+      <c r="F208" s="268"/>
+      <c r="G208" s="251"/>
       <c r="H208" s="227"/>
       <c r="I208" s="60"/>
       <c r="J208" s="39">
@@ -20190,14 +20671,14 @@
     <row r="209" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="169"/>
       <c r="B209" s="203"/>
-      <c r="C209" s="244"/>
-      <c r="D209" s="244"/>
+      <c r="C209" s="267"/>
+      <c r="D209" s="267"/>
       <c r="E209" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F209" s="60"/>
-      <c r="G209" s="224"/>
+      <c r="F209" s="268"/>
+      <c r="G209" s="251"/>
       <c r="H209" s="227"/>
       <c r="I209" s="60"/>
       <c r="J209" s="39">
@@ -20223,14 +20704,14 @@
     <row r="210" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="169"/>
       <c r="B210" s="203"/>
-      <c r="C210" s="244"/>
-      <c r="D210" s="244"/>
+      <c r="C210" s="267"/>
+      <c r="D210" s="267"/>
       <c r="E210" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F210" s="60"/>
-      <c r="G210" s="224"/>
+      <c r="F210" s="268"/>
+      <c r="G210" s="251"/>
       <c r="H210" s="227"/>
       <c r="I210" s="60"/>
       <c r="J210" s="39">
@@ -20256,14 +20737,14 @@
     <row r="211" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="169"/>
       <c r="B211" s="203"/>
-      <c r="C211" s="244"/>
-      <c r="D211" s="244"/>
+      <c r="C211" s="267"/>
+      <c r="D211" s="267"/>
       <c r="E211" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F211" s="60"/>
-      <c r="G211" s="224"/>
+      <c r="F211" s="268"/>
+      <c r="G211" s="251"/>
       <c r="H211" s="227"/>
       <c r="I211" s="60"/>
       <c r="J211" s="39">
@@ -20286,18 +20767,18 @@
       <c r="U211" s="49"/>
       <c r="V211" s="50"/>
     </row>
-    <row r="212" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="203"/>
-      <c r="B212" s="253"/>
-      <c r="C212" s="244"/>
-      <c r="D212" s="244"/>
+    <row r="212" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="169"/>
+      <c r="B212" s="203"/>
+      <c r="C212" s="267"/>
+      <c r="D212" s="267"/>
       <c r="E212" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F212" s="60"/>
-      <c r="G212" s="58"/>
-      <c r="H212" s="59"/>
+      <c r="G212" s="251"/>
+      <c r="H212" s="227"/>
       <c r="I212" s="60"/>
       <c r="J212" s="39">
         <f t="shared" si="10"/>
@@ -20320,7 +20801,7 @@
       <c r="V212" s="50"/>
     </row>
     <row r="213" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="266"/>
+      <c r="A213" s="169"/>
       <c r="B213" s="203"/>
       <c r="C213" s="244"/>
       <c r="D213" s="244"/>
@@ -20353,7 +20834,7 @@
       <c r="V213" s="50"/>
     </row>
     <row r="214" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="266"/>
+      <c r="A214" s="169"/>
       <c r="B214" s="203"/>
       <c r="C214" s="244"/>
       <c r="D214" s="244"/>
@@ -20386,7 +20867,7 @@
       <c r="V214" s="50"/>
     </row>
     <row r="215" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="266"/>
+      <c r="A215" s="169"/>
       <c r="B215" s="203"/>
       <c r="C215" s="244"/>
       <c r="D215" s="244"/>
@@ -20419,7 +20900,7 @@
       <c r="V215" s="50"/>
     </row>
     <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="266"/>
+      <c r="A216" s="169"/>
       <c r="B216" s="203"/>
       <c r="C216" s="244"/>
       <c r="D216" s="244"/>
@@ -20452,7 +20933,7 @@
       <c r="V216" s="50"/>
     </row>
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="269"/>
+      <c r="A217" s="169"/>
       <c r="B217" s="203"/>
       <c r="C217" s="244"/>
       <c r="D217" s="244"/>
@@ -20583,18 +21064,18 @@
       <c r="U220" s="49"/>
       <c r="V220" s="50"/>
     </row>
-    <row r="221" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="169"/>
-      <c r="B221" s="203"/>
+    <row r="221" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="203"/>
+      <c r="B221" s="253"/>
       <c r="C221" s="244"/>
       <c r="D221" s="244"/>
       <c r="E221" s="34">
-        <f t="shared" ref="E221:E265" si="11">D221*F221</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F221" s="60"/>
-      <c r="G221" s="224"/>
-      <c r="H221" s="227"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="59"/>
       <c r="I221" s="60"/>
       <c r="J221" s="39">
         <f t="shared" si="10"/>
@@ -20617,12 +21098,12 @@
       <c r="V221" s="50"/>
     </row>
     <row r="222" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="169"/>
+      <c r="A222" s="266"/>
       <c r="B222" s="203"/>
       <c r="C222" s="244"/>
       <c r="D222" s="244"/>
       <c r="E222" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F222" s="60"/>
@@ -20650,12 +21131,12 @@
       <c r="V222" s="50"/>
     </row>
     <row r="223" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="169"/>
+      <c r="A223" s="266"/>
       <c r="B223" s="203"/>
       <c r="C223" s="244"/>
       <c r="D223" s="244"/>
       <c r="E223" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F223" s="60"/>
@@ -20683,12 +21164,12 @@
       <c r="V223" s="50"/>
     </row>
     <row r="224" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="169"/>
+      <c r="A224" s="266"/>
       <c r="B224" s="203"/>
       <c r="C224" s="244"/>
       <c r="D224" s="244"/>
       <c r="E224" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F224" s="60"/>
@@ -20716,12 +21197,12 @@
       <c r="V224" s="50"/>
     </row>
     <row r="225" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="169"/>
+      <c r="A225" s="266"/>
       <c r="B225" s="203"/>
       <c r="C225" s="244"/>
       <c r="D225" s="244"/>
       <c r="E225" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F225" s="60"/>
@@ -20749,12 +21230,12 @@
       <c r="V225" s="50"/>
     </row>
     <row r="226" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="169"/>
+      <c r="A226" s="269"/>
       <c r="B226" s="203"/>
       <c r="C226" s="244"/>
       <c r="D226" s="244"/>
       <c r="E226" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F226" s="60"/>
@@ -20784,10 +21265,10 @@
     <row r="227" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="169"/>
       <c r="B227" s="203"/>
-      <c r="C227" s="270"/>
-      <c r="D227" s="270"/>
+      <c r="C227" s="244"/>
+      <c r="D227" s="244"/>
       <c r="E227" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F227" s="60"/>
@@ -20820,7 +21301,7 @@
       <c r="C228" s="244"/>
       <c r="D228" s="244"/>
       <c r="E228" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F228" s="60"/>
@@ -20850,10 +21331,10 @@
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="169"/>
       <c r="B229" s="203"/>
-      <c r="C229" s="264"/>
-      <c r="D229" s="264"/>
+      <c r="C229" s="244"/>
+      <c r="D229" s="244"/>
       <c r="E229" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F229" s="60"/>
@@ -20883,10 +21364,10 @@
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="169"/>
       <c r="B230" s="203"/>
-      <c r="C230" s="265"/>
-      <c r="D230" s="265"/>
+      <c r="C230" s="244"/>
+      <c r="D230" s="244"/>
       <c r="E230" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E230:E274" si="11">D230*F230</f>
         <v>0</v>
       </c>
       <c r="F230" s="60"/>
@@ -20916,8 +21397,8 @@
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="169"/>
       <c r="B231" s="203"/>
-      <c r="C231" s="265"/>
-      <c r="D231" s="265"/>
+      <c r="C231" s="244"/>
+      <c r="D231" s="244"/>
       <c r="E231" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -20949,8 +21430,8 @@
     <row r="232" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="169"/>
       <c r="B232" s="203"/>
-      <c r="C232" s="264"/>
-      <c r="D232" s="264"/>
+      <c r="C232" s="244"/>
+      <c r="D232" s="244"/>
       <c r="E232" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -20982,8 +21463,8 @@
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="169"/>
       <c r="B233" s="203"/>
-      <c r="C233" s="249"/>
-      <c r="D233" s="249"/>
+      <c r="C233" s="244"/>
+      <c r="D233" s="244"/>
       <c r="E233" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21015,8 +21496,8 @@
     <row r="234" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="169"/>
       <c r="B234" s="203"/>
-      <c r="C234" s="197"/>
-      <c r="D234" s="197"/>
+      <c r="C234" s="244"/>
+      <c r="D234" s="244"/>
       <c r="E234" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21046,10 +21527,10 @@
       <c r="V234" s="50"/>
     </row>
     <row r="235" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="204"/>
+      <c r="A235" s="169"/>
       <c r="B235" s="203"/>
-      <c r="C235" s="226"/>
-      <c r="D235" s="226"/>
+      <c r="C235" s="244"/>
+      <c r="D235" s="244"/>
       <c r="E235" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21081,8 +21562,8 @@
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="169"/>
       <c r="B236" s="203"/>
-      <c r="C236" s="226"/>
-      <c r="D236" s="226"/>
+      <c r="C236" s="270"/>
+      <c r="D236" s="270"/>
       <c r="E236" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21114,8 +21595,8 @@
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="169"/>
       <c r="B237" s="203"/>
-      <c r="C237" s="226"/>
-      <c r="D237" s="226"/>
+      <c r="C237" s="244"/>
+      <c r="D237" s="244"/>
       <c r="E237" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21145,10 +21626,10 @@
       <c r="V237" s="50"/>
     </row>
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="271"/>
-      <c r="B238" s="272"/>
-      <c r="C238" s="226"/>
-      <c r="D238" s="226"/>
+      <c r="A238" s="169"/>
+      <c r="B238" s="203"/>
+      <c r="C238" s="264"/>
+      <c r="D238" s="264"/>
       <c r="E238" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21177,18 +21658,18 @@
       <c r="U238" s="49"/>
       <c r="V238" s="50"/>
     </row>
-    <row r="239" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="204"/>
-      <c r="B239" s="272"/>
-      <c r="C239" s="226"/>
-      <c r="D239" s="226"/>
+    <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="169"/>
+      <c r="B239" s="203"/>
+      <c r="C239" s="265"/>
+      <c r="D239" s="265"/>
       <c r="E239" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F239" s="60"/>
       <c r="G239" s="224"/>
-      <c r="H239" s="59"/>
+      <c r="H239" s="227"/>
       <c r="I239" s="60"/>
       <c r="J239" s="39">
         <f t="shared" si="10"/>
@@ -21211,10 +21692,10 @@
       <c r="V239" s="50"/>
     </row>
     <row r="240" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="204"/>
-      <c r="B240" s="272"/>
-      <c r="C240" s="226"/>
-      <c r="D240" s="226"/>
+      <c r="A240" s="169"/>
+      <c r="B240" s="203"/>
+      <c r="C240" s="265"/>
+      <c r="D240" s="265"/>
       <c r="E240" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21245,9 +21726,9 @@
     </row>
     <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="169"/>
-      <c r="B241" s="272"/>
-      <c r="C241" s="181"/>
-      <c r="D241" s="181"/>
+      <c r="B241" s="203"/>
+      <c r="C241" s="264"/>
+      <c r="D241" s="264"/>
       <c r="E241" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21278,9 +21759,9 @@
     </row>
     <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="169"/>
-      <c r="B242" s="272"/>
-      <c r="C242" s="181"/>
-      <c r="D242" s="181"/>
+      <c r="B242" s="203"/>
+      <c r="C242" s="249"/>
+      <c r="D242" s="249"/>
       <c r="E242" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21309,18 +21790,18 @@
       <c r="U242" s="49"/>
       <c r="V242" s="50"/>
     </row>
-    <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="204"/>
-      <c r="B243" s="272"/>
-      <c r="C243" s="242"/>
-      <c r="D243" s="242"/>
+    <row r="243" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="169"/>
+      <c r="B243" s="203"/>
+      <c r="C243" s="197"/>
+      <c r="D243" s="197"/>
       <c r="E243" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F243" s="60"/>
       <c r="G243" s="224"/>
-      <c r="H243" s="175"/>
+      <c r="H243" s="227"/>
       <c r="I243" s="60"/>
       <c r="J243" s="39">
         <f t="shared" si="10"/>
@@ -21333,8 +21814,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O243" s="223"/>
-      <c r="P243" s="243"/>
+      <c r="O243" s="69"/>
+      <c r="P243" s="209"/>
       <c r="Q243" s="124"/>
       <c r="R243" s="125"/>
       <c r="S243" s="176"/>
@@ -21342,32 +21823,32 @@
       <c r="U243" s="49"/>
       <c r="V243" s="50"/>
     </row>
-    <row r="244" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="204"/>
-      <c r="B244" s="272"/>
-      <c r="C244" s="187"/>
-      <c r="D244" s="187"/>
+      <c r="B244" s="203"/>
+      <c r="C244" s="226"/>
+      <c r="D244" s="226"/>
       <c r="E244" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F244" s="60"/>
       <c r="G244" s="224"/>
-      <c r="H244" s="175"/>
+      <c r="H244" s="227"/>
       <c r="I244" s="60"/>
       <c r="J244" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K244" s="81"/>
-      <c r="L244" s="273"/>
-      <c r="M244" s="274"/>
+      <c r="L244" s="61"/>
+      <c r="M244" s="61"/>
       <c r="N244" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O244" s="223"/>
-      <c r="P244" s="243"/>
+      <c r="O244" s="69"/>
+      <c r="P244" s="209"/>
       <c r="Q244" s="124"/>
       <c r="R244" s="125"/>
       <c r="S244" s="176"/>
@@ -21375,32 +21856,32 @@
       <c r="U244" s="49"/>
       <c r="V244" s="50"/>
     </row>
-    <row r="245" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="204"/>
-      <c r="B245" s="275"/>
-      <c r="C245" s="182"/>
-      <c r="D245" s="182"/>
+    <row r="245" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="169"/>
+      <c r="B245" s="203"/>
+      <c r="C245" s="226"/>
+      <c r="D245" s="226"/>
       <c r="E245" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F245" s="182"/>
-      <c r="G245" s="276"/>
-      <c r="H245" s="277"/>
-      <c r="I245" s="57"/>
+      <c r="F245" s="60"/>
+      <c r="G245" s="224"/>
+      <c r="H245" s="227"/>
+      <c r="I245" s="60"/>
       <c r="J245" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K245" s="81"/>
-      <c r="L245" s="273"/>
-      <c r="M245" s="274"/>
+      <c r="L245" s="61"/>
+      <c r="M245" s="61"/>
       <c r="N245" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O245" s="223"/>
-      <c r="P245" s="243"/>
+      <c r="O245" s="69"/>
+      <c r="P245" s="209"/>
       <c r="Q245" s="124"/>
       <c r="R245" s="125"/>
       <c r="S245" s="176"/>
@@ -21408,32 +21889,32 @@
       <c r="U245" s="49"/>
       <c r="V245" s="50"/>
     </row>
-    <row r="246" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="204"/>
-      <c r="B246" s="275"/>
-      <c r="C246" s="182"/>
-      <c r="D246" s="182"/>
+    <row r="246" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="169"/>
+      <c r="B246" s="203"/>
+      <c r="C246" s="226"/>
+      <c r="D246" s="226"/>
       <c r="E246" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F246" s="182"/>
-      <c r="G246" s="276"/>
-      <c r="H246" s="277"/>
-      <c r="I246" s="57"/>
+      <c r="F246" s="60"/>
+      <c r="G246" s="224"/>
+      <c r="H246" s="227"/>
+      <c r="I246" s="60"/>
       <c r="J246" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K246" s="81"/>
-      <c r="L246" s="273"/>
-      <c r="M246" s="274"/>
+      <c r="L246" s="61"/>
+      <c r="M246" s="61"/>
       <c r="N246" s="42">
-        <f t="shared" ref="N246:N265" si="12">K246*I246</f>
-        <v>0</v>
-      </c>
-      <c r="O246" s="223"/>
-      <c r="P246" s="243"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O246" s="69"/>
+      <c r="P246" s="209"/>
       <c r="Q246" s="124"/>
       <c r="R246" s="125"/>
       <c r="S246" s="176"/>
@@ -21441,32 +21922,32 @@
       <c r="U246" s="49"/>
       <c r="V246" s="50"/>
     </row>
-    <row r="247" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="204"/>
-      <c r="B247" s="278"/>
-      <c r="C247" s="182"/>
-      <c r="D247" s="182"/>
+    <row r="247" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="271"/>
+      <c r="B247" s="272"/>
+      <c r="C247" s="226"/>
+      <c r="D247" s="226"/>
       <c r="E247" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F247" s="182"/>
-      <c r="G247" s="276"/>
-      <c r="H247" s="277"/>
-      <c r="I247" s="57"/>
+      <c r="F247" s="60"/>
+      <c r="G247" s="224"/>
+      <c r="H247" s="227"/>
+      <c r="I247" s="60"/>
       <c r="J247" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K247" s="81"/>
-      <c r="L247" s="273"/>
-      <c r="M247" s="274"/>
+      <c r="L247" s="61"/>
+      <c r="M247" s="61"/>
       <c r="N247" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O247" s="69"/>
-      <c r="P247" s="212"/>
+      <c r="P247" s="209"/>
       <c r="Q247" s="124"/>
       <c r="R247" s="125"/>
       <c r="S247" s="176"/>
@@ -21476,30 +21957,30 @@
     </row>
     <row r="248" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="204"/>
-      <c r="B248" s="278"/>
-      <c r="C248" s="182"/>
-      <c r="D248" s="182"/>
+      <c r="B248" s="272"/>
+      <c r="C248" s="226"/>
+      <c r="D248" s="226"/>
       <c r="E248" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F248" s="182"/>
-      <c r="G248" s="276"/>
-      <c r="H248" s="277"/>
-      <c r="I248" s="57"/>
+      <c r="F248" s="60"/>
+      <c r="G248" s="224"/>
+      <c r="H248" s="59"/>
+      <c r="I248" s="60"/>
       <c r="J248" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K248" s="81"/>
-      <c r="L248" s="273"/>
-      <c r="M248" s="274"/>
+      <c r="L248" s="61"/>
+      <c r="M248" s="61"/>
       <c r="N248" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O248" s="69"/>
-      <c r="P248" s="212"/>
+      <c r="P248" s="209"/>
       <c r="Q248" s="124"/>
       <c r="R248" s="125"/>
       <c r="S248" s="176"/>
@@ -21507,32 +21988,32 @@
       <c r="U248" s="49"/>
       <c r="V248" s="50"/>
     </row>
-    <row r="249" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="204"/>
-      <c r="B249" s="278"/>
-      <c r="C249" s="182"/>
-      <c r="D249" s="182"/>
+      <c r="B249" s="272"/>
+      <c r="C249" s="226"/>
+      <c r="D249" s="226"/>
       <c r="E249" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F249" s="182"/>
-      <c r="G249" s="276"/>
-      <c r="H249" s="277"/>
-      <c r="I249" s="57"/>
+      <c r="F249" s="60"/>
+      <c r="G249" s="224"/>
+      <c r="H249" s="227"/>
+      <c r="I249" s="60"/>
       <c r="J249" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K249" s="81"/>
-      <c r="L249" s="273"/>
-      <c r="M249" s="274"/>
+      <c r="L249" s="61"/>
+      <c r="M249" s="61"/>
       <c r="N249" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O249" s="69"/>
-      <c r="P249" s="212"/>
+      <c r="P249" s="209"/>
       <c r="Q249" s="124"/>
       <c r="R249" s="125"/>
       <c r="S249" s="176"/>
@@ -21540,32 +22021,32 @@
       <c r="U249" s="49"/>
       <c r="V249" s="50"/>
     </row>
-    <row r="250" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="204"/>
-      <c r="B250" s="203"/>
-      <c r="C250" s="279"/>
-      <c r="D250" s="280"/>
+    <row r="250" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="169"/>
+      <c r="B250" s="272"/>
+      <c r="C250" s="181"/>
+      <c r="D250" s="181"/>
       <c r="E250" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F250" s="38"/>
-      <c r="G250" s="281"/>
-      <c r="H250" s="282"/>
+      <c r="F250" s="60"/>
+      <c r="G250" s="224"/>
+      <c r="H250" s="227"/>
       <c r="I250" s="60"/>
       <c r="J250" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K250" s="81"/>
-      <c r="L250" s="273"/>
-      <c r="M250" s="283"/>
+      <c r="L250" s="61"/>
+      <c r="M250" s="61"/>
       <c r="N250" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O250" s="223"/>
-      <c r="P250" s="243"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O250" s="69"/>
+      <c r="P250" s="209"/>
       <c r="Q250" s="124"/>
       <c r="R250" s="125"/>
       <c r="S250" s="176"/>
@@ -21573,32 +22054,32 @@
       <c r="U250" s="49"/>
       <c r="V250" s="50"/>
     </row>
-    <row r="251" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="204"/>
-      <c r="B251" s="203"/>
-      <c r="C251" s="279"/>
-      <c r="D251" s="279"/>
+    <row r="251" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="169"/>
+      <c r="B251" s="272"/>
+      <c r="C251" s="181"/>
+      <c r="D251" s="181"/>
       <c r="E251" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F251" s="60"/>
       <c r="G251" s="224"/>
-      <c r="H251" s="175"/>
+      <c r="H251" s="227"/>
       <c r="I251" s="60"/>
       <c r="J251" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K251" s="81"/>
-      <c r="L251" s="273"/>
-      <c r="M251" s="283"/>
+      <c r="L251" s="61"/>
+      <c r="M251" s="61"/>
       <c r="N251" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O251" s="223"/>
-      <c r="P251" s="243"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O251" s="69"/>
+      <c r="P251" s="209"/>
       <c r="Q251" s="124"/>
       <c r="R251" s="125"/>
       <c r="S251" s="176"/>
@@ -21606,11 +22087,11 @@
       <c r="U251" s="49"/>
       <c r="V251" s="50"/>
     </row>
-    <row r="252" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="204"/>
-      <c r="B252" s="203"/>
-      <c r="C252" s="279"/>
-      <c r="D252" s="279"/>
+      <c r="B252" s="272"/>
+      <c r="C252" s="242"/>
+      <c r="D252" s="242"/>
       <c r="E252" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21620,14 +22101,14 @@
       <c r="H252" s="175"/>
       <c r="I252" s="60"/>
       <c r="J252" s="39">
-        <f t="shared" ref="J252:J261" si="13">I252-F252</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K252" s="81"/>
-      <c r="L252" s="273"/>
-      <c r="M252" s="283"/>
+      <c r="L252" s="61"/>
+      <c r="M252" s="61"/>
       <c r="N252" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O252" s="223"/>
@@ -21639,11 +22120,11 @@
       <c r="U252" s="49"/>
       <c r="V252" s="50"/>
     </row>
-    <row r="253" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="204"/>
-      <c r="B253" s="203"/>
-      <c r="C253" s="284"/>
-      <c r="D253" s="284"/>
+      <c r="B253" s="272"/>
+      <c r="C253" s="187"/>
+      <c r="D253" s="187"/>
       <c r="E253" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -21653,14 +22134,14 @@
       <c r="H253" s="175"/>
       <c r="I253" s="60"/>
       <c r="J253" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K253" s="81"/>
       <c r="L253" s="273"/>
-      <c r="M253" s="283"/>
+      <c r="M253" s="274"/>
       <c r="N253" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O253" s="223"/>
@@ -21673,770 +22154,887 @@
       <c r="V253" s="50"/>
     </row>
     <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="285"/>
-      <c r="B254" s="203"/>
-      <c r="C254" s="203"/>
-      <c r="D254" s="203"/>
+      <c r="A254" s="204"/>
+      <c r="B254" s="275"/>
+      <c r="C254" s="182"/>
+      <c r="D254" s="182"/>
       <c r="E254" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F254" s="254"/>
-      <c r="G254" s="224"/>
-      <c r="H254" s="255"/>
-      <c r="I254" s="254">
-        <v>0</v>
-      </c>
+      <c r="F254" s="182"/>
+      <c r="G254" s="276"/>
+      <c r="H254" s="277"/>
+      <c r="I254" s="57"/>
       <c r="J254" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K254" s="286"/>
-      <c r="L254" s="286"/>
-      <c r="M254" s="286"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K254" s="81"/>
+      <c r="L254" s="273"/>
+      <c r="M254" s="274"/>
       <c r="N254" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O254" s="287"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O254" s="223"/>
       <c r="P254" s="243"/>
       <c r="Q254" s="124"/>
-      <c r="R254" s="288"/>
-      <c r="S254" s="289"/>
-      <c r="T254" s="290"/>
-      <c r="U254" s="259"/>
-      <c r="V254" s="263"/>
+      <c r="R254" s="125"/>
+      <c r="S254" s="176"/>
+      <c r="T254" s="177"/>
+      <c r="U254" s="49"/>
+      <c r="V254" s="50"/>
     </row>
     <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="285"/>
-      <c r="B255" s="203"/>
-      <c r="C255" s="203"/>
-      <c r="D255" s="203"/>
+      <c r="A255" s="204"/>
+      <c r="B255" s="275"/>
+      <c r="C255" s="182"/>
+      <c r="D255" s="182"/>
       <c r="E255" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F255" s="254"/>
-      <c r="G255" s="224"/>
-      <c r="H255" s="255"/>
-      <c r="I255" s="254">
-        <v>0</v>
-      </c>
+      <c r="F255" s="182"/>
+      <c r="G255" s="276"/>
+      <c r="H255" s="277"/>
+      <c r="I255" s="57"/>
       <c r="J255" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K255" s="286"/>
-      <c r="L255" s="286"/>
-      <c r="M255" s="286"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K255" s="81"/>
+      <c r="L255" s="273"/>
+      <c r="M255" s="274"/>
       <c r="N255" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O255" s="287"/>
+        <f t="shared" ref="N255:N274" si="12">K255*I255</f>
+        <v>0</v>
+      </c>
+      <c r="O255" s="223"/>
       <c r="P255" s="243"/>
       <c r="Q255" s="124"/>
-      <c r="R255" s="288"/>
-      <c r="S255" s="289"/>
-      <c r="T255" s="290"/>
-      <c r="U255" s="259"/>
-      <c r="V255" s="263"/>
+      <c r="R255" s="125"/>
+      <c r="S255" s="176"/>
+      <c r="T255" s="177"/>
+      <c r="U255" s="49"/>
+      <c r="V255" s="50"/>
     </row>
     <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="285"/>
-      <c r="B256" s="203"/>
-      <c r="C256" s="203"/>
-      <c r="D256" s="203"/>
+      <c r="A256" s="204"/>
+      <c r="B256" s="278"/>
+      <c r="C256" s="182"/>
+      <c r="D256" s="182"/>
       <c r="E256" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F256" s="254"/>
-      <c r="G256" s="224"/>
-      <c r="H256" s="255"/>
-      <c r="I256" s="254">
-        <v>0</v>
-      </c>
+      <c r="F256" s="182"/>
+      <c r="G256" s="276"/>
+      <c r="H256" s="277"/>
+      <c r="I256" s="57"/>
       <c r="J256" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K256" s="286"/>
-      <c r="L256" s="286"/>
-      <c r="M256" s="286"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K256" s="81"/>
+      <c r="L256" s="273"/>
+      <c r="M256" s="274"/>
       <c r="N256" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O256" s="287"/>
-      <c r="P256" s="243"/>
+      <c r="O256" s="69"/>
+      <c r="P256" s="212"/>
       <c r="Q256" s="124"/>
-      <c r="R256" s="288"/>
-      <c r="S256" s="289"/>
-      <c r="T256" s="290"/>
-      <c r="U256" s="259"/>
-      <c r="V256" s="263"/>
+      <c r="R256" s="125"/>
+      <c r="S256" s="176"/>
+      <c r="T256" s="177"/>
+      <c r="U256" s="49"/>
+      <c r="V256" s="50"/>
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="285"/>
-      <c r="B257" s="203"/>
-      <c r="C257" s="203"/>
-      <c r="D257" s="203"/>
+      <c r="A257" s="204"/>
+      <c r="B257" s="278"/>
+      <c r="C257" s="182"/>
+      <c r="D257" s="182"/>
       <c r="E257" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F257" s="254"/>
-      <c r="G257" s="224"/>
-      <c r="H257" s="291"/>
-      <c r="I257" s="254">
-        <v>0</v>
-      </c>
+      <c r="F257" s="182"/>
+      <c r="G257" s="276"/>
+      <c r="H257" s="277"/>
+      <c r="I257" s="57"/>
       <c r="J257" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K257" s="286"/>
-      <c r="L257" s="286"/>
-      <c r="M257" s="286"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K257" s="81"/>
+      <c r="L257" s="273"/>
+      <c r="M257" s="274"/>
       <c r="N257" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O257" s="287"/>
-      <c r="P257" s="243"/>
+      <c r="O257" s="69"/>
+      <c r="P257" s="212"/>
       <c r="Q257" s="124"/>
-      <c r="R257" s="288"/>
-      <c r="S257" s="289"/>
-      <c r="T257" s="290"/>
-      <c r="U257" s="259"/>
-      <c r="V257" s="263"/>
+      <c r="R257" s="125"/>
+      <c r="S257" s="176"/>
+      <c r="T257" s="177"/>
+      <c r="U257" s="49"/>
+      <c r="V257" s="50"/>
     </row>
     <row r="258" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="292"/>
-      <c r="B258" s="203"/>
-      <c r="C258" s="203"/>
-      <c r="D258" s="203"/>
+      <c r="A258" s="204"/>
+      <c r="B258" s="278"/>
+      <c r="C258" s="182"/>
+      <c r="D258" s="182"/>
       <c r="E258" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F258" s="254"/>
-      <c r="G258" s="224"/>
-      <c r="H258" s="293"/>
-      <c r="I258" s="254">
-        <v>0</v>
-      </c>
+      <c r="F258" s="182"/>
+      <c r="G258" s="276"/>
+      <c r="H258" s="277"/>
+      <c r="I258" s="57"/>
       <c r="J258" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K258" s="286"/>
-      <c r="L258" s="286"/>
-      <c r="M258" s="286"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K258" s="81"/>
+      <c r="L258" s="273"/>
+      <c r="M258" s="274"/>
       <c r="N258" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O258" s="287"/>
-      <c r="P258" s="243"/>
+      <c r="O258" s="69"/>
+      <c r="P258" s="212"/>
       <c r="Q258" s="124"/>
-      <c r="R258" s="288"/>
-      <c r="S258" s="289"/>
-      <c r="T258" s="290"/>
+      <c r="R258" s="125"/>
+      <c r="S258" s="176"/>
+      <c r="T258" s="177"/>
       <c r="U258" s="49"/>
       <c r="V258" s="50"/>
     </row>
-    <row r="259" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="294"/>
-      <c r="B259" s="295"/>
+    <row r="259" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="204"/>
+      <c r="B259" s="203"/>
+      <c r="C259" s="279"/>
+      <c r="D259" s="280"/>
       <c r="E259" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H259" s="299"/>
-      <c r="I259" s="297">
-        <v>0</v>
-      </c>
+      <c r="F259" s="38"/>
+      <c r="G259" s="281"/>
+      <c r="H259" s="282"/>
+      <c r="I259" s="60"/>
       <c r="J259" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K259" s="300"/>
-      <c r="L259" s="300"/>
-      <c r="M259" s="300"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K259" s="81"/>
+      <c r="L259" s="273"/>
+      <c r="M259" s="283"/>
       <c r="N259" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O259" s="287"/>
+      <c r="O259" s="223"/>
       <c r="P259" s="243"/>
-      <c r="Q259" s="258"/>
-      <c r="R259" s="288"/>
-      <c r="S259" s="289"/>
-      <c r="T259" s="290"/>
+      <c r="Q259" s="124"/>
+      <c r="R259" s="125"/>
+      <c r="S259" s="176"/>
+      <c r="T259" s="177"/>
       <c r="U259" s="49"/>
       <c r="V259" s="50"/>
     </row>
-    <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="294"/>
-      <c r="B260" s="295"/>
+    <row r="260" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="204"/>
+      <c r="B260" s="203"/>
+      <c r="C260" s="279"/>
+      <c r="D260" s="279"/>
       <c r="E260" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I260" s="297">
-        <v>0</v>
-      </c>
+      <c r="F260" s="60"/>
+      <c r="G260" s="224"/>
+      <c r="H260" s="175"/>
+      <c r="I260" s="60"/>
       <c r="J260" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K260" s="300"/>
-      <c r="L260" s="300"/>
-      <c r="M260" s="300"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K260" s="81"/>
+      <c r="L260" s="273"/>
+      <c r="M260" s="283"/>
       <c r="N260" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O260" s="287"/>
+      <c r="O260" s="223"/>
       <c r="P260" s="243"/>
-      <c r="Q260" s="258"/>
-      <c r="R260" s="288"/>
-      <c r="S260" s="289"/>
-      <c r="T260" s="290"/>
+      <c r="Q260" s="124"/>
+      <c r="R260" s="125"/>
+      <c r="S260" s="176"/>
+      <c r="T260" s="177"/>
       <c r="U260" s="49"/>
       <c r="V260" s="50"/>
     </row>
-    <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="294"/>
-      <c r="B261" s="295"/>
+    <row r="261" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="204"/>
+      <c r="B261" s="203"/>
+      <c r="C261" s="279"/>
+      <c r="D261" s="279"/>
       <c r="E261" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I261" s="302">
-        <v>0</v>
-      </c>
+      <c r="F261" s="60"/>
+      <c r="G261" s="224"/>
+      <c r="H261" s="175"/>
+      <c r="I261" s="60"/>
       <c r="J261" s="39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K261" s="300"/>
-      <c r="L261" s="300"/>
-      <c r="M261" s="300"/>
+        <f t="shared" ref="J261:J270" si="13">I261-F261</f>
+        <v>0</v>
+      </c>
+      <c r="K261" s="81"/>
+      <c r="L261" s="273"/>
+      <c r="M261" s="283"/>
       <c r="N261" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O261" s="287"/>
+      <c r="O261" s="223"/>
       <c r="P261" s="243"/>
-      <c r="Q261" s="258"/>
-      <c r="R261" s="288"/>
-      <c r="S261" s="289"/>
-      <c r="T261" s="290"/>
+      <c r="Q261" s="124"/>
+      <c r="R261" s="125"/>
+      <c r="S261" s="176"/>
+      <c r="T261" s="177"/>
       <c r="U261" s="49"/>
       <c r="V261" s="50"/>
     </row>
     <row r="262" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="294"/>
-      <c r="B262" s="295"/>
-      <c r="E262" s="34" t="e">
+      <c r="A262" s="204"/>
+      <c r="B262" s="203"/>
+      <c r="C262" s="284"/>
+      <c r="D262" s="284"/>
+      <c r="E262" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F262" s="60"/>
+      <c r="G262" s="224"/>
+      <c r="H262" s="175"/>
+      <c r="I262" s="60"/>
+      <c r="J262" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K262" s="81"/>
+      <c r="L262" s="273"/>
+      <c r="M262" s="283"/>
+      <c r="N262" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O262" s="223"/>
+      <c r="P262" s="243"/>
+      <c r="Q262" s="124"/>
+      <c r="R262" s="125"/>
+      <c r="S262" s="176"/>
+      <c r="T262" s="177"/>
+      <c r="U262" s="49"/>
+      <c r="V262" s="50"/>
+    </row>
+    <row r="263" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="285"/>
+      <c r="B263" s="203"/>
+      <c r="C263" s="203"/>
+      <c r="D263" s="203"/>
+      <c r="E263" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="254"/>
+      <c r="G263" s="224"/>
+      <c r="H263" s="255"/>
+      <c r="I263" s="254">
+        <v>0</v>
+      </c>
+      <c r="J263" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K263" s="286"/>
+      <c r="L263" s="286"/>
+      <c r="M263" s="286"/>
+      <c r="N263" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O263" s="287"/>
+      <c r="P263" s="243"/>
+      <c r="Q263" s="124"/>
+      <c r="R263" s="288"/>
+      <c r="S263" s="289"/>
+      <c r="T263" s="290"/>
+      <c r="U263" s="259"/>
+      <c r="V263" s="263"/>
+    </row>
+    <row r="264" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="285"/>
+      <c r="B264" s="203"/>
+      <c r="C264" s="203"/>
+      <c r="D264" s="203"/>
+      <c r="E264" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F264" s="254"/>
+      <c r="G264" s="224"/>
+      <c r="H264" s="255"/>
+      <c r="I264" s="254">
+        <v>0</v>
+      </c>
+      <c r="J264" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K264" s="286"/>
+      <c r="L264" s="286"/>
+      <c r="M264" s="286"/>
+      <c r="N264" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O264" s="287"/>
+      <c r="P264" s="243"/>
+      <c r="Q264" s="124"/>
+      <c r="R264" s="288"/>
+      <c r="S264" s="289"/>
+      <c r="T264" s="290"/>
+      <c r="U264" s="259"/>
+      <c r="V264" s="263"/>
+    </row>
+    <row r="265" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="285"/>
+      <c r="B265" s="203"/>
+      <c r="C265" s="203"/>
+      <c r="D265" s="203"/>
+      <c r="E265" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F265" s="254"/>
+      <c r="G265" s="224"/>
+      <c r="H265" s="255"/>
+      <c r="I265" s="254">
+        <v>0</v>
+      </c>
+      <c r="J265" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K265" s="286"/>
+      <c r="L265" s="286"/>
+      <c r="M265" s="286"/>
+      <c r="N265" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O265" s="287"/>
+      <c r="P265" s="243"/>
+      <c r="Q265" s="124"/>
+      <c r="R265" s="288"/>
+      <c r="S265" s="289"/>
+      <c r="T265" s="290"/>
+      <c r="U265" s="259"/>
+      <c r="V265" s="263"/>
+    </row>
+    <row r="266" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="285"/>
+      <c r="B266" s="203"/>
+      <c r="C266" s="203"/>
+      <c r="D266" s="203"/>
+      <c r="E266" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F266" s="254"/>
+      <c r="G266" s="224"/>
+      <c r="H266" s="291"/>
+      <c r="I266" s="254">
+        <v>0</v>
+      </c>
+      <c r="J266" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K266" s="286"/>
+      <c r="L266" s="286"/>
+      <c r="M266" s="286"/>
+      <c r="N266" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O266" s="287"/>
+      <c r="P266" s="243"/>
+      <c r="Q266" s="124"/>
+      <c r="R266" s="288"/>
+      <c r="S266" s="289"/>
+      <c r="T266" s="290"/>
+      <c r="U266" s="259"/>
+      <c r="V266" s="263"/>
+    </row>
+    <row r="267" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="292"/>
+      <c r="B267" s="203"/>
+      <c r="C267" s="203"/>
+      <c r="D267" s="203"/>
+      <c r="E267" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F267" s="254"/>
+      <c r="G267" s="224"/>
+      <c r="H267" s="293"/>
+      <c r="I267" s="254">
+        <v>0</v>
+      </c>
+      <c r="J267" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K267" s="286"/>
+      <c r="L267" s="286"/>
+      <c r="M267" s="286"/>
+      <c r="N267" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O267" s="287"/>
+      <c r="P267" s="243"/>
+      <c r="Q267" s="124"/>
+      <c r="R267" s="288"/>
+      <c r="S267" s="289"/>
+      <c r="T267" s="290"/>
+      <c r="U267" s="49"/>
+      <c r="V267" s="50"/>
+    </row>
+    <row r="268" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="294"/>
+      <c r="B268" s="295"/>
+      <c r="E268" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H268" s="299"/>
+      <c r="I268" s="297">
+        <v>0</v>
+      </c>
+      <c r="J268" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K268" s="300"/>
+      <c r="L268" s="300"/>
+      <c r="M268" s="300"/>
+      <c r="N268" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O268" s="287"/>
+      <c r="P268" s="243"/>
+      <c r="Q268" s="258"/>
+      <c r="R268" s="288"/>
+      <c r="S268" s="289"/>
+      <c r="T268" s="290"/>
+      <c r="U268" s="49"/>
+      <c r="V268" s="50"/>
+    </row>
+    <row r="269" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="294"/>
+      <c r="B269" s="295"/>
+      <c r="E269" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I269" s="297">
+        <v>0</v>
+      </c>
+      <c r="J269" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K269" s="300"/>
+      <c r="L269" s="300"/>
+      <c r="M269" s="300"/>
+      <c r="N269" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O269" s="287"/>
+      <c r="P269" s="243"/>
+      <c r="Q269" s="258"/>
+      <c r="R269" s="288"/>
+      <c r="S269" s="289"/>
+      <c r="T269" s="290"/>
+      <c r="U269" s="49"/>
+      <c r="V269" s="50"/>
+    </row>
+    <row r="270" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="294"/>
+      <c r="B270" s="295"/>
+      <c r="E270" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I270" s="302">
+        <v>0</v>
+      </c>
+      <c r="J270" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K270" s="300"/>
+      <c r="L270" s="300"/>
+      <c r="M270" s="300"/>
+      <c r="N270" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O270" s="287"/>
+      <c r="P270" s="243"/>
+      <c r="Q270" s="258"/>
+      <c r="R270" s="288"/>
+      <c r="S270" s="289"/>
+      <c r="T270" s="290"/>
+      <c r="U270" s="49"/>
+      <c r="V270" s="50"/>
+    </row>
+    <row r="271" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="294"/>
+      <c r="B271" s="295"/>
+      <c r="E271" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="390" t="s">
+      <c r="F271" s="392" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="390"/>
-      <c r="H262" s="391"/>
-      <c r="I262" s="303">
-        <f>SUM(I4:I261)</f>
-        <v>266373.40899999999</v>
-      </c>
-      <c r="J262" s="304"/>
-      <c r="K262" s="300"/>
-      <c r="L262" s="305"/>
-      <c r="M262" s="300"/>
-      <c r="N262" s="42">
+      <c r="G271" s="392"/>
+      <c r="H271" s="393"/>
+      <c r="I271" s="303">
+        <f>SUM(I4:I270)</f>
+        <v>321356.68900000001</v>
+      </c>
+      <c r="J271" s="304"/>
+      <c r="K271" s="300"/>
+      <c r="L271" s="305"/>
+      <c r="M271" s="300"/>
+      <c r="N271" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O262" s="287"/>
-      <c r="P262" s="243"/>
-      <c r="Q262" s="258"/>
-      <c r="R262" s="288"/>
-      <c r="S262" s="306"/>
-      <c r="T262" s="261"/>
-      <c r="U262" s="262"/>
-      <c r="V262" s="50"/>
-    </row>
-    <row r="263" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="307"/>
-      <c r="B263" s="295"/>
-      <c r="E263" s="34">
+      <c r="O271" s="287"/>
+      <c r="P271" s="243"/>
+      <c r="Q271" s="258"/>
+      <c r="R271" s="288"/>
+      <c r="S271" s="306"/>
+      <c r="T271" s="261"/>
+      <c r="U271" s="262"/>
+      <c r="V271" s="50"/>
+    </row>
+    <row r="272" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="307"/>
+      <c r="B272" s="295"/>
+      <c r="E272" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I263" s="308"/>
-      <c r="J263" s="304"/>
-      <c r="K263" s="300"/>
-      <c r="L263" s="305"/>
-      <c r="M263" s="300"/>
-      <c r="N263" s="42">
+      <c r="I272" s="308"/>
+      <c r="J272" s="304"/>
+      <c r="K272" s="300"/>
+      <c r="L272" s="305"/>
+      <c r="M272" s="300"/>
+      <c r="N272" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O263" s="309"/>
-      <c r="Q263" s="6"/>
-      <c r="R263" s="310"/>
-      <c r="S263" s="311"/>
-      <c r="T263" s="312"/>
-      <c r="V263" s="9"/>
-    </row>
-    <row r="264" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="294"/>
-      <c r="B264" s="295"/>
-      <c r="E264" s="34">
+      <c r="O272" s="309"/>
+      <c r="Q272" s="6"/>
+      <c r="R272" s="310"/>
+      <c r="S272" s="311"/>
+      <c r="T272" s="312"/>
+      <c r="V272" s="9"/>
+    </row>
+    <row r="273" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="294"/>
+      <c r="B273" s="295"/>
+      <c r="E273" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J264" s="297"/>
-      <c r="K264" s="300"/>
-      <c r="L264" s="300"/>
-      <c r="M264" s="300"/>
-      <c r="N264" s="42">
+      <c r="J273" s="297"/>
+      <c r="K273" s="300"/>
+      <c r="L273" s="300"/>
+      <c r="M273" s="300"/>
+      <c r="N273" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O264" s="309"/>
-      <c r="Q264" s="6"/>
-      <c r="R264" s="310"/>
-      <c r="S264" s="311"/>
-      <c r="T264" s="312"/>
-      <c r="V264" s="9"/>
-    </row>
-    <row r="265" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="294"/>
-      <c r="B265" s="295"/>
-      <c r="E265" s="34">
+      <c r="O273" s="309"/>
+      <c r="Q273" s="6"/>
+      <c r="R273" s="310"/>
+      <c r="S273" s="311"/>
+      <c r="T273" s="312"/>
+      <c r="V273" s="9"/>
+    </row>
+    <row r="274" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="294"/>
+      <c r="B274" s="295"/>
+      <c r="E274" s="34">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J265" s="297"/>
-      <c r="K265" s="314"/>
-      <c r="N265" s="42">
+      <c r="J274" s="297"/>
+      <c r="K274" s="314"/>
+      <c r="N274" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O265" s="315"/>
-      <c r="Q265" s="6"/>
-      <c r="R265" s="310"/>
-      <c r="S265" s="311"/>
-      <c r="T265" s="316"/>
-      <c r="V265" s="9"/>
-    </row>
-    <row r="266" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="294"/>
-      <c r="H266" s="318"/>
-      <c r="I266" s="319" t="s">
+      <c r="O274" s="315"/>
+      <c r="Q274" s="6"/>
+      <c r="R274" s="310"/>
+      <c r="S274" s="311"/>
+      <c r="T274" s="316"/>
+      <c r="V274" s="9"/>
+    </row>
+    <row r="275" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="294"/>
+      <c r="H275" s="318"/>
+      <c r="I275" s="319" t="s">
         <v>28</v>
       </c>
-      <c r="J266" s="320"/>
-      <c r="K266" s="320"/>
-      <c r="L266" s="321">
-        <f>SUM(L254:L265)</f>
-        <v>0</v>
-      </c>
-      <c r="M266" s="322"/>
-      <c r="N266" s="323">
-        <f>SUM(N4:N265)</f>
-        <v>13429053.187000001</v>
-      </c>
-      <c r="O266" s="324"/>
-      <c r="Q266" s="325">
-        <f>SUM(Q4:Q265)</f>
-        <v>0</v>
-      </c>
-      <c r="R266" s="256"/>
-      <c r="S266" s="326">
-        <f>SUM(S19:S265)</f>
-        <v>0</v>
-      </c>
-      <c r="T266" s="327"/>
-      <c r="U266" s="328"/>
-      <c r="V266" s="329">
-        <f>SUM(V254:V265)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A267" s="294"/>
-      <c r="H267" s="318"/>
-      <c r="I267" s="330"/>
-      <c r="J267" s="331"/>
-      <c r="K267" s="332"/>
-      <c r="L267" s="332"/>
-      <c r="M267" s="332"/>
-      <c r="N267" s="333"/>
-      <c r="O267" s="324"/>
-      <c r="R267" s="310"/>
-      <c r="S267" s="334"/>
-      <c r="U267" s="336"/>
-      <c r="V267"/>
-    </row>
-    <row r="268" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="294"/>
-      <c r="H268" s="318"/>
-      <c r="I268" s="330"/>
-      <c r="J268" s="331"/>
-      <c r="K268" s="332"/>
-      <c r="L268" s="332"/>
-      <c r="M268" s="332"/>
-      <c r="N268" s="333"/>
-      <c r="O268" s="324"/>
-      <c r="R268" s="310"/>
-      <c r="S268" s="334"/>
-      <c r="U268" s="336"/>
-      <c r="V268"/>
-    </row>
-    <row r="269" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="294"/>
-      <c r="I269" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="J269" s="338"/>
-      <c r="K269" s="338"/>
-      <c r="L269" s="339"/>
-      <c r="M269" s="339"/>
-      <c r="N269" s="340">
-        <f>V266+S266+Q266+N266+L266</f>
-        <v>13429053.187000001</v>
-      </c>
-      <c r="O269" s="341"/>
-      <c r="R269" s="310"/>
-      <c r="S269" s="334"/>
-      <c r="U269" s="336"/>
-      <c r="V269"/>
-    </row>
-    <row r="270" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="342"/>
-      <c r="I270" s="343"/>
-      <c r="J270" s="344"/>
-      <c r="K270" s="344"/>
-      <c r="L270" s="345"/>
-      <c r="M270" s="345"/>
-      <c r="N270" s="346"/>
-      <c r="O270" s="347"/>
-      <c r="R270" s="310"/>
-      <c r="S270" s="334"/>
-      <c r="U270" s="336"/>
-      <c r="V270"/>
-    </row>
-    <row r="271" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="342"/>
-      <c r="I271" s="330"/>
-      <c r="J271" s="331"/>
-      <c r="K271" s="332"/>
-      <c r="L271" s="332"/>
-      <c r="M271" s="332"/>
-      <c r="N271" s="333"/>
-      <c r="O271" s="324"/>
-      <c r="R271" s="310"/>
-      <c r="S271" s="334"/>
-      <c r="U271" s="336"/>
-      <c r="V271"/>
-    </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A272" s="294"/>
-      <c r="I272" s="330"/>
-      <c r="J272" s="331"/>
-      <c r="K272" s="332"/>
-      <c r="L272" s="332"/>
-      <c r="M272" s="332"/>
-      <c r="N272" s="333"/>
-      <c r="O272" s="324"/>
-      <c r="R272" s="310"/>
-      <c r="S272" s="334"/>
-      <c r="U272" s="336"/>
-      <c r="V272"/>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="294"/>
-      <c r="I273" s="330"/>
-      <c r="J273" s="348"/>
-      <c r="K273" s="332"/>
-      <c r="L273" s="332"/>
-      <c r="M273" s="332"/>
-      <c r="N273" s="333"/>
-      <c r="O273" s="349"/>
-      <c r="R273" s="310"/>
-      <c r="S273" s="334"/>
-      <c r="U273" s="336"/>
-      <c r="V273"/>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="342"/>
-      <c r="N274" s="333"/>
-      <c r="O274" s="351"/>
-      <c r="R274" s="310"/>
-      <c r="S274" s="334"/>
-      <c r="U274" s="336"/>
-      <c r="V274"/>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="342"/>
-      <c r="O275" s="351"/>
-      <c r="S275" s="334"/>
-      <c r="U275" s="336"/>
-      <c r="V275"/>
+      <c r="J275" s="320"/>
+      <c r="K275" s="320"/>
+      <c r="L275" s="321">
+        <f>SUM(L263:L274)</f>
+        <v>0</v>
+      </c>
+      <c r="M275" s="322"/>
+      <c r="N275" s="323">
+        <f>SUM(N4:N274)</f>
+        <v>13536375.227000002</v>
+      </c>
+      <c r="O275" s="324"/>
+      <c r="Q275" s="325">
+        <f>SUM(Q4:Q274)</f>
+        <v>0</v>
+      </c>
+      <c r="R275" s="256"/>
+      <c r="S275" s="326">
+        <f>SUM(S19:S274)</f>
+        <v>0</v>
+      </c>
+      <c r="T275" s="327"/>
+      <c r="U275" s="328"/>
+      <c r="V275" s="329">
+        <f>SUM(V263:V274)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="294"/>
-      <c r="B276" s="295"/>
+      <c r="H276" s="318"/>
+      <c r="I276" s="330"/>
+      <c r="J276" s="331"/>
+      <c r="K276" s="332"/>
+      <c r="L276" s="332"/>
+      <c r="M276" s="332"/>
       <c r="N276" s="333"/>
       <c r="O276" s="324"/>
+      <c r="R276" s="310"/>
       <c r="S276" s="334"/>
       <c r="U276" s="336"/>
       <c r="V276"/>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="342"/>
-      <c r="B277" s="295"/>
+    <row r="277" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="294"/>
+      <c r="H277" s="318"/>
+      <c r="I277" s="330"/>
+      <c r="J277" s="331"/>
+      <c r="K277" s="332"/>
+      <c r="L277" s="332"/>
+      <c r="M277" s="332"/>
       <c r="N277" s="333"/>
       <c r="O277" s="324"/>
+      <c r="R277" s="310"/>
       <c r="S277" s="334"/>
       <c r="U277" s="336"/>
       <c r="V277"/>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A278" s="294"/>
-      <c r="B278" s="295"/>
-      <c r="I278" s="330"/>
-      <c r="J278" s="331"/>
-      <c r="K278" s="332"/>
-      <c r="L278" s="332"/>
-      <c r="M278" s="332"/>
-      <c r="N278" s="333"/>
-      <c r="O278" s="324"/>
+      <c r="I278" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="J278" s="338"/>
+      <c r="K278" s="338"/>
+      <c r="L278" s="339"/>
+      <c r="M278" s="339"/>
+      <c r="N278" s="340">
+        <f>V275+S275+Q275+N275+L275</f>
+        <v>13536375.227000002</v>
+      </c>
+      <c r="O278" s="341"/>
+      <c r="R278" s="310"/>
       <c r="S278" s="334"/>
       <c r="U278" s="336"/>
       <c r="V278"/>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="342"/>
-      <c r="B279" s="295"/>
-      <c r="I279" s="330"/>
-      <c r="J279" s="331"/>
-      <c r="K279" s="332"/>
-      <c r="L279" s="332"/>
-      <c r="M279" s="332"/>
-      <c r="N279" s="333"/>
-      <c r="O279" s="324"/>
+      <c r="I279" s="343"/>
+      <c r="J279" s="344"/>
+      <c r="K279" s="344"/>
+      <c r="L279" s="345"/>
+      <c r="M279" s="345"/>
+      <c r="N279" s="346"/>
+      <c r="O279" s="347"/>
+      <c r="R279" s="310"/>
       <c r="S279" s="334"/>
       <c r="U279" s="336"/>
       <c r="V279"/>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="294"/>
-      <c r="B280" s="295"/>
-      <c r="I280" s="352"/>
-      <c r="J280" s="328"/>
-      <c r="K280" s="328"/>
+    <row r="280" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="342"/>
+      <c r="I280" s="330"/>
+      <c r="J280" s="331"/>
+      <c r="K280" s="332"/>
+      <c r="L280" s="332"/>
+      <c r="M280" s="332"/>
       <c r="N280" s="333"/>
       <c r="O280" s="324"/>
+      <c r="R280" s="310"/>
       <c r="S280" s="334"/>
       <c r="U280" s="336"/>
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="342"/>
+      <c r="A281" s="294"/>
+      <c r="I281" s="330"/>
+      <c r="J281" s="331"/>
+      <c r="K281" s="332"/>
+      <c r="L281" s="332"/>
+      <c r="M281" s="332"/>
+      <c r="N281" s="333"/>
+      <c r="O281" s="324"/>
+      <c r="R281" s="310"/>
       <c r="S281" s="334"/>
       <c r="U281" s="336"/>
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="294"/>
+      <c r="I282" s="330"/>
+      <c r="J282" s="348"/>
+      <c r="K282" s="332"/>
+      <c r="L282" s="332"/>
+      <c r="M282" s="332"/>
+      <c r="N282" s="333"/>
+      <c r="O282" s="349"/>
+      <c r="R282" s="310"/>
       <c r="S282" s="334"/>
       <c r="U282" s="336"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="294"/>
-      <c r="B283" s="354"/>
-      <c r="C283" s="354"/>
-      <c r="D283" s="354"/>
-      <c r="E283" s="355"/>
-      <c r="F283" s="356"/>
-      <c r="G283" s="357"/>
-      <c r="H283" s="358"/>
-      <c r="I283" s="359"/>
-      <c r="J283"/>
-      <c r="K283"/>
-      <c r="L283"/>
-      <c r="M283"/>
-      <c r="P283" s="360"/>
-      <c r="Q283" s="334"/>
+      <c r="A283" s="342"/>
+      <c r="N283" s="333"/>
+      <c r="O283" s="351"/>
+      <c r="R283" s="310"/>
       <c r="S283" s="334"/>
       <c r="U283" s="336"/>
       <c r="V283"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="342"/>
-      <c r="B284" s="354"/>
-      <c r="C284" s="354"/>
-      <c r="D284" s="354"/>
-      <c r="E284" s="355"/>
-      <c r="F284" s="356"/>
-      <c r="G284" s="357"/>
-      <c r="H284" s="358"/>
-      <c r="I284" s="359"/>
-      <c r="J284"/>
-      <c r="K284"/>
-      <c r="L284"/>
-      <c r="M284"/>
-      <c r="P284" s="360"/>
-      <c r="Q284" s="334"/>
+      <c r="O284" s="351"/>
       <c r="S284" s="334"/>
       <c r="U284" s="336"/>
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="342"/>
-      <c r="B285" s="354"/>
-      <c r="C285" s="354"/>
-      <c r="D285" s="354"/>
-      <c r="E285" s="355"/>
-      <c r="F285" s="356"/>
-      <c r="G285" s="357"/>
-      <c r="H285" s="358"/>
-      <c r="I285" s="359"/>
-      <c r="J285"/>
-      <c r="K285"/>
-      <c r="L285"/>
-      <c r="M285"/>
-      <c r="P285" s="360"/>
-      <c r="Q285" s="334"/>
+      <c r="A285" s="294"/>
+      <c r="B285" s="295"/>
+      <c r="N285" s="333"/>
+      <c r="O285" s="324"/>
       <c r="S285" s="334"/>
       <c r="U285" s="336"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="342"/>
-      <c r="B286" s="354"/>
-      <c r="C286" s="354"/>
-      <c r="D286" s="354"/>
-      <c r="E286" s="355"/>
-      <c r="F286" s="356"/>
-      <c r="G286" s="357"/>
-      <c r="H286" s="358"/>
-      <c r="I286" s="359"/>
-      <c r="J286"/>
-      <c r="K286"/>
-      <c r="L286"/>
-      <c r="M286"/>
-      <c r="P286" s="360"/>
-      <c r="Q286" s="334"/>
+      <c r="B286" s="295"/>
+      <c r="N286" s="333"/>
+      <c r="O286" s="324"/>
       <c r="S286" s="334"/>
       <c r="U286" s="336"/>
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="361"/>
-      <c r="B287" s="354"/>
-      <c r="C287" s="354"/>
-      <c r="D287" s="354"/>
-      <c r="E287" s="355"/>
-      <c r="F287" s="356"/>
-      <c r="G287" s="357"/>
-      <c r="H287" s="358"/>
-      <c r="I287" s="359"/>
-      <c r="J287"/>
-      <c r="K287"/>
-      <c r="L287"/>
-      <c r="M287"/>
-      <c r="P287" s="360"/>
-      <c r="Q287" s="334"/>
+      <c r="A287" s="294"/>
+      <c r="B287" s="295"/>
+      <c r="I287" s="330"/>
+      <c r="J287" s="331"/>
+      <c r="K287" s="332"/>
+      <c r="L287" s="332"/>
+      <c r="M287" s="332"/>
+      <c r="N287" s="333"/>
+      <c r="O287" s="324"/>
       <c r="S287" s="334"/>
       <c r="U287" s="336"/>
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="307"/>
-      <c r="B288" s="354"/>
-      <c r="C288" s="354"/>
-      <c r="D288" s="354"/>
-      <c r="E288" s="355"/>
-      <c r="F288" s="356"/>
-      <c r="G288" s="357"/>
-      <c r="H288" s="358"/>
-      <c r="I288" s="359"/>
-      <c r="J288"/>
-      <c r="K288"/>
-      <c r="L288"/>
-      <c r="M288"/>
-      <c r="P288" s="360"/>
-      <c r="Q288" s="334"/>
+      <c r="A288" s="342"/>
+      <c r="B288" s="295"/>
+      <c r="I288" s="330"/>
+      <c r="J288" s="331"/>
+      <c r="K288" s="332"/>
+      <c r="L288" s="332"/>
+      <c r="M288" s="332"/>
+      <c r="N288" s="333"/>
+      <c r="O288" s="324"/>
       <c r="S288" s="334"/>
       <c r="U288" s="336"/>
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" s="294"/>
-      <c r="B289" s="354"/>
-      <c r="C289" s="354"/>
-      <c r="D289" s="354"/>
-      <c r="E289" s="355"/>
-      <c r="F289" s="356"/>
-      <c r="G289" s="357"/>
-      <c r="H289" s="358"/>
-      <c r="I289" s="359"/>
-      <c r="J289"/>
-      <c r="K289"/>
-      <c r="L289"/>
-      <c r="M289"/>
-      <c r="P289" s="360"/>
-      <c r="Q289" s="334"/>
+      <c r="B289" s="295"/>
+      <c r="I289" s="352"/>
+      <c r="J289" s="328"/>
+      <c r="K289" s="328"/>
+      <c r="N289" s="333"/>
+      <c r="O289" s="324"/>
       <c r="S289" s="334"/>
       <c r="U289" s="336"/>
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="294"/>
-      <c r="B290" s="354"/>
-      <c r="C290" s="354"/>
-      <c r="D290" s="354"/>
-      <c r="E290" s="355"/>
-      <c r="F290" s="356"/>
-      <c r="G290" s="357"/>
-      <c r="H290" s="358"/>
-      <c r="I290" s="359"/>
-      <c r="J290"/>
-      <c r="K290"/>
-      <c r="L290"/>
-      <c r="M290"/>
-      <c r="P290" s="360"/>
-      <c r="Q290" s="334"/>
+      <c r="A290" s="342"/>
       <c r="S290" s="334"/>
       <c r="U290" s="336"/>
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" s="294"/>
-      <c r="B291" s="354"/>
-      <c r="C291" s="354"/>
-      <c r="D291" s="354"/>
-      <c r="E291" s="355"/>
-      <c r="F291" s="356"/>
-      <c r="G291" s="357"/>
-      <c r="H291" s="358"/>
-      <c r="I291" s="359"/>
-      <c r="J291"/>
-      <c r="K291"/>
-      <c r="L291"/>
-      <c r="M291"/>
-      <c r="P291" s="360"/>
-      <c r="Q291" s="334"/>
       <c r="S291" s="334"/>
       <c r="U291" s="336"/>
       <c r="V291"/>
@@ -22462,7 +23060,7 @@
       <c r="V292"/>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A293" s="294"/>
+      <c r="A293" s="342"/>
       <c r="B293" s="354"/>
       <c r="C293" s="354"/>
       <c r="D293" s="354"/>
@@ -22482,7 +23080,7 @@
       <c r="V293"/>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A294" s="294"/>
+      <c r="A294" s="342"/>
       <c r="B294" s="354"/>
       <c r="C294" s="354"/>
       <c r="D294" s="354"/>
@@ -22502,7 +23100,7 @@
       <c r="V294"/>
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A295" s="294"/>
+      <c r="A295" s="342"/>
       <c r="B295" s="354"/>
       <c r="C295" s="354"/>
       <c r="D295" s="354"/>
@@ -22521,21 +23119,218 @@
       <c r="U295" s="336"/>
       <c r="V295"/>
     </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A296" s="361"/>
+      <c r="B296" s="354"/>
+      <c r="C296" s="354"/>
+      <c r="D296" s="354"/>
+      <c r="E296" s="355"/>
+      <c r="F296" s="356"/>
+      <c r="G296" s="357"/>
+      <c r="H296" s="358"/>
+      <c r="I296" s="359"/>
+      <c r="J296"/>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="P296" s="360"/>
+      <c r="Q296" s="334"/>
+      <c r="S296" s="334"/>
+      <c r="U296" s="336"/>
+      <c r="V296"/>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A297" s="307"/>
+      <c r="B297" s="354"/>
+      <c r="C297" s="354"/>
+      <c r="D297" s="354"/>
+      <c r="E297" s="355"/>
+      <c r="F297" s="356"/>
+      <c r="G297" s="357"/>
+      <c r="H297" s="358"/>
+      <c r="I297" s="359"/>
+      <c r="J297"/>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="P297" s="360"/>
+      <c r="Q297" s="334"/>
+      <c r="S297" s="334"/>
+      <c r="U297" s="336"/>
+      <c r="V297"/>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A298" s="294"/>
+      <c r="B298" s="354"/>
+      <c r="C298" s="354"/>
+      <c r="D298" s="354"/>
+      <c r="E298" s="355"/>
+      <c r="F298" s="356"/>
+      <c r="G298" s="357"/>
+      <c r="H298" s="358"/>
+      <c r="I298" s="359"/>
+      <c r="J298"/>
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="P298" s="360"/>
+      <c r="Q298" s="334"/>
+      <c r="S298" s="334"/>
+      <c r="U298" s="336"/>
+      <c r="V298"/>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A299" s="294"/>
+      <c r="B299" s="354"/>
+      <c r="C299" s="354"/>
+      <c r="D299" s="354"/>
+      <c r="E299" s="355"/>
+      <c r="F299" s="356"/>
+      <c r="G299" s="357"/>
+      <c r="H299" s="358"/>
+      <c r="I299" s="359"/>
+      <c r="J299"/>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="P299" s="360"/>
+      <c r="Q299" s="334"/>
+      <c r="S299" s="334"/>
+      <c r="U299" s="336"/>
+      <c r="V299"/>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A300" s="294"/>
+      <c r="B300" s="354"/>
+      <c r="C300" s="354"/>
+      <c r="D300" s="354"/>
+      <c r="E300" s="355"/>
+      <c r="F300" s="356"/>
+      <c r="G300" s="357"/>
+      <c r="H300" s="358"/>
+      <c r="I300" s="359"/>
+      <c r="J300"/>
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="P300" s="360"/>
+      <c r="Q300" s="334"/>
+      <c r="S300" s="334"/>
+      <c r="U300" s="336"/>
+      <c r="V300"/>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A301" s="294"/>
+      <c r="B301" s="354"/>
+      <c r="C301" s="354"/>
+      <c r="D301" s="354"/>
+      <c r="E301" s="355"/>
+      <c r="F301" s="356"/>
+      <c r="G301" s="357"/>
+      <c r="H301" s="358"/>
+      <c r="I301" s="359"/>
+      <c r="J301"/>
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="P301" s="360"/>
+      <c r="Q301" s="334"/>
+      <c r="S301" s="334"/>
+      <c r="U301" s="336"/>
+      <c r="V301"/>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A302" s="294"/>
+      <c r="B302" s="354"/>
+      <c r="C302" s="354"/>
+      <c r="D302" s="354"/>
+      <c r="E302" s="355"/>
+      <c r="F302" s="356"/>
+      <c r="G302" s="357"/>
+      <c r="H302" s="358"/>
+      <c r="I302" s="359"/>
+      <c r="J302"/>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="P302" s="360"/>
+      <c r="Q302" s="334"/>
+      <c r="S302" s="334"/>
+      <c r="U302" s="336"/>
+      <c r="V302"/>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A303" s="294"/>
+      <c r="B303" s="354"/>
+      <c r="C303" s="354"/>
+      <c r="D303" s="354"/>
+      <c r="E303" s="355"/>
+      <c r="F303" s="356"/>
+      <c r="G303" s="357"/>
+      <c r="H303" s="358"/>
+      <c r="I303" s="359"/>
+      <c r="J303"/>
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="P303" s="360"/>
+      <c r="Q303" s="334"/>
+      <c r="S303" s="334"/>
+      <c r="U303" s="336"/>
+      <c r="V303"/>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A304" s="294"/>
+      <c r="B304" s="354"/>
+      <c r="C304" s="354"/>
+      <c r="D304" s="354"/>
+      <c r="E304" s="355"/>
+      <c r="F304" s="356"/>
+      <c r="G304" s="357"/>
+      <c r="H304" s="358"/>
+      <c r="I304" s="359"/>
+      <c r="J304"/>
+      <c r="K304"/>
+      <c r="L304"/>
+      <c r="M304"/>
+      <c r="P304" s="360"/>
+      <c r="Q304" s="334"/>
+      <c r="S304" s="334"/>
+      <c r="U304" s="336"/>
+      <c r="V304"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F262:H262"/>
+  <mergeCells count="30">
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="L99:M100"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="P106:P107"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="O80:O81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22549,7 +23344,7 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -22582,49 +23377,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="394" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="393" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="393"/>
+      <c r="S1" s="395" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="395"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="395" t="s">
+      <c r="W1" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="396"/>
+      <c r="X1" s="398"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="392"/>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
+      <c r="A2" s="394"/>
+      <c r="B2" s="394"/>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -22632,8 +23427,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="394"/>
-      <c r="T2" s="394"/>
+      <c r="S2" s="396"/>
+      <c r="T2" s="396"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -22678,10 +23473,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="397" t="s">
+      <c r="O3" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="398"/>
+      <c r="P3" s="400"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -22822,7 +23617,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="415" t="s">
+      <c r="A6" s="390" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="54" t="s">
@@ -25772,8 +26567,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="399"/>
-      <c r="M90" s="400"/>
+      <c r="L90" s="401"/>
+      <c r="M90" s="402"/>
       <c r="N90" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25805,8 +26600,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="399"/>
-      <c r="M91" s="400"/>
+      <c r="L91" s="401"/>
+      <c r="M91" s="402"/>
       <c r="N91" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26009,8 +26804,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O97" s="401"/>
-      <c r="P97" s="403"/>
+      <c r="O97" s="403"/>
+      <c r="P97" s="405"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -26042,8 +26837,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O98" s="402"/>
-      <c r="P98" s="404"/>
+      <c r="O98" s="404"/>
+      <c r="P98" s="406"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -31435,11 +32230,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="390" t="s">
+      <c r="F262" s="392" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="390"/>
-      <c r="H262" s="391"/>
+      <c r="G262" s="392"/>
+      <c r="H262" s="393"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>151160.9</v>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="11715" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES   ENERO    2023       " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="164">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -387,9 +387,6 @@
     <t>chorizo blanco</t>
   </si>
   <si>
-    <t>A-337151</t>
-  </si>
-  <si>
     <t>VIRGINIA</t>
   </si>
   <si>
@@ -437,6 +434,93 @@
   <si>
     <t>A-336984</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>VICERAS SELECTAS DEL BAJIO</t>
+  </si>
+  <si>
+    <t>TRIPAS</t>
+  </si>
+  <si>
+    <t>FOLIO 11156</t>
+  </si>
+  <si>
+    <t>GRANJERO FELIZ</t>
+  </si>
+  <si>
+    <t>A05-22900</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11279</t>
+  </si>
+  <si>
+    <t>A-1331</t>
+  </si>
+  <si>
+    <t>ODELPA</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11284</t>
+  </si>
+  <si>
+    <t>A-1313</t>
+  </si>
+  <si>
+    <t>DELANTERO</t>
+  </si>
+  <si>
+    <t>ARCADIO LEDO BERISTAIN         ALBICIA</t>
+  </si>
+  <si>
+    <t>chiles, pata, virginias</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL  11294</t>
+  </si>
+  <si>
+    <t>Chile, Chistorra, York</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL  11301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorizo, J americano, </t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11295</t>
+  </si>
+  <si>
+    <t>A-337189  Nota 507</t>
+  </si>
+  <si>
+    <t>A-337190 Nota 370</t>
+  </si>
+  <si>
+    <t>A-337222  Nota  983</t>
+  </si>
+  <si>
+    <t>A-337151  Nota  4964</t>
+  </si>
+  <si>
+    <t>HC-12764</t>
+  </si>
+  <si>
+    <t>Chile , Chorizo blanco, J. Americano</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL    11305</t>
+  </si>
+  <si>
+    <t>A-337238   Nota  1226</t>
+  </si>
+  <si>
+    <t>V05--1842</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +533,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +944,30 @@
       <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1877,7 +1985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="467">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2940,6 +3048,114 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3021,42 +3237,18 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3069,12 +3261,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3084,12 +3270,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3099,23 +3279,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3123,12 +3297,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3141,9 +3309,6 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3153,17 +3318,47 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3174,10 +3369,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
       <color rgb="FF660033"/>
-      <color rgb="FF66CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3492,49 +3687,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="430" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
-      <c r="J1" s="394"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="395" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="395"/>
+      <c r="S1" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="431"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="397" t="s">
+      <c r="W1" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="398"/>
+      <c r="X1" s="434"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="394"/>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
+      <c r="A2" s="430"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -3542,8 +3737,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="396"/>
-      <c r="T2" s="396"/>
+      <c r="S2" s="432"/>
+      <c r="T2" s="432"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -3588,10 +3783,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="399" t="s">
+      <c r="O3" s="435" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="400"/>
+      <c r="P3" s="436"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -6912,8 +7107,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="401"/>
-      <c r="M90" s="402"/>
+      <c r="L90" s="437"/>
+      <c r="M90" s="438"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6945,8 +7140,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="401"/>
-      <c r="M91" s="402"/>
+      <c r="L91" s="437"/>
+      <c r="M91" s="438"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7149,8 +7344,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="403"/>
-      <c r="P97" s="405"/>
+      <c r="O97" s="439"/>
+      <c r="P97" s="441"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -7182,8 +7377,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="404"/>
-      <c r="P98" s="406"/>
+      <c r="O98" s="440"/>
+      <c r="P98" s="442"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -12575,11 +12770,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="392" t="s">
+      <c r="F262" s="428" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="392"/>
-      <c r="H262" s="393"/>
+      <c r="G262" s="428"/>
+      <c r="H262" s="429"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -13174,9 +13369,9 @@
   </sheetPr>
   <dimension ref="A1:X304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13205,49 +13400,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="430" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
-      <c r="J1" s="394"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="395" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="395"/>
+      <c r="S1" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="431"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="397" t="s">
+      <c r="W1" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="398"/>
+      <c r="X1" s="434"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="394"/>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
+      <c r="A2" s="430"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -13255,8 +13450,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="396"/>
-      <c r="T2" s="396"/>
+      <c r="S2" s="432"/>
+      <c r="T2" s="432"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -13301,10 +13496,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="399" t="s">
+      <c r="O3" s="435" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="400"/>
+      <c r="P3" s="436"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -15584,115 +15779,157 @@
       <c r="U57" s="49"/>
       <c r="V57" s="50"/>
     </row>
-    <row r="58" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="152" t="s">
+    <row r="58" spans="1:24" ht="48" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="415" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="159"/>
+      <c r="C58" s="419" t="s">
+        <v>141</v>
+      </c>
       <c r="D58" s="160"/>
       <c r="E58" s="56"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="155"/>
+      <c r="F58" s="155">
+        <v>436.2</v>
+      </c>
+      <c r="G58" s="147">
+        <v>44974</v>
+      </c>
+      <c r="H58" s="157" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58" s="155">
+        <v>436.2</v>
+      </c>
       <c r="J58" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K58" s="40"/>
+      <c r="K58" s="40">
+        <v>90</v>
+      </c>
       <c r="L58" s="61"/>
       <c r="M58" s="61"/>
       <c r="N58" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="375"/>
-      <c r="P58" s="376"/>
-      <c r="Q58" s="375"/>
+        <v>39258</v>
+      </c>
+      <c r="O58" s="406" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="407">
+        <v>45008</v>
+      </c>
+      <c r="Q58" s="414" t="s">
+        <v>143</v>
+      </c>
       <c r="R58" s="125"/>
       <c r="S58" s="48"/>
       <c r="T58" s="48"/>
       <c r="U58" s="49"/>
       <c r="V58" s="50"/>
     </row>
-    <row r="59" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="110"/>
-      <c r="B59" s="153" t="s">
+    <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="485" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="161"/>
-      <c r="D59" s="160"/>
+      <c r="C59" s="487" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="409"/>
       <c r="E59" s="56"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="162"/>
-      <c r="I59" s="155"/>
+      <c r="F59" s="410">
+        <v>1649.6</v>
+      </c>
+      <c r="G59" s="489">
+        <v>44981</v>
+      </c>
+      <c r="H59" s="491" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" s="402">
+        <v>1649.6</v>
+      </c>
       <c r="J59" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K59" s="40"/>
+      <c r="K59" s="40">
+        <v>90</v>
+      </c>
       <c r="L59" s="61"/>
       <c r="M59" s="61"/>
       <c r="N59" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="158"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="158"/>
+        <v>148464</v>
+      </c>
+      <c r="O59" s="493" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="483">
+        <v>45008</v>
+      </c>
+      <c r="Q59" s="166"/>
       <c r="R59" s="125"/>
       <c r="S59" s="48"/>
       <c r="T59" s="48"/>
       <c r="U59" s="49"/>
       <c r="V59" s="50"/>
     </row>
-    <row r="60" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="110"/>
-      <c r="B60" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="163"/>
-      <c r="D60" s="160"/>
+    <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="486"/>
+      <c r="B60" s="418" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="488"/>
+      <c r="D60" s="409"/>
       <c r="E60" s="56"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="155"/>
+      <c r="F60" s="410">
+        <v>83</v>
+      </c>
+      <c r="G60" s="490"/>
+      <c r="H60" s="492"/>
+      <c r="I60" s="402">
+        <v>83</v>
+      </c>
       <c r="J60" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="40"/>
+      <c r="K60" s="40">
+        <v>88</v>
+      </c>
       <c r="L60" s="61"/>
       <c r="M60" s="61"/>
       <c r="N60" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="158"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="158"/>
+        <v>7304</v>
+      </c>
+      <c r="O60" s="494"/>
+      <c r="P60" s="484"/>
+      <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
       <c r="T60" s="48"/>
       <c r="U60" s="49"/>
       <c r="V60" s="50"/>
     </row>
-    <row r="61" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="110"/>
+    <row r="61" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="416"/>
       <c r="B61" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="165"/>
+      <c r="C61" s="420"/>
       <c r="D61" s="160"/>
       <c r="E61" s="56"/>
       <c r="F61" s="155"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="164"/>
+      <c r="G61" s="417"/>
+      <c r="H61" s="403"/>
       <c r="I61" s="155"/>
       <c r="J61" s="39">
         <f t="shared" si="1"/>
@@ -15705,8 +15942,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O61" s="158"/>
-      <c r="P61" s="58"/>
+      <c r="O61" s="394"/>
+      <c r="P61" s="36"/>
       <c r="Q61" s="158"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -15866,10 +16103,10 @@
         <v>82</v>
       </c>
       <c r="B65" s="167" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="159" t="s">
         <v>133</v>
-      </c>
-      <c r="C65" s="159" t="s">
-        <v>134</v>
       </c>
       <c r="D65" s="160"/>
       <c r="E65" s="56"/>
@@ -15880,7 +16117,7 @@
         <v>44971</v>
       </c>
       <c r="H65" s="180" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I65" s="155">
         <v>54193</v>
@@ -15898,10 +16135,10 @@
         <f t="shared" si="2"/>
         <v>54193</v>
       </c>
-      <c r="O65" s="466" t="s">
-        <v>128</v>
-      </c>
-      <c r="P65" s="450">
+      <c r="O65" s="411" t="s">
+        <v>127</v>
+      </c>
+      <c r="P65" s="407">
         <v>45000</v>
       </c>
       <c r="Q65" s="166"/>
@@ -15912,7 +16149,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="407" t="s">
+      <c r="A66" s="443" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -15924,10 +16161,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="409">
+      <c r="G66" s="445">
         <v>44973</v>
       </c>
-      <c r="H66" s="411" t="s">
+      <c r="H66" s="447" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -15946,10 +16183,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="413" t="s">
+      <c r="O66" s="449" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="415">
+      <c r="P66" s="451">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -15960,7 +16197,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="408"/>
+      <c r="A67" s="444"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -15970,8 +16207,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="410"/>
-      <c r="H67" s="412"/>
+      <c r="G67" s="446"/>
+      <c r="H67" s="448"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -15988,8 +16225,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="414"/>
-      <c r="P67" s="416"/>
+      <c r="O67" s="450"/>
+      <c r="P67" s="452"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16033,10 +16270,10 @@
         <f>K68*I68</f>
         <v>19206</v>
       </c>
-      <c r="O68" s="449" t="s">
+      <c r="O68" s="406" t="s">
         <v>78</v>
       </c>
-      <c r="P68" s="450">
+      <c r="P68" s="407">
         <v>44988</v>
       </c>
       <c r="Q68" s="166"/>
@@ -16047,27 +16284,27 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="451" t="s">
+      <c r="A69" s="473" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="435" t="s">
+      <c r="B69" s="400" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="475" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="455" t="s">
+      <c r="D69" s="409"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="410">
+        <v>80.7</v>
+      </c>
+      <c r="G69" s="479">
+        <v>44979</v>
+      </c>
+      <c r="H69" s="477" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="454"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="459">
-        <v>80.7</v>
-      </c>
-      <c r="G69" s="460">
-        <v>44979</v>
-      </c>
-      <c r="H69" s="457" t="s">
-        <v>131</v>
-      </c>
-      <c r="I69" s="440">
+      <c r="I69" s="402">
         <v>80.7</v>
       </c>
       <c r="J69" s="39">
@@ -16083,10 +16320,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="462" t="s">
-        <v>128</v>
-      </c>
-      <c r="P69" s="463">
+      <c r="O69" s="481" t="s">
+        <v>127</v>
+      </c>
+      <c r="P69" s="471">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16097,19 +16334,19 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="452"/>
-      <c r="B70" s="453" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="456"/>
-      <c r="D70" s="454"/>
+      <c r="A70" s="474"/>
+      <c r="B70" s="408" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="476"/>
+      <c r="D70" s="409"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="459">
+      <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="461"/>
-      <c r="H70" s="458"/>
-      <c r="I70" s="440">
+      <c r="G70" s="480"/>
+      <c r="H70" s="478"/>
+      <c r="I70" s="402">
         <v>151.4</v>
       </c>
       <c r="J70" s="39">
@@ -16125,8 +16362,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="464"/>
-      <c r="P70" s="465"/>
+      <c r="O70" s="482"/>
+      <c r="P70" s="472"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16135,27 +16372,27 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="433" t="s">
+      <c r="A71" s="461" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="435" t="s">
+      <c r="B71" s="400" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="459" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="431" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="429"/>
+      <c r="D71" s="398"/>
       <c r="E71" s="56"/>
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="438">
+      <c r="G71" s="464">
         <v>44982</v>
       </c>
-      <c r="H71" s="442" t="s">
-        <v>125</v>
-      </c>
-      <c r="I71" s="440">
+      <c r="H71" s="466" t="s">
+        <v>124</v>
+      </c>
+      <c r="I71" s="402">
         <v>130.16</v>
       </c>
       <c r="J71" s="39">
@@ -16171,10 +16408,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="423" t="s">
-        <v>128</v>
-      </c>
-      <c r="P71" s="424">
+      <c r="O71" s="455" t="s">
+        <v>127</v>
+      </c>
+      <c r="P71" s="457">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16185,19 +16422,19 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="433"/>
-      <c r="B72" s="435" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="437"/>
-      <c r="D72" s="429"/>
+      <c r="A72" s="461"/>
+      <c r="B72" s="400" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="463"/>
+      <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="438"/>
-      <c r="H72" s="443"/>
-      <c r="I72" s="440">
+      <c r="G72" s="464"/>
+      <c r="H72" s="467"/>
+      <c r="I72" s="402">
         <v>89.64</v>
       </c>
       <c r="J72" s="39">
@@ -16213,8 +16450,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="448"/>
-      <c r="P72" s="447"/>
+      <c r="O72" s="469"/>
+      <c r="P72" s="470"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16223,19 +16460,19 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="434"/>
-      <c r="B73" s="435" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="432"/>
-      <c r="D73" s="429"/>
+      <c r="A73" s="462"/>
+      <c r="B73" s="400" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="460"/>
+      <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="439"/>
-      <c r="H73" s="444"/>
-      <c r="I73" s="440">
+      <c r="G73" s="465"/>
+      <c r="H73" s="468"/>
+      <c r="I73" s="402">
         <v>152.78</v>
       </c>
       <c r="J73" s="39">
@@ -16251,8 +16488,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="425"/>
-      <c r="P73" s="426"/>
+      <c r="O73" s="456"/>
+      <c r="P73" s="458"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -16263,12 +16500,12 @@
     <row r="74" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="172"/>
       <c r="B74" s="167"/>
-      <c r="C74" s="436"/>
+      <c r="C74" s="401"/>
       <c r="D74" s="174"/>
       <c r="E74" s="56"/>
       <c r="F74" s="155"/>
       <c r="G74" s="156"/>
-      <c r="H74" s="441"/>
+      <c r="H74" s="403"/>
       <c r="I74" s="155"/>
       <c r="J74" s="39">
         <f t="shared" si="1"/>
@@ -16278,8 +16515,8 @@
       <c r="L74" s="61"/>
       <c r="M74" s="61"/>
       <c r="N74" s="42"/>
-      <c r="O74" s="445"/>
-      <c r="P74" s="446"/>
+      <c r="O74" s="404"/>
+      <c r="P74" s="405"/>
       <c r="Q74" s="166"/>
       <c r="R74" s="125"/>
       <c r="S74" s="176"/>
@@ -16305,8 +16542,8 @@
       <c r="L75" s="61"/>
       <c r="M75" s="61"/>
       <c r="N75" s="42"/>
-      <c r="O75" s="427"/>
-      <c r="P75" s="420"/>
+      <c r="O75" s="396"/>
+      <c r="P75" s="393"/>
       <c r="Q75" s="166"/>
       <c r="R75" s="125"/>
       <c r="S75" s="176"/>
@@ -16332,8 +16569,8 @@
       <c r="L76" s="61"/>
       <c r="M76" s="61"/>
       <c r="N76" s="42"/>
-      <c r="O76" s="427"/>
-      <c r="P76" s="420"/>
+      <c r="O76" s="396"/>
+      <c r="P76" s="393"/>
       <c r="Q76" s="166"/>
       <c r="R76" s="125"/>
       <c r="S76" s="176"/>
@@ -16359,8 +16596,8 @@
       <c r="L77" s="61"/>
       <c r="M77" s="61"/>
       <c r="N77" s="42"/>
-      <c r="O77" s="427"/>
-      <c r="P77" s="420"/>
+      <c r="O77" s="396"/>
+      <c r="P77" s="393"/>
       <c r="Q77" s="166"/>
       <c r="R77" s="125"/>
       <c r="S77" s="176"/>
@@ -16386,8 +16623,8 @@
       <c r="L78" s="61"/>
       <c r="M78" s="61"/>
       <c r="N78" s="42"/>
-      <c r="O78" s="427"/>
-      <c r="P78" s="420"/>
+      <c r="O78" s="396"/>
+      <c r="P78" s="393"/>
       <c r="Q78" s="166"/>
       <c r="R78" s="125"/>
       <c r="S78" s="176"/>
@@ -16400,7 +16637,7 @@
         <v>117</v>
       </c>
       <c r="B79" s="167"/>
-      <c r="C79" s="430"/>
+      <c r="C79" s="399"/>
       <c r="D79" s="174"/>
       <c r="E79" s="56"/>
       <c r="F79" s="155"/>
@@ -16418,8 +16655,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O79" s="419"/>
-      <c r="P79" s="420"/>
+      <c r="O79" s="392"/>
+      <c r="P79" s="393"/>
       <c r="Q79" s="166"/>
       <c r="R79" s="125"/>
       <c r="S79" s="176"/>
@@ -16428,16 +16665,16 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="407" t="s">
+      <c r="A80" s="443" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="428" t="s">
+      <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="431" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="429"/>
+      <c r="C80" s="459" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="398"/>
       <c r="E80" s="56"/>
       <c r="F80" s="155">
         <v>108.66</v>
@@ -16445,8 +16682,8 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="417" t="s">
-        <v>119</v>
+      <c r="H80" s="453" t="s">
+        <v>157</v>
       </c>
       <c r="I80" s="155">
         <v>108.66</v>
@@ -16464,10 +16701,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="423" t="s">
-        <v>121</v>
-      </c>
-      <c r="P80" s="424">
+      <c r="O80" s="455" t="s">
+        <v>120</v>
+      </c>
+      <c r="P80" s="457">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -16478,12 +16715,12 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="408"/>
-      <c r="B81" s="428" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="432"/>
-      <c r="D81" s="429"/>
+      <c r="A81" s="444"/>
+      <c r="B81" s="397" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="460"/>
+      <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
         <v>76.94</v>
@@ -16491,7 +16728,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="418"/>
+      <c r="H81" s="454"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -16508,8 +16745,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="425"/>
-      <c r="P81" s="426"/>
+      <c r="O81" s="456"/>
+      <c r="P81" s="458"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -16538,8 +16775,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O82" s="421"/>
-      <c r="P82" s="422"/>
+      <c r="O82" s="394"/>
+      <c r="P82" s="395"/>
       <c r="Q82" s="166"/>
       <c r="R82" s="125"/>
       <c r="S82" s="176"/>
@@ -17060,8 +17297,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="401"/>
-      <c r="M99" s="402"/>
+      <c r="L99" s="437"/>
+      <c r="M99" s="438"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17093,8 +17330,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="401"/>
-      <c r="M100" s="402"/>
+      <c r="L100" s="437"/>
+      <c r="M100" s="438"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17297,8 +17534,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="403"/>
-      <c r="P106" s="405"/>
+      <c r="O106" s="439"/>
+      <c r="P106" s="441"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -17330,8 +17567,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="404"/>
-      <c r="P107" s="406"/>
+      <c r="O107" s="440"/>
+      <c r="P107" s="442"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -22723,14 +22960,14 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="392" t="s">
+      <c r="F271" s="428" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="392"/>
-      <c r="H271" s="393"/>
+      <c r="G271" s="428"/>
+      <c r="H271" s="429"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
-        <v>321356.68900000001</v>
+        <v>323525.489</v>
       </c>
       <c r="J271" s="304"/>
       <c r="K271" s="300"/>
@@ -22829,7 +23066,7 @@
       <c r="M275" s="322"/>
       <c r="N275" s="323">
         <f>SUM(N4:N274)</f>
-        <v>13536375.227000002</v>
+        <v>13731401.227000002</v>
       </c>
       <c r="O275" s="324"/>
       <c r="Q275" s="325">
@@ -22889,7 +23126,7 @@
       <c r="M278" s="339"/>
       <c r="N278" s="340">
         <f>V275+S275+Q275+N275+L275</f>
-        <v>13536375.227000002</v>
+        <v>13731401.227000002</v>
       </c>
       <c r="O278" s="341"/>
       <c r="R278" s="310"/>
@@ -23300,7 +23537,13 @@
       <c r="V304"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="36">
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
     <mergeCell ref="P69:P70"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="C69:C70"/>
@@ -23342,13 +23585,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:X295"/>
+  <dimension ref="A1:X298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q63" sqref="Q63"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23377,49 +23620,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="430" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
-      <c r="J1" s="394"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="395" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="395"/>
+      <c r="S1" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="431"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="397" t="s">
+      <c r="W1" s="433" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="398"/>
+      <c r="X1" s="434"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="394"/>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
+      <c r="A2" s="430"/>
+      <c r="B2" s="430"/>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
+      <c r="J2" s="430"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -23427,8 +23670,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="396"/>
-      <c r="T2" s="396"/>
+      <c r="S2" s="432"/>
+      <c r="T2" s="432"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -23473,10 +23716,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="399" t="s">
+      <c r="O3" s="435" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="400"/>
+      <c r="P3" s="436"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -23499,7 +23742,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="369" t="s">
+      <c r="A4" s="53" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -23528,7 +23771,7 @@
         <v>12650</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" ref="J4:J123" si="1">I4-F4</f>
+        <f t="shared" ref="J4:J126" si="1">I4-F4</f>
         <v>0</v>
       </c>
       <c r="K4" s="40">
@@ -23537,7 +23780,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42">
-        <f t="shared" ref="N4:N117" si="2">K4*I4</f>
+        <f t="shared" ref="N4:N120" si="2">K4*I4</f>
         <v>569250</v>
       </c>
       <c r="O4" s="43" t="s">
@@ -23635,7 +23878,7 @@
       <c r="G6" s="58">
         <v>44989</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="422">
         <v>2687</v>
       </c>
       <c r="I6" s="60">
@@ -23690,7 +23933,9 @@
       <c r="G7" s="58">
         <v>44990</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="421">
+        <v>41619</v>
+      </c>
       <c r="I7" s="60">
         <v>25800</v>
       </c>
@@ -23707,8 +23952,12 @@
         <f t="shared" si="2"/>
         <v>1161000</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="63">
+        <v>45006</v>
+      </c>
       <c r="Q7" s="64"/>
       <c r="R7" s="65"/>
       <c r="S7" s="47"/>
@@ -23739,7 +23988,9 @@
       <c r="G8" s="58">
         <v>44993</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="421">
+        <v>41647</v>
+      </c>
       <c r="I8" s="60">
         <v>27460</v>
       </c>
@@ -23756,8 +24007,12 @@
         <f t="shared" si="2"/>
         <v>1213732</v>
       </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
+      <c r="O8" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="70">
+        <v>45007</v>
+      </c>
       <c r="Q8" s="64"/>
       <c r="R8" s="65"/>
       <c r="S8" s="47"/>
@@ -23788,7 +24043,9 @@
       <c r="G9" s="58">
         <v>44995</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="59">
+        <v>41664</v>
+      </c>
       <c r="I9" s="60">
         <v>24440</v>
       </c>
@@ -23805,8 +24062,12 @@
         <f t="shared" si="2"/>
         <v>1080248</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="70"/>
+      <c r="O9" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="70">
+        <v>45009</v>
+      </c>
       <c r="Q9" s="64"/>
       <c r="R9" s="65"/>
       <c r="S9" s="47"/>
@@ -23866,31 +24127,49 @@
       <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="412" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="C11" s="55"/>
       <c r="D11" s="73"/>
       <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
+      <c r="F11" s="57">
+        <v>10791</v>
+      </c>
+      <c r="G11" s="58">
+        <v>44999</v>
+      </c>
+      <c r="H11" s="422">
+        <v>2752</v>
+      </c>
+      <c r="I11" s="60">
+        <v>10791</v>
+      </c>
       <c r="J11" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>43</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="72"/>
-      <c r="P11" s="74"/>
+        <v>464013</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="74">
+        <v>45009</v>
+      </c>
       <c r="Q11" s="64"/>
       <c r="R11" s="65"/>
       <c r="S11" s="47"/>
@@ -23903,31 +24182,49 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="413" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" s="55"/>
       <c r="D12" s="56"/>
       <c r="E12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="F12" s="57">
+        <v>23877.45</v>
+      </c>
+      <c r="G12" s="58">
+        <v>45000</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="60">
+        <v>23877.45</v>
+      </c>
       <c r="J12" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40">
+        <v>42</v>
+      </c>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="74"/>
+        <v>1002852.9</v>
+      </c>
+      <c r="O12" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="74">
+        <v>45007</v>
+      </c>
       <c r="Q12" s="64"/>
       <c r="R12" s="65"/>
       <c r="S12" s="47"/>
@@ -23940,28 +24237,40 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="C13" s="77"/>
       <c r="D13" s="56"/>
       <c r="E13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
+      <c r="F13" s="57">
+        <v>12350</v>
+      </c>
+      <c r="G13" s="58">
+        <v>45002</v>
+      </c>
       <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="I13" s="60">
+        <v>12350</v>
+      </c>
       <c r="J13" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40">
+        <v>41</v>
+      </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>506350</v>
       </c>
       <c r="O13" s="75"/>
       <c r="P13" s="74"/>
@@ -23977,28 +24286,40 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="371"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="C14" s="77"/>
       <c r="D14" s="56"/>
       <c r="E14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+      <c r="F14" s="57">
+        <v>12350</v>
+      </c>
+      <c r="G14" s="58">
+        <v>45002</v>
+      </c>
       <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="60">
+        <v>12350</v>
+      </c>
       <c r="J14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40">
+        <v>41</v>
+      </c>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>506350</v>
       </c>
       <c r="O14" s="72"/>
       <c r="P14" s="74"/>
@@ -24013,31 +24334,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="78"/>
+    <row r="15" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="77"/>
       <c r="D15" s="56"/>
       <c r="E15" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
+        <f t="shared" ref="E15:E16" si="3">D15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="57">
+        <v>13190</v>
+      </c>
+      <c r="G15" s="58">
+        <v>45003</v>
+      </c>
       <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="60">
+        <v>13190</v>
+      </c>
       <c r="J15" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="40"/>
+        <f t="shared" ref="J15:J16" si="4">I15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="40">
+        <v>41</v>
+      </c>
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
       <c r="N15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="75"/>
+        <f t="shared" ref="N15:N16" si="5">K15*I15</f>
+        <v>540790</v>
+      </c>
+      <c r="O15" s="72"/>
       <c r="P15" s="74"/>
       <c r="Q15" s="64"/>
       <c r="R15" s="65"/>
@@ -24050,31 +24383,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+    <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="78"/>
       <c r="D16" s="56"/>
       <c r="E16" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="57">
+        <v>24130</v>
+      </c>
+      <c r="G16" s="58">
+        <v>45005</v>
+      </c>
       <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="60">
+        <v>24130</v>
+      </c>
       <c r="J16" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="40"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="40">
+        <v>41</v>
+      </c>
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
       <c r="N16" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="72"/>
+        <f t="shared" si="5"/>
+        <v>989330</v>
+      </c>
+      <c r="O16" s="75"/>
       <c r="P16" s="74"/>
       <c r="Q16" s="64"/>
       <c r="R16" s="65"/>
@@ -25705,45 +26050,47 @@
       <c r="V62" s="50"/>
     </row>
     <row r="63" spans="1:24" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="167" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="154" t="s">
-        <v>113</v>
+      <c r="A63" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="386" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="423" t="s">
+        <v>149</v>
       </c>
       <c r="D63" s="160"/>
       <c r="E63" s="56"/>
       <c r="F63" s="155">
-        <v>419.9</v>
+        <v>26462</v>
       </c>
       <c r="G63" s="156">
-        <v>44993</v>
-      </c>
-      <c r="H63" s="168"/>
+        <v>44989</v>
+      </c>
+      <c r="H63" s="164" t="s">
+        <v>155</v>
+      </c>
       <c r="I63" s="155">
-        <v>419.9</v>
+        <v>26462</v>
       </c>
       <c r="J63" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63" s="40">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="L63" s="61"/>
       <c r="M63" s="61"/>
       <c r="N63" s="42">
         <f t="shared" si="2"/>
-        <v>55426.799999999996</v>
+        <v>26462</v>
       </c>
       <c r="O63" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="P63" s="120">
-        <v>45001</v>
+        <v>21</v>
+      </c>
+      <c r="P63" s="58">
+        <v>45008</v>
       </c>
       <c r="Q63" s="166"/>
       <c r="R63" s="125"/>
@@ -25752,31 +26099,49 @@
       <c r="U63" s="49"/>
       <c r="V63" s="50"/>
     </row>
-    <row r="64" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="142"/>
-      <c r="B64" s="167" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="170"/>
+    <row r="64" spans="1:24" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="386" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="423" t="s">
+        <v>153</v>
+      </c>
       <c r="D64" s="160"/>
       <c r="E64" s="56"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="155"/>
+      <c r="F64" s="155">
+        <v>14346</v>
+      </c>
+      <c r="G64" s="156">
+        <v>44991</v>
+      </c>
+      <c r="H64" s="164" t="s">
+        <v>154</v>
+      </c>
+      <c r="I64" s="155">
+        <v>14346</v>
+      </c>
       <c r="J64" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K64" s="40"/>
+      <c r="K64" s="40">
+        <v>1</v>
+      </c>
       <c r="L64" s="61"/>
       <c r="M64" s="61"/>
       <c r="N64" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="169"/>
-      <c r="P64" s="58"/>
+        <v>14346</v>
+      </c>
+      <c r="O64" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="58">
+        <v>45008</v>
+      </c>
       <c r="Q64" s="166"/>
       <c r="R64" s="125"/>
       <c r="S64" s="48"/>
@@ -25784,29 +26149,51 @@
       <c r="U64" s="49"/>
       <c r="V64" s="50"/>
     </row>
-    <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="172"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="174"/>
+    <row r="65" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="160"/>
       <c r="E65" s="56"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="175"/>
-      <c r="I65" s="155"/>
+      <c r="F65" s="155">
+        <v>419.9</v>
+      </c>
+      <c r="G65" s="156">
+        <v>44993</v>
+      </c>
+      <c r="H65" s="425" t="s">
+        <v>158</v>
+      </c>
+      <c r="I65" s="155">
+        <v>419.9</v>
+      </c>
       <c r="J65" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K65" s="40"/>
+      <c r="K65" s="40">
+        <v>132</v>
+      </c>
       <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
+      <c r="M65" s="426" t="s">
+        <v>143</v>
+      </c>
       <c r="N65" s="42">
-        <f>K65*I65</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="169"/>
-      <c r="P65" s="58"/>
+        <f t="shared" si="2"/>
+        <v>55426.799999999996</v>
+      </c>
+      <c r="O65" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P65" s="120">
+        <v>45001</v>
+      </c>
       <c r="Q65" s="166"/>
       <c r="R65" s="125"/>
       <c r="S65" s="48"/>
@@ -25814,45 +26201,71 @@
       <c r="U65" s="49"/>
       <c r="V65" s="50"/>
     </row>
-    <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="152"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="174"/>
+    <row r="66" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="424" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="167" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="160"/>
       <c r="E66" s="56"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="168"/>
-      <c r="I66" s="155"/>
+      <c r="F66" s="155">
+        <v>19078</v>
+      </c>
+      <c r="G66" s="156">
+        <v>44995</v>
+      </c>
+      <c r="H66" s="168" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="155">
+        <v>19078</v>
+      </c>
       <c r="J66" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K66" s="40"/>
+      <c r="K66" s="40">
+        <v>1</v>
+      </c>
       <c r="L66" s="61"/>
       <c r="M66" s="61"/>
       <c r="N66" s="42">
-        <f>K66*I66</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="169"/>
-      <c r="P66" s="58"/>
-      <c r="Q66" s="166"/>
+        <f t="shared" si="2"/>
+        <v>19078</v>
+      </c>
+      <c r="O66" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" s="120">
+        <v>45008</v>
+      </c>
+      <c r="Q66" s="166" t="s">
+        <v>26</v>
+      </c>
       <c r="R66" s="125"/>
-      <c r="S66" s="176"/>
-      <c r="T66" s="177"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
       <c r="U66" s="49"/>
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="101"/>
-      <c r="B67" s="167"/>
+      <c r="A67" s="142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="167" t="s">
+        <v>25</v>
+      </c>
       <c r="C67" s="170"/>
       <c r="D67" s="160"/>
       <c r="E67" s="56"/>
       <c r="F67" s="155"/>
       <c r="G67" s="156"/>
-      <c r="H67" s="59"/>
+      <c r="H67" s="171"/>
       <c r="I67" s="155"/>
       <c r="J67" s="39">
         <f t="shared" si="1"/>
@@ -25862,71 +26275,113 @@
       <c r="L67" s="61"/>
       <c r="M67" s="61"/>
       <c r="N67" s="42">
-        <f>K67*I67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O67" s="169"/>
       <c r="P67" s="58"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
-      <c r="S67" s="176"/>
-      <c r="T67" s="177"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
       <c r="U67" s="49"/>
       <c r="V67" s="50"/>
     </row>
-    <row r="68" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="142"/>
-      <c r="B68" s="178"/>
-      <c r="C68" s="179"/>
-      <c r="D68" s="160"/>
+    <row r="68" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="172" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="173" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="174"/>
       <c r="E68" s="56"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="180"/>
-      <c r="I68" s="155"/>
+      <c r="F68" s="155">
+        <v>100</v>
+      </c>
+      <c r="G68" s="156">
+        <v>44998</v>
+      </c>
+      <c r="H68" s="427" t="s">
+        <v>162</v>
+      </c>
+      <c r="I68" s="155">
+        <v>100</v>
+      </c>
       <c r="J68" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K68" s="40"/>
+      <c r="K68" s="40">
+        <v>290</v>
+      </c>
       <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
+      <c r="M68" s="495" t="s">
+        <v>163</v>
+      </c>
       <c r="N68" s="42">
-        <f t="shared" ref="N68:N71" si="3">K68*I68</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="169"/>
-      <c r="P68" s="58"/>
+        <f>K68*I68</f>
+        <v>29000</v>
+      </c>
+      <c r="O68" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P68" s="58">
+        <v>45008</v>
+      </c>
       <c r="Q68" s="166"/>
       <c r="R68" s="125"/>
-      <c r="S68" s="176"/>
-      <c r="T68" s="177"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
       <c r="U68" s="49"/>
       <c r="V68" s="50"/>
     </row>
-    <row r="69" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="152"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="181"/>
+    <row r="69" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="154" t="s">
+        <v>160</v>
+      </c>
       <c r="D69" s="174"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="164"/>
-      <c r="I69" s="155"/>
+      <c r="F69" s="155">
+        <v>19303</v>
+      </c>
+      <c r="G69" s="156">
+        <v>44999</v>
+      </c>
+      <c r="H69" s="168" t="s">
+        <v>161</v>
+      </c>
+      <c r="I69" s="155">
+        <v>19303</v>
+      </c>
       <c r="J69" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K69" s="40"/>
+      <c r="K69" s="40">
+        <v>1</v>
+      </c>
       <c r="L69" s="61"/>
       <c r="M69" s="61"/>
       <c r="N69" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="169"/>
-      <c r="P69" s="58"/>
+        <f>K69*I69</f>
+        <v>19303</v>
+      </c>
+      <c r="O69" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="58">
+        <v>45008</v>
+      </c>
       <c r="Q69" s="166"/>
       <c r="R69" s="125"/>
       <c r="S69" s="176"/>
@@ -25934,15 +26389,15 @@
       <c r="U69" s="49"/>
       <c r="V69" s="50"/>
     </row>
-    <row r="70" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="152"/>
+    <row r="70" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="101"/>
       <c r="B70" s="167"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="174"/>
+      <c r="C70" s="170"/>
+      <c r="D70" s="160"/>
       <c r="E70" s="56"/>
       <c r="F70" s="155"/>
       <c r="G70" s="156"/>
-      <c r="H70" s="164"/>
+      <c r="H70" s="59"/>
       <c r="I70" s="155"/>
       <c r="J70" s="39">
         <f t="shared" si="1"/>
@@ -25952,10 +26407,10 @@
       <c r="L70" s="61"/>
       <c r="M70" s="61"/>
       <c r="N70" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="158"/>
+        <f>K70*I70</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="169"/>
       <c r="P70" s="58"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
@@ -25965,14 +26420,14 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="152"/>
-      <c r="B71" s="167"/>
-      <c r="C71" s="182"/>
-      <c r="D71" s="174"/>
+      <c r="A71" s="142"/>
+      <c r="B71" s="178"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="160"/>
       <c r="E71" s="56"/>
       <c r="F71" s="155"/>
       <c r="G71" s="156"/>
-      <c r="H71" s="164"/>
+      <c r="H71" s="180"/>
       <c r="I71" s="155"/>
       <c r="J71" s="39">
         <f t="shared" si="1"/>
@@ -25982,10 +26437,10 @@
       <c r="L71" s="61"/>
       <c r="M71" s="61"/>
       <c r="N71" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="158"/>
+        <f t="shared" ref="N71:N74" si="6">K71*I71</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="169"/>
       <c r="P71" s="58"/>
       <c r="Q71" s="166"/>
       <c r="R71" s="125"/>
@@ -25994,15 +26449,15 @@
       <c r="U71" s="49"/>
       <c r="V71" s="50"/>
     </row>
-    <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="152"/>
       <c r="B72" s="167"/>
-      <c r="C72" s="170"/>
+      <c r="C72" s="181"/>
       <c r="D72" s="174"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155"/>
       <c r="G72" s="156"/>
-      <c r="H72" s="168"/>
+      <c r="H72" s="164"/>
       <c r="I72" s="155"/>
       <c r="J72" s="39">
         <f t="shared" si="1"/>
@@ -26012,11 +26467,11 @@
       <c r="L72" s="61"/>
       <c r="M72" s="61"/>
       <c r="N72" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="158"/>
-      <c r="P72" s="183"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="169"/>
+      <c r="P72" s="58"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -26024,15 +26479,15 @@
       <c r="U72" s="49"/>
       <c r="V72" s="50"/>
     </row>
-    <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="152"/>
-      <c r="B73" s="178"/>
-      <c r="C73" s="170"/>
-      <c r="D73" s="170"/>
+      <c r="B73" s="167"/>
+      <c r="C73" s="182"/>
+      <c r="D73" s="174"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155"/>
       <c r="G73" s="156"/>
-      <c r="H73" s="168"/>
+      <c r="H73" s="164"/>
       <c r="I73" s="155"/>
       <c r="J73" s="39">
         <f t="shared" si="1"/>
@@ -26042,11 +26497,11 @@
       <c r="L73" s="61"/>
       <c r="M73" s="61"/>
       <c r="N73" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O73" s="158"/>
-      <c r="P73" s="183"/>
+      <c r="P73" s="58"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -26054,15 +26509,15 @@
       <c r="U73" s="49"/>
       <c r="V73" s="50"/>
     </row>
-    <row r="74" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="152"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="170"/>
+      <c r="B74" s="167"/>
+      <c r="C74" s="182"/>
       <c r="D74" s="174"/>
       <c r="E74" s="56"/>
       <c r="F74" s="155"/>
       <c r="G74" s="156"/>
-      <c r="H74" s="168"/>
+      <c r="H74" s="164"/>
       <c r="I74" s="155"/>
       <c r="J74" s="39">
         <f t="shared" si="1"/>
@@ -26072,23 +26527,23 @@
       <c r="L74" s="61"/>
       <c r="M74" s="61"/>
       <c r="N74" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O74" s="158"/>
-      <c r="P74" s="183"/>
-      <c r="Q74" s="158"/>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="166"/>
       <c r="R74" s="125"/>
       <c r="S74" s="176"/>
       <c r="T74" s="177"/>
       <c r="U74" s="49"/>
       <c r="V74" s="50"/>
     </row>
-    <row r="75" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="152"/>
       <c r="B75" s="167"/>
       <c r="C75" s="170"/>
-      <c r="D75" s="170"/>
+      <c r="D75" s="174"/>
       <c r="E75" s="56"/>
       <c r="F75" s="155"/>
       <c r="G75" s="156"/>
@@ -26107,7 +26562,7 @@
       </c>
       <c r="O75" s="158"/>
       <c r="P75" s="183"/>
-      <c r="Q75" s="158"/>
+      <c r="Q75" s="166"/>
       <c r="R75" s="125"/>
       <c r="S75" s="176"/>
       <c r="T75" s="177"/>
@@ -26121,8 +26576,8 @@
       <c r="D76" s="170"/>
       <c r="E76" s="56"/>
       <c r="F76" s="155"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="164"/>
+      <c r="G76" s="156"/>
+      <c r="H76" s="168"/>
       <c r="I76" s="155"/>
       <c r="J76" s="39">
         <f t="shared" si="1"/>
@@ -26136,23 +26591,23 @@
         <v>0</v>
       </c>
       <c r="O76" s="158"/>
-      <c r="P76" s="186"/>
-      <c r="Q76" s="158"/>
+      <c r="P76" s="183"/>
+      <c r="Q76" s="166"/>
       <c r="R76" s="125"/>
       <c r="S76" s="176"/>
       <c r="T76" s="177"/>
       <c r="U76" s="49"/>
       <c r="V76" s="50"/>
     </row>
-    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="152"/>
-      <c r="B77" s="178"/>
+      <c r="B77" s="184"/>
       <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
+      <c r="D77" s="174"/>
       <c r="E77" s="56"/>
       <c r="F77" s="155"/>
-      <c r="G77" s="185"/>
-      <c r="H77" s="164"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="168"/>
       <c r="I77" s="155"/>
       <c r="J77" s="39">
         <f t="shared" si="1"/>
@@ -26166,7 +26621,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="158"/>
-      <c r="P77" s="186"/>
+      <c r="P77" s="183"/>
       <c r="Q77" s="158"/>
       <c r="R77" s="125"/>
       <c r="S77" s="176"/>
@@ -26174,15 +26629,15 @@
       <c r="U77" s="49"/>
       <c r="V77" s="50"/>
     </row>
-    <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="152"/>
-      <c r="B78" s="178"/>
+      <c r="B78" s="167"/>
       <c r="C78" s="170"/>
       <c r="D78" s="170"/>
       <c r="E78" s="56"/>
       <c r="F78" s="155"/>
-      <c r="G78" s="185"/>
-      <c r="H78" s="164"/>
+      <c r="G78" s="156"/>
+      <c r="H78" s="168"/>
       <c r="I78" s="155"/>
       <c r="J78" s="39">
         <f t="shared" si="1"/>
@@ -26196,7 +26651,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="158"/>
-      <c r="P78" s="186"/>
+      <c r="P78" s="183"/>
       <c r="Q78" s="158"/>
       <c r="R78" s="125"/>
       <c r="S78" s="176"/>
@@ -26234,15 +26689,15 @@
       <c r="U79" s="49"/>
       <c r="V79" s="50"/>
     </row>
-    <row r="80" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="152"/>
-      <c r="B80" s="167"/>
+      <c r="B80" s="178"/>
       <c r="C80" s="170"/>
-      <c r="D80" s="174"/>
+      <c r="D80" s="170"/>
       <c r="E80" s="56"/>
       <c r="F80" s="155"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="168"/>
+      <c r="G80" s="185"/>
+      <c r="H80" s="164"/>
       <c r="I80" s="155"/>
       <c r="J80" s="39">
         <f t="shared" si="1"/>
@@ -26256,7 +26711,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="158"/>
-      <c r="P80" s="183"/>
+      <c r="P80" s="186"/>
       <c r="Q80" s="158"/>
       <c r="R80" s="125"/>
       <c r="S80" s="176"/>
@@ -26264,21 +26719,21 @@
       <c r="U80" s="49"/>
       <c r="V80" s="50"/>
     </row>
-    <row r="81" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="152"/>
-      <c r="B81" s="167"/>
+      <c r="B81" s="178"/>
       <c r="C81" s="170"/>
-      <c r="D81" s="187"/>
+      <c r="D81" s="170"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="168"/>
+      <c r="G81" s="185"/>
+      <c r="H81" s="164"/>
       <c r="I81" s="155"/>
       <c r="J81" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K81" s="81"/>
+      <c r="K81" s="40"/>
       <c r="L81" s="61"/>
       <c r="M81" s="61"/>
       <c r="N81" s="42">
@@ -26286,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="158"/>
-      <c r="P81" s="183"/>
+      <c r="P81" s="186"/>
       <c r="Q81" s="158"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -26294,21 +26749,21 @@
       <c r="U81" s="49"/>
       <c r="V81" s="50"/>
     </row>
-    <row r="82" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="152"/>
-      <c r="B82" s="167"/>
+      <c r="B82" s="178"/>
       <c r="C82" s="170"/>
-      <c r="D82" s="187"/>
+      <c r="D82" s="170"/>
       <c r="E82" s="56"/>
       <c r="F82" s="155"/>
-      <c r="G82" s="156"/>
+      <c r="G82" s="185"/>
       <c r="H82" s="164"/>
       <c r="I82" s="155"/>
       <c r="J82" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K82" s="81"/>
+      <c r="K82" s="40"/>
       <c r="L82" s="61"/>
       <c r="M82" s="61"/>
       <c r="N82" s="42">
@@ -26324,21 +26779,21 @@
       <c r="U82" s="49"/>
       <c r="V82" s="50"/>
     </row>
-    <row r="83" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="152"/>
       <c r="B83" s="167"/>
       <c r="C83" s="170"/>
-      <c r="D83" s="187"/>
+      <c r="D83" s="174"/>
       <c r="E83" s="56"/>
       <c r="F83" s="155"/>
       <c r="G83" s="156"/>
-      <c r="H83" s="164"/>
+      <c r="H83" s="168"/>
       <c r="I83" s="155"/>
       <c r="J83" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K83" s="81"/>
+      <c r="K83" s="40"/>
       <c r="L83" s="61"/>
       <c r="M83" s="61"/>
       <c r="N83" s="42">
@@ -26346,7 +26801,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="158"/>
-      <c r="P83" s="186"/>
+      <c r="P83" s="183"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -26358,11 +26813,11 @@
       <c r="A84" s="152"/>
       <c r="B84" s="167"/>
       <c r="C84" s="170"/>
-      <c r="D84" s="181"/>
+      <c r="D84" s="187"/>
       <c r="E84" s="56"/>
       <c r="F84" s="155"/>
       <c r="G84" s="156"/>
-      <c r="H84" s="164"/>
+      <c r="H84" s="168"/>
       <c r="I84" s="155"/>
       <c r="J84" s="39">
         <f t="shared" si="1"/>
@@ -26376,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="158"/>
-      <c r="P84" s="186"/>
+      <c r="P84" s="183"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -26388,11 +26843,8 @@
       <c r="A85" s="152"/>
       <c r="B85" s="167"/>
       <c r="C85" s="170"/>
-      <c r="D85" s="181"/>
-      <c r="E85" s="56">
-        <f t="shared" ref="E85:E150" si="4">D85*F85</f>
-        <v>0</v>
-      </c>
+      <c r="D85" s="187"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="155"/>
       <c r="G85" s="156"/>
       <c r="H85" s="164"/>
@@ -26418,17 +26870,14 @@
       <c r="V85" s="50"/>
     </row>
     <row r="86" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="98"/>
+      <c r="A86" s="152"/>
       <c r="B86" s="167"/>
-      <c r="C86" s="188"/>
+      <c r="C86" s="170"/>
       <c r="D86" s="187"/>
-      <c r="E86" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="E86" s="56"/>
       <c r="F86" s="155"/>
       <c r="G86" s="156"/>
-      <c r="H86" s="168"/>
+      <c r="H86" s="164"/>
       <c r="I86" s="155"/>
       <c r="J86" s="39">
         <f t="shared" si="1"/>
@@ -26442,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="158"/>
-      <c r="P86" s="183"/>
+      <c r="P86" s="186"/>
       <c r="Q86" s="158"/>
       <c r="R86" s="125"/>
       <c r="S86" s="176"/>
@@ -26451,17 +26900,14 @@
       <c r="V86" s="50"/>
     </row>
     <row r="87" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="98"/>
+      <c r="A87" s="152"/>
       <c r="B87" s="167"/>
-      <c r="C87" s="189"/>
-      <c r="D87" s="187"/>
-      <c r="E87" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="C87" s="170"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="155"/>
       <c r="G87" s="156"/>
-      <c r="H87" s="168"/>
+      <c r="H87" s="164"/>
       <c r="I87" s="155"/>
       <c r="J87" s="39">
         <f t="shared" si="1"/>
@@ -26475,7 +26921,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="158"/>
-      <c r="P87" s="190"/>
+      <c r="P87" s="186"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -26484,17 +26930,17 @@
       <c r="V87" s="50"/>
     </row>
     <row r="88" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="98"/>
+      <c r="A88" s="152"/>
       <c r="B88" s="167"/>
-      <c r="C88" s="187"/>
-      <c r="D88" s="191"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="181"/>
       <c r="E88" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E88:E153" si="7">D88*F88</f>
         <v>0</v>
       </c>
       <c r="F88" s="155"/>
       <c r="G88" s="156"/>
-      <c r="H88" s="168"/>
+      <c r="H88" s="164"/>
       <c r="I88" s="155"/>
       <c r="J88" s="39">
         <f t="shared" si="1"/>
@@ -26508,7 +26954,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="158"/>
-      <c r="P88" s="190"/>
+      <c r="P88" s="186"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -26517,18 +26963,18 @@
       <c r="V88" s="50"/>
     </row>
     <row r="89" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="110"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="187"/>
-      <c r="D89" s="191"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="167"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="187"/>
       <c r="E89" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="60"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="60"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="155"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="168"/>
+      <c r="I89" s="155"/>
       <c r="J89" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26541,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="158"/>
-      <c r="P89" s="190"/>
+      <c r="P89" s="183"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -26549,26 +26995,26 @@
       <c r="U89" s="49"/>
       <c r="V89" s="50"/>
     </row>
-    <row r="90" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="110"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="192"/>
-      <c r="D90" s="191"/>
+    <row r="90" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="98"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="189"/>
+      <c r="D90" s="187"/>
       <c r="E90" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="60"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="60"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="155"/>
+      <c r="G90" s="156"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="155"/>
       <c r="J90" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="401"/>
-      <c r="M90" s="402"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
       <c r="N90" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26582,26 +27028,26 @@
       <c r="U90" s="49"/>
       <c r="V90" s="50"/>
     </row>
-    <row r="91" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="110"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="182"/>
+    <row r="91" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="98"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="187"/>
       <c r="D91" s="191"/>
       <c r="E91" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="60"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="155"/>
+      <c r="G91" s="156"/>
+      <c r="H91" s="168"/>
+      <c r="I91" s="155"/>
       <c r="J91" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="401"/>
-      <c r="M91" s="402"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
       <c r="N91" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26615,13 +27061,13 @@
       <c r="U91" s="49"/>
       <c r="V91" s="50"/>
     </row>
-    <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="193"/>
+    <row r="92" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="110"/>
       <c r="B92" s="99"/>
-      <c r="C92" s="194"/>
+      <c r="C92" s="187"/>
       <c r="D92" s="191"/>
       <c r="E92" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F92" s="60"/>
@@ -26633,8 +27079,8 @@
         <v>0</v>
       </c>
       <c r="K92" s="81"/>
-      <c r="L92" s="195"/>
-      <c r="M92" s="195"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
       <c r="N92" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26648,13 +27094,13 @@
       <c r="U92" s="49"/>
       <c r="V92" s="50"/>
     </row>
-    <row r="93" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="196"/>
+    <row r="93" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="110"/>
       <c r="B93" s="99"/>
-      <c r="C93" s="154"/>
+      <c r="C93" s="192"/>
       <c r="D93" s="191"/>
       <c r="E93" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F93" s="60"/>
@@ -26666,8 +27112,8 @@
         <v>0</v>
       </c>
       <c r="K93" s="81"/>
-      <c r="L93" s="195"/>
-      <c r="M93" s="195"/>
+      <c r="L93" s="437"/>
+      <c r="M93" s="438"/>
       <c r="N93" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26682,12 +27128,12 @@
       <c r="V93" s="50"/>
     </row>
     <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="101"/>
+      <c r="A94" s="110"/>
       <c r="B94" s="99"/>
-      <c r="C94" s="191"/>
+      <c r="C94" s="182"/>
       <c r="D94" s="191"/>
       <c r="E94" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F94" s="60"/>
@@ -26699,8 +27145,8 @@
         <v>0</v>
       </c>
       <c r="K94" s="81"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
+      <c r="L94" s="437"/>
+      <c r="M94" s="438"/>
       <c r="N94" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26714,13 +27160,13 @@
       <c r="U94" s="49"/>
       <c r="V94" s="50"/>
     </row>
-    <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="101"/>
+    <row r="95" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="193"/>
       <c r="B95" s="99"/>
-      <c r="C95" s="191"/>
+      <c r="C95" s="194"/>
       <c r="D95" s="191"/>
       <c r="E95" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F95" s="60"/>
@@ -26732,8 +27178,8 @@
         <v>0</v>
       </c>
       <c r="K95" s="81"/>
-      <c r="L95" s="61"/>
-      <c r="M95" s="61"/>
+      <c r="L95" s="195"/>
+      <c r="M95" s="195"/>
       <c r="N95" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26747,13 +27193,13 @@
       <c r="U95" s="49"/>
       <c r="V95" s="50"/>
     </row>
-    <row r="96" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="101"/>
+    <row r="96" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="196"/>
       <c r="B96" s="99"/>
-      <c r="C96" s="191"/>
+      <c r="C96" s="154"/>
       <c r="D96" s="191"/>
       <c r="E96" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F96" s="60"/>
@@ -26765,8 +27211,8 @@
         <v>0</v>
       </c>
       <c r="K96" s="81"/>
-      <c r="L96" s="61"/>
-      <c r="M96" s="61"/>
+      <c r="L96" s="195"/>
+      <c r="M96" s="195"/>
       <c r="N96" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26781,12 +27227,12 @@
       <c r="V96" s="50"/>
     </row>
     <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="110"/>
+      <c r="A97" s="101"/>
       <c r="B97" s="99"/>
-      <c r="C97" s="187"/>
+      <c r="C97" s="191"/>
       <c r="D97" s="191"/>
       <c r="E97" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F97" s="60"/>
@@ -26804,8 +27250,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O97" s="403"/>
-      <c r="P97" s="405"/>
+      <c r="O97" s="158"/>
+      <c r="P97" s="190"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -26814,12 +27260,12 @@
       <c r="V97" s="50"/>
     </row>
     <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="110"/>
+      <c r="A98" s="101"/>
       <c r="B98" s="99"/>
-      <c r="C98" s="187"/>
+      <c r="C98" s="191"/>
       <c r="D98" s="191"/>
       <c r="E98" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F98" s="60"/>
@@ -26837,8 +27283,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O98" s="404"/>
-      <c r="P98" s="406"/>
+      <c r="O98" s="158"/>
+      <c r="P98" s="190"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -26847,12 +27293,12 @@
       <c r="V98" s="50"/>
     </row>
     <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="99"/>
+      <c r="A99" s="101"/>
       <c r="B99" s="99"/>
       <c r="C99" s="191"/>
       <c r="D99" s="191"/>
       <c r="E99" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F99" s="60"/>
@@ -26880,12 +27326,12 @@
       <c r="V99" s="50"/>
     </row>
     <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="99"/>
+      <c r="A100" s="110"/>
       <c r="B100" s="99"/>
-      <c r="C100" s="191"/>
+      <c r="C100" s="187"/>
       <c r="D100" s="191"/>
       <c r="E100" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F100" s="60"/>
@@ -26903,8 +27349,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O100" s="158"/>
-      <c r="P100" s="190"/>
+      <c r="O100" s="439"/>
+      <c r="P100" s="441"/>
       <c r="Q100" s="158"/>
       <c r="R100" s="125"/>
       <c r="S100" s="176"/>
@@ -26913,12 +27359,12 @@
       <c r="V100" s="50"/>
     </row>
     <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="102"/>
+      <c r="A101" s="110"/>
       <c r="B101" s="99"/>
-      <c r="C101" s="197"/>
-      <c r="D101" s="197"/>
+      <c r="C101" s="187"/>
+      <c r="D101" s="191"/>
       <c r="E101" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F101" s="60"/>
@@ -26936,8 +27382,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O101" s="158"/>
-      <c r="P101" s="190"/>
+      <c r="O101" s="440"/>
+      <c r="P101" s="442"/>
       <c r="Q101" s="158"/>
       <c r="R101" s="125"/>
       <c r="S101" s="176"/>
@@ -26945,13 +27391,13 @@
       <c r="U101" s="49"/>
       <c r="V101" s="50"/>
     </row>
-    <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="152"/>
-      <c r="B102" s="110"/>
-      <c r="C102" s="194"/>
-      <c r="D102" s="194"/>
+    <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="99"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="191"/>
+      <c r="D102" s="191"/>
       <c r="E102" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F102" s="60"/>
@@ -26978,13 +27424,13 @@
       <c r="U102" s="49"/>
       <c r="V102" s="50"/>
     </row>
-    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="152"/>
-      <c r="B103" s="110"/>
-      <c r="C103" s="197"/>
-      <c r="D103" s="197"/>
+    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="99"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="191"/>
+      <c r="D103" s="191"/>
       <c r="E103" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F103" s="60"/>
@@ -27011,13 +27457,13 @@
       <c r="U103" s="49"/>
       <c r="V103" s="50"/>
     </row>
-    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="152"/>
-      <c r="B104" s="110"/>
+    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="102"/>
+      <c r="B104" s="99"/>
       <c r="C104" s="197"/>
       <c r="D104" s="197"/>
       <c r="E104" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F104" s="60"/>
@@ -27044,13 +27490,13 @@
       <c r="U104" s="49"/>
       <c r="V104" s="50"/>
     </row>
-    <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="101"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="197"/>
-      <c r="D105" s="197"/>
+    <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="152"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="194"/>
+      <c r="D105" s="194"/>
       <c r="E105" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F105" s="60"/>
@@ -27073,17 +27519,17 @@
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
-      <c r="T105" s="176"/>
+      <c r="T105" s="177"/>
       <c r="U105" s="49"/>
       <c r="V105" s="50"/>
     </row>
-    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="101"/>
-      <c r="B106" s="99"/>
+    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="152"/>
+      <c r="B106" s="110"/>
       <c r="C106" s="197"/>
       <c r="D106" s="197"/>
       <c r="E106" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F106" s="60"/>
@@ -27106,17 +27552,17 @@
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
-      <c r="T106" s="176"/>
+      <c r="T106" s="177"/>
       <c r="U106" s="49"/>
       <c r="V106" s="50"/>
     </row>
-    <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="101"/>
-      <c r="B107" s="99"/>
+    <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="152"/>
+      <c r="B107" s="110"/>
       <c r="C107" s="197"/>
       <c r="D107" s="197"/>
       <c r="E107" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F107" s="60"/>
@@ -27139,17 +27585,17 @@
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
-      <c r="T107" s="176"/>
+      <c r="T107" s="177"/>
       <c r="U107" s="49"/>
       <c r="V107" s="50"/>
     </row>
-    <row r="108" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="99"/>
-      <c r="B108" s="198"/>
+    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="101"/>
+      <c r="B108" s="99"/>
       <c r="C108" s="197"/>
       <c r="D108" s="197"/>
       <c r="E108" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F108" s="60"/>
@@ -27172,17 +27618,17 @@
       <c r="Q108" s="158"/>
       <c r="R108" s="125"/>
       <c r="S108" s="176"/>
-      <c r="T108" s="177"/>
+      <c r="T108" s="176"/>
       <c r="U108" s="49"/>
       <c r="V108" s="50"/>
     </row>
     <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="99"/>
+      <c r="A109" s="101"/>
       <c r="B109" s="99"/>
       <c r="C109" s="197"/>
       <c r="D109" s="197"/>
       <c r="E109" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F109" s="60"/>
@@ -27205,17 +27651,17 @@
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
-      <c r="T109" s="177"/>
+      <c r="T109" s="176"/>
       <c r="U109" s="49"/>
       <c r="V109" s="50"/>
     </row>
     <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="99"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="99"/>
       <c r="C110" s="197"/>
       <c r="D110" s="197"/>
       <c r="E110" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F110" s="60"/>
@@ -27238,17 +27684,17 @@
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
-      <c r="T110" s="177"/>
+      <c r="T110" s="176"/>
       <c r="U110" s="49"/>
       <c r="V110" s="50"/>
     </row>
-    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="152"/>
-      <c r="B111" s="99"/>
+    <row r="111" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="99"/>
+      <c r="B111" s="198"/>
       <c r="C111" s="197"/>
       <c r="D111" s="197"/>
       <c r="E111" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F111" s="60"/>
@@ -27275,18 +27721,18 @@
       <c r="U111" s="49"/>
       <c r="V111" s="50"/>
     </row>
-    <row r="112" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="199"/>
-      <c r="B112" s="199"/>
-      <c r="C112" s="200"/>
-      <c r="D112" s="200"/>
-      <c r="E112" s="201">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F112" s="38"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="37"/>
+    <row r="112" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="99"/>
+      <c r="B112" s="99"/>
+      <c r="C112" s="197"/>
+      <c r="D112" s="197"/>
+      <c r="E112" s="56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="60"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="59"/>
       <c r="I112" s="60"/>
       <c r="J112" s="39">
         <f t="shared" si="1"/>
@@ -27308,13 +27754,13 @@
       <c r="U112" s="49"/>
       <c r="V112" s="50"/>
     </row>
-    <row r="113" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="99"/>
       <c r="B113" s="99"/>
       <c r="C113" s="197"/>
       <c r="D113" s="197"/>
-      <c r="E113" s="34">
-        <f t="shared" si="4"/>
+      <c r="E113" s="56">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F113" s="60"/>
@@ -27341,13 +27787,13 @@
       <c r="U113" s="49"/>
       <c r="V113" s="50"/>
     </row>
-    <row r="114" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="110"/>
+    <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="152"/>
       <c r="B114" s="99"/>
       <c r="C114" s="197"/>
       <c r="D114" s="197"/>
-      <c r="E114" s="34">
-        <f t="shared" si="4"/>
+      <c r="E114" s="56">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F114" s="60"/>
@@ -27374,18 +27820,18 @@
       <c r="U114" s="49"/>
       <c r="V114" s="50"/>
     </row>
-    <row r="115" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="110"/>
-      <c r="B115" s="99"/>
-      <c r="C115" s="197"/>
-      <c r="D115" s="197"/>
-      <c r="E115" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="60"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="59"/>
+    <row r="115" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="199"/>
+      <c r="B115" s="199"/>
+      <c r="C115" s="200"/>
+      <c r="D115" s="200"/>
+      <c r="E115" s="201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="38"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="37"/>
       <c r="I115" s="60"/>
       <c r="J115" s="39">
         <f t="shared" si="1"/>
@@ -27408,12 +27854,12 @@
       <c r="V115" s="50"/>
     </row>
     <row r="116" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="110"/>
+      <c r="A116" s="99"/>
       <c r="B116" s="99"/>
       <c r="C116" s="197"/>
       <c r="D116" s="197"/>
       <c r="E116" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F116" s="60"/>
@@ -27441,12 +27887,12 @@
       <c r="V116" s="50"/>
     </row>
     <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="99"/>
+      <c r="A117" s="110"/>
       <c r="B117" s="99"/>
       <c r="C117" s="197"/>
       <c r="D117" s="197"/>
       <c r="E117" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117" s="60"/>
@@ -27474,12 +27920,12 @@
       <c r="V117" s="50"/>
     </row>
     <row r="118" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="98"/>
+      <c r="A118" s="110"/>
       <c r="B118" s="99"/>
       <c r="C118" s="197"/>
       <c r="D118" s="197"/>
       <c r="E118" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F118" s="60"/>
@@ -27494,7 +27940,7 @@
       <c r="L118" s="61"/>
       <c r="M118" s="61"/>
       <c r="N118" s="42">
-        <f t="shared" ref="N118:N181" si="5">K118*I118</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O118" s="158"/>
@@ -27507,12 +27953,12 @@
       <c r="V118" s="50"/>
     </row>
     <row r="119" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="101"/>
+      <c r="A119" s="110"/>
       <c r="B119" s="99"/>
       <c r="C119" s="197"/>
       <c r="D119" s="197"/>
       <c r="E119" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119" s="60"/>
@@ -27527,7 +27973,7 @@
       <c r="L119" s="61"/>
       <c r="M119" s="61"/>
       <c r="N119" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O119" s="158"/>
@@ -27540,12 +27986,12 @@
       <c r="V119" s="50"/>
     </row>
     <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="101"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="99"/>
       <c r="C120" s="197"/>
       <c r="D120" s="197"/>
       <c r="E120" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F120" s="60"/>
@@ -27560,7 +28006,7 @@
       <c r="L120" s="61"/>
       <c r="M120" s="61"/>
       <c r="N120" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O120" s="158"/>
@@ -27573,12 +28019,12 @@
       <c r="V120" s="50"/>
     </row>
     <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="202"/>
+      <c r="A121" s="98"/>
       <c r="B121" s="99"/>
       <c r="C121" s="197"/>
       <c r="D121" s="197"/>
       <c r="E121" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F121" s="60"/>
@@ -27593,7 +28039,7 @@
       <c r="L121" s="61"/>
       <c r="M121" s="61"/>
       <c r="N121" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N121:N184" si="8">K121*I121</f>
         <v>0</v>
       </c>
       <c r="O121" s="158"/>
@@ -27606,12 +28052,12 @@
       <c r="V121" s="50"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="203"/>
+      <c r="A122" s="101"/>
       <c r="B122" s="99"/>
       <c r="C122" s="197"/>
       <c r="D122" s="197"/>
       <c r="E122" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F122" s="60"/>
@@ -27626,7 +28072,7 @@
       <c r="L122" s="61"/>
       <c r="M122" s="61"/>
       <c r="N122" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O122" s="158"/>
@@ -27639,12 +28085,12 @@
       <c r="V122" s="50"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="204"/>
+      <c r="A123" s="101"/>
       <c r="B123" s="99"/>
       <c r="C123" s="197"/>
       <c r="D123" s="197"/>
       <c r="E123" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F123" s="60"/>
@@ -27659,7 +28105,7 @@
       <c r="L123" s="61"/>
       <c r="M123" s="61"/>
       <c r="N123" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O123" s="158"/>
@@ -27672,12 +28118,12 @@
       <c r="V123" s="50"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="204"/>
+      <c r="A124" s="202"/>
       <c r="B124" s="99"/>
-      <c r="C124" s="154"/>
-      <c r="D124" s="154"/>
+      <c r="C124" s="197"/>
+      <c r="D124" s="197"/>
       <c r="E124" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F124" s="60"/>
@@ -27685,14 +28131,14 @@
       <c r="H124" s="59"/>
       <c r="I124" s="60"/>
       <c r="J124" s="39">
-        <f t="shared" ref="J124:J187" si="6">I124-F124</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K124" s="81"/>
       <c r="L124" s="61"/>
       <c r="M124" s="61"/>
       <c r="N124" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O124" s="158"/>
@@ -27710,22 +28156,22 @@
       <c r="C125" s="197"/>
       <c r="D125" s="197"/>
       <c r="E125" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F125" s="60"/>
       <c r="G125" s="58"/>
-      <c r="H125" s="205"/>
+      <c r="H125" s="59"/>
       <c r="I125" s="60"/>
       <c r="J125" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K125" s="81"/>
       <c r="L125" s="61"/>
       <c r="M125" s="61"/>
       <c r="N125" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O125" s="158"/>
@@ -27738,27 +28184,27 @@
       <c r="V125" s="50"/>
     </row>
     <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="203"/>
+      <c r="A126" s="204"/>
       <c r="B126" s="99"/>
-      <c r="C126" s="154"/>
-      <c r="D126" s="154"/>
+      <c r="C126" s="197"/>
+      <c r="D126" s="197"/>
       <c r="E126" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F126" s="60"/>
       <c r="G126" s="58"/>
-      <c r="H126" s="205"/>
+      <c r="H126" s="59"/>
       <c r="I126" s="60"/>
       <c r="J126" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K126" s="81"/>
       <c r="L126" s="61"/>
       <c r="M126" s="61"/>
       <c r="N126" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O126" s="158"/>
@@ -27771,27 +28217,27 @@
       <c r="V126" s="50"/>
     </row>
     <row r="127" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="203"/>
+      <c r="A127" s="204"/>
       <c r="B127" s="99"/>
-      <c r="C127" s="197"/>
-      <c r="D127" s="197"/>
+      <c r="C127" s="154"/>
+      <c r="D127" s="154"/>
       <c r="E127" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F127" s="60"/>
       <c r="G127" s="58"/>
-      <c r="H127" s="205"/>
+      <c r="H127" s="59"/>
       <c r="I127" s="60"/>
       <c r="J127" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J127:J190" si="9">I127-F127</f>
         <v>0</v>
       </c>
       <c r="K127" s="81"/>
       <c r="L127" s="61"/>
       <c r="M127" s="61"/>
       <c r="N127" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O127" s="158"/>
@@ -27806,10 +28252,10 @@
     <row r="128" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="203"/>
       <c r="B128" s="99"/>
-      <c r="C128" s="194"/>
-      <c r="D128" s="194"/>
+      <c r="C128" s="197"/>
+      <c r="D128" s="197"/>
       <c r="E128" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F128" s="60"/>
@@ -27817,18 +28263,18 @@
       <c r="H128" s="205"/>
       <c r="I128" s="60"/>
       <c r="J128" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K128" s="81"/>
       <c r="L128" s="61"/>
       <c r="M128" s="61"/>
       <c r="N128" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O128" s="158"/>
-      <c r="P128" s="183"/>
+      <c r="P128" s="190"/>
       <c r="Q128" s="158"/>
       <c r="R128" s="125"/>
       <c r="S128" s="176"/>
@@ -27836,100 +28282,100 @@
       <c r="U128" s="49"/>
       <c r="V128" s="50"/>
     </row>
-    <row r="129" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="99"/>
+    <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="203"/>
       <c r="B129" s="99"/>
-      <c r="C129" s="197"/>
-      <c r="D129" s="197"/>
+      <c r="C129" s="154"/>
+      <c r="D129" s="154"/>
       <c r="E129" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F129" s="60"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="206"/>
+      <c r="H129" s="205"/>
       <c r="I129" s="60"/>
       <c r="J129" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K129" s="81"/>
       <c r="L129" s="61"/>
       <c r="M129" s="61"/>
       <c r="N129" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O129" s="158"/>
-      <c r="P129" s="207"/>
+      <c r="P129" s="190"/>
       <c r="Q129" s="158"/>
-      <c r="R129" s="208"/>
+      <c r="R129" s="125"/>
       <c r="S129" s="176"/>
       <c r="T129" s="177"/>
       <c r="U129" s="49"/>
       <c r="V129" s="50"/>
     </row>
-    <row r="130" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="99"/>
+    <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="203"/>
       <c r="B130" s="99"/>
       <c r="C130" s="197"/>
       <c r="D130" s="197"/>
       <c r="E130" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F130" s="60"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="206"/>
+      <c r="H130" s="205"/>
       <c r="I130" s="60"/>
       <c r="J130" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K130" s="81"/>
       <c r="L130" s="61"/>
       <c r="M130" s="61"/>
       <c r="N130" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O130" s="158"/>
-      <c r="P130" s="207"/>
+      <c r="P130" s="190"/>
       <c r="Q130" s="158"/>
-      <c r="R130" s="208"/>
+      <c r="R130" s="125"/>
       <c r="S130" s="176"/>
       <c r="T130" s="177"/>
       <c r="U130" s="49"/>
       <c r="V130" s="50"/>
     </row>
-    <row r="131" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="99"/>
+    <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="203"/>
       <c r="B131" s="99"/>
-      <c r="C131" s="197"/>
-      <c r="D131" s="197"/>
+      <c r="C131" s="194"/>
+      <c r="D131" s="194"/>
       <c r="E131" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131" s="60"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="206"/>
+      <c r="H131" s="205"/>
       <c r="I131" s="60"/>
       <c r="J131" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K131" s="81"/>
       <c r="L131" s="61"/>
       <c r="M131" s="61"/>
       <c r="N131" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O131" s="158"/>
-      <c r="P131" s="207"/>
+      <c r="P131" s="183"/>
       <c r="Q131" s="158"/>
-      <c r="R131" s="208"/>
+      <c r="R131" s="125"/>
       <c r="S131" s="176"/>
       <c r="T131" s="177"/>
       <c r="U131" s="49"/>
@@ -27941,7 +28387,7 @@
       <c r="C132" s="197"/>
       <c r="D132" s="197"/>
       <c r="E132" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F132" s="60"/>
@@ -27949,14 +28395,14 @@
       <c r="H132" s="206"/>
       <c r="I132" s="60"/>
       <c r="J132" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K132" s="81"/>
       <c r="L132" s="61"/>
       <c r="M132" s="61"/>
       <c r="N132" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O132" s="158"/>
@@ -27968,99 +28414,99 @@
       <c r="U132" s="49"/>
       <c r="V132" s="50"/>
     </row>
-    <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="102"/>
+    <row r="133" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="99"/>
       <c r="B133" s="99"/>
       <c r="C133" s="197"/>
       <c r="D133" s="197"/>
       <c r="E133" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F133" s="60"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="205"/>
+      <c r="H133" s="206"/>
       <c r="I133" s="60"/>
       <c r="J133" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K133" s="81"/>
       <c r="L133" s="61"/>
       <c r="M133" s="61"/>
       <c r="N133" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O133" s="69"/>
-      <c r="P133" s="209"/>
-      <c r="Q133" s="210"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O133" s="158"/>
+      <c r="P133" s="207"/>
+      <c r="Q133" s="158"/>
       <c r="R133" s="208"/>
       <c r="S133" s="176"/>
       <c r="T133" s="177"/>
       <c r="U133" s="49"/>
       <c r="V133" s="50"/>
     </row>
-    <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="99"/>
       <c r="B134" s="99"/>
       <c r="C134" s="197"/>
       <c r="D134" s="197"/>
       <c r="E134" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F134" s="60"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="205"/>
+      <c r="H134" s="206"/>
       <c r="I134" s="60"/>
       <c r="J134" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K134" s="81"/>
       <c r="L134" s="61"/>
       <c r="M134" s="61"/>
       <c r="N134" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O134" s="69"/>
-      <c r="P134" s="209"/>
-      <c r="Q134" s="210"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O134" s="158"/>
+      <c r="P134" s="207"/>
+      <c r="Q134" s="158"/>
       <c r="R134" s="208"/>
       <c r="S134" s="176"/>
       <c r="T134" s="177"/>
       <c r="U134" s="49"/>
       <c r="V134" s="50"/>
     </row>
-    <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="101"/>
+    <row r="135" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="99"/>
       <c r="B135" s="99"/>
-      <c r="C135" s="181"/>
-      <c r="D135" s="181"/>
+      <c r="C135" s="197"/>
+      <c r="D135" s="197"/>
       <c r="E135" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F135" s="60"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="205"/>
+      <c r="H135" s="206"/>
       <c r="I135" s="60"/>
       <c r="J135" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K135" s="81"/>
       <c r="L135" s="61"/>
       <c r="M135" s="61"/>
       <c r="N135" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O135" s="69"/>
-      <c r="P135" s="209"/>
-      <c r="Q135" s="210"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O135" s="158"/>
+      <c r="P135" s="207"/>
+      <c r="Q135" s="158"/>
       <c r="R135" s="208"/>
       <c r="S135" s="176"/>
       <c r="T135" s="177"/>
@@ -28068,12 +28514,12 @@
       <c r="V135" s="50"/>
     </row>
     <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="101"/>
+      <c r="A136" s="102"/>
       <c r="B136" s="99"/>
-      <c r="C136" s="181"/>
-      <c r="D136" s="181"/>
+      <c r="C136" s="197"/>
+      <c r="D136" s="197"/>
       <c r="E136" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F136" s="60"/>
@@ -28081,14 +28527,14 @@
       <c r="H136" s="205"/>
       <c r="I136" s="60"/>
       <c r="J136" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K136" s="81"/>
       <c r="L136" s="61"/>
       <c r="M136" s="61"/>
       <c r="N136" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O136" s="69"/>
@@ -28101,12 +28547,12 @@
       <c r="V136" s="50"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="101"/>
+      <c r="A137" s="99"/>
       <c r="B137" s="99"/>
-      <c r="C137" s="181"/>
-      <c r="D137" s="181"/>
+      <c r="C137" s="197"/>
+      <c r="D137" s="197"/>
       <c r="E137" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F137" s="60"/>
@@ -28114,14 +28560,14 @@
       <c r="H137" s="205"/>
       <c r="I137" s="60"/>
       <c r="J137" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K137" s="81"/>
       <c r="L137" s="61"/>
       <c r="M137" s="61"/>
       <c r="N137" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O137" s="69"/>
@@ -28139,7 +28585,7 @@
       <c r="C138" s="181"/>
       <c r="D138" s="181"/>
       <c r="E138" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F138" s="60"/>
@@ -28147,14 +28593,14 @@
       <c r="H138" s="205"/>
       <c r="I138" s="60"/>
       <c r="J138" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K138" s="81"/>
       <c r="L138" s="61"/>
       <c r="M138" s="61"/>
       <c r="N138" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O138" s="69"/>
@@ -28172,7 +28618,7 @@
       <c r="C139" s="181"/>
       <c r="D139" s="181"/>
       <c r="E139" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F139" s="60"/>
@@ -28180,14 +28626,14 @@
       <c r="H139" s="205"/>
       <c r="I139" s="60"/>
       <c r="J139" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K139" s="81"/>
       <c r="L139" s="61"/>
       <c r="M139" s="61"/>
       <c r="N139" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O139" s="69"/>
@@ -28200,12 +28646,12 @@
       <c r="V139" s="50"/>
     </row>
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="203"/>
+      <c r="A140" s="101"/>
       <c r="B140" s="99"/>
-      <c r="C140" s="197"/>
-      <c r="D140" s="197"/>
+      <c r="C140" s="181"/>
+      <c r="D140" s="181"/>
       <c r="E140" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F140" s="60"/>
@@ -28213,14 +28659,14 @@
       <c r="H140" s="205"/>
       <c r="I140" s="60"/>
       <c r="J140" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K140" s="81"/>
       <c r="L140" s="61"/>
       <c r="M140" s="61"/>
       <c r="N140" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O140" s="69"/>
@@ -28233,12 +28679,12 @@
       <c r="V140" s="50"/>
     </row>
     <row r="141" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="169"/>
+      <c r="A141" s="101"/>
       <c r="B141" s="99"/>
-      <c r="C141" s="182"/>
-      <c r="D141" s="182"/>
+      <c r="C141" s="181"/>
+      <c r="D141" s="181"/>
       <c r="E141" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F141" s="60"/>
@@ -28246,14 +28692,14 @@
       <c r="H141" s="205"/>
       <c r="I141" s="60"/>
       <c r="J141" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K141" s="81"/>
       <c r="L141" s="61"/>
       <c r="M141" s="61"/>
       <c r="N141" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O141" s="69"/>
@@ -28266,12 +28712,12 @@
       <c r="V141" s="50"/>
     </row>
     <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="169"/>
+      <c r="A142" s="101"/>
       <c r="B142" s="99"/>
-      <c r="C142" s="182"/>
-      <c r="D142" s="182"/>
+      <c r="C142" s="181"/>
+      <c r="D142" s="181"/>
       <c r="E142" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F142" s="60"/>
@@ -28279,19 +28725,19 @@
       <c r="H142" s="205"/>
       <c r="I142" s="60"/>
       <c r="J142" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K142" s="81"/>
       <c r="L142" s="61"/>
       <c r="M142" s="61"/>
       <c r="N142" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O142" s="69"/>
       <c r="P142" s="209"/>
-      <c r="Q142" s="211"/>
+      <c r="Q142" s="210"/>
       <c r="R142" s="208"/>
       <c r="S142" s="176"/>
       <c r="T142" s="177"/>
@@ -28299,12 +28745,12 @@
       <c r="V142" s="50"/>
     </row>
     <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="169"/>
+      <c r="A143" s="203"/>
       <c r="B143" s="99"/>
-      <c r="C143" s="182"/>
-      <c r="D143" s="182"/>
+      <c r="C143" s="197"/>
+      <c r="D143" s="197"/>
       <c r="E143" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F143" s="60"/>
@@ -28312,14 +28758,14 @@
       <c r="H143" s="205"/>
       <c r="I143" s="60"/>
       <c r="J143" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K143" s="81"/>
       <c r="L143" s="61"/>
       <c r="M143" s="61"/>
       <c r="N143" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O143" s="69"/>
@@ -28332,12 +28778,12 @@
       <c r="V143" s="50"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="203"/>
+      <c r="A144" s="169"/>
       <c r="B144" s="99"/>
-      <c r="C144" s="197"/>
-      <c r="D144" s="197"/>
+      <c r="C144" s="182"/>
+      <c r="D144" s="182"/>
       <c r="E144" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F144" s="60"/>
@@ -28345,18 +28791,18 @@
       <c r="H144" s="205"/>
       <c r="I144" s="60"/>
       <c r="J144" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K144" s="81"/>
       <c r="L144" s="61"/>
       <c r="M144" s="61"/>
       <c r="N144" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O144" s="69"/>
-      <c r="P144" s="212"/>
+      <c r="P144" s="209"/>
       <c r="Q144" s="210"/>
       <c r="R144" s="208"/>
       <c r="S144" s="176"/>
@@ -28364,33 +28810,33 @@
       <c r="U144" s="49"/>
       <c r="V144" s="50"/>
     </row>
-    <row r="145" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="203"/>
+    <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="169"/>
       <c r="B145" s="99"/>
-      <c r="C145" s="197"/>
-      <c r="D145" s="197"/>
+      <c r="C145" s="182"/>
+      <c r="D145" s="182"/>
       <c r="E145" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F145" s="60"/>
       <c r="G145" s="58"/>
-      <c r="H145" s="206"/>
+      <c r="H145" s="205"/>
       <c r="I145" s="60"/>
       <c r="J145" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K145" s="81"/>
       <c r="L145" s="61"/>
       <c r="M145" s="61"/>
       <c r="N145" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O145" s="69"/>
-      <c r="P145" s="212"/>
-      <c r="Q145" s="210"/>
+      <c r="P145" s="209"/>
+      <c r="Q145" s="211"/>
       <c r="R145" s="208"/>
       <c r="S145" s="176"/>
       <c r="T145" s="177"/>
@@ -28398,31 +28844,31 @@
       <c r="V145" s="50"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="203"/>
+      <c r="A146" s="169"/>
       <c r="B146" s="99"/>
-      <c r="C146" s="197"/>
-      <c r="D146" s="197"/>
+      <c r="C146" s="182"/>
+      <c r="D146" s="182"/>
       <c r="E146" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F146" s="60"/>
       <c r="G146" s="58"/>
-      <c r="H146" s="213"/>
+      <c r="H146" s="205"/>
       <c r="I146" s="60"/>
       <c r="J146" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K146" s="81"/>
       <c r="L146" s="61"/>
       <c r="M146" s="61"/>
       <c r="N146" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O146" s="69"/>
-      <c r="P146" s="212"/>
+      <c r="P146" s="209"/>
       <c r="Q146" s="210"/>
       <c r="R146" s="208"/>
       <c r="S146" s="176"/>
@@ -28436,7 +28882,7 @@
       <c r="C147" s="197"/>
       <c r="D147" s="197"/>
       <c r="E147" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F147" s="60"/>
@@ -28444,14 +28890,14 @@
       <c r="H147" s="205"/>
       <c r="I147" s="60"/>
       <c r="J147" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K147" s="81"/>
       <c r="L147" s="61"/>
       <c r="M147" s="61"/>
       <c r="N147" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O147" s="69"/>
@@ -28463,65 +28909,65 @@
       <c r="U147" s="49"/>
       <c r="V147" s="50"/>
     </row>
-    <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="214"/>
+    <row r="148" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="203"/>
       <c r="B148" s="99"/>
       <c r="C148" s="197"/>
       <c r="D148" s="197"/>
       <c r="E148" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F148" s="60"/>
       <c r="G148" s="58"/>
-      <c r="H148" s="215"/>
+      <c r="H148" s="206"/>
       <c r="I148" s="60"/>
       <c r="J148" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K148" s="81"/>
       <c r="L148" s="61"/>
       <c r="M148" s="61"/>
       <c r="N148" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O148" s="216"/>
-      <c r="P148" s="217"/>
-      <c r="Q148" s="218"/>
-      <c r="R148" s="219"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O148" s="69"/>
+      <c r="P148" s="212"/>
+      <c r="Q148" s="210"/>
+      <c r="R148" s="208"/>
       <c r="S148" s="176"/>
       <c r="T148" s="177"/>
       <c r="U148" s="49"/>
       <c r="V148" s="50"/>
     </row>
     <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="220"/>
+      <c r="A149" s="203"/>
       <c r="B149" s="99"/>
       <c r="C149" s="197"/>
       <c r="D149" s="197"/>
       <c r="E149" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F149" s="60"/>
-      <c r="G149" s="221"/>
-      <c r="H149" s="222"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="213"/>
       <c r="I149" s="60"/>
       <c r="J149" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K149" s="81"/>
       <c r="L149" s="61"/>
       <c r="M149" s="61"/>
       <c r="N149" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O149" s="223"/>
-      <c r="P149" s="224"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O149" s="69"/>
+      <c r="P149" s="212"/>
       <c r="Q149" s="210"/>
       <c r="R149" s="208"/>
       <c r="S149" s="176"/>
@@ -28530,31 +28976,31 @@
       <c r="V149" s="50"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="204"/>
+      <c r="A150" s="203"/>
       <c r="B150" s="99"/>
       <c r="C150" s="197"/>
       <c r="D150" s="197"/>
       <c r="E150" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F150" s="60"/>
-      <c r="G150" s="224"/>
-      <c r="H150" s="215"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="205"/>
       <c r="I150" s="60"/>
       <c r="J150" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K150" s="81"/>
       <c r="L150" s="61"/>
       <c r="M150" s="61"/>
       <c r="N150" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O150" s="223"/>
-      <c r="P150" s="224"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O150" s="69"/>
+      <c r="P150" s="212"/>
       <c r="Q150" s="210"/>
       <c r="R150" s="208"/>
       <c r="S150" s="176"/>
@@ -28563,29 +29009,27 @@
       <c r="V150" s="50"/>
     </row>
     <row r="151" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="204"/>
+      <c r="A151" s="214"/>
       <c r="B151" s="99"/>
       <c r="C151" s="197"/>
       <c r="D151" s="197"/>
       <c r="E151" s="34">
-        <f t="shared" ref="E151:E220" si="7">D151*F151</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F151" s="60"/>
-      <c r="G151" s="224"/>
-      <c r="H151" s="222"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="215"/>
       <c r="I151" s="60"/>
       <c r="J151" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K151" s="225"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K151" s="81"/>
       <c r="L151" s="61"/>
-      <c r="M151" s="61" t="s">
-        <v>26</v>
-      </c>
+      <c r="M151" s="61"/>
       <c r="N151" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O151" s="216"/>
@@ -28598,7 +29042,7 @@
       <c r="V151" s="50"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="203"/>
+      <c r="A152" s="220"/>
       <c r="B152" s="99"/>
       <c r="C152" s="197"/>
       <c r="D152" s="197"/>
@@ -28607,18 +29051,18 @@
         <v>0</v>
       </c>
       <c r="F152" s="60"/>
-      <c r="G152" s="224"/>
+      <c r="G152" s="221"/>
       <c r="H152" s="222"/>
       <c r="I152" s="60"/>
       <c r="J152" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K152" s="225"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K152" s="81"/>
       <c r="L152" s="61"/>
       <c r="M152" s="61"/>
       <c r="N152" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O152" s="223"/>
@@ -28631,64 +29075,66 @@
       <c r="V152" s="50"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="169"/>
+      <c r="A153" s="204"/>
       <c r="B153" s="99"/>
-      <c r="C153" s="226"/>
-      <c r="D153" s="226"/>
+      <c r="C153" s="197"/>
+      <c r="D153" s="197"/>
       <c r="E153" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F153" s="60"/>
       <c r="G153" s="224"/>
-      <c r="H153" s="227"/>
+      <c r="H153" s="215"/>
       <c r="I153" s="60"/>
       <c r="J153" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K153" s="81"/>
       <c r="L153" s="61"/>
       <c r="M153" s="61"/>
       <c r="N153" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O153" s="228"/>
-      <c r="P153" s="229"/>
-      <c r="Q153" s="124"/>
-      <c r="R153" s="125"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="223"/>
+      <c r="P153" s="224"/>
+      <c r="Q153" s="210"/>
+      <c r="R153" s="208"/>
       <c r="S153" s="176"/>
       <c r="T153" s="177"/>
       <c r="U153" s="49"/>
       <c r="V153" s="50"/>
     </row>
     <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="230"/>
+      <c r="A154" s="204"/>
       <c r="B154" s="99"/>
       <c r="C154" s="197"/>
       <c r="D154" s="197"/>
       <c r="E154" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E154:E223" si="10">D154*F154</f>
         <v>0</v>
       </c>
       <c r="F154" s="60"/>
       <c r="G154" s="224"/>
-      <c r="H154" s="205"/>
+      <c r="H154" s="222"/>
       <c r="I154" s="60"/>
       <c r="J154" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K154" s="225"/>
-      <c r="L154" s="231"/>
-      <c r="M154" s="231"/>
+      <c r="L154" s="61"/>
+      <c r="M154" s="61" t="s">
+        <v>26</v>
+      </c>
       <c r="N154" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O154" s="228"/>
-      <c r="P154" s="229"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="216"/>
+      <c r="P154" s="217"/>
       <c r="Q154" s="218"/>
       <c r="R154" s="219"/>
       <c r="S154" s="176"/>
@@ -28702,73 +29148,73 @@
       <c r="C155" s="197"/>
       <c r="D155" s="197"/>
       <c r="E155" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F155" s="60"/>
       <c r="G155" s="224"/>
-      <c r="H155" s="205"/>
+      <c r="H155" s="222"/>
       <c r="I155" s="60"/>
       <c r="J155" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K155" s="225"/>
-      <c r="L155" s="231"/>
-      <c r="M155" s="231"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="61"/>
       <c r="N155" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O155" s="69"/>
-      <c r="P155" s="209"/>
-      <c r="Q155" s="218"/>
-      <c r="R155" s="219"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O155" s="223"/>
+      <c r="P155" s="224"/>
+      <c r="Q155" s="210"/>
+      <c r="R155" s="208"/>
       <c r="S155" s="176"/>
       <c r="T155" s="177"/>
       <c r="U155" s="49"/>
       <c r="V155" s="50"/>
     </row>
     <row r="156" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="204"/>
+      <c r="A156" s="169"/>
       <c r="B156" s="99"/>
-      <c r="C156" s="197"/>
-      <c r="D156" s="197"/>
+      <c r="C156" s="226"/>
+      <c r="D156" s="226"/>
       <c r="E156" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F156" s="60"/>
       <c r="G156" s="224"/>
-      <c r="H156" s="232"/>
+      <c r="H156" s="227"/>
       <c r="I156" s="60"/>
       <c r="J156" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K156" s="233"/>
-      <c r="L156" s="231"/>
-      <c r="M156" s="231"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="81"/>
+      <c r="L156" s="61"/>
+      <c r="M156" s="61"/>
       <c r="N156" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O156" s="223"/>
-      <c r="P156" s="224"/>
-      <c r="Q156" s="218"/>
-      <c r="R156" s="219"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O156" s="228"/>
+      <c r="P156" s="229"/>
+      <c r="Q156" s="124"/>
+      <c r="R156" s="125"/>
       <c r="S156" s="176"/>
       <c r="T156" s="177"/>
       <c r="U156" s="49"/>
       <c r="V156" s="50"/>
     </row>
-    <row r="157" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="204"/>
+    <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="230"/>
       <c r="B157" s="99"/>
       <c r="C157" s="197"/>
       <c r="D157" s="197"/>
       <c r="E157" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F157" s="60"/>
@@ -28776,18 +29222,18 @@
       <c r="H157" s="205"/>
       <c r="I157" s="60"/>
       <c r="J157" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K157" s="234"/>
-      <c r="L157" s="235"/>
-      <c r="M157" s="235"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K157" s="225"/>
+      <c r="L157" s="231"/>
+      <c r="M157" s="231"/>
       <c r="N157" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O157" s="216"/>
-      <c r="P157" s="217"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="228"/>
+      <c r="P157" s="229"/>
       <c r="Q157" s="218"/>
       <c r="R157" s="219"/>
       <c r="S157" s="176"/>
@@ -28796,31 +29242,31 @@
       <c r="V157" s="50"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="236"/>
+      <c r="A158" s="203"/>
       <c r="B158" s="99"/>
       <c r="C158" s="197"/>
       <c r="D158" s="197"/>
       <c r="E158" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F158" s="237"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="60"/>
       <c r="G158" s="224"/>
-      <c r="H158" s="213"/>
+      <c r="H158" s="205"/>
       <c r="I158" s="60"/>
       <c r="J158" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K158" s="234"/>
-      <c r="L158" s="238"/>
-      <c r="M158" s="238"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K158" s="225"/>
+      <c r="L158" s="231"/>
+      <c r="M158" s="231"/>
       <c r="N158" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O158" s="223"/>
-      <c r="P158" s="224"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O158" s="69"/>
+      <c r="P158" s="209"/>
       <c r="Q158" s="218"/>
       <c r="R158" s="219"/>
       <c r="S158" s="176"/>
@@ -28829,31 +29275,31 @@
       <c r="V158" s="50"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="214"/>
+      <c r="A159" s="204"/>
       <c r="B159" s="99"/>
       <c r="C159" s="197"/>
       <c r="D159" s="197"/>
       <c r="E159" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F159" s="60"/>
       <c r="G159" s="224"/>
-      <c r="H159" s="205"/>
+      <c r="H159" s="232"/>
       <c r="I159" s="60"/>
       <c r="J159" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K159" s="234"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="233"/>
       <c r="L159" s="231"/>
       <c r="M159" s="231"/>
       <c r="N159" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O159" s="216"/>
-      <c r="P159" s="217"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O159" s="223"/>
+      <c r="P159" s="224"/>
       <c r="Q159" s="218"/>
       <c r="R159" s="219"/>
       <c r="S159" s="176"/>
@@ -28867,22 +29313,22 @@
       <c r="C160" s="197"/>
       <c r="D160" s="197"/>
       <c r="E160" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F160" s="60"/>
       <c r="G160" s="224"/>
-      <c r="H160" s="239"/>
+      <c r="H160" s="205"/>
       <c r="I160" s="60"/>
       <c r="J160" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K160" s="81"/>
-      <c r="L160" s="231"/>
-      <c r="M160" s="231"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="234"/>
+      <c r="L160" s="235"/>
+      <c r="M160" s="235"/>
       <c r="N160" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O160" s="216"/>
@@ -28895,31 +29341,31 @@
       <c r="V160" s="50"/>
     </row>
     <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="204"/>
+      <c r="A161" s="236"/>
       <c r="B161" s="99"/>
       <c r="C161" s="197"/>
       <c r="D161" s="197"/>
       <c r="E161" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F161" s="60"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="237"/>
       <c r="G161" s="224"/>
-      <c r="H161" s="215"/>
+      <c r="H161" s="213"/>
       <c r="I161" s="60"/>
       <c r="J161" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K161" s="234"/>
-      <c r="L161" s="231"/>
-      <c r="M161" s="231"/>
+      <c r="L161" s="238"/>
+      <c r="M161" s="238"/>
       <c r="N161" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O161" s="216"/>
-      <c r="P161" s="217"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="223"/>
+      <c r="P161" s="224"/>
       <c r="Q161" s="218"/>
       <c r="R161" s="219"/>
       <c r="S161" s="176"/>
@@ -28928,27 +29374,27 @@
       <c r="V161" s="50"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="204"/>
+      <c r="A162" s="214"/>
       <c r="B162" s="99"/>
       <c r="C162" s="197"/>
       <c r="D162" s="197"/>
       <c r="E162" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F162" s="60"/>
       <c r="G162" s="224"/>
-      <c r="H162" s="175"/>
+      <c r="H162" s="205"/>
       <c r="I162" s="60"/>
       <c r="J162" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K162" s="234"/>
       <c r="L162" s="231"/>
       <c r="M162" s="231"/>
       <c r="N162" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O162" s="216"/>
@@ -28960,28 +29406,28 @@
       <c r="U162" s="49"/>
       <c r="V162" s="50"/>
     </row>
-    <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="204"/>
       <c r="B163" s="99"/>
       <c r="C163" s="197"/>
       <c r="D163" s="197"/>
       <c r="E163" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F163" s="60"/>
       <c r="G163" s="224"/>
-      <c r="H163" s="240"/>
+      <c r="H163" s="239"/>
       <c r="I163" s="60"/>
       <c r="J163" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K163" s="234"/>
-      <c r="L163" s="241"/>
-      <c r="M163" s="241"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="81"/>
+      <c r="L163" s="231"/>
+      <c r="M163" s="231"/>
       <c r="N163" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O163" s="216"/>
@@ -28999,22 +29445,22 @@
       <c r="C164" s="197"/>
       <c r="D164" s="197"/>
       <c r="E164" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F164" s="60"/>
       <c r="G164" s="224"/>
-      <c r="H164" s="175"/>
+      <c r="H164" s="215"/>
       <c r="I164" s="60"/>
       <c r="J164" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K164" s="234"/>
-      <c r="L164" s="241"/>
-      <c r="M164" s="241"/>
+      <c r="L164" s="231"/>
+      <c r="M164" s="231"/>
       <c r="N164" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O164" s="216"/>
@@ -29032,7 +29478,7 @@
       <c r="C165" s="197"/>
       <c r="D165" s="197"/>
       <c r="E165" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F165" s="60"/>
@@ -29040,14 +29486,14 @@
       <c r="H165" s="175"/>
       <c r="I165" s="60"/>
       <c r="J165" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K165" s="234"/>
-      <c r="L165" s="241"/>
-      <c r="M165" s="241"/>
+      <c r="L165" s="231"/>
+      <c r="M165" s="231"/>
       <c r="N165" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O165" s="216"/>
@@ -29065,22 +29511,22 @@
       <c r="C166" s="197"/>
       <c r="D166" s="197"/>
       <c r="E166" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F166" s="60"/>
       <c r="G166" s="224"/>
-      <c r="H166" s="175"/>
+      <c r="H166" s="240"/>
       <c r="I166" s="60"/>
       <c r="J166" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K166" s="81"/>
-      <c r="L166" s="61"/>
-      <c r="M166" s="61"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="234"/>
+      <c r="L166" s="241"/>
+      <c r="M166" s="241"/>
       <c r="N166" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O166" s="216"/>
@@ -29095,10 +29541,10 @@
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="204"/>
       <c r="B167" s="99"/>
-      <c r="C167" s="242"/>
-      <c r="D167" s="242"/>
+      <c r="C167" s="197"/>
+      <c r="D167" s="197"/>
       <c r="E167" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F167" s="60"/>
@@ -29106,20 +29552,20 @@
       <c r="H167" s="175"/>
       <c r="I167" s="60"/>
       <c r="J167" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K167" s="81"/>
-      <c r="L167" s="61"/>
-      <c r="M167" s="61"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="234"/>
+      <c r="L167" s="241"/>
+      <c r="M167" s="241"/>
       <c r="N167" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O167" s="223"/>
-      <c r="P167" s="243"/>
-      <c r="Q167" s="124"/>
-      <c r="R167" s="125"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O167" s="216"/>
+      <c r="P167" s="217"/>
+      <c r="Q167" s="218"/>
+      <c r="R167" s="219"/>
       <c r="S167" s="176"/>
       <c r="T167" s="177"/>
       <c r="U167" s="49"/>
@@ -29128,10 +29574,10 @@
     <row r="168" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="204"/>
       <c r="B168" s="99"/>
-      <c r="C168" s="242"/>
-      <c r="D168" s="242"/>
+      <c r="C168" s="197"/>
+      <c r="D168" s="197"/>
       <c r="E168" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F168" s="60"/>
@@ -29139,53 +29585,53 @@
       <c r="H168" s="175"/>
       <c r="I168" s="60"/>
       <c r="J168" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K168" s="81"/>
-      <c r="L168" s="61"/>
-      <c r="M168" s="61"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="234"/>
+      <c r="L168" s="241"/>
+      <c r="M168" s="241"/>
       <c r="N168" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O168" s="223"/>
-      <c r="P168" s="243"/>
-      <c r="Q168" s="124"/>
-      <c r="R168" s="125"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O168" s="216"/>
+      <c r="P168" s="217"/>
+      <c r="Q168" s="218"/>
+      <c r="R168" s="219"/>
       <c r="S168" s="176"/>
       <c r="T168" s="177"/>
       <c r="U168" s="49"/>
       <c r="V168" s="50"/>
     </row>
     <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="101"/>
+      <c r="A169" s="204"/>
       <c r="B169" s="99"/>
-      <c r="C169" s="226"/>
-      <c r="D169" s="226"/>
+      <c r="C169" s="197"/>
+      <c r="D169" s="197"/>
       <c r="E169" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F169" s="60"/>
       <c r="G169" s="224"/>
-      <c r="H169" s="227"/>
+      <c r="H169" s="175"/>
       <c r="I169" s="60"/>
       <c r="J169" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K169" s="81"/>
       <c r="L169" s="61"/>
       <c r="M169" s="61"/>
       <c r="N169" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O169" s="69"/>
-      <c r="P169" s="209"/>
-      <c r="Q169" s="124"/>
-      <c r="R169" s="125"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O169" s="216"/>
+      <c r="P169" s="217"/>
+      <c r="Q169" s="218"/>
+      <c r="R169" s="219"/>
       <c r="S169" s="176"/>
       <c r="T169" s="177"/>
       <c r="U169" s="49"/>
@@ -29194,29 +29640,29 @@
     <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="204"/>
       <c r="B170" s="99"/>
-      <c r="C170" s="244"/>
-      <c r="D170" s="244"/>
+      <c r="C170" s="242"/>
+      <c r="D170" s="242"/>
       <c r="E170" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F170" s="60"/>
       <c r="G170" s="224"/>
-      <c r="H170" s="59"/>
+      <c r="H170" s="175"/>
       <c r="I170" s="60"/>
       <c r="J170" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K170" s="81"/>
       <c r="L170" s="61"/>
       <c r="M170" s="61"/>
       <c r="N170" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O170" s="69"/>
-      <c r="P170" s="209"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O170" s="223"/>
+      <c r="P170" s="243"/>
       <c r="Q170" s="124"/>
       <c r="R170" s="125"/>
       <c r="S170" s="176"/>
@@ -29225,31 +29671,31 @@
       <c r="V170" s="50"/>
     </row>
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="169"/>
+      <c r="A171" s="204"/>
       <c r="B171" s="99"/>
-      <c r="C171" s="226"/>
-      <c r="D171" s="226"/>
+      <c r="C171" s="242"/>
+      <c r="D171" s="242"/>
       <c r="E171" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F171" s="60"/>
       <c r="G171" s="224"/>
-      <c r="H171" s="227"/>
+      <c r="H171" s="175"/>
       <c r="I171" s="60"/>
       <c r="J171" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K171" s="81"/>
       <c r="L171" s="61"/>
       <c r="M171" s="61"/>
       <c r="N171" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O171" s="69"/>
-      <c r="P171" s="209"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O171" s="223"/>
+      <c r="P171" s="243"/>
       <c r="Q171" s="124"/>
       <c r="R171" s="125"/>
       <c r="S171" s="176"/>
@@ -29257,13 +29703,13 @@
       <c r="U171" s="49"/>
       <c r="V171" s="50"/>
     </row>
-    <row r="172" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="245"/>
-      <c r="B172" s="246"/>
-      <c r="C172" s="181"/>
-      <c r="D172" s="181"/>
+    <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="101"/>
+      <c r="B172" s="99"/>
+      <c r="C172" s="226"/>
+      <c r="D172" s="226"/>
       <c r="E172" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F172" s="60"/>
@@ -29271,18 +29717,18 @@
       <c r="H172" s="227"/>
       <c r="I172" s="60"/>
       <c r="J172" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K172" s="81"/>
       <c r="L172" s="61"/>
       <c r="M172" s="61"/>
       <c r="N172" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O172" s="228"/>
-      <c r="P172" s="229"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O172" s="69"/>
+      <c r="P172" s="209"/>
       <c r="Q172" s="124"/>
       <c r="R172" s="125"/>
       <c r="S172" s="176"/>
@@ -29291,27 +29737,27 @@
       <c r="V172" s="50"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="169"/>
+      <c r="A173" s="204"/>
       <c r="B173" s="99"/>
-      <c r="C173" s="247"/>
-      <c r="D173" s="247"/>
+      <c r="C173" s="244"/>
+      <c r="D173" s="244"/>
       <c r="E173" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F173" s="60"/>
       <c r="G173" s="224"/>
-      <c r="H173" s="227"/>
+      <c r="H173" s="59"/>
       <c r="I173" s="60"/>
       <c r="J173" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K173" s="81"/>
       <c r="L173" s="61"/>
       <c r="M173" s="61"/>
       <c r="N173" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O173" s="69"/>
@@ -29326,10 +29772,10 @@
     <row r="174" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="169"/>
       <c r="B174" s="99"/>
-      <c r="C174" s="247"/>
-      <c r="D174" s="247"/>
+      <c r="C174" s="226"/>
+      <c r="D174" s="226"/>
       <c r="E174" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F174" s="60"/>
@@ -29337,14 +29783,14 @@
       <c r="H174" s="227"/>
       <c r="I174" s="60"/>
       <c r="J174" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K174" s="81"/>
       <c r="L174" s="61"/>
       <c r="M174" s="61"/>
       <c r="N174" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O174" s="69"/>
@@ -29356,13 +29802,13 @@
       <c r="U174" s="49"/>
       <c r="V174" s="50"/>
     </row>
-    <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="248"/>
-      <c r="B175" s="99"/>
-      <c r="C175" s="249"/>
-      <c r="D175" s="249"/>
+    <row r="175" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="245"/>
+      <c r="B175" s="246"/>
+      <c r="C175" s="181"/>
+      <c r="D175" s="181"/>
       <c r="E175" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F175" s="60"/>
@@ -29370,18 +29816,18 @@
       <c r="H175" s="227"/>
       <c r="I175" s="60"/>
       <c r="J175" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K175" s="81"/>
       <c r="L175" s="61"/>
       <c r="M175" s="61"/>
       <c r="N175" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O175" s="69"/>
-      <c r="P175" s="209"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O175" s="228"/>
+      <c r="P175" s="229"/>
       <c r="Q175" s="124"/>
       <c r="R175" s="125"/>
       <c r="S175" s="176"/>
@@ -29392,29 +29838,29 @@
     <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="169"/>
       <c r="B176" s="99"/>
-      <c r="C176" s="250"/>
-      <c r="D176" s="250"/>
+      <c r="C176" s="247"/>
+      <c r="D176" s="247"/>
       <c r="E176" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F176" s="60"/>
-      <c r="G176" s="251"/>
+      <c r="G176" s="224"/>
       <c r="H176" s="227"/>
       <c r="I176" s="60"/>
       <c r="J176" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K176" s="81"/>
       <c r="L176" s="61"/>
       <c r="M176" s="61"/>
       <c r="N176" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O176" s="62"/>
-      <c r="P176" s="252"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O176" s="69"/>
+      <c r="P176" s="209"/>
       <c r="Q176" s="124"/>
       <c r="R176" s="125"/>
       <c r="S176" s="176"/>
@@ -29425,29 +29871,29 @@
     <row r="177" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="169"/>
       <c r="B177" s="99"/>
-      <c r="C177" s="250"/>
-      <c r="D177" s="250"/>
+      <c r="C177" s="247"/>
+      <c r="D177" s="247"/>
       <c r="E177" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F177" s="60"/>
-      <c r="G177" s="58"/>
+      <c r="G177" s="224"/>
       <c r="H177" s="227"/>
       <c r="I177" s="60"/>
       <c r="J177" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K177" s="81"/>
       <c r="L177" s="61"/>
       <c r="M177" s="61"/>
       <c r="N177" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O177" s="62"/>
-      <c r="P177" s="252"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O177" s="69"/>
+      <c r="P177" s="209"/>
       <c r="Q177" s="124"/>
       <c r="R177" s="125"/>
       <c r="S177" s="176"/>
@@ -29455,92 +29901,98 @@
       <c r="U177" s="49"/>
       <c r="V177" s="50"/>
     </row>
-    <row r="178" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="169"/>
-      <c r="B178" s="203"/>
-      <c r="C178" s="253"/>
-      <c r="D178" s="253"/>
+    <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="248"/>
+      <c r="B178" s="99"/>
+      <c r="C178" s="249"/>
+      <c r="D178" s="249"/>
       <c r="E178" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F178" s="254"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F178" s="60"/>
       <c r="G178" s="224"/>
-      <c r="H178" s="255"/>
-      <c r="I178" s="254"/>
+      <c r="H178" s="227"/>
+      <c r="I178" s="60"/>
       <c r="J178" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="81"/>
+      <c r="L178" s="61"/>
+      <c r="M178" s="61"/>
       <c r="N178" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O178" s="257"/>
-      <c r="P178" s="243"/>
-      <c r="Q178" s="258"/>
-      <c r="R178" s="259"/>
-      <c r="S178" s="260"/>
-      <c r="T178" s="261"/>
-      <c r="U178" s="262"/>
-      <c r="V178" s="263"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O178" s="69"/>
+      <c r="P178" s="209"/>
+      <c r="Q178" s="124"/>
+      <c r="R178" s="125"/>
+      <c r="S178" s="176"/>
+      <c r="T178" s="177"/>
+      <c r="U178" s="49"/>
+      <c r="V178" s="50"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="169"/>
       <c r="B179" s="99"/>
-      <c r="C179" s="249"/>
-      <c r="D179" s="249"/>
+      <c r="C179" s="250"/>
+      <c r="D179" s="250"/>
       <c r="E179" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F179" s="254"/>
-      <c r="G179" s="224"/>
-      <c r="H179" s="255"/>
-      <c r="I179" s="254"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="60"/>
+      <c r="G179" s="251"/>
+      <c r="H179" s="227"/>
+      <c r="I179" s="60"/>
       <c r="J179" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="81"/>
+      <c r="L179" s="61"/>
+      <c r="M179" s="61"/>
       <c r="N179" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O179" s="257"/>
-      <c r="P179" s="243"/>
-      <c r="Q179" s="258"/>
-      <c r="R179" s="259"/>
-      <c r="S179" s="260"/>
-      <c r="T179" s="261"/>
-      <c r="U179" s="262"/>
-      <c r="V179" s="263"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O179" s="62"/>
+      <c r="P179" s="252"/>
+      <c r="Q179" s="124"/>
+      <c r="R179" s="125"/>
+      <c r="S179" s="176"/>
+      <c r="T179" s="177"/>
+      <c r="U179" s="49"/>
+      <c r="V179" s="50"/>
     </row>
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="169"/>
       <c r="B180" s="99"/>
-      <c r="C180" s="249"/>
-      <c r="D180" s="249"/>
+      <c r="C180" s="250"/>
+      <c r="D180" s="250"/>
       <c r="E180" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F180" s="60"/>
-      <c r="G180" s="224"/>
+      <c r="G180" s="58"/>
       <c r="H180" s="227"/>
       <c r="I180" s="60"/>
       <c r="J180" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K180" s="81"/>
       <c r="L180" s="61"/>
       <c r="M180" s="61"/>
       <c r="N180" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O180" s="69"/>
-      <c r="P180" s="209"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O180" s="62"/>
+      <c r="P180" s="252"/>
       <c r="Q180" s="124"/>
       <c r="R180" s="125"/>
       <c r="S180" s="176"/>
@@ -29548,87 +30000,81 @@
       <c r="U180" s="49"/>
       <c r="V180" s="50"/>
     </row>
-    <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="169"/>
-      <c r="B181" s="99"/>
-      <c r="C181" s="249"/>
-      <c r="D181" s="249"/>
+      <c r="B181" s="203"/>
+      <c r="C181" s="253"/>
+      <c r="D181" s="253"/>
       <c r="E181" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F181" s="60"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="254"/>
       <c r="G181" s="224"/>
-      <c r="H181" s="227"/>
-      <c r="I181" s="60"/>
+      <c r="H181" s="255"/>
+      <c r="I181" s="254"/>
       <c r="J181" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K181" s="81"/>
-      <c r="L181" s="61"/>
-      <c r="M181" s="61"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N181" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O181" s="69"/>
-      <c r="P181" s="209"/>
-      <c r="Q181" s="124"/>
-      <c r="R181" s="125"/>
-      <c r="S181" s="176"/>
-      <c r="T181" s="177"/>
-      <c r="U181" s="49"/>
-      <c r="V181" s="50"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O181" s="257"/>
+      <c r="P181" s="243"/>
+      <c r="Q181" s="258"/>
+      <c r="R181" s="259"/>
+      <c r="S181" s="260"/>
+      <c r="T181" s="261"/>
+      <c r="U181" s="262"/>
+      <c r="V181" s="263"/>
     </row>
     <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="169"/>
       <c r="B182" s="99"/>
-      <c r="C182" s="264"/>
-      <c r="D182" s="264"/>
+      <c r="C182" s="249"/>
+      <c r="D182" s="249"/>
       <c r="E182" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F182" s="60"/>
-      <c r="G182" s="251"/>
-      <c r="H182" s="227"/>
-      <c r="I182" s="60"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="254"/>
+      <c r="G182" s="224"/>
+      <c r="H182" s="255"/>
+      <c r="I182" s="254"/>
       <c r="J182" s="39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K182" s="81"/>
-      <c r="L182" s="61"/>
-      <c r="M182" s="61"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N182" s="42">
-        <f t="shared" ref="N182:N245" si="8">K182*I182</f>
-        <v>0</v>
-      </c>
-      <c r="O182" s="69"/>
-      <c r="P182" s="209"/>
-      <c r="Q182" s="124"/>
-      <c r="R182" s="125"/>
-      <c r="S182" s="176"/>
-      <c r="T182" s="177"/>
-      <c r="U182" s="49"/>
-      <c r="V182" s="50"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O182" s="257"/>
+      <c r="P182" s="243"/>
+      <c r="Q182" s="258"/>
+      <c r="R182" s="259"/>
+      <c r="S182" s="260"/>
+      <c r="T182" s="261"/>
+      <c r="U182" s="262"/>
+      <c r="V182" s="263"/>
     </row>
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="169"/>
       <c r="B183" s="99"/>
-      <c r="C183" s="264"/>
-      <c r="D183" s="264"/>
+      <c r="C183" s="249"/>
+      <c r="D183" s="249"/>
       <c r="E183" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F183" s="60"/>
-      <c r="G183" s="251"/>
+      <c r="G183" s="224"/>
       <c r="H183" s="227"/>
       <c r="I183" s="60"/>
       <c r="J183" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K183" s="81"/>
@@ -29650,18 +30096,18 @@
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="169"/>
       <c r="B184" s="99"/>
-      <c r="C184" s="264"/>
-      <c r="D184" s="264"/>
+      <c r="C184" s="249"/>
+      <c r="D184" s="249"/>
       <c r="E184" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F184" s="60"/>
-      <c r="G184" s="251"/>
+      <c r="G184" s="224"/>
       <c r="H184" s="227"/>
       <c r="I184" s="60"/>
       <c r="J184" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K184" s="81"/>
@@ -29680,13 +30126,13 @@
       <c r="U184" s="49"/>
       <c r="V184" s="50"/>
     </row>
-    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="169"/>
-      <c r="B185" s="203"/>
-      <c r="C185" s="265"/>
-      <c r="D185" s="265"/>
+      <c r="B185" s="99"/>
+      <c r="C185" s="264"/>
+      <c r="D185" s="264"/>
       <c r="E185" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F185" s="60"/>
@@ -29694,14 +30140,14 @@
       <c r="H185" s="227"/>
       <c r="I185" s="60"/>
       <c r="J185" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K185" s="81"/>
       <c r="L185" s="61"/>
       <c r="M185" s="61"/>
       <c r="N185" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N185:N248" si="11">K185*I185</f>
         <v>0</v>
       </c>
       <c r="O185" s="69"/>
@@ -29719,7 +30165,7 @@
       <c r="C186" s="264"/>
       <c r="D186" s="264"/>
       <c r="E186" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F186" s="60"/>
@@ -29727,14 +30173,14 @@
       <c r="H186" s="227"/>
       <c r="I186" s="60"/>
       <c r="J186" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K186" s="81"/>
       <c r="L186" s="61"/>
       <c r="M186" s="61"/>
       <c r="N186" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O186" s="69"/>
@@ -29749,25 +30195,25 @@
     <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="169"/>
       <c r="B187" s="99"/>
-      <c r="C187" s="244"/>
-      <c r="D187" s="244"/>
+      <c r="C187" s="264"/>
+      <c r="D187" s="264"/>
       <c r="E187" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F187" s="60"/>
-      <c r="G187" s="224"/>
+      <c r="G187" s="251"/>
       <c r="H187" s="227"/>
       <c r="I187" s="60"/>
       <c r="J187" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K187" s="81"/>
       <c r="L187" s="61"/>
       <c r="M187" s="61"/>
       <c r="N187" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O187" s="69"/>
@@ -29779,28 +30225,28 @@
       <c r="U187" s="49"/>
       <c r="V187" s="50"/>
     </row>
-    <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="169"/>
-      <c r="B188" s="99"/>
-      <c r="C188" s="244"/>
-      <c r="D188" s="244"/>
+      <c r="B188" s="203"/>
+      <c r="C188" s="265"/>
+      <c r="D188" s="265"/>
       <c r="E188" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F188" s="60"/>
-      <c r="G188" s="224"/>
+      <c r="G188" s="251"/>
       <c r="H188" s="227"/>
       <c r="I188" s="60"/>
       <c r="J188" s="39">
-        <f t="shared" ref="J188:J251" si="9">I188-F188</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K188" s="81"/>
       <c r="L188" s="61"/>
       <c r="M188" s="61"/>
       <c r="N188" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O188" s="69"/>
@@ -29815,14 +30261,14 @@
     <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="169"/>
       <c r="B189" s="99"/>
-      <c r="C189" s="244"/>
-      <c r="D189" s="244"/>
+      <c r="C189" s="264"/>
+      <c r="D189" s="264"/>
       <c r="E189" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F189" s="60"/>
-      <c r="G189" s="224"/>
+      <c r="G189" s="251"/>
       <c r="H189" s="227"/>
       <c r="I189" s="60"/>
       <c r="J189" s="39">
@@ -29833,7 +30279,7 @@
       <c r="L189" s="61"/>
       <c r="M189" s="61"/>
       <c r="N189" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O189" s="69"/>
@@ -29851,7 +30297,7 @@
       <c r="C190" s="244"/>
       <c r="D190" s="244"/>
       <c r="E190" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F190" s="60"/>
@@ -29866,7 +30312,7 @@
       <c r="L190" s="61"/>
       <c r="M190" s="61"/>
       <c r="N190" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O190" s="69"/>
@@ -29878,13 +30324,13 @@
       <c r="U190" s="49"/>
       <c r="V190" s="50"/>
     </row>
-    <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="248"/>
-      <c r="B191" s="203"/>
-      <c r="C191" s="249"/>
-      <c r="D191" s="249"/>
+    <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="169"/>
+      <c r="B191" s="99"/>
+      <c r="C191" s="244"/>
+      <c r="D191" s="244"/>
       <c r="E191" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F191" s="60"/>
@@ -29892,14 +30338,14 @@
       <c r="H191" s="227"/>
       <c r="I191" s="60"/>
       <c r="J191" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J191:J254" si="12">I191-F191</f>
         <v>0</v>
       </c>
       <c r="K191" s="81"/>
       <c r="L191" s="61"/>
       <c r="M191" s="61"/>
       <c r="N191" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O191" s="69"/>
@@ -29912,31 +30358,31 @@
       <c r="V191" s="50"/>
     </row>
     <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="266"/>
+      <c r="A192" s="169"/>
       <c r="B192" s="99"/>
-      <c r="C192" s="250"/>
-      <c r="D192" s="250"/>
+      <c r="C192" s="244"/>
+      <c r="D192" s="244"/>
       <c r="E192" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F192" s="60"/>
-      <c r="G192" s="58"/>
+      <c r="G192" s="224"/>
       <c r="H192" s="227"/>
       <c r="I192" s="60"/>
       <c r="J192" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K192" s="81"/>
       <c r="L192" s="61"/>
       <c r="M192" s="61"/>
       <c r="N192" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O192" s="62"/>
-      <c r="P192" s="252"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O192" s="69"/>
+      <c r="P192" s="209"/>
       <c r="Q192" s="124"/>
       <c r="R192" s="125"/>
       <c r="S192" s="176"/>
@@ -29944,13 +30390,13 @@
       <c r="U192" s="49"/>
       <c r="V192" s="50"/>
     </row>
-    <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="169"/>
-      <c r="B193" s="203"/>
-      <c r="C193" s="267"/>
-      <c r="D193" s="267"/>
+      <c r="B193" s="99"/>
+      <c r="C193" s="244"/>
+      <c r="D193" s="244"/>
       <c r="E193" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F193" s="60"/>
@@ -29958,14 +30404,14 @@
       <c r="H193" s="227"/>
       <c r="I193" s="60"/>
       <c r="J193" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K193" s="81"/>
       <c r="L193" s="61"/>
       <c r="M193" s="61"/>
       <c r="N193" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O193" s="69"/>
@@ -29978,12 +30424,12 @@
       <c r="V193" s="50"/>
     </row>
     <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="169"/>
+      <c r="A194" s="248"/>
       <c r="B194" s="203"/>
-      <c r="C194" s="267"/>
-      <c r="D194" s="267"/>
+      <c r="C194" s="249"/>
+      <c r="D194" s="249"/>
       <c r="E194" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F194" s="60"/>
@@ -29991,14 +30437,14 @@
       <c r="H194" s="227"/>
       <c r="I194" s="60"/>
       <c r="J194" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K194" s="81"/>
       <c r="L194" s="61"/>
       <c r="M194" s="61"/>
       <c r="N194" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O194" s="69"/>
@@ -30010,32 +30456,32 @@
       <c r="U194" s="49"/>
       <c r="V194" s="50"/>
     </row>
-    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="169"/>
-      <c r="B195" s="203"/>
-      <c r="C195" s="267"/>
-      <c r="D195" s="267"/>
+    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="266"/>
+      <c r="B195" s="99"/>
+      <c r="C195" s="250"/>
+      <c r="D195" s="250"/>
       <c r="E195" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F195" s="60"/>
-      <c r="G195" s="224"/>
+      <c r="G195" s="58"/>
       <c r="H195" s="227"/>
       <c r="I195" s="60"/>
       <c r="J195" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K195" s="81"/>
       <c r="L195" s="61"/>
       <c r="M195" s="61"/>
       <c r="N195" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O195" s="69"/>
-      <c r="P195" s="209"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O195" s="62"/>
+      <c r="P195" s="252"/>
       <c r="Q195" s="124"/>
       <c r="R195" s="125"/>
       <c r="S195" s="176"/>
@@ -30049,22 +30495,22 @@
       <c r="C196" s="267"/>
       <c r="D196" s="267"/>
       <c r="E196" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F196" s="268"/>
-      <c r="G196" s="251"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F196" s="60"/>
+      <c r="G196" s="224"/>
       <c r="H196" s="227"/>
       <c r="I196" s="60"/>
       <c r="J196" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K196" s="81"/>
       <c r="L196" s="61"/>
       <c r="M196" s="61"/>
       <c r="N196" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O196" s="69"/>
@@ -30082,22 +30528,22 @@
       <c r="C197" s="267"/>
       <c r="D197" s="267"/>
       <c r="E197" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F197" s="268"/>
-      <c r="G197" s="251"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F197" s="60"/>
+      <c r="G197" s="224"/>
       <c r="H197" s="227"/>
       <c r="I197" s="60"/>
       <c r="J197" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K197" s="81"/>
       <c r="L197" s="61"/>
       <c r="M197" s="61"/>
       <c r="N197" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O197" s="69"/>
@@ -30115,22 +30561,22 @@
       <c r="C198" s="267"/>
       <c r="D198" s="267"/>
       <c r="E198" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F198" s="268"/>
-      <c r="G198" s="251"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F198" s="60"/>
+      <c r="G198" s="224"/>
       <c r="H198" s="227"/>
       <c r="I198" s="60"/>
       <c r="J198" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K198" s="81"/>
       <c r="L198" s="61"/>
       <c r="M198" s="61"/>
       <c r="N198" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O198" s="69"/>
@@ -30148,7 +30594,7 @@
       <c r="C199" s="267"/>
       <c r="D199" s="267"/>
       <c r="E199" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F199" s="268"/>
@@ -30156,14 +30602,14 @@
       <c r="H199" s="227"/>
       <c r="I199" s="60"/>
       <c r="J199" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K199" s="81"/>
       <c r="L199" s="61"/>
       <c r="M199" s="61"/>
       <c r="N199" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O199" s="69"/>
@@ -30181,7 +30627,7 @@
       <c r="C200" s="267"/>
       <c r="D200" s="267"/>
       <c r="E200" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F200" s="268"/>
@@ -30189,14 +30635,14 @@
       <c r="H200" s="227"/>
       <c r="I200" s="60"/>
       <c r="J200" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K200" s="81"/>
       <c r="L200" s="61"/>
       <c r="M200" s="61"/>
       <c r="N200" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O200" s="69"/>
@@ -30214,7 +30660,7 @@
       <c r="C201" s="267"/>
       <c r="D201" s="267"/>
       <c r="E201" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F201" s="268"/>
@@ -30222,14 +30668,14 @@
       <c r="H201" s="227"/>
       <c r="I201" s="60"/>
       <c r="J201" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K201" s="81"/>
       <c r="L201" s="61"/>
       <c r="M201" s="61"/>
       <c r="N201" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O201" s="69"/>
@@ -30247,7 +30693,7 @@
       <c r="C202" s="267"/>
       <c r="D202" s="267"/>
       <c r="E202" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F202" s="268"/>
@@ -30255,14 +30701,14 @@
       <c r="H202" s="227"/>
       <c r="I202" s="60"/>
       <c r="J202" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K202" s="81"/>
       <c r="L202" s="61"/>
       <c r="M202" s="61"/>
       <c r="N202" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O202" s="69"/>
@@ -30280,22 +30726,22 @@
       <c r="C203" s="267"/>
       <c r="D203" s="267"/>
       <c r="E203" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F203" s="60"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F203" s="268"/>
       <c r="G203" s="251"/>
       <c r="H203" s="227"/>
       <c r="I203" s="60"/>
       <c r="J203" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K203" s="81"/>
       <c r="L203" s="61"/>
       <c r="M203" s="61"/>
       <c r="N203" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O203" s="69"/>
@@ -30310,25 +30756,25 @@
     <row r="204" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="169"/>
       <c r="B204" s="203"/>
-      <c r="C204" s="244"/>
-      <c r="D204" s="244"/>
+      <c r="C204" s="267"/>
+      <c r="D204" s="267"/>
       <c r="E204" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F204" s="60"/>
-      <c r="G204" s="224"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="268"/>
+      <c r="G204" s="251"/>
       <c r="H204" s="227"/>
       <c r="I204" s="60"/>
       <c r="J204" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K204" s="81"/>
       <c r="L204" s="61"/>
       <c r="M204" s="61"/>
       <c r="N204" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O204" s="69"/>
@@ -30343,25 +30789,25 @@
     <row r="205" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="169"/>
       <c r="B205" s="203"/>
-      <c r="C205" s="244"/>
-      <c r="D205" s="244"/>
+      <c r="C205" s="267"/>
+      <c r="D205" s="267"/>
       <c r="E205" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F205" s="60"/>
-      <c r="G205" s="224"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F205" s="268"/>
+      <c r="G205" s="251"/>
       <c r="H205" s="227"/>
       <c r="I205" s="60"/>
       <c r="J205" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K205" s="81"/>
       <c r="L205" s="61"/>
       <c r="M205" s="61"/>
       <c r="N205" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O205" s="69"/>
@@ -30376,25 +30822,25 @@
     <row r="206" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="169"/>
       <c r="B206" s="203"/>
-      <c r="C206" s="244"/>
-      <c r="D206" s="244"/>
+      <c r="C206" s="267"/>
+      <c r="D206" s="267"/>
       <c r="E206" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F206" s="60"/>
-      <c r="G206" s="224"/>
+      <c r="G206" s="251"/>
       <c r="H206" s="227"/>
       <c r="I206" s="60"/>
       <c r="J206" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K206" s="81"/>
       <c r="L206" s="61"/>
       <c r="M206" s="61"/>
       <c r="N206" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O206" s="69"/>
@@ -30412,7 +30858,7 @@
       <c r="C207" s="244"/>
       <c r="D207" s="244"/>
       <c r="E207" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F207" s="60"/>
@@ -30420,14 +30866,14 @@
       <c r="H207" s="227"/>
       <c r="I207" s="60"/>
       <c r="J207" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K207" s="81"/>
       <c r="L207" s="61"/>
       <c r="M207" s="61"/>
       <c r="N207" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O207" s="69"/>
@@ -30445,7 +30891,7 @@
       <c r="C208" s="244"/>
       <c r="D208" s="244"/>
       <c r="E208" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F208" s="60"/>
@@ -30453,14 +30899,14 @@
       <c r="H208" s="227"/>
       <c r="I208" s="60"/>
       <c r="J208" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K208" s="81"/>
       <c r="L208" s="61"/>
       <c r="M208" s="61"/>
       <c r="N208" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O208" s="69"/>
@@ -30478,7 +30924,7 @@
       <c r="C209" s="244"/>
       <c r="D209" s="244"/>
       <c r="E209" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F209" s="60"/>
@@ -30486,14 +30932,14 @@
       <c r="H209" s="227"/>
       <c r="I209" s="60"/>
       <c r="J209" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K209" s="81"/>
       <c r="L209" s="61"/>
       <c r="M209" s="61"/>
       <c r="N209" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O209" s="69"/>
@@ -30511,7 +30957,7 @@
       <c r="C210" s="244"/>
       <c r="D210" s="244"/>
       <c r="E210" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F210" s="60"/>
@@ -30519,14 +30965,14 @@
       <c r="H210" s="227"/>
       <c r="I210" s="60"/>
       <c r="J210" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K210" s="81"/>
       <c r="L210" s="61"/>
       <c r="M210" s="61"/>
       <c r="N210" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O210" s="69"/>
@@ -30544,7 +30990,7 @@
       <c r="C211" s="244"/>
       <c r="D211" s="244"/>
       <c r="E211" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F211" s="60"/>
@@ -30552,14 +30998,14 @@
       <c r="H211" s="227"/>
       <c r="I211" s="60"/>
       <c r="J211" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K211" s="81"/>
       <c r="L211" s="61"/>
       <c r="M211" s="61"/>
       <c r="N211" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O211" s="69"/>
@@ -30571,28 +31017,28 @@
       <c r="U211" s="49"/>
       <c r="V211" s="50"/>
     </row>
-    <row r="212" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="203"/>
-      <c r="B212" s="253"/>
+    <row r="212" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="169"/>
+      <c r="B212" s="203"/>
       <c r="C212" s="244"/>
       <c r="D212" s="244"/>
       <c r="E212" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F212" s="60"/>
-      <c r="G212" s="58"/>
-      <c r="H212" s="59"/>
+      <c r="G212" s="224"/>
+      <c r="H212" s="227"/>
       <c r="I212" s="60"/>
       <c r="J212" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K212" s="81"/>
       <c r="L212" s="61"/>
       <c r="M212" s="61"/>
       <c r="N212" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O212" s="69"/>
@@ -30605,12 +31051,12 @@
       <c r="V212" s="50"/>
     </row>
     <row r="213" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="266"/>
+      <c r="A213" s="169"/>
       <c r="B213" s="203"/>
       <c r="C213" s="244"/>
       <c r="D213" s="244"/>
       <c r="E213" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F213" s="60"/>
@@ -30618,14 +31064,14 @@
       <c r="H213" s="227"/>
       <c r="I213" s="60"/>
       <c r="J213" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K213" s="81"/>
       <c r="L213" s="61"/>
       <c r="M213" s="61"/>
       <c r="N213" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O213" s="69"/>
@@ -30638,12 +31084,12 @@
       <c r="V213" s="50"/>
     </row>
     <row r="214" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="266"/>
+      <c r="A214" s="169"/>
       <c r="B214" s="203"/>
       <c r="C214" s="244"/>
       <c r="D214" s="244"/>
       <c r="E214" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F214" s="60"/>
@@ -30651,14 +31097,14 @@
       <c r="H214" s="227"/>
       <c r="I214" s="60"/>
       <c r="J214" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K214" s="81"/>
       <c r="L214" s="61"/>
       <c r="M214" s="61"/>
       <c r="N214" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O214" s="69"/>
@@ -30670,28 +31116,28 @@
       <c r="U214" s="49"/>
       <c r="V214" s="50"/>
     </row>
-    <row r="215" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="266"/>
-      <c r="B215" s="203"/>
+    <row r="215" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="203"/>
+      <c r="B215" s="253"/>
       <c r="C215" s="244"/>
       <c r="D215" s="244"/>
       <c r="E215" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F215" s="60"/>
-      <c r="G215" s="224"/>
-      <c r="H215" s="227"/>
+      <c r="G215" s="58"/>
+      <c r="H215" s="59"/>
       <c r="I215" s="60"/>
       <c r="J215" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K215" s="81"/>
       <c r="L215" s="61"/>
       <c r="M215" s="61"/>
       <c r="N215" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O215" s="69"/>
@@ -30709,7 +31155,7 @@
       <c r="C216" s="244"/>
       <c r="D216" s="244"/>
       <c r="E216" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F216" s="60"/>
@@ -30717,14 +31163,14 @@
       <c r="H216" s="227"/>
       <c r="I216" s="60"/>
       <c r="J216" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K216" s="81"/>
       <c r="L216" s="61"/>
       <c r="M216" s="61"/>
       <c r="N216" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O216" s="69"/>
@@ -30737,12 +31183,12 @@
       <c r="V216" s="50"/>
     </row>
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="269"/>
+      <c r="A217" s="266"/>
       <c r="B217" s="203"/>
       <c r="C217" s="244"/>
       <c r="D217" s="244"/>
       <c r="E217" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F217" s="60"/>
@@ -30750,14 +31196,14 @@
       <c r="H217" s="227"/>
       <c r="I217" s="60"/>
       <c r="J217" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K217" s="81"/>
       <c r="L217" s="61"/>
       <c r="M217" s="61"/>
       <c r="N217" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O217" s="69"/>
@@ -30770,12 +31216,12 @@
       <c r="V217" s="50"/>
     </row>
     <row r="218" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="169"/>
+      <c r="A218" s="266"/>
       <c r="B218" s="203"/>
       <c r="C218" s="244"/>
       <c r="D218" s="244"/>
       <c r="E218" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F218" s="60"/>
@@ -30783,14 +31229,14 @@
       <c r="H218" s="227"/>
       <c r="I218" s="60"/>
       <c r="J218" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K218" s="81"/>
       <c r="L218" s="61"/>
       <c r="M218" s="61"/>
       <c r="N218" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O218" s="69"/>
@@ -30803,12 +31249,12 @@
       <c r="V218" s="50"/>
     </row>
     <row r="219" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="169"/>
+      <c r="A219" s="266"/>
       <c r="B219" s="203"/>
       <c r="C219" s="244"/>
       <c r="D219" s="244"/>
       <c r="E219" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F219" s="60"/>
@@ -30816,14 +31262,14 @@
       <c r="H219" s="227"/>
       <c r="I219" s="60"/>
       <c r="J219" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K219" s="81"/>
       <c r="L219" s="61"/>
       <c r="M219" s="61"/>
       <c r="N219" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O219" s="69"/>
@@ -30836,12 +31282,12 @@
       <c r="V219" s="50"/>
     </row>
     <row r="220" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="169"/>
+      <c r="A220" s="269"/>
       <c r="B220" s="203"/>
       <c r="C220" s="244"/>
       <c r="D220" s="244"/>
       <c r="E220" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F220" s="60"/>
@@ -30849,14 +31295,14 @@
       <c r="H220" s="227"/>
       <c r="I220" s="60"/>
       <c r="J220" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K220" s="81"/>
       <c r="L220" s="61"/>
       <c r="M220" s="61"/>
       <c r="N220" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O220" s="69"/>
@@ -30874,7 +31320,7 @@
       <c r="C221" s="244"/>
       <c r="D221" s="244"/>
       <c r="E221" s="34">
-        <f t="shared" ref="E221:E265" si="10">D221*F221</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F221" s="60"/>
@@ -30882,14 +31328,14 @@
       <c r="H221" s="227"/>
       <c r="I221" s="60"/>
       <c r="J221" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K221" s="81"/>
       <c r="L221" s="61"/>
       <c r="M221" s="61"/>
       <c r="N221" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O221" s="69"/>
@@ -30915,14 +31361,14 @@
       <c r="H222" s="227"/>
       <c r="I222" s="60"/>
       <c r="J222" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K222" s="81"/>
       <c r="L222" s="61"/>
       <c r="M222" s="61"/>
       <c r="N222" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O222" s="69"/>
@@ -30948,14 +31394,14 @@
       <c r="H223" s="227"/>
       <c r="I223" s="60"/>
       <c r="J223" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K223" s="81"/>
       <c r="L223" s="61"/>
       <c r="M223" s="61"/>
       <c r="N223" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O223" s="69"/>
@@ -30973,7 +31419,7 @@
       <c r="C224" s="244"/>
       <c r="D224" s="244"/>
       <c r="E224" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E224:E268" si="13">D224*F224</f>
         <v>0</v>
       </c>
       <c r="F224" s="60"/>
@@ -30981,14 +31427,14 @@
       <c r="H224" s="227"/>
       <c r="I224" s="60"/>
       <c r="J224" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K224" s="81"/>
       <c r="L224" s="61"/>
       <c r="M224" s="61"/>
       <c r="N224" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O224" s="69"/>
@@ -31006,7 +31452,7 @@
       <c r="C225" s="244"/>
       <c r="D225" s="244"/>
       <c r="E225" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F225" s="60"/>
@@ -31014,14 +31460,14 @@
       <c r="H225" s="227"/>
       <c r="I225" s="60"/>
       <c r="J225" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K225" s="81"/>
       <c r="L225" s="61"/>
       <c r="M225" s="61"/>
       <c r="N225" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O225" s="69"/>
@@ -31039,7 +31485,7 @@
       <c r="C226" s="244"/>
       <c r="D226" s="244"/>
       <c r="E226" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F226" s="60"/>
@@ -31047,14 +31493,14 @@
       <c r="H226" s="227"/>
       <c r="I226" s="60"/>
       <c r="J226" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K226" s="81"/>
       <c r="L226" s="61"/>
       <c r="M226" s="61"/>
       <c r="N226" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O226" s="69"/>
@@ -31069,10 +31515,10 @@
     <row r="227" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="169"/>
       <c r="B227" s="203"/>
-      <c r="C227" s="270"/>
-      <c r="D227" s="270"/>
+      <c r="C227" s="244"/>
+      <c r="D227" s="244"/>
       <c r="E227" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F227" s="60"/>
@@ -31080,14 +31526,14 @@
       <c r="H227" s="227"/>
       <c r="I227" s="60"/>
       <c r="J227" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K227" s="81"/>
       <c r="L227" s="61"/>
       <c r="M227" s="61"/>
       <c r="N227" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O227" s="69"/>
@@ -31105,7 +31551,7 @@
       <c r="C228" s="244"/>
       <c r="D228" s="244"/>
       <c r="E228" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F228" s="60"/>
@@ -31113,14 +31559,14 @@
       <c r="H228" s="227"/>
       <c r="I228" s="60"/>
       <c r="J228" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K228" s="81"/>
       <c r="L228" s="61"/>
       <c r="M228" s="61"/>
       <c r="N228" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O228" s="69"/>
@@ -31135,10 +31581,10 @@
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="169"/>
       <c r="B229" s="203"/>
-      <c r="C229" s="264"/>
-      <c r="D229" s="264"/>
+      <c r="C229" s="244"/>
+      <c r="D229" s="244"/>
       <c r="E229" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F229" s="60"/>
@@ -31146,14 +31592,14 @@
       <c r="H229" s="227"/>
       <c r="I229" s="60"/>
       <c r="J229" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K229" s="81"/>
       <c r="L229" s="61"/>
       <c r="M229" s="61"/>
       <c r="N229" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O229" s="69"/>
@@ -31168,10 +31614,10 @@
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="169"/>
       <c r="B230" s="203"/>
-      <c r="C230" s="265"/>
-      <c r="D230" s="265"/>
+      <c r="C230" s="270"/>
+      <c r="D230" s="270"/>
       <c r="E230" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F230" s="60"/>
@@ -31179,14 +31625,14 @@
       <c r="H230" s="227"/>
       <c r="I230" s="60"/>
       <c r="J230" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K230" s="81"/>
       <c r="L230" s="61"/>
       <c r="M230" s="61"/>
       <c r="N230" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O230" s="69"/>
@@ -31201,10 +31647,10 @@
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="169"/>
       <c r="B231" s="203"/>
-      <c r="C231" s="265"/>
-      <c r="D231" s="265"/>
+      <c r="C231" s="244"/>
+      <c r="D231" s="244"/>
       <c r="E231" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F231" s="60"/>
@@ -31212,14 +31658,14 @@
       <c r="H231" s="227"/>
       <c r="I231" s="60"/>
       <c r="J231" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K231" s="81"/>
       <c r="L231" s="61"/>
       <c r="M231" s="61"/>
       <c r="N231" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O231" s="69"/>
@@ -31237,7 +31683,7 @@
       <c r="C232" s="264"/>
       <c r="D232" s="264"/>
       <c r="E232" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F232" s="60"/>
@@ -31245,14 +31691,14 @@
       <c r="H232" s="227"/>
       <c r="I232" s="60"/>
       <c r="J232" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K232" s="81"/>
       <c r="L232" s="61"/>
       <c r="M232" s="61"/>
       <c r="N232" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O232" s="69"/>
@@ -31267,10 +31713,10 @@
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="169"/>
       <c r="B233" s="203"/>
-      <c r="C233" s="249"/>
-      <c r="D233" s="249"/>
+      <c r="C233" s="265"/>
+      <c r="D233" s="265"/>
       <c r="E233" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F233" s="60"/>
@@ -31278,14 +31724,14 @@
       <c r="H233" s="227"/>
       <c r="I233" s="60"/>
       <c r="J233" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K233" s="81"/>
       <c r="L233" s="61"/>
       <c r="M233" s="61"/>
       <c r="N233" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O233" s="69"/>
@@ -31300,10 +31746,10 @@
     <row r="234" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="169"/>
       <c r="B234" s="203"/>
-      <c r="C234" s="197"/>
-      <c r="D234" s="197"/>
+      <c r="C234" s="265"/>
+      <c r="D234" s="265"/>
       <c r="E234" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F234" s="60"/>
@@ -31311,14 +31757,14 @@
       <c r="H234" s="227"/>
       <c r="I234" s="60"/>
       <c r="J234" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K234" s="81"/>
       <c r="L234" s="61"/>
       <c r="M234" s="61"/>
       <c r="N234" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O234" s="69"/>
@@ -31331,12 +31777,12 @@
       <c r="V234" s="50"/>
     </row>
     <row r="235" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="204"/>
+      <c r="A235" s="169"/>
       <c r="B235" s="203"/>
-      <c r="C235" s="226"/>
-      <c r="D235" s="226"/>
+      <c r="C235" s="264"/>
+      <c r="D235" s="264"/>
       <c r="E235" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F235" s="60"/>
@@ -31344,14 +31790,14 @@
       <c r="H235" s="227"/>
       <c r="I235" s="60"/>
       <c r="J235" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K235" s="81"/>
       <c r="L235" s="61"/>
       <c r="M235" s="61"/>
       <c r="N235" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O235" s="69"/>
@@ -31366,10 +31812,10 @@
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="169"/>
       <c r="B236" s="203"/>
-      <c r="C236" s="226"/>
-      <c r="D236" s="226"/>
+      <c r="C236" s="249"/>
+      <c r="D236" s="249"/>
       <c r="E236" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F236" s="60"/>
@@ -31377,14 +31823,14 @@
       <c r="H236" s="227"/>
       <c r="I236" s="60"/>
       <c r="J236" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K236" s="81"/>
       <c r="L236" s="61"/>
       <c r="M236" s="61"/>
       <c r="N236" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O236" s="69"/>
@@ -31399,10 +31845,10 @@
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="169"/>
       <c r="B237" s="203"/>
-      <c r="C237" s="226"/>
-      <c r="D237" s="226"/>
+      <c r="C237" s="197"/>
+      <c r="D237" s="197"/>
       <c r="E237" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F237" s="60"/>
@@ -31410,14 +31856,14 @@
       <c r="H237" s="227"/>
       <c r="I237" s="60"/>
       <c r="J237" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K237" s="81"/>
       <c r="L237" s="61"/>
       <c r="M237" s="61"/>
       <c r="N237" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O237" s="69"/>
@@ -31430,12 +31876,12 @@
       <c r="V237" s="50"/>
     </row>
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="271"/>
-      <c r="B238" s="272"/>
+      <c r="A238" s="204"/>
+      <c r="B238" s="203"/>
       <c r="C238" s="226"/>
       <c r="D238" s="226"/>
       <c r="E238" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F238" s="60"/>
@@ -31443,14 +31889,14 @@
       <c r="H238" s="227"/>
       <c r="I238" s="60"/>
       <c r="J238" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K238" s="81"/>
       <c r="L238" s="61"/>
       <c r="M238" s="61"/>
       <c r="N238" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O238" s="69"/>
@@ -31462,28 +31908,28 @@
       <c r="U238" s="49"/>
       <c r="V238" s="50"/>
     </row>
-    <row r="239" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="204"/>
-      <c r="B239" s="272"/>
+    <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="169"/>
+      <c r="B239" s="203"/>
       <c r="C239" s="226"/>
       <c r="D239" s="226"/>
       <c r="E239" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F239" s="60"/>
       <c r="G239" s="224"/>
-      <c r="H239" s="59"/>
+      <c r="H239" s="227"/>
       <c r="I239" s="60"/>
       <c r="J239" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K239" s="81"/>
       <c r="L239" s="61"/>
       <c r="M239" s="61"/>
       <c r="N239" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O239" s="69"/>
@@ -31496,12 +31942,12 @@
       <c r="V239" s="50"/>
     </row>
     <row r="240" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="204"/>
-      <c r="B240" s="272"/>
+      <c r="A240" s="169"/>
+      <c r="B240" s="203"/>
       <c r="C240" s="226"/>
       <c r="D240" s="226"/>
       <c r="E240" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F240" s="60"/>
@@ -31509,14 +31955,14 @@
       <c r="H240" s="227"/>
       <c r="I240" s="60"/>
       <c r="J240" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K240" s="81"/>
       <c r="L240" s="61"/>
       <c r="M240" s="61"/>
       <c r="N240" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O240" s="69"/>
@@ -31529,12 +31975,12 @@
       <c r="V240" s="50"/>
     </row>
     <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="169"/>
+      <c r="A241" s="271"/>
       <c r="B241" s="272"/>
-      <c r="C241" s="181"/>
-      <c r="D241" s="181"/>
+      <c r="C241" s="226"/>
+      <c r="D241" s="226"/>
       <c r="E241" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F241" s="60"/>
@@ -31542,14 +31988,14 @@
       <c r="H241" s="227"/>
       <c r="I241" s="60"/>
       <c r="J241" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K241" s="81"/>
       <c r="L241" s="61"/>
       <c r="M241" s="61"/>
       <c r="N241" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O241" s="69"/>
@@ -31561,28 +32007,28 @@
       <c r="U241" s="49"/>
       <c r="V241" s="50"/>
     </row>
-    <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="169"/>
+    <row r="242" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="204"/>
       <c r="B242" s="272"/>
-      <c r="C242" s="181"/>
-      <c r="D242" s="181"/>
+      <c r="C242" s="226"/>
+      <c r="D242" s="226"/>
       <c r="E242" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F242" s="60"/>
       <c r="G242" s="224"/>
-      <c r="H242" s="227"/>
+      <c r="H242" s="59"/>
       <c r="I242" s="60"/>
       <c r="J242" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K242" s="81"/>
       <c r="L242" s="61"/>
       <c r="M242" s="61"/>
       <c r="N242" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O242" s="69"/>
@@ -31594,32 +32040,32 @@
       <c r="U242" s="49"/>
       <c r="V242" s="50"/>
     </row>
-    <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="204"/>
       <c r="B243" s="272"/>
-      <c r="C243" s="242"/>
-      <c r="D243" s="242"/>
+      <c r="C243" s="226"/>
+      <c r="D243" s="226"/>
       <c r="E243" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F243" s="60"/>
       <c r="G243" s="224"/>
-      <c r="H243" s="175"/>
+      <c r="H243" s="227"/>
       <c r="I243" s="60"/>
       <c r="J243" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K243" s="81"/>
       <c r="L243" s="61"/>
       <c r="M243" s="61"/>
       <c r="N243" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O243" s="223"/>
-      <c r="P243" s="243"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O243" s="69"/>
+      <c r="P243" s="209"/>
       <c r="Q243" s="124"/>
       <c r="R243" s="125"/>
       <c r="S243" s="176"/>
@@ -31627,32 +32073,32 @@
       <c r="U243" s="49"/>
       <c r="V243" s="50"/>
     </row>
-    <row r="244" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="204"/>
+    <row r="244" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="169"/>
       <c r="B244" s="272"/>
-      <c r="C244" s="187"/>
-      <c r="D244" s="187"/>
+      <c r="C244" s="181"/>
+      <c r="D244" s="181"/>
       <c r="E244" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F244" s="60"/>
       <c r="G244" s="224"/>
-      <c r="H244" s="175"/>
+      <c r="H244" s="227"/>
       <c r="I244" s="60"/>
       <c r="J244" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K244" s="81"/>
-      <c r="L244" s="273"/>
-      <c r="M244" s="274"/>
+      <c r="L244" s="61"/>
+      <c r="M244" s="61"/>
       <c r="N244" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O244" s="223"/>
-      <c r="P244" s="243"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O244" s="69"/>
+      <c r="P244" s="209"/>
       <c r="Q244" s="124"/>
       <c r="R244" s="125"/>
       <c r="S244" s="176"/>
@@ -31660,32 +32106,32 @@
       <c r="U244" s="49"/>
       <c r="V244" s="50"/>
     </row>
-    <row r="245" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="204"/>
-      <c r="B245" s="275"/>
-      <c r="C245" s="182"/>
-      <c r="D245" s="182"/>
+    <row r="245" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="169"/>
+      <c r="B245" s="272"/>
+      <c r="C245" s="181"/>
+      <c r="D245" s="181"/>
       <c r="E245" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F245" s="182"/>
-      <c r="G245" s="276"/>
-      <c r="H245" s="277"/>
-      <c r="I245" s="57"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F245" s="60"/>
+      <c r="G245" s="224"/>
+      <c r="H245" s="227"/>
+      <c r="I245" s="60"/>
       <c r="J245" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K245" s="81"/>
-      <c r="L245" s="273"/>
-      <c r="M245" s="274"/>
+      <c r="L245" s="61"/>
+      <c r="M245" s="61"/>
       <c r="N245" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O245" s="223"/>
-      <c r="P245" s="243"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O245" s="69"/>
+      <c r="P245" s="209"/>
       <c r="Q245" s="124"/>
       <c r="R245" s="125"/>
       <c r="S245" s="176"/>
@@ -31695,26 +32141,26 @@
     </row>
     <row r="246" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="204"/>
-      <c r="B246" s="275"/>
-      <c r="C246" s="182"/>
-      <c r="D246" s="182"/>
+      <c r="B246" s="272"/>
+      <c r="C246" s="242"/>
+      <c r="D246" s="242"/>
       <c r="E246" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F246" s="182"/>
-      <c r="G246" s="276"/>
-      <c r="H246" s="277"/>
-      <c r="I246" s="57"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="60"/>
+      <c r="G246" s="224"/>
+      <c r="H246" s="175"/>
+      <c r="I246" s="60"/>
       <c r="J246" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K246" s="81"/>
-      <c r="L246" s="273"/>
-      <c r="M246" s="274"/>
+      <c r="L246" s="61"/>
+      <c r="M246" s="61"/>
       <c r="N246" s="42">
-        <f t="shared" ref="N246:N265" si="11">K246*I246</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O246" s="223"/>
@@ -31728,19 +32174,19 @@
     </row>
     <row r="247" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="204"/>
-      <c r="B247" s="278"/>
-      <c r="C247" s="182"/>
-      <c r="D247" s="182"/>
+      <c r="B247" s="272"/>
+      <c r="C247" s="187"/>
+      <c r="D247" s="187"/>
       <c r="E247" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F247" s="182"/>
-      <c r="G247" s="276"/>
-      <c r="H247" s="277"/>
-      <c r="I247" s="57"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F247" s="60"/>
+      <c r="G247" s="224"/>
+      <c r="H247" s="175"/>
+      <c r="I247" s="60"/>
       <c r="J247" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K247" s="81"/>
@@ -31750,8 +32196,8 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O247" s="69"/>
-      <c r="P247" s="212"/>
+      <c r="O247" s="223"/>
+      <c r="P247" s="243"/>
       <c r="Q247" s="124"/>
       <c r="R247" s="125"/>
       <c r="S247" s="176"/>
@@ -31761,11 +32207,11 @@
     </row>
     <row r="248" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="204"/>
-      <c r="B248" s="278"/>
+      <c r="B248" s="275"/>
       <c r="C248" s="182"/>
       <c r="D248" s="182"/>
       <c r="E248" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F248" s="182"/>
@@ -31773,7 +32219,7 @@
       <c r="H248" s="277"/>
       <c r="I248" s="57"/>
       <c r="J248" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K248" s="81"/>
@@ -31783,8 +32229,8 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O248" s="69"/>
-      <c r="P248" s="212"/>
+      <c r="O248" s="223"/>
+      <c r="P248" s="243"/>
       <c r="Q248" s="124"/>
       <c r="R248" s="125"/>
       <c r="S248" s="176"/>
@@ -31794,11 +32240,11 @@
     </row>
     <row r="249" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="204"/>
-      <c r="B249" s="278"/>
+      <c r="B249" s="275"/>
       <c r="C249" s="182"/>
       <c r="D249" s="182"/>
       <c r="E249" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F249" s="182"/>
@@ -31806,18 +32252,18 @@
       <c r="H249" s="277"/>
       <c r="I249" s="57"/>
       <c r="J249" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K249" s="81"/>
       <c r="L249" s="273"/>
       <c r="M249" s="274"/>
       <c r="N249" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O249" s="69"/>
-      <c r="P249" s="212"/>
+        <f t="shared" ref="N249:N268" si="14">K249*I249</f>
+        <v>0</v>
+      </c>
+      <c r="O249" s="223"/>
+      <c r="P249" s="243"/>
       <c r="Q249" s="124"/>
       <c r="R249" s="125"/>
       <c r="S249" s="176"/>
@@ -31825,32 +32271,32 @@
       <c r="U249" s="49"/>
       <c r="V249" s="50"/>
     </row>
-    <row r="250" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="204"/>
-      <c r="B250" s="203"/>
-      <c r="C250" s="279"/>
-      <c r="D250" s="280"/>
+      <c r="B250" s="278"/>
+      <c r="C250" s="182"/>
+      <c r="D250" s="182"/>
       <c r="E250" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F250" s="38"/>
-      <c r="G250" s="281"/>
-      <c r="H250" s="282"/>
-      <c r="I250" s="60"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="182"/>
+      <c r="G250" s="276"/>
+      <c r="H250" s="277"/>
+      <c r="I250" s="57"/>
       <c r="J250" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K250" s="81"/>
       <c r="L250" s="273"/>
-      <c r="M250" s="283"/>
+      <c r="M250" s="274"/>
       <c r="N250" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O250" s="223"/>
-      <c r="P250" s="243"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O250" s="69"/>
+      <c r="P250" s="212"/>
       <c r="Q250" s="124"/>
       <c r="R250" s="125"/>
       <c r="S250" s="176"/>
@@ -31858,32 +32304,32 @@
       <c r="U250" s="49"/>
       <c r="V250" s="50"/>
     </row>
-    <row r="251" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="204"/>
-      <c r="B251" s="203"/>
-      <c r="C251" s="279"/>
-      <c r="D251" s="279"/>
+      <c r="B251" s="278"/>
+      <c r="C251" s="182"/>
+      <c r="D251" s="182"/>
       <c r="E251" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F251" s="60"/>
-      <c r="G251" s="224"/>
-      <c r="H251" s="175"/>
-      <c r="I251" s="60"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F251" s="182"/>
+      <c r="G251" s="276"/>
+      <c r="H251" s="277"/>
+      <c r="I251" s="57"/>
       <c r="J251" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K251" s="81"/>
       <c r="L251" s="273"/>
-      <c r="M251" s="283"/>
+      <c r="M251" s="274"/>
       <c r="N251" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O251" s="223"/>
-      <c r="P251" s="243"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O251" s="69"/>
+      <c r="P251" s="212"/>
       <c r="Q251" s="124"/>
       <c r="R251" s="125"/>
       <c r="S251" s="176"/>
@@ -31891,32 +32337,32 @@
       <c r="U251" s="49"/>
       <c r="V251" s="50"/>
     </row>
-    <row r="252" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="204"/>
-      <c r="B252" s="203"/>
-      <c r="C252" s="279"/>
-      <c r="D252" s="279"/>
+      <c r="B252" s="278"/>
+      <c r="C252" s="182"/>
+      <c r="D252" s="182"/>
       <c r="E252" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F252" s="60"/>
-      <c r="G252" s="224"/>
-      <c r="H252" s="175"/>
-      <c r="I252" s="60"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F252" s="182"/>
+      <c r="G252" s="276"/>
+      <c r="H252" s="277"/>
+      <c r="I252" s="57"/>
       <c r="J252" s="39">
-        <f t="shared" ref="J252:J261" si="12">I252-F252</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K252" s="81"/>
       <c r="L252" s="273"/>
-      <c r="M252" s="283"/>
+      <c r="M252" s="274"/>
       <c r="N252" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O252" s="223"/>
-      <c r="P252" s="243"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O252" s="69"/>
+      <c r="P252" s="212"/>
       <c r="Q252" s="124"/>
       <c r="R252" s="125"/>
       <c r="S252" s="176"/>
@@ -31927,15 +32373,15 @@
     <row r="253" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="204"/>
       <c r="B253" s="203"/>
-      <c r="C253" s="284"/>
-      <c r="D253" s="284"/>
+      <c r="C253" s="279"/>
+      <c r="D253" s="280"/>
       <c r="E253" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F253" s="60"/>
-      <c r="G253" s="224"/>
-      <c r="H253" s="175"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F253" s="38"/>
+      <c r="G253" s="281"/>
+      <c r="H253" s="282"/>
       <c r="I253" s="60"/>
       <c r="J253" s="39">
         <f t="shared" si="12"/>
@@ -31945,7 +32391,7 @@
       <c r="L253" s="273"/>
       <c r="M253" s="283"/>
       <c r="N253" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O253" s="223"/>
@@ -31957,110 +32403,104 @@
       <c r="U253" s="49"/>
       <c r="V253" s="50"/>
     </row>
-    <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="285"/>
+    <row r="254" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="204"/>
       <c r="B254" s="203"/>
-      <c r="C254" s="203"/>
-      <c r="D254" s="203"/>
+      <c r="C254" s="279"/>
+      <c r="D254" s="279"/>
       <c r="E254" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F254" s="254"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F254" s="60"/>
       <c r="G254" s="224"/>
-      <c r="H254" s="255"/>
-      <c r="I254" s="254">
-        <v>0</v>
-      </c>
+      <c r="H254" s="175"/>
+      <c r="I254" s="60"/>
       <c r="J254" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K254" s="286"/>
-      <c r="L254" s="286"/>
-      <c r="M254" s="286"/>
+      <c r="K254" s="81"/>
+      <c r="L254" s="273"/>
+      <c r="M254" s="283"/>
       <c r="N254" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O254" s="287"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O254" s="223"/>
       <c r="P254" s="243"/>
       <c r="Q254" s="124"/>
-      <c r="R254" s="288"/>
-      <c r="S254" s="289"/>
-      <c r="T254" s="290"/>
-      <c r="U254" s="259"/>
-      <c r="V254" s="263"/>
-    </row>
-    <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="285"/>
+      <c r="R254" s="125"/>
+      <c r="S254" s="176"/>
+      <c r="T254" s="177"/>
+      <c r="U254" s="49"/>
+      <c r="V254" s="50"/>
+    </row>
+    <row r="255" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="204"/>
       <c r="B255" s="203"/>
-      <c r="C255" s="203"/>
-      <c r="D255" s="203"/>
+      <c r="C255" s="279"/>
+      <c r="D255" s="279"/>
       <c r="E255" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F255" s="254"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F255" s="60"/>
       <c r="G255" s="224"/>
-      <c r="H255" s="255"/>
-      <c r="I255" s="254">
-        <v>0</v>
-      </c>
+      <c r="H255" s="175"/>
+      <c r="I255" s="60"/>
       <c r="J255" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K255" s="286"/>
-      <c r="L255" s="286"/>
-      <c r="M255" s="286"/>
+        <f t="shared" ref="J255:J264" si="15">I255-F255</f>
+        <v>0</v>
+      </c>
+      <c r="K255" s="81"/>
+      <c r="L255" s="273"/>
+      <c r="M255" s="283"/>
       <c r="N255" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O255" s="287"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O255" s="223"/>
       <c r="P255" s="243"/>
       <c r="Q255" s="124"/>
-      <c r="R255" s="288"/>
-      <c r="S255" s="289"/>
-      <c r="T255" s="290"/>
-      <c r="U255" s="259"/>
-      <c r="V255" s="263"/>
-    </row>
-    <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="285"/>
+      <c r="R255" s="125"/>
+      <c r="S255" s="176"/>
+      <c r="T255" s="177"/>
+      <c r="U255" s="49"/>
+      <c r="V255" s="50"/>
+    </row>
+    <row r="256" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="204"/>
       <c r="B256" s="203"/>
-      <c r="C256" s="203"/>
-      <c r="D256" s="203"/>
+      <c r="C256" s="284"/>
+      <c r="D256" s="284"/>
       <c r="E256" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F256" s="254"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F256" s="60"/>
       <c r="G256" s="224"/>
-      <c r="H256" s="255"/>
-      <c r="I256" s="254">
-        <v>0</v>
-      </c>
+      <c r="H256" s="175"/>
+      <c r="I256" s="60"/>
       <c r="J256" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K256" s="286"/>
-      <c r="L256" s="286"/>
-      <c r="M256" s="286"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K256" s="81"/>
+      <c r="L256" s="273"/>
+      <c r="M256" s="283"/>
       <c r="N256" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O256" s="287"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O256" s="223"/>
       <c r="P256" s="243"/>
       <c r="Q256" s="124"/>
-      <c r="R256" s="288"/>
-      <c r="S256" s="289"/>
-      <c r="T256" s="290"/>
-      <c r="U256" s="259"/>
-      <c r="V256" s="263"/>
+      <c r="R256" s="125"/>
+      <c r="S256" s="176"/>
+      <c r="T256" s="177"/>
+      <c r="U256" s="49"/>
+      <c r="V256" s="50"/>
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="285"/>
@@ -32068,24 +32508,24 @@
       <c r="C257" s="203"/>
       <c r="D257" s="203"/>
       <c r="E257" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F257" s="254"/>
       <c r="G257" s="224"/>
-      <c r="H257" s="291"/>
+      <c r="H257" s="255"/>
       <c r="I257" s="254">
         <v>0</v>
       </c>
       <c r="J257" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K257" s="286"/>
       <c r="L257" s="286"/>
       <c r="M257" s="286"/>
       <c r="N257" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O257" s="287"/>
@@ -32098,29 +32538,29 @@
       <c r="V257" s="263"/>
     </row>
     <row r="258" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="292"/>
+      <c r="A258" s="285"/>
       <c r="B258" s="203"/>
       <c r="C258" s="203"/>
       <c r="D258" s="203"/>
       <c r="E258" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F258" s="254"/>
       <c r="G258" s="224"/>
-      <c r="H258" s="293"/>
+      <c r="H258" s="255"/>
       <c r="I258" s="254">
         <v>0</v>
       </c>
       <c r="J258" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K258" s="286"/>
       <c r="L258" s="286"/>
       <c r="M258" s="286"/>
       <c r="N258" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O258" s="287"/>
@@ -32129,297 +32569,355 @@
       <c r="R258" s="288"/>
       <c r="S258" s="289"/>
       <c r="T258" s="290"/>
-      <c r="U258" s="49"/>
-      <c r="V258" s="50"/>
+      <c r="U258" s="259"/>
+      <c r="V258" s="263"/>
     </row>
     <row r="259" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="294"/>
-      <c r="B259" s="295"/>
+      <c r="A259" s="285"/>
+      <c r="B259" s="203"/>
+      <c r="C259" s="203"/>
+      <c r="D259" s="203"/>
       <c r="E259" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H259" s="299"/>
-      <c r="I259" s="297">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F259" s="254"/>
+      <c r="G259" s="224"/>
+      <c r="H259" s="255"/>
+      <c r="I259" s="254">
         <v>0</v>
       </c>
       <c r="J259" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K259" s="300"/>
-      <c r="L259" s="300"/>
-      <c r="M259" s="300"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K259" s="286"/>
+      <c r="L259" s="286"/>
+      <c r="M259" s="286"/>
       <c r="N259" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O259" s="287"/>
       <c r="P259" s="243"/>
-      <c r="Q259" s="258"/>
+      <c r="Q259" s="124"/>
       <c r="R259" s="288"/>
       <c r="S259" s="289"/>
       <c r="T259" s="290"/>
-      <c r="U259" s="49"/>
-      <c r="V259" s="50"/>
+      <c r="U259" s="259"/>
+      <c r="V259" s="263"/>
     </row>
     <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="294"/>
-      <c r="B260" s="295"/>
+      <c r="A260" s="285"/>
+      <c r="B260" s="203"/>
+      <c r="C260" s="203"/>
+      <c r="D260" s="203"/>
       <c r="E260" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I260" s="297">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F260" s="254"/>
+      <c r="G260" s="224"/>
+      <c r="H260" s="291"/>
+      <c r="I260" s="254">
         <v>0</v>
       </c>
       <c r="J260" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K260" s="300"/>
-      <c r="L260" s="300"/>
-      <c r="M260" s="300"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K260" s="286"/>
+      <c r="L260" s="286"/>
+      <c r="M260" s="286"/>
       <c r="N260" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O260" s="287"/>
       <c r="P260" s="243"/>
-      <c r="Q260" s="258"/>
+      <c r="Q260" s="124"/>
       <c r="R260" s="288"/>
       <c r="S260" s="289"/>
       <c r="T260" s="290"/>
-      <c r="U260" s="49"/>
-      <c r="V260" s="50"/>
+      <c r="U260" s="259"/>
+      <c r="V260" s="263"/>
     </row>
     <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="294"/>
-      <c r="B261" s="295"/>
+      <c r="A261" s="292"/>
+      <c r="B261" s="203"/>
+      <c r="C261" s="203"/>
+      <c r="D261" s="203"/>
       <c r="E261" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I261" s="302">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F261" s="254"/>
+      <c r="G261" s="224"/>
+      <c r="H261" s="293"/>
+      <c r="I261" s="254">
         <v>0</v>
       </c>
       <c r="J261" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K261" s="300"/>
-      <c r="L261" s="300"/>
-      <c r="M261" s="300"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K261" s="286"/>
+      <c r="L261" s="286"/>
+      <c r="M261" s="286"/>
       <c r="N261" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O261" s="287"/>
       <c r="P261" s="243"/>
-      <c r="Q261" s="258"/>
+      <c r="Q261" s="124"/>
       <c r="R261" s="288"/>
       <c r="S261" s="289"/>
       <c r="T261" s="290"/>
       <c r="U261" s="49"/>
       <c r="V261" s="50"/>
     </row>
-    <row r="262" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="294"/>
       <c r="B262" s="295"/>
-      <c r="E262" s="34" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F262" s="392" t="s">
-        <v>27</v>
-      </c>
-      <c r="G262" s="392"/>
-      <c r="H262" s="393"/>
-      <c r="I262" s="303">
-        <f>SUM(I4:I261)</f>
-        <v>151160.9</v>
-      </c>
-      <c r="J262" s="304"/>
+      <c r="E262" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H262" s="299"/>
+      <c r="I262" s="297">
+        <v>0</v>
+      </c>
+      <c r="J262" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K262" s="300"/>
-      <c r="L262" s="305"/>
+      <c r="L262" s="300"/>
       <c r="M262" s="300"/>
       <c r="N262" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O262" s="287"/>
       <c r="P262" s="243"/>
       <c r="Q262" s="258"/>
       <c r="R262" s="288"/>
-      <c r="S262" s="306"/>
-      <c r="T262" s="261"/>
-      <c r="U262" s="262"/>
+      <c r="S262" s="289"/>
+      <c r="T262" s="290"/>
+      <c r="U262" s="49"/>
       <c r="V262" s="50"/>
     </row>
-    <row r="263" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="307"/>
+    <row r="263" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="294"/>
       <c r="B263" s="295"/>
       <c r="E263" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I263" s="308"/>
-      <c r="J263" s="304"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I263" s="297">
+        <v>0</v>
+      </c>
+      <c r="J263" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K263" s="300"/>
-      <c r="L263" s="305"/>
+      <c r="L263" s="300"/>
       <c r="M263" s="300"/>
       <c r="N263" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O263" s="309"/>
-      <c r="Q263" s="6"/>
-      <c r="R263" s="310"/>
-      <c r="S263" s="311"/>
-      <c r="T263" s="312"/>
-      <c r="V263" s="9"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O263" s="287"/>
+      <c r="P263" s="243"/>
+      <c r="Q263" s="258"/>
+      <c r="R263" s="288"/>
+      <c r="S263" s="289"/>
+      <c r="T263" s="290"/>
+      <c r="U263" s="49"/>
+      <c r="V263" s="50"/>
     </row>
     <row r="264" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="294"/>
       <c r="B264" s="295"/>
       <c r="E264" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J264" s="297"/>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I264" s="302">
+        <v>0</v>
+      </c>
+      <c r="J264" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K264" s="300"/>
       <c r="L264" s="300"/>
       <c r="M264" s="300"/>
       <c r="N264" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O264" s="309"/>
-      <c r="Q264" s="6"/>
-      <c r="R264" s="310"/>
-      <c r="S264" s="311"/>
-      <c r="T264" s="312"/>
-      <c r="V264" s="9"/>
-    </row>
-    <row r="265" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O264" s="287"/>
+      <c r="P264" s="243"/>
+      <c r="Q264" s="258"/>
+      <c r="R264" s="288"/>
+      <c r="S264" s="289"/>
+      <c r="T264" s="290"/>
+      <c r="U264" s="49"/>
+      <c r="V264" s="50"/>
+    </row>
+    <row r="265" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="294"/>
       <c r="B265" s="295"/>
-      <c r="E265" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J265" s="297"/>
-      <c r="K265" s="314"/>
+      <c r="E265" s="34" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F265" s="428" t="s">
+        <v>27</v>
+      </c>
+      <c r="G265" s="428"/>
+      <c r="H265" s="429"/>
+      <c r="I265" s="303">
+        <f>SUM(I4:I264)</f>
+        <v>327138.35000000003</v>
+      </c>
+      <c r="J265" s="304"/>
+      <c r="K265" s="300"/>
+      <c r="L265" s="305"/>
+      <c r="M265" s="300"/>
       <c r="N265" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O265" s="315"/>
-      <c r="Q265" s="6"/>
-      <c r="R265" s="310"/>
-      <c r="S265" s="311"/>
-      <c r="T265" s="316"/>
-      <c r="V265" s="9"/>
-    </row>
-    <row r="266" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="294"/>
-      <c r="H266" s="318"/>
-      <c r="I266" s="319" t="s">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O265" s="287"/>
+      <c r="P265" s="243"/>
+      <c r="Q265" s="258"/>
+      <c r="R265" s="288"/>
+      <c r="S265" s="306"/>
+      <c r="T265" s="261"/>
+      <c r="U265" s="262"/>
+      <c r="V265" s="50"/>
+    </row>
+    <row r="266" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="307"/>
+      <c r="B266" s="295"/>
+      <c r="E266" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I266" s="308"/>
+      <c r="J266" s="304"/>
+      <c r="K266" s="300"/>
+      <c r="L266" s="305"/>
+      <c r="M266" s="300"/>
+      <c r="N266" s="42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O266" s="309"/>
+      <c r="Q266" s="6"/>
+      <c r="R266" s="310"/>
+      <c r="S266" s="311"/>
+      <c r="T266" s="312"/>
+      <c r="V266" s="9"/>
+    </row>
+    <row r="267" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="294"/>
+      <c r="B267" s="295"/>
+      <c r="E267" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J267" s="297"/>
+      <c r="K267" s="300"/>
+      <c r="L267" s="300"/>
+      <c r="M267" s="300"/>
+      <c r="N267" s="42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O267" s="309"/>
+      <c r="Q267" s="6"/>
+      <c r="R267" s="310"/>
+      <c r="S267" s="311"/>
+      <c r="T267" s="312"/>
+      <c r="V267" s="9"/>
+    </row>
+    <row r="268" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="294"/>
+      <c r="B268" s="295"/>
+      <c r="E268" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J268" s="297"/>
+      <c r="K268" s="314"/>
+      <c r="N268" s="42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O268" s="315"/>
+      <c r="Q268" s="6"/>
+      <c r="R268" s="310"/>
+      <c r="S268" s="311"/>
+      <c r="T268" s="316"/>
+      <c r="V268" s="9"/>
+    </row>
+    <row r="269" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="294"/>
+      <c r="H269" s="318"/>
+      <c r="I269" s="319" t="s">
         <v>28</v>
       </c>
-      <c r="J266" s="320"/>
-      <c r="K266" s="320"/>
-      <c r="L266" s="321">
-        <f>SUM(L254:L265)</f>
-        <v>0</v>
-      </c>
-      <c r="M266" s="322"/>
-      <c r="N266" s="323">
-        <f>SUM(N4:N265)</f>
-        <v>6738480.7999999998</v>
-      </c>
-      <c r="O266" s="324"/>
-      <c r="Q266" s="325">
-        <f>SUM(Q4:Q265)</f>
-        <v>0</v>
-      </c>
-      <c r="R266" s="256"/>
-      <c r="S266" s="326">
-        <f>SUM(S19:S265)</f>
-        <v>0</v>
-      </c>
-      <c r="T266" s="327"/>
-      <c r="U266" s="328"/>
-      <c r="V266" s="329">
-        <f>SUM(V254:V265)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A267" s="294"/>
-      <c r="H267" s="318"/>
-      <c r="I267" s="330"/>
-      <c r="J267" s="331"/>
-      <c r="K267" s="332"/>
-      <c r="L267" s="332"/>
-      <c r="M267" s="332"/>
-      <c r="N267" s="333"/>
-      <c r="O267" s="324"/>
-      <c r="R267" s="310"/>
-      <c r="S267" s="334"/>
-      <c r="U267" s="336"/>
-      <c r="V267"/>
-    </row>
-    <row r="268" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="294"/>
-      <c r="H268" s="318"/>
-      <c r="I268" s="330"/>
-      <c r="J268" s="331"/>
-      <c r="K268" s="332"/>
-      <c r="L268" s="332"/>
-      <c r="M268" s="332"/>
-      <c r="N268" s="333"/>
-      <c r="O268" s="324"/>
-      <c r="R268" s="310"/>
-      <c r="S268" s="334"/>
-      <c r="U268" s="336"/>
-      <c r="V268"/>
-    </row>
-    <row r="269" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="294"/>
-      <c r="I269" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="J269" s="338"/>
-      <c r="K269" s="338"/>
-      <c r="L269" s="339"/>
-      <c r="M269" s="339"/>
-      <c r="N269" s="340">
-        <f>V266+S266+Q266+N266+L266</f>
-        <v>6738480.7999999998</v>
-      </c>
-      <c r="O269" s="341"/>
-      <c r="R269" s="310"/>
-      <c r="S269" s="334"/>
-      <c r="U269" s="336"/>
-      <c r="V269"/>
-    </row>
-    <row r="270" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="342"/>
-      <c r="I270" s="343"/>
-      <c r="J270" s="344"/>
-      <c r="K270" s="344"/>
-      <c r="L270" s="345"/>
-      <c r="M270" s="345"/>
-      <c r="N270" s="346"/>
-      <c r="O270" s="347"/>
+      <c r="J269" s="320"/>
+      <c r="K269" s="320"/>
+      <c r="L269" s="321">
+        <f>SUM(L257:L268)</f>
+        <v>0</v>
+      </c>
+      <c r="M269" s="322"/>
+      <c r="N269" s="323">
+        <f>SUM(N4:N268)</f>
+        <v>10856355.700000001</v>
+      </c>
+      <c r="O269" s="324"/>
+      <c r="Q269" s="325">
+        <f>SUM(Q4:Q268)</f>
+        <v>0</v>
+      </c>
+      <c r="R269" s="256"/>
+      <c r="S269" s="326">
+        <f>SUM(S19:S268)</f>
+        <v>0</v>
+      </c>
+      <c r="T269" s="327"/>
+      <c r="U269" s="328"/>
+      <c r="V269" s="329">
+        <f>SUM(V257:V268)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A270" s="294"/>
+      <c r="H270" s="318"/>
+      <c r="I270" s="330"/>
+      <c r="J270" s="331"/>
+      <c r="K270" s="332"/>
+      <c r="L270" s="332"/>
+      <c r="M270" s="332"/>
+      <c r="N270" s="333"/>
+      <c r="O270" s="324"/>
       <c r="R270" s="310"/>
       <c r="S270" s="334"/>
       <c r="U270" s="336"/>
       <c r="V270"/>
     </row>
-    <row r="271" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="342"/>
+    <row r="271" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="294"/>
+      <c r="H271" s="318"/>
       <c r="I271" s="330"/>
       <c r="J271" s="331"/>
       <c r="K271" s="332"/>
@@ -32432,90 +32930,100 @@
       <c r="U271" s="336"/>
       <c r="V271"/>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A272" s="294"/>
-      <c r="I272" s="330"/>
-      <c r="J272" s="331"/>
-      <c r="K272" s="332"/>
-      <c r="L272" s="332"/>
-      <c r="M272" s="332"/>
-      <c r="N272" s="333"/>
-      <c r="O272" s="324"/>
+      <c r="I272" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="J272" s="338"/>
+      <c r="K272" s="338"/>
+      <c r="L272" s="339"/>
+      <c r="M272" s="339"/>
+      <c r="N272" s="340">
+        <f>V269+S269+Q269+N269+L269</f>
+        <v>10856355.700000001</v>
+      </c>
+      <c r="O272" s="341"/>
       <c r="R272" s="310"/>
       <c r="S272" s="334"/>
       <c r="U272" s="336"/>
       <c r="V272"/>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="294"/>
-      <c r="I273" s="330"/>
-      <c r="J273" s="348"/>
-      <c r="K273" s="332"/>
-      <c r="L273" s="332"/>
-      <c r="M273" s="332"/>
-      <c r="N273" s="333"/>
-      <c r="O273" s="349"/>
+    <row r="273" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="342"/>
+      <c r="I273" s="343"/>
+      <c r="J273" s="344"/>
+      <c r="K273" s="344"/>
+      <c r="L273" s="345"/>
+      <c r="M273" s="345"/>
+      <c r="N273" s="346"/>
+      <c r="O273" s="347"/>
       <c r="R273" s="310"/>
       <c r="S273" s="334"/>
       <c r="U273" s="336"/>
       <c r="V273"/>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A274" s="342"/>
+      <c r="I274" s="330"/>
+      <c r="J274" s="331"/>
+      <c r="K274" s="332"/>
+      <c r="L274" s="332"/>
+      <c r="M274" s="332"/>
       <c r="N274" s="333"/>
-      <c r="O274" s="351"/>
+      <c r="O274" s="324"/>
       <c r="R274" s="310"/>
       <c r="S274" s="334"/>
       <c r="U274" s="336"/>
       <c r="V274"/>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="342"/>
-      <c r="O275" s="351"/>
+      <c r="A275" s="294"/>
+      <c r="I275" s="330"/>
+      <c r="J275" s="331"/>
+      <c r="K275" s="332"/>
+      <c r="L275" s="332"/>
+      <c r="M275" s="332"/>
+      <c r="N275" s="333"/>
+      <c r="O275" s="324"/>
+      <c r="R275" s="310"/>
       <c r="S275" s="334"/>
       <c r="U275" s="336"/>
       <c r="V275"/>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="294"/>
-      <c r="B276" s="295"/>
+      <c r="I276" s="330"/>
+      <c r="J276" s="348"/>
+      <c r="K276" s="332"/>
+      <c r="L276" s="332"/>
+      <c r="M276" s="332"/>
       <c r="N276" s="333"/>
-      <c r="O276" s="324"/>
+      <c r="O276" s="349"/>
+      <c r="R276" s="310"/>
       <c r="S276" s="334"/>
       <c r="U276" s="336"/>
       <c r="V276"/>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="342"/>
-      <c r="B277" s="295"/>
       <c r="N277" s="333"/>
-      <c r="O277" s="324"/>
+      <c r="O277" s="351"/>
+      <c r="R277" s="310"/>
       <c r="S277" s="334"/>
       <c r="U277" s="336"/>
       <c r="V277"/>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A278" s="294"/>
-      <c r="B278" s="295"/>
-      <c r="I278" s="330"/>
-      <c r="J278" s="331"/>
-      <c r="K278" s="332"/>
-      <c r="L278" s="332"/>
-      <c r="M278" s="332"/>
-      <c r="N278" s="333"/>
-      <c r="O278" s="324"/>
+      <c r="A278" s="342"/>
+      <c r="O278" s="351"/>
       <c r="S278" s="334"/>
       <c r="U278" s="336"/>
       <c r="V278"/>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="342"/>
+      <c r="A279" s="294"/>
       <c r="B279" s="295"/>
-      <c r="I279" s="330"/>
-      <c r="J279" s="331"/>
-      <c r="K279" s="332"/>
-      <c r="L279" s="332"/>
-      <c r="M279" s="332"/>
       <c r="N279" s="333"/>
       <c r="O279" s="324"/>
       <c r="S279" s="334"/>
@@ -32523,11 +33031,8 @@
       <c r="V279"/>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="294"/>
+      <c r="A280" s="342"/>
       <c r="B280" s="295"/>
-      <c r="I280" s="352"/>
-      <c r="J280" s="328"/>
-      <c r="K280" s="328"/>
       <c r="N280" s="333"/>
       <c r="O280" s="324"/>
       <c r="S280" s="334"/>
@@ -32535,79 +33040,59 @@
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="342"/>
+      <c r="A281" s="294"/>
+      <c r="B281" s="295"/>
+      <c r="I281" s="330"/>
+      <c r="J281" s="331"/>
+      <c r="K281" s="332"/>
+      <c r="L281" s="332"/>
+      <c r="M281" s="332"/>
+      <c r="N281" s="333"/>
+      <c r="O281" s="324"/>
       <c r="S281" s="334"/>
       <c r="U281" s="336"/>
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="294"/>
+      <c r="A282" s="342"/>
+      <c r="B282" s="295"/>
+      <c r="I282" s="330"/>
+      <c r="J282" s="331"/>
+      <c r="K282" s="332"/>
+      <c r="L282" s="332"/>
+      <c r="M282" s="332"/>
+      <c r="N282" s="333"/>
+      <c r="O282" s="324"/>
       <c r="S282" s="334"/>
       <c r="U282" s="336"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" s="294"/>
-      <c r="B283" s="354"/>
-      <c r="C283" s="354"/>
-      <c r="D283" s="354"/>
-      <c r="E283" s="355"/>
-      <c r="F283" s="356"/>
-      <c r="G283" s="357"/>
-      <c r="H283" s="358"/>
-      <c r="I283" s="359"/>
-      <c r="J283"/>
-      <c r="K283"/>
-      <c r="L283"/>
-      <c r="M283"/>
-      <c r="P283" s="360"/>
-      <c r="Q283" s="334"/>
+      <c r="B283" s="295"/>
+      <c r="I283" s="352"/>
+      <c r="J283" s="328"/>
+      <c r="K283" s="328"/>
+      <c r="N283" s="333"/>
+      <c r="O283" s="324"/>
       <c r="S283" s="334"/>
       <c r="U283" s="336"/>
       <c r="V283"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="342"/>
-      <c r="B284" s="354"/>
-      <c r="C284" s="354"/>
-      <c r="D284" s="354"/>
-      <c r="E284" s="355"/>
-      <c r="F284" s="356"/>
-      <c r="G284" s="357"/>
-      <c r="H284" s="358"/>
-      <c r="I284" s="359"/>
-      <c r="J284"/>
-      <c r="K284"/>
-      <c r="L284"/>
-      <c r="M284"/>
-      <c r="P284" s="360"/>
-      <c r="Q284" s="334"/>
       <c r="S284" s="334"/>
       <c r="U284" s="336"/>
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="342"/>
-      <c r="B285" s="354"/>
-      <c r="C285" s="354"/>
-      <c r="D285" s="354"/>
-      <c r="E285" s="355"/>
-      <c r="F285" s="356"/>
-      <c r="G285" s="357"/>
-      <c r="H285" s="358"/>
-      <c r="I285" s="359"/>
-      <c r="J285"/>
-      <c r="K285"/>
-      <c r="L285"/>
-      <c r="M285"/>
-      <c r="P285" s="360"/>
-      <c r="Q285" s="334"/>
+      <c r="A285" s="294"/>
       <c r="S285" s="334"/>
       <c r="U285" s="336"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="342"/>
+      <c r="A286" s="294"/>
       <c r="B286" s="354"/>
       <c r="C286" s="354"/>
       <c r="D286" s="354"/>
@@ -32627,7 +33112,7 @@
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="361"/>
+      <c r="A287" s="342"/>
       <c r="B287" s="354"/>
       <c r="C287" s="354"/>
       <c r="D287" s="354"/>
@@ -32647,7 +33132,7 @@
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="307"/>
+      <c r="A288" s="342"/>
       <c r="B288" s="354"/>
       <c r="C288" s="354"/>
       <c r="D288" s="354"/>
@@ -32667,7 +33152,7 @@
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="294"/>
+      <c r="A289" s="342"/>
       <c r="B289" s="354"/>
       <c r="C289" s="354"/>
       <c r="D289" s="354"/>
@@ -32687,7 +33172,7 @@
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="294"/>
+      <c r="A290" s="361"/>
       <c r="B290" s="354"/>
       <c r="C290" s="354"/>
       <c r="D290" s="354"/>
@@ -32707,7 +33192,7 @@
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="294"/>
+      <c r="A291" s="307"/>
       <c r="B291" s="354"/>
       <c r="C291" s="354"/>
       <c r="D291" s="354"/>
@@ -32806,16 +33291,76 @@
       <c r="U295" s="336"/>
       <c r="V295"/>
     </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A296" s="294"/>
+      <c r="B296" s="354"/>
+      <c r="C296" s="354"/>
+      <c r="D296" s="354"/>
+      <c r="E296" s="355"/>
+      <c r="F296" s="356"/>
+      <c r="G296" s="357"/>
+      <c r="H296" s="358"/>
+      <c r="I296" s="359"/>
+      <c r="J296"/>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="P296" s="360"/>
+      <c r="Q296" s="334"/>
+      <c r="S296" s="334"/>
+      <c r="U296" s="336"/>
+      <c r="V296"/>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A297" s="294"/>
+      <c r="B297" s="354"/>
+      <c r="C297" s="354"/>
+      <c r="D297" s="354"/>
+      <c r="E297" s="355"/>
+      <c r="F297" s="356"/>
+      <c r="G297" s="357"/>
+      <c r="H297" s="358"/>
+      <c r="I297" s="359"/>
+      <c r="J297"/>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="P297" s="360"/>
+      <c r="Q297" s="334"/>
+      <c r="S297" s="334"/>
+      <c r="U297" s="336"/>
+      <c r="V297"/>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A298" s="294"/>
+      <c r="B298" s="354"/>
+      <c r="C298" s="354"/>
+      <c r="D298" s="354"/>
+      <c r="E298" s="355"/>
+      <c r="F298" s="356"/>
+      <c r="G298" s="357"/>
+      <c r="H298" s="358"/>
+      <c r="I298" s="359"/>
+      <c r="J298"/>
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="P298" s="360"/>
+      <c r="Q298" s="334"/>
+      <c r="S298" s="334"/>
+      <c r="U298" s="336"/>
+      <c r="V298"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="F265:H265"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="L93:M94"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="P100:P101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="179">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -521,6 +521,51 @@
   <si>
     <t>NLP</t>
   </si>
+  <si>
+    <t>FOLIO 11158</t>
+  </si>
+  <si>
+    <t>A-337225</t>
+  </si>
+  <si>
+    <t>FOLIO 11168</t>
+  </si>
+  <si>
+    <t>A-337252</t>
+  </si>
+  <si>
+    <t>FOLIO 11169</t>
+  </si>
+  <si>
+    <t>A-337253</t>
+  </si>
+  <si>
+    <t>jamon con hueso</t>
+  </si>
+  <si>
+    <t>folio 11159</t>
+  </si>
+  <si>
+    <t>FOLIO 11155</t>
+  </si>
+  <si>
+    <t>BICERAS SELECTAS DEL BAJIO</t>
+  </si>
+  <si>
+    <t>FOLIO 11170</t>
+  </si>
+  <si>
+    <t>V05--1999</t>
+  </si>
+  <si>
+    <t>PULPA</t>
+  </si>
+  <si>
+    <t>FOLIO 11167</t>
+  </si>
+  <si>
+    <t>CANALES  170</t>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +578,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +1011,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
@@ -1985,7 +2038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3156,6 +3209,21 @@
     <xf numFmtId="1" fontId="9" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3356,9 +3424,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="54" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3369,9 +3434,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF800000"/>
       <color rgb="FF660033"/>
     </mruColors>
   </colors>
@@ -3687,49 +3752,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="435" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
-      <c r="H1" s="430"/>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="435"/>
+      <c r="H1" s="435"/>
+      <c r="I1" s="435"/>
+      <c r="J1" s="435"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="431"/>
+      <c r="S1" s="436" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="436"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="433" t="s">
+      <c r="W1" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="434"/>
+      <c r="X1" s="439"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="430"/>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
+      <c r="A2" s="435"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="435"/>
+      <c r="I2" s="435"/>
+      <c r="J2" s="435"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -3737,8 +3802,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="432"/>
-      <c r="T2" s="432"/>
+      <c r="S2" s="437"/>
+      <c r="T2" s="437"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -3783,10 +3848,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="435" t="s">
+      <c r="O3" s="440" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="436"/>
+      <c r="P3" s="441"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -7107,8 +7172,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="437"/>
-      <c r="M90" s="438"/>
+      <c r="L90" s="442"/>
+      <c r="M90" s="443"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7140,8 +7205,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="437"/>
-      <c r="M91" s="438"/>
+      <c r="L91" s="442"/>
+      <c r="M91" s="443"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7344,8 +7409,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="439"/>
-      <c r="P97" s="441"/>
+      <c r="O97" s="444"/>
+      <c r="P97" s="446"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -7377,8 +7442,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="440"/>
-      <c r="P98" s="442"/>
+      <c r="O98" s="445"/>
+      <c r="P98" s="447"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -12770,11 +12835,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="428" t="s">
+      <c r="F262" s="433" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="428"/>
-      <c r="H262" s="429"/>
+      <c r="G262" s="433"/>
+      <c r="H262" s="434"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -13400,49 +13465,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="435" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
-      <c r="H1" s="430"/>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="435"/>
+      <c r="H1" s="435"/>
+      <c r="I1" s="435"/>
+      <c r="J1" s="435"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="431"/>
+      <c r="S1" s="436" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="436"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="433" t="s">
+      <c r="W1" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="434"/>
+      <c r="X1" s="439"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="430"/>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
+      <c r="A2" s="435"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="435"/>
+      <c r="I2" s="435"/>
+      <c r="J2" s="435"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -13450,8 +13515,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="432"/>
-      <c r="T2" s="432"/>
+      <c r="S2" s="437"/>
+      <c r="T2" s="437"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -13496,10 +13561,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="435" t="s">
+      <c r="O3" s="440" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="436"/>
+      <c r="P3" s="441"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -15832,13 +15897,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="485" t="s">
+      <c r="A59" s="490" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="487" t="s">
+      <c r="C59" s="492" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -15846,10 +15911,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="489">
+      <c r="G59" s="494">
         <v>44981</v>
       </c>
-      <c r="H59" s="491" t="s">
+      <c r="H59" s="496" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -15868,10 +15933,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="493" t="s">
+      <c r="O59" s="498" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="483">
+      <c r="P59" s="488">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -15882,18 +15947,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="486"/>
+      <c r="A60" s="491"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="488"/>
+      <c r="C60" s="493"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="490"/>
-      <c r="H60" s="492"/>
+      <c r="G60" s="495"/>
+      <c r="H60" s="497"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -15910,8 +15975,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="494"/>
-      <c r="P60" s="484"/>
+      <c r="O60" s="499"/>
+      <c r="P60" s="489"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -16149,7 +16214,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="443" t="s">
+      <c r="A66" s="448" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -16161,10 +16226,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="445">
+      <c r="G66" s="450">
         <v>44973</v>
       </c>
-      <c r="H66" s="447" t="s">
+      <c r="H66" s="452" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -16183,10 +16248,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="449" t="s">
+      <c r="O66" s="454" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="451">
+      <c r="P66" s="456">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -16197,7 +16262,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="444"/>
+      <c r="A67" s="449"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -16207,8 +16272,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="446"/>
-      <c r="H67" s="448"/>
+      <c r="G67" s="451"/>
+      <c r="H67" s="453"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -16225,8 +16290,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="450"/>
-      <c r="P67" s="452"/>
+      <c r="O67" s="455"/>
+      <c r="P67" s="457"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16284,13 +16349,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="473" t="s">
+      <c r="A69" s="478" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="475" t="s">
+      <c r="C69" s="480" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -16298,10 +16363,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="479">
+      <c r="G69" s="484">
         <v>44979</v>
       </c>
-      <c r="H69" s="477" t="s">
+      <c r="H69" s="482" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -16320,10 +16385,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="481" t="s">
+      <c r="O69" s="486" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="471">
+      <c r="P69" s="476">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16334,18 +16399,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="474"/>
+      <c r="A70" s="479"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="476"/>
+      <c r="C70" s="481"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="480"/>
-      <c r="H70" s="478"/>
+      <c r="G70" s="485"/>
+      <c r="H70" s="483"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -16362,8 +16427,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="482"/>
-      <c r="P70" s="472"/>
+      <c r="O70" s="487"/>
+      <c r="P70" s="477"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16372,13 +16437,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="461" t="s">
+      <c r="A71" s="466" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="459" t="s">
+      <c r="C71" s="464" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -16386,10 +16451,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="464">
+      <c r="G71" s="469">
         <v>44982</v>
       </c>
-      <c r="H71" s="466" t="s">
+      <c r="H71" s="471" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -16408,10 +16473,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="455" t="s">
+      <c r="O71" s="460" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="457">
+      <c r="P71" s="462">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16422,18 +16487,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="461"/>
+      <c r="A72" s="466"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="463"/>
+      <c r="C72" s="468"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="464"/>
-      <c r="H72" s="467"/>
+      <c r="G72" s="469"/>
+      <c r="H72" s="472"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -16450,8 +16515,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="469"/>
-      <c r="P72" s="470"/>
+      <c r="O72" s="474"/>
+      <c r="P72" s="475"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16460,18 +16525,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="462"/>
+      <c r="A73" s="467"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="460"/>
+      <c r="C73" s="465"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="465"/>
-      <c r="H73" s="468"/>
+      <c r="G73" s="470"/>
+      <c r="H73" s="473"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -16488,8 +16553,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="456"/>
-      <c r="P73" s="458"/>
+      <c r="O73" s="461"/>
+      <c r="P73" s="463"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -16665,13 +16730,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="443" t="s">
+      <c r="A80" s="448" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="459" t="s">
+      <c r="C80" s="464" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -16682,7 +16747,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="453" t="s">
+      <c r="H80" s="458" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -16701,10 +16766,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="455" t="s">
+      <c r="O80" s="460" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="457">
+      <c r="P80" s="462">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -16715,11 +16780,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="444"/>
+      <c r="A81" s="449"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="460"/>
+      <c r="C81" s="465"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -16728,7 +16793,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="454"/>
+      <c r="H81" s="459"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -16745,8 +16810,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="456"/>
-      <c r="P81" s="458"/>
+      <c r="O81" s="461"/>
+      <c r="P81" s="463"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -17297,8 +17362,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="437"/>
-      <c r="M99" s="438"/>
+      <c r="L99" s="442"/>
+      <c r="M99" s="443"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17330,8 +17395,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="437"/>
-      <c r="M100" s="438"/>
+      <c r="L100" s="442"/>
+      <c r="M100" s="443"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17534,8 +17599,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="439"/>
-      <c r="P106" s="441"/>
+      <c r="O106" s="444"/>
+      <c r="P106" s="446"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -17567,8 +17632,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="440"/>
-      <c r="P107" s="442"/>
+      <c r="O107" s="445"/>
+      <c r="P107" s="447"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -22960,11 +23025,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="428" t="s">
+      <c r="F271" s="433" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="428"/>
-      <c r="H271" s="429"/>
+      <c r="G271" s="433"/>
+      <c r="H271" s="434"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -23585,13 +23650,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:X298"/>
+  <dimension ref="A1:X299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23607,7 +23672,8 @@
     <col min="9" max="9" width="16.28515625" style="297" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="350"/>
     <col min="11" max="11" width="12.42578125" style="256" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="256" customWidth="1"/>
+    <col min="12" max="12" width="16" style="256" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="256" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" style="353" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -23620,49 +23686,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
-      <c r="H1" s="430"/>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="435"/>
+      <c r="H1" s="435"/>
+      <c r="I1" s="435"/>
+      <c r="J1" s="435"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="431"/>
+      <c r="S1" s="436" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="436"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="433" t="s">
+      <c r="W1" s="438" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="434"/>
+      <c r="X1" s="439"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="430"/>
-      <c r="B2" s="430"/>
-      <c r="C2" s="430"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="430"/>
-      <c r="F2" s="430"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="430"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="430"/>
+      <c r="A2" s="435"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="435"/>
+      <c r="F2" s="435"/>
+      <c r="G2" s="435"/>
+      <c r="H2" s="435"/>
+      <c r="I2" s="435"/>
+      <c r="J2" s="435"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -23670,8 +23736,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="432"/>
-      <c r="T2" s="432"/>
+      <c r="S2" s="437"/>
+      <c r="T2" s="437"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -23716,10 +23782,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="435" t="s">
+      <c r="O3" s="440" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="436"/>
+      <c r="P3" s="441"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -23771,7 +23837,7 @@
         <v>12650</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" ref="J4:J126" si="1">I4-F4</f>
+        <f t="shared" ref="J4:J127" si="1">I4-F4</f>
         <v>0</v>
       </c>
       <c r="K4" s="40">
@@ -23780,7 +23846,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42">
-        <f t="shared" ref="N4:N120" si="2">K4*I4</f>
+        <f t="shared" ref="N4:N121" si="2">K4*I4</f>
         <v>569250</v>
       </c>
       <c r="O4" s="43" t="s">
@@ -23971,7 +24037,7 @@
     </row>
     <row r="8" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>94</v>
@@ -24098,7 +24164,9 @@
       <c r="G10" s="58">
         <v>44998</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="59">
+        <v>41701</v>
+      </c>
       <c r="I10" s="60">
         <v>24340</v>
       </c>
@@ -24115,8 +24183,12 @@
         <f t="shared" si="2"/>
         <v>1046620</v>
       </c>
-      <c r="O10" s="72"/>
-      <c r="P10" s="70"/>
+      <c r="O10" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="70">
+        <v>45013</v>
+      </c>
       <c r="Q10" s="64"/>
       <c r="R10" s="65"/>
       <c r="S10" s="47"/>
@@ -24219,7 +24291,7 @@
         <f t="shared" si="2"/>
         <v>1002852.9</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="O12" s="432" t="s">
         <v>26</v>
       </c>
       <c r="P12" s="74">
@@ -24255,7 +24327,9 @@
       <c r="G13" s="58">
         <v>45002</v>
       </c>
-      <c r="H13" s="59"/>
+      <c r="H13" s="59">
+        <v>41749</v>
+      </c>
       <c r="I13" s="60">
         <v>12350</v>
       </c>
@@ -24272,8 +24346,12 @@
         <f t="shared" si="2"/>
         <v>506350</v>
       </c>
-      <c r="O13" s="75"/>
-      <c r="P13" s="74"/>
+      <c r="O13" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="74">
+        <v>45016</v>
+      </c>
       <c r="Q13" s="64"/>
       <c r="R13" s="65"/>
       <c r="S13" s="47"/>
@@ -24353,7 +24431,9 @@
       <c r="G15" s="58">
         <v>45003</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="59">
+        <v>41762</v>
+      </c>
       <c r="I15" s="60">
         <v>13190</v>
       </c>
@@ -24370,8 +24450,12 @@
         <f t="shared" ref="N15:N16" si="5">K15*I15</f>
         <v>540790</v>
       </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="74"/>
+      <c r="O15" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="74">
+        <v>45016</v>
+      </c>
       <c r="Q15" s="64"/>
       <c r="R15" s="65"/>
       <c r="S15" s="47"/>
@@ -24433,28 +24517,40 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="79"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>178</v>
+      </c>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
       <c r="E17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="F17" s="57">
+        <v>17210</v>
+      </c>
+      <c r="G17" s="58">
+        <v>45008</v>
+      </c>
       <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="60">
+        <v>17210</v>
+      </c>
       <c r="J17" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="40">
+        <v>39.5</v>
+      </c>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
       <c r="N17" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>679795</v>
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="74"/>
@@ -26253,33 +26349,49 @@
       <c r="U66" s="49"/>
       <c r="V66" s="50"/>
     </row>
-    <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="142" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="B67" s="167" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="170"/>
+        <v>170</v>
+      </c>
+      <c r="C67" s="170" t="s">
+        <v>172</v>
+      </c>
       <c r="D67" s="160"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="155"/>
+      <c r="F67" s="155">
+        <v>282</v>
+      </c>
+      <c r="G67" s="156">
+        <v>44998</v>
+      </c>
+      <c r="H67" s="59">
+        <v>41669</v>
+      </c>
+      <c r="I67" s="155">
+        <v>282</v>
+      </c>
       <c r="J67" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K67" s="40"/>
+      <c r="K67" s="40">
+        <v>56</v>
+      </c>
       <c r="L67" s="61"/>
       <c r="M67" s="61"/>
       <c r="N67" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="169"/>
-      <c r="P67" s="58"/>
+        <v>15792</v>
+      </c>
+      <c r="O67" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" s="58">
+        <v>45013</v>
+      </c>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -26319,7 +26431,7 @@
         <v>290</v>
       </c>
       <c r="L68" s="61"/>
-      <c r="M68" s="495" t="s">
+      <c r="M68" s="429" t="s">
         <v>163</v>
       </c>
       <c r="N68" s="42">
@@ -26339,79 +26451,101 @@
       <c r="U68" s="49"/>
       <c r="V68" s="50"/>
     </row>
-    <row r="69" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="152" t="s">
+    <row r="69" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="178" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="154" t="s">
-        <v>160</v>
+      <c r="B69" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="173" t="s">
+        <v>164</v>
       </c>
       <c r="D69" s="174"/>
       <c r="E69" s="56"/>
       <c r="F69" s="155">
-        <v>19303</v>
+        <v>9151.0400000000009</v>
       </c>
       <c r="G69" s="156">
-        <v>44999</v>
-      </c>
-      <c r="H69" s="168" t="s">
-        <v>161</v>
+        <v>44998</v>
+      </c>
+      <c r="H69" s="427" t="s">
+        <v>165</v>
       </c>
       <c r="I69" s="155">
-        <v>19303</v>
+        <v>9151.0638290000006</v>
       </c>
       <c r="J69" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3828999999750522E-2</v>
       </c>
       <c r="K69" s="40">
-        <v>1</v>
-      </c>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
+        <v>23.5</v>
+      </c>
+      <c r="L69" s="431">
+        <v>1000</v>
+      </c>
+      <c r="M69" s="430"/>
       <c r="N69" s="42">
         <f>K69*I69</f>
-        <v>19303</v>
+        <v>215049.9999815</v>
       </c>
       <c r="O69" s="169" t="s">
         <v>21</v>
       </c>
       <c r="P69" s="58">
-        <v>45008</v>
+        <v>45016</v>
       </c>
       <c r="Q69" s="166"/>
       <c r="R69" s="125"/>
-      <c r="S69" s="176"/>
-      <c r="T69" s="177"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
       <c r="U69" s="49"/>
       <c r="V69" s="50"/>
     </row>
-    <row r="70" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="101"/>
-      <c r="B70" s="167"/>
-      <c r="C70" s="170"/>
-      <c r="D70" s="160"/>
+    <row r="70" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="178" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="154" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="174"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="156"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="155"/>
+      <c r="F70" s="155">
+        <v>19303</v>
+      </c>
+      <c r="G70" s="156">
+        <v>44999</v>
+      </c>
+      <c r="H70" s="168" t="s">
+        <v>161</v>
+      </c>
+      <c r="I70" s="155">
+        <v>19303</v>
+      </c>
       <c r="J70" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K70" s="40"/>
+      <c r="K70" s="40">
+        <v>1</v>
+      </c>
       <c r="L70" s="61"/>
       <c r="M70" s="61"/>
       <c r="N70" s="42">
         <f>K70*I70</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="169"/>
-      <c r="P70" s="58"/>
+        <v>19303</v>
+      </c>
+      <c r="O70" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="58">
+        <v>45008</v>
+      </c>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -26420,28 +26554,48 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="142"/>
-      <c r="B71" s="178"/>
-      <c r="C71" s="179"/>
+      <c r="A71" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="170" t="s">
+        <v>171</v>
+      </c>
       <c r="D71" s="160"/>
       <c r="E71" s="56"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="180"/>
-      <c r="I71" s="155"/>
+      <c r="F71" s="155">
+        <v>587.79999999999995</v>
+      </c>
+      <c r="G71" s="156">
+        <v>44999</v>
+      </c>
+      <c r="H71" s="59">
+        <v>41698</v>
+      </c>
+      <c r="I71" s="155">
+        <v>587.79999999999995</v>
+      </c>
       <c r="J71" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K71" s="40"/>
+      <c r="K71" s="40">
+        <v>55</v>
+      </c>
       <c r="L71" s="61"/>
       <c r="M71" s="61"/>
       <c r="N71" s="42">
-        <f t="shared" ref="N71:N74" si="6">K71*I71</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="169"/>
-      <c r="P71" s="58"/>
+        <f>K71*I71</f>
+        <v>32328.999999999996</v>
+      </c>
+      <c r="O71" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" s="58">
+        <v>45013</v>
+      </c>
       <c r="Q71" s="166"/>
       <c r="R71" s="125"/>
       <c r="S71" s="176"/>
@@ -26450,28 +26604,48 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="152"/>
-      <c r="B72" s="167"/>
-      <c r="C72" s="181"/>
-      <c r="D72" s="174"/>
+      <c r="A72" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="160"/>
       <c r="E72" s="56"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="156"/>
-      <c r="H72" s="164"/>
-      <c r="I72" s="155"/>
+      <c r="F72" s="155">
+        <v>354.8</v>
+      </c>
+      <c r="G72" s="156">
+        <v>45005</v>
+      </c>
+      <c r="H72" s="428">
+        <v>41742</v>
+      </c>
+      <c r="I72" s="155">
+        <v>354.8</v>
+      </c>
       <c r="J72" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K72" s="40"/>
+      <c r="K72" s="40">
+        <v>52</v>
+      </c>
       <c r="L72" s="61"/>
       <c r="M72" s="61"/>
       <c r="N72" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="169"/>
-      <c r="P72" s="58"/>
+        <f t="shared" ref="N72:N75" si="6">K72*I72</f>
+        <v>18449.600000000002</v>
+      </c>
+      <c r="O72" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P72" s="58">
+        <v>45016</v>
+      </c>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -26479,29 +26653,49 @@
       <c r="U72" s="49"/>
       <c r="V72" s="50"/>
     </row>
-    <row r="73" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="152"/>
-      <c r="B73" s="167"/>
-      <c r="C73" s="182"/>
+    <row r="73" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="181" t="s">
+        <v>166</v>
+      </c>
       <c r="D73" s="174"/>
       <c r="E73" s="56"/>
-      <c r="F73" s="155"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="164"/>
-      <c r="I73" s="155"/>
+      <c r="F73" s="155">
+        <v>680.5</v>
+      </c>
+      <c r="G73" s="156">
+        <v>45006</v>
+      </c>
+      <c r="H73" s="164" t="s">
+        <v>167</v>
+      </c>
+      <c r="I73" s="155">
+        <v>680.50746000000004</v>
+      </c>
       <c r="J73" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="40"/>
+        <v>7.4600000000373257E-3</v>
+      </c>
+      <c r="K73" s="40">
+        <v>67</v>
+      </c>
       <c r="L73" s="61"/>
       <c r="M73" s="61"/>
       <c r="N73" s="42">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="158"/>
-      <c r="P73" s="58"/>
+        <v>45593.999820000005</v>
+      </c>
+      <c r="O73" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="58">
+        <v>45016</v>
+      </c>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -26509,29 +26703,49 @@
       <c r="U73" s="49"/>
       <c r="V73" s="50"/>
     </row>
-    <row r="74" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="152"/>
-      <c r="B74" s="167"/>
-      <c r="C74" s="182"/>
+    <row r="74" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="192" t="s">
+        <v>168</v>
+      </c>
       <c r="D74" s="174"/>
       <c r="E74" s="56"/>
-      <c r="F74" s="155"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="164"/>
-      <c r="I74" s="155"/>
+      <c r="F74" s="155">
+        <v>3402.5</v>
+      </c>
+      <c r="G74" s="156">
+        <v>45006</v>
+      </c>
+      <c r="H74" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="I74" s="155">
+        <v>3402.5074</v>
+      </c>
       <c r="J74" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="40"/>
+        <v>7.3999999999614374E-3</v>
+      </c>
+      <c r="K74" s="40">
+        <v>67</v>
+      </c>
       <c r="L74" s="61"/>
       <c r="M74" s="61"/>
       <c r="N74" s="42">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="158"/>
-      <c r="P74" s="58"/>
+        <v>227967.9958</v>
+      </c>
+      <c r="O74" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="58">
+        <v>45016</v>
+      </c>
       <c r="Q74" s="166"/>
       <c r="R74" s="125"/>
       <c r="S74" s="176"/>
@@ -26539,29 +26753,49 @@
       <c r="U74" s="49"/>
       <c r="V74" s="50"/>
     </row>
-    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="152"/>
-      <c r="B75" s="167"/>
-      <c r="C75" s="170"/>
+    <row r="75" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="184" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="170" t="s">
+        <v>174</v>
+      </c>
       <c r="D75" s="174"/>
       <c r="E75" s="56"/>
-      <c r="F75" s="155"/>
-      <c r="G75" s="156"/>
-      <c r="H75" s="168"/>
-      <c r="I75" s="155"/>
+      <c r="F75" s="155">
+        <v>200</v>
+      </c>
+      <c r="G75" s="156">
+        <v>45010</v>
+      </c>
+      <c r="H75" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="I75" s="155">
+        <v>200</v>
+      </c>
       <c r="J75" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K75" s="40"/>
+      <c r="K75" s="40">
+        <v>290</v>
+      </c>
       <c r="L75" s="61"/>
       <c r="M75" s="61"/>
       <c r="N75" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="158"/>
-      <c r="P75" s="183"/>
+        <f t="shared" si="6"/>
+        <v>58000</v>
+      </c>
+      <c r="O75" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P75" s="58">
+        <v>45016</v>
+      </c>
       <c r="Q75" s="166"/>
       <c r="R75" s="125"/>
       <c r="S75" s="176"/>
@@ -26570,10 +26804,12 @@
       <c r="V75" s="50"/>
     </row>
     <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="152"/>
-      <c r="B76" s="178"/>
+      <c r="A76" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="167"/>
       <c r="C76" s="170"/>
-      <c r="D76" s="170"/>
+      <c r="D76" s="174"/>
       <c r="E76" s="56"/>
       <c r="F76" s="155"/>
       <c r="G76" s="156"/>
@@ -26599,11 +26835,13 @@
       <c r="U76" s="49"/>
       <c r="V76" s="50"/>
     </row>
-    <row r="77" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
-      <c r="B77" s="184"/>
+    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="178"/>
       <c r="C77" s="170"/>
-      <c r="D77" s="174"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="56"/>
       <c r="F77" s="155"/>
       <c r="G77" s="156"/>
@@ -26622,18 +26860,20 @@
       </c>
       <c r="O77" s="158"/>
       <c r="P77" s="183"/>
-      <c r="Q77" s="158"/>
+      <c r="Q77" s="166"/>
       <c r="R77" s="125"/>
       <c r="S77" s="176"/>
       <c r="T77" s="177"/>
       <c r="U77" s="49"/>
       <c r="V77" s="50"/>
     </row>
-    <row r="78" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="152"/>
-      <c r="B78" s="167"/>
+    <row r="78" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="184"/>
       <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="56"/>
       <c r="F78" s="155"/>
       <c r="G78" s="156"/>
@@ -26659,15 +26899,15 @@
       <c r="U78" s="49"/>
       <c r="V78" s="50"/>
     </row>
-    <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="152"/>
-      <c r="B79" s="178"/>
+      <c r="B79" s="167"/>
       <c r="C79" s="170"/>
       <c r="D79" s="170"/>
       <c r="E79" s="56"/>
       <c r="F79" s="155"/>
-      <c r="G79" s="185"/>
-      <c r="H79" s="164"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="168"/>
       <c r="I79" s="155"/>
       <c r="J79" s="39">
         <f t="shared" si="1"/>
@@ -26681,7 +26921,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="158"/>
-      <c r="P79" s="186"/>
+      <c r="P79" s="183"/>
       <c r="Q79" s="158"/>
       <c r="R79" s="125"/>
       <c r="S79" s="176"/>
@@ -26779,15 +27019,15 @@
       <c r="U82" s="49"/>
       <c r="V82" s="50"/>
     </row>
-    <row r="83" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="152"/>
-      <c r="B83" s="167"/>
+      <c r="B83" s="178"/>
       <c r="C83" s="170"/>
-      <c r="D83" s="174"/>
+      <c r="D83" s="170"/>
       <c r="E83" s="56"/>
       <c r="F83" s="155"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="168"/>
+      <c r="G83" s="185"/>
+      <c r="H83" s="164"/>
       <c r="I83" s="155"/>
       <c r="J83" s="39">
         <f t="shared" si="1"/>
@@ -26801,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="158"/>
-      <c r="P83" s="183"/>
+      <c r="P83" s="186"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -26809,11 +27049,11 @@
       <c r="U83" s="49"/>
       <c r="V83" s="50"/>
     </row>
-    <row r="84" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="152"/>
       <c r="B84" s="167"/>
       <c r="C84" s="170"/>
-      <c r="D84" s="187"/>
+      <c r="D84" s="174"/>
       <c r="E84" s="56"/>
       <c r="F84" s="155"/>
       <c r="G84" s="156"/>
@@ -26823,7 +27063,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K84" s="81"/>
+      <c r="K84" s="40"/>
       <c r="L84" s="61"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
@@ -26847,7 +27087,7 @@
       <c r="E85" s="56"/>
       <c r="F85" s="155"/>
       <c r="G85" s="156"/>
-      <c r="H85" s="164"/>
+      <c r="H85" s="168"/>
       <c r="I85" s="155"/>
       <c r="J85" s="39">
         <f t="shared" si="1"/>
@@ -26861,7 +27101,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="158"/>
-      <c r="P85" s="186"/>
+      <c r="P85" s="183"/>
       <c r="Q85" s="158"/>
       <c r="R85" s="125"/>
       <c r="S85" s="176"/>
@@ -26903,7 +27143,7 @@
       <c r="A87" s="152"/>
       <c r="B87" s="167"/>
       <c r="C87" s="170"/>
-      <c r="D87" s="181"/>
+      <c r="D87" s="187"/>
       <c r="E87" s="56"/>
       <c r="F87" s="155"/>
       <c r="G87" s="156"/>
@@ -26934,10 +27174,7 @@
       <c r="B88" s="167"/>
       <c r="C88" s="170"/>
       <c r="D88" s="181"/>
-      <c r="E88" s="56">
-        <f t="shared" ref="E88:E153" si="7">D88*F88</f>
-        <v>0</v>
-      </c>
+      <c r="E88" s="56"/>
       <c r="F88" s="155"/>
       <c r="G88" s="156"/>
       <c r="H88" s="164"/>
@@ -26963,17 +27200,17 @@
       <c r="V88" s="50"/>
     </row>
     <row r="89" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="98"/>
+      <c r="A89" s="152"/>
       <c r="B89" s="167"/>
-      <c r="C89" s="188"/>
-      <c r="D89" s="187"/>
+      <c r="C89" s="170"/>
+      <c r="D89" s="181"/>
       <c r="E89" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E89:E154" si="7">D89*F89</f>
         <v>0</v>
       </c>
       <c r="F89" s="155"/>
       <c r="G89" s="156"/>
-      <c r="H89" s="168"/>
+      <c r="H89" s="164"/>
       <c r="I89" s="155"/>
       <c r="J89" s="39">
         <f t="shared" si="1"/>
@@ -26987,7 +27224,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="158"/>
-      <c r="P89" s="183"/>
+      <c r="P89" s="186"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -26998,7 +27235,7 @@
     <row r="90" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="98"/>
       <c r="B90" s="167"/>
-      <c r="C90" s="189"/>
+      <c r="C90" s="188"/>
       <c r="D90" s="187"/>
       <c r="E90" s="56">
         <f t="shared" si="7"/>
@@ -27020,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="158"/>
-      <c r="P90" s="190"/>
+      <c r="P90" s="183"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="125"/>
       <c r="S90" s="176"/>
@@ -27031,8 +27268,8 @@
     <row r="91" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="98"/>
       <c r="B91" s="167"/>
-      <c r="C91" s="187"/>
-      <c r="D91" s="191"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="187"/>
       <c r="E91" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -27062,18 +27299,18 @@
       <c r="V91" s="50"/>
     </row>
     <row r="92" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="110"/>
-      <c r="B92" s="99"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="167"/>
       <c r="C92" s="187"/>
       <c r="D92" s="191"/>
       <c r="E92" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F92" s="60"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="60"/>
+      <c r="F92" s="155"/>
+      <c r="G92" s="156"/>
+      <c r="H92" s="168"/>
+      <c r="I92" s="155"/>
       <c r="J92" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27094,10 +27331,10 @@
       <c r="U92" s="49"/>
       <c r="V92" s="50"/>
     </row>
-    <row r="93" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="110"/>
       <c r="B93" s="99"/>
-      <c r="C93" s="192"/>
+      <c r="C93" s="187"/>
       <c r="D93" s="191"/>
       <c r="E93" s="56">
         <f t="shared" si="7"/>
@@ -27112,8 +27349,8 @@
         <v>0</v>
       </c>
       <c r="K93" s="81"/>
-      <c r="L93" s="437"/>
-      <c r="M93" s="438"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
       <c r="N93" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27130,7 +27367,7 @@
     <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="110"/>
       <c r="B94" s="99"/>
-      <c r="C94" s="182"/>
+      <c r="C94" s="192"/>
       <c r="D94" s="191"/>
       <c r="E94" s="56">
         <f t="shared" si="7"/>
@@ -27145,8 +27382,8 @@
         <v>0</v>
       </c>
       <c r="K94" s="81"/>
-      <c r="L94" s="437"/>
-      <c r="M94" s="438"/>
+      <c r="L94" s="442"/>
+      <c r="M94" s="443"/>
       <c r="N94" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27160,10 +27397,10 @@
       <c r="U94" s="49"/>
       <c r="V94" s="50"/>
     </row>
-    <row r="95" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="193"/>
+    <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="110"/>
       <c r="B95" s="99"/>
-      <c r="C95" s="194"/>
+      <c r="C95" s="182"/>
       <c r="D95" s="191"/>
       <c r="E95" s="56">
         <f t="shared" si="7"/>
@@ -27178,8 +27415,8 @@
         <v>0</v>
       </c>
       <c r="K95" s="81"/>
-      <c r="L95" s="195"/>
-      <c r="M95" s="195"/>
+      <c r="L95" s="442"/>
+      <c r="M95" s="443"/>
       <c r="N95" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27193,10 +27430,10 @@
       <c r="U95" s="49"/>
       <c r="V95" s="50"/>
     </row>
-    <row r="96" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="196"/>
+    <row r="96" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="193"/>
       <c r="B96" s="99"/>
-      <c r="C96" s="154"/>
+      <c r="C96" s="194"/>
       <c r="D96" s="191"/>
       <c r="E96" s="56">
         <f t="shared" si="7"/>
@@ -27226,10 +27463,10 @@
       <c r="U96" s="49"/>
       <c r="V96" s="50"/>
     </row>
-    <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="101"/>
+    <row r="97" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="196"/>
       <c r="B97" s="99"/>
-      <c r="C97" s="191"/>
+      <c r="C97" s="154"/>
       <c r="D97" s="191"/>
       <c r="E97" s="56">
         <f t="shared" si="7"/>
@@ -27244,8 +27481,8 @@
         <v>0</v>
       </c>
       <c r="K97" s="81"/>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
+      <c r="L97" s="195"/>
+      <c r="M97" s="195"/>
       <c r="N97" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27326,9 +27563,9 @@
       <c r="V99" s="50"/>
     </row>
     <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="110"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="99"/>
-      <c r="C100" s="187"/>
+      <c r="C100" s="191"/>
       <c r="D100" s="191"/>
       <c r="E100" s="56">
         <f t="shared" si="7"/>
@@ -27349,8 +27586,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O100" s="439"/>
-      <c r="P100" s="441"/>
+      <c r="O100" s="158"/>
+      <c r="P100" s="190"/>
       <c r="Q100" s="158"/>
       <c r="R100" s="125"/>
       <c r="S100" s="176"/>
@@ -27382,8 +27619,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O101" s="440"/>
-      <c r="P101" s="442"/>
+      <c r="O101" s="444"/>
+      <c r="P101" s="446"/>
       <c r="Q101" s="158"/>
       <c r="R101" s="125"/>
       <c r="S101" s="176"/>
@@ -27392,9 +27629,9 @@
       <c r="V101" s="50"/>
     </row>
     <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
+      <c r="A102" s="110"/>
       <c r="B102" s="99"/>
-      <c r="C102" s="191"/>
+      <c r="C102" s="187"/>
       <c r="D102" s="191"/>
       <c r="E102" s="56">
         <f t="shared" si="7"/>
@@ -27415,8 +27652,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O102" s="158"/>
-      <c r="P102" s="190"/>
+      <c r="O102" s="445"/>
+      <c r="P102" s="447"/>
       <c r="Q102" s="158"/>
       <c r="R102" s="125"/>
       <c r="S102" s="176"/>
@@ -27458,10 +27695,10 @@
       <c r="V103" s="50"/>
     </row>
     <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="102"/>
+      <c r="A104" s="99"/>
       <c r="B104" s="99"/>
-      <c r="C104" s="197"/>
-      <c r="D104" s="197"/>
+      <c r="C104" s="191"/>
+      <c r="D104" s="191"/>
       <c r="E104" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -27490,11 +27727,11 @@
       <c r="U104" s="49"/>
       <c r="V104" s="50"/>
     </row>
-    <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="152"/>
-      <c r="B105" s="110"/>
-      <c r="C105" s="194"/>
-      <c r="D105" s="194"/>
+    <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="102"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="197"/>
+      <c r="D105" s="197"/>
       <c r="E105" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -27526,8 +27763,8 @@
     <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A106" s="152"/>
       <c r="B106" s="110"/>
-      <c r="C106" s="197"/>
-      <c r="D106" s="197"/>
+      <c r="C106" s="194"/>
+      <c r="D106" s="194"/>
       <c r="E106" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -27589,9 +27826,9 @@
       <c r="U107" s="49"/>
       <c r="V107" s="50"/>
     </row>
-    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="101"/>
-      <c r="B108" s="99"/>
+    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="152"/>
+      <c r="B108" s="110"/>
       <c r="C108" s="197"/>
       <c r="D108" s="197"/>
       <c r="E108" s="56">
@@ -27618,7 +27855,7 @@
       <c r="Q108" s="158"/>
       <c r="R108" s="125"/>
       <c r="S108" s="176"/>
-      <c r="T108" s="176"/>
+      <c r="T108" s="177"/>
       <c r="U108" s="49"/>
       <c r="V108" s="50"/>
     </row>
@@ -27688,9 +27925,9 @@
       <c r="U110" s="49"/>
       <c r="V110" s="50"/>
     </row>
-    <row r="111" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="99"/>
-      <c r="B111" s="198"/>
+    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="101"/>
+      <c r="B111" s="99"/>
       <c r="C111" s="197"/>
       <c r="D111" s="197"/>
       <c r="E111" s="56">
@@ -27717,13 +27954,13 @@
       <c r="Q111" s="158"/>
       <c r="R111" s="125"/>
       <c r="S111" s="176"/>
-      <c r="T111" s="177"/>
+      <c r="T111" s="176"/>
       <c r="U111" s="49"/>
       <c r="V111" s="50"/>
     </row>
-    <row r="112" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="99"/>
-      <c r="B112" s="99"/>
+      <c r="B112" s="198"/>
       <c r="C112" s="197"/>
       <c r="D112" s="197"/>
       <c r="E112" s="56">
@@ -27788,7 +28025,7 @@
       <c r="V113" s="50"/>
     </row>
     <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="152"/>
+      <c r="A114" s="99"/>
       <c r="B114" s="99"/>
       <c r="C114" s="197"/>
       <c r="D114" s="197"/>
@@ -27820,18 +28057,18 @@
       <c r="U114" s="49"/>
       <c r="V114" s="50"/>
     </row>
-    <row r="115" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="199"/>
-      <c r="B115" s="199"/>
-      <c r="C115" s="200"/>
-      <c r="D115" s="200"/>
-      <c r="E115" s="201">
+    <row r="115" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="152"/>
+      <c r="B115" s="99"/>
+      <c r="C115" s="197"/>
+      <c r="D115" s="197"/>
+      <c r="E115" s="56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F115" s="38"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="37"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="59"/>
       <c r="I115" s="60"/>
       <c r="J115" s="39">
         <f t="shared" si="1"/>
@@ -27853,18 +28090,18 @@
       <c r="U115" s="49"/>
       <c r="V115" s="50"/>
     </row>
-    <row r="116" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="99"/>
-      <c r="B116" s="99"/>
-      <c r="C116" s="197"/>
-      <c r="D116" s="197"/>
-      <c r="E116" s="34">
+    <row r="116" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="199"/>
+      <c r="B116" s="199"/>
+      <c r="C116" s="200"/>
+      <c r="D116" s="200"/>
+      <c r="E116" s="201">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F116" s="60"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="59"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="37"/>
       <c r="I116" s="60"/>
       <c r="J116" s="39">
         <f t="shared" si="1"/>
@@ -27887,7 +28124,7 @@
       <c r="V116" s="50"/>
     </row>
     <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="110"/>
+      <c r="A117" s="99"/>
       <c r="B117" s="99"/>
       <c r="C117" s="197"/>
       <c r="D117" s="197"/>
@@ -27986,7 +28223,7 @@
       <c r="V119" s="50"/>
     </row>
     <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="99"/>
+      <c r="A120" s="110"/>
       <c r="B120" s="99"/>
       <c r="C120" s="197"/>
       <c r="D120" s="197"/>
@@ -28019,7 +28256,7 @@
       <c r="V120" s="50"/>
     </row>
     <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="98"/>
+      <c r="A121" s="99"/>
       <c r="B121" s="99"/>
       <c r="C121" s="197"/>
       <c r="D121" s="197"/>
@@ -28039,7 +28276,7 @@
       <c r="L121" s="61"/>
       <c r="M121" s="61"/>
       <c r="N121" s="42">
-        <f t="shared" ref="N121:N184" si="8">K121*I121</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O121" s="158"/>
@@ -28052,7 +28289,7 @@
       <c r="V121" s="50"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="101"/>
+      <c r="A122" s="98"/>
       <c r="B122" s="99"/>
       <c r="C122" s="197"/>
       <c r="D122" s="197"/>
@@ -28072,7 +28309,7 @@
       <c r="L122" s="61"/>
       <c r="M122" s="61"/>
       <c r="N122" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N122:N185" si="8">K122*I122</f>
         <v>0</v>
       </c>
       <c r="O122" s="158"/>
@@ -28118,7 +28355,7 @@
       <c r="V123" s="50"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="202"/>
+      <c r="A124" s="101"/>
       <c r="B124" s="99"/>
       <c r="C124" s="197"/>
       <c r="D124" s="197"/>
@@ -28151,7 +28388,7 @@
       <c r="V124" s="50"/>
     </row>
     <row r="125" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="203"/>
+      <c r="A125" s="202"/>
       <c r="B125" s="99"/>
       <c r="C125" s="197"/>
       <c r="D125" s="197"/>
@@ -28184,7 +28421,7 @@
       <c r="V125" s="50"/>
     </row>
     <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="204"/>
+      <c r="A126" s="203"/>
       <c r="B126" s="99"/>
       <c r="C126" s="197"/>
       <c r="D126" s="197"/>
@@ -28219,8 +28456,8 @@
     <row r="127" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="204"/>
       <c r="B127" s="99"/>
-      <c r="C127" s="154"/>
-      <c r="D127" s="154"/>
+      <c r="C127" s="197"/>
+      <c r="D127" s="197"/>
       <c r="E127" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28230,7 +28467,7 @@
       <c r="H127" s="59"/>
       <c r="I127" s="60"/>
       <c r="J127" s="39">
-        <f t="shared" ref="J127:J190" si="9">I127-F127</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K127" s="81"/>
@@ -28250,20 +28487,20 @@
       <c r="V127" s="50"/>
     </row>
     <row r="128" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="203"/>
+      <c r="A128" s="204"/>
       <c r="B128" s="99"/>
-      <c r="C128" s="197"/>
-      <c r="D128" s="197"/>
+      <c r="C128" s="154"/>
+      <c r="D128" s="154"/>
       <c r="E128" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F128" s="60"/>
       <c r="G128" s="58"/>
-      <c r="H128" s="205"/>
+      <c r="H128" s="59"/>
       <c r="I128" s="60"/>
       <c r="J128" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J128:J191" si="9">I128-F128</f>
         <v>0</v>
       </c>
       <c r="K128" s="81"/>
@@ -28285,8 +28522,8 @@
     <row r="129" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="203"/>
       <c r="B129" s="99"/>
-      <c r="C129" s="154"/>
-      <c r="D129" s="154"/>
+      <c r="C129" s="197"/>
+      <c r="D129" s="197"/>
       <c r="E129" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28318,8 +28555,8 @@
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="203"/>
       <c r="B130" s="99"/>
-      <c r="C130" s="197"/>
-      <c r="D130" s="197"/>
+      <c r="C130" s="154"/>
+      <c r="D130" s="154"/>
       <c r="E130" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28351,8 +28588,8 @@
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="203"/>
       <c r="B131" s="99"/>
-      <c r="C131" s="194"/>
-      <c r="D131" s="194"/>
+      <c r="C131" s="197"/>
+      <c r="D131" s="197"/>
       <c r="E131" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28373,7 +28610,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="158"/>
-      <c r="P131" s="183"/>
+      <c r="P131" s="190"/>
       <c r="Q131" s="158"/>
       <c r="R131" s="125"/>
       <c r="S131" s="176"/>
@@ -28381,18 +28618,18 @@
       <c r="U131" s="49"/>
       <c r="V131" s="50"/>
     </row>
-    <row r="132" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="99"/>
+    <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="203"/>
       <c r="B132" s="99"/>
-      <c r="C132" s="197"/>
-      <c r="D132" s="197"/>
+      <c r="C132" s="194"/>
+      <c r="D132" s="194"/>
       <c r="E132" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F132" s="60"/>
       <c r="G132" s="58"/>
-      <c r="H132" s="206"/>
+      <c r="H132" s="205"/>
       <c r="I132" s="60"/>
       <c r="J132" s="39">
         <f t="shared" si="9"/>
@@ -28406,9 +28643,9 @@
         <v>0</v>
       </c>
       <c r="O132" s="158"/>
-      <c r="P132" s="207"/>
+      <c r="P132" s="183"/>
       <c r="Q132" s="158"/>
-      <c r="R132" s="208"/>
+      <c r="R132" s="125"/>
       <c r="S132" s="176"/>
       <c r="T132" s="177"/>
       <c r="U132" s="49"/>
@@ -28513,8 +28750,8 @@
       <c r="U135" s="49"/>
       <c r="V135" s="50"/>
     </row>
-    <row r="136" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="102"/>
+    <row r="136" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="99"/>
       <c r="B136" s="99"/>
       <c r="C136" s="197"/>
       <c r="D136" s="197"/>
@@ -28524,7 +28761,7 @@
       </c>
       <c r="F136" s="60"/>
       <c r="G136" s="58"/>
-      <c r="H136" s="205"/>
+      <c r="H136" s="206"/>
       <c r="I136" s="60"/>
       <c r="J136" s="39">
         <f t="shared" si="9"/>
@@ -28537,9 +28774,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O136" s="69"/>
-      <c r="P136" s="209"/>
-      <c r="Q136" s="210"/>
+      <c r="O136" s="158"/>
+      <c r="P136" s="207"/>
+      <c r="Q136" s="158"/>
       <c r="R136" s="208"/>
       <c r="S136" s="176"/>
       <c r="T136" s="177"/>
@@ -28547,7 +28784,7 @@
       <c r="V136" s="50"/>
     </row>
     <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="99"/>
+      <c r="A137" s="102"/>
       <c r="B137" s="99"/>
       <c r="C137" s="197"/>
       <c r="D137" s="197"/>
@@ -28580,10 +28817,10 @@
       <c r="V137" s="50"/>
     </row>
     <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="101"/>
+      <c r="A138" s="99"/>
       <c r="B138" s="99"/>
-      <c r="C138" s="181"/>
-      <c r="D138" s="181"/>
+      <c r="C138" s="197"/>
+      <c r="D138" s="197"/>
       <c r="E138" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28745,10 +28982,10 @@
       <c r="V142" s="50"/>
     </row>
     <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="203"/>
+      <c r="A143" s="101"/>
       <c r="B143" s="99"/>
-      <c r="C143" s="197"/>
-      <c r="D143" s="197"/>
+      <c r="C143" s="181"/>
+      <c r="D143" s="181"/>
       <c r="E143" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28778,10 +29015,10 @@
       <c r="V143" s="50"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="169"/>
+      <c r="A144" s="203"/>
       <c r="B144" s="99"/>
-      <c r="C144" s="182"/>
-      <c r="D144" s="182"/>
+      <c r="C144" s="197"/>
+      <c r="D144" s="197"/>
       <c r="E144" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28836,7 +29073,7 @@
       </c>
       <c r="O145" s="69"/>
       <c r="P145" s="209"/>
-      <c r="Q145" s="211"/>
+      <c r="Q145" s="210"/>
       <c r="R145" s="208"/>
       <c r="S145" s="176"/>
       <c r="T145" s="177"/>
@@ -28869,7 +29106,7 @@
       </c>
       <c r="O146" s="69"/>
       <c r="P146" s="209"/>
-      <c r="Q146" s="210"/>
+      <c r="Q146" s="211"/>
       <c r="R146" s="208"/>
       <c r="S146" s="176"/>
       <c r="T146" s="177"/>
@@ -28877,10 +29114,10 @@
       <c r="V146" s="50"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="203"/>
+      <c r="A147" s="169"/>
       <c r="B147" s="99"/>
-      <c r="C147" s="197"/>
-      <c r="D147" s="197"/>
+      <c r="C147" s="182"/>
+      <c r="D147" s="182"/>
       <c r="E147" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -28901,7 +29138,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="69"/>
-      <c r="P147" s="212"/>
+      <c r="P147" s="209"/>
       <c r="Q147" s="210"/>
       <c r="R147" s="208"/>
       <c r="S147" s="176"/>
@@ -28909,7 +29146,7 @@
       <c r="U147" s="49"/>
       <c r="V147" s="50"/>
     </row>
-    <row r="148" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="203"/>
       <c r="B148" s="99"/>
       <c r="C148" s="197"/>
@@ -28920,7 +29157,7 @@
       </c>
       <c r="F148" s="60"/>
       <c r="G148" s="58"/>
-      <c r="H148" s="206"/>
+      <c r="H148" s="205"/>
       <c r="I148" s="60"/>
       <c r="J148" s="39">
         <f t="shared" si="9"/>
@@ -28942,7 +29179,7 @@
       <c r="U148" s="49"/>
       <c r="V148" s="50"/>
     </row>
-    <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="203"/>
       <c r="B149" s="99"/>
       <c r="C149" s="197"/>
@@ -28953,7 +29190,7 @@
       </c>
       <c r="F149" s="60"/>
       <c r="G149" s="58"/>
-      <c r="H149" s="213"/>
+      <c r="H149" s="206"/>
       <c r="I149" s="60"/>
       <c r="J149" s="39">
         <f t="shared" si="9"/>
@@ -28986,7 +29223,7 @@
       </c>
       <c r="F150" s="60"/>
       <c r="G150" s="58"/>
-      <c r="H150" s="205"/>
+      <c r="H150" s="213"/>
       <c r="I150" s="60"/>
       <c r="J150" s="39">
         <f t="shared" si="9"/>
@@ -29009,7 +29246,7 @@
       <c r="V150" s="50"/>
     </row>
     <row r="151" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="214"/>
+      <c r="A151" s="203"/>
       <c r="B151" s="99"/>
       <c r="C151" s="197"/>
       <c r="D151" s="197"/>
@@ -29019,7 +29256,7 @@
       </c>
       <c r="F151" s="60"/>
       <c r="G151" s="58"/>
-      <c r="H151" s="215"/>
+      <c r="H151" s="205"/>
       <c r="I151" s="60"/>
       <c r="J151" s="39">
         <f t="shared" si="9"/>
@@ -29032,17 +29269,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O151" s="216"/>
-      <c r="P151" s="217"/>
-      <c r="Q151" s="218"/>
-      <c r="R151" s="219"/>
+      <c r="O151" s="69"/>
+      <c r="P151" s="212"/>
+      <c r="Q151" s="210"/>
+      <c r="R151" s="208"/>
       <c r="S151" s="176"/>
       <c r="T151" s="177"/>
       <c r="U151" s="49"/>
       <c r="V151" s="50"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="220"/>
+      <c r="A152" s="214"/>
       <c r="B152" s="99"/>
       <c r="C152" s="197"/>
       <c r="D152" s="197"/>
@@ -29051,8 +29288,8 @@
         <v>0</v>
       </c>
       <c r="F152" s="60"/>
-      <c r="G152" s="221"/>
-      <c r="H152" s="222"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="215"/>
       <c r="I152" s="60"/>
       <c r="J152" s="39">
         <f t="shared" si="9"/>
@@ -29065,17 +29302,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O152" s="223"/>
-      <c r="P152" s="224"/>
-      <c r="Q152" s="210"/>
-      <c r="R152" s="208"/>
+      <c r="O152" s="216"/>
+      <c r="P152" s="217"/>
+      <c r="Q152" s="218"/>
+      <c r="R152" s="219"/>
       <c r="S152" s="176"/>
       <c r="T152" s="177"/>
       <c r="U152" s="49"/>
       <c r="V152" s="50"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="204"/>
+      <c r="A153" s="220"/>
       <c r="B153" s="99"/>
       <c r="C153" s="197"/>
       <c r="D153" s="197"/>
@@ -29084,8 +29321,8 @@
         <v>0</v>
       </c>
       <c r="F153" s="60"/>
-      <c r="G153" s="224"/>
-      <c r="H153" s="215"/>
+      <c r="G153" s="221"/>
+      <c r="H153" s="222"/>
       <c r="I153" s="60"/>
       <c r="J153" s="39">
         <f t="shared" si="9"/>
@@ -29113,42 +29350,40 @@
       <c r="C154" s="197"/>
       <c r="D154" s="197"/>
       <c r="E154" s="34">
-        <f t="shared" ref="E154:E223" si="10">D154*F154</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F154" s="60"/>
       <c r="G154" s="224"/>
-      <c r="H154" s="222"/>
+      <c r="H154" s="215"/>
       <c r="I154" s="60"/>
       <c r="J154" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K154" s="225"/>
+      <c r="K154" s="81"/>
       <c r="L154" s="61"/>
-      <c r="M154" s="61" t="s">
-        <v>26</v>
-      </c>
+      <c r="M154" s="61"/>
       <c r="N154" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O154" s="216"/>
-      <c r="P154" s="217"/>
-      <c r="Q154" s="218"/>
-      <c r="R154" s="219"/>
+      <c r="O154" s="223"/>
+      <c r="P154" s="224"/>
+      <c r="Q154" s="210"/>
+      <c r="R154" s="208"/>
       <c r="S154" s="176"/>
       <c r="T154" s="177"/>
       <c r="U154" s="49"/>
       <c r="V154" s="50"/>
     </row>
     <row r="155" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="203"/>
+      <c r="A155" s="204"/>
       <c r="B155" s="99"/>
       <c r="C155" s="197"/>
       <c r="D155" s="197"/>
       <c r="E155" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E155:E224" si="10">D155*F155</f>
         <v>0</v>
       </c>
       <c r="F155" s="60"/>
@@ -29161,88 +29396,90 @@
       </c>
       <c r="K155" s="225"/>
       <c r="L155" s="61"/>
-      <c r="M155" s="61"/>
+      <c r="M155" s="61" t="s">
+        <v>26</v>
+      </c>
       <c r="N155" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O155" s="223"/>
-      <c r="P155" s="224"/>
-      <c r="Q155" s="210"/>
-      <c r="R155" s="208"/>
+      <c r="O155" s="216"/>
+      <c r="P155" s="217"/>
+      <c r="Q155" s="218"/>
+      <c r="R155" s="219"/>
       <c r="S155" s="176"/>
       <c r="T155" s="177"/>
       <c r="U155" s="49"/>
       <c r="V155" s="50"/>
     </row>
     <row r="156" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="169"/>
+      <c r="A156" s="203"/>
       <c r="B156" s="99"/>
-      <c r="C156" s="226"/>
-      <c r="D156" s="226"/>
+      <c r="C156" s="197"/>
+      <c r="D156" s="197"/>
       <c r="E156" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F156" s="60"/>
       <c r="G156" s="224"/>
-      <c r="H156" s="227"/>
+      <c r="H156" s="222"/>
       <c r="I156" s="60"/>
       <c r="J156" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K156" s="81"/>
+      <c r="K156" s="225"/>
       <c r="L156" s="61"/>
       <c r="M156" s="61"/>
       <c r="N156" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O156" s="228"/>
-      <c r="P156" s="229"/>
-      <c r="Q156" s="124"/>
-      <c r="R156" s="125"/>
+      <c r="O156" s="223"/>
+      <c r="P156" s="224"/>
+      <c r="Q156" s="210"/>
+      <c r="R156" s="208"/>
       <c r="S156" s="176"/>
       <c r="T156" s="177"/>
       <c r="U156" s="49"/>
       <c r="V156" s="50"/>
     </row>
     <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="230"/>
+      <c r="A157" s="169"/>
       <c r="B157" s="99"/>
-      <c r="C157" s="197"/>
-      <c r="D157" s="197"/>
+      <c r="C157" s="226"/>
+      <c r="D157" s="226"/>
       <c r="E157" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F157" s="60"/>
       <c r="G157" s="224"/>
-      <c r="H157" s="205"/>
+      <c r="H157" s="227"/>
       <c r="I157" s="60"/>
       <c r="J157" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K157" s="225"/>
-      <c r="L157" s="231"/>
-      <c r="M157" s="231"/>
+      <c r="K157" s="81"/>
+      <c r="L157" s="61"/>
+      <c r="M157" s="61"/>
       <c r="N157" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O157" s="228"/>
       <c r="P157" s="229"/>
-      <c r="Q157" s="218"/>
-      <c r="R157" s="219"/>
+      <c r="Q157" s="124"/>
+      <c r="R157" s="125"/>
       <c r="S157" s="176"/>
       <c r="T157" s="177"/>
       <c r="U157" s="49"/>
       <c r="V157" s="50"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="203"/>
+      <c r="A158" s="230"/>
       <c r="B158" s="99"/>
       <c r="C158" s="197"/>
       <c r="D158" s="197"/>
@@ -29265,8 +29502,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O158" s="69"/>
-      <c r="P158" s="209"/>
+      <c r="O158" s="228"/>
+      <c r="P158" s="229"/>
       <c r="Q158" s="218"/>
       <c r="R158" s="219"/>
       <c r="S158" s="176"/>
@@ -29275,7 +29512,7 @@
       <c r="V158" s="50"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="204"/>
+      <c r="A159" s="203"/>
       <c r="B159" s="99"/>
       <c r="C159" s="197"/>
       <c r="D159" s="197"/>
@@ -29285,21 +29522,21 @@
       </c>
       <c r="F159" s="60"/>
       <c r="G159" s="224"/>
-      <c r="H159" s="232"/>
+      <c r="H159" s="205"/>
       <c r="I159" s="60"/>
       <c r="J159" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K159" s="233"/>
+      <c r="K159" s="225"/>
       <c r="L159" s="231"/>
       <c r="M159" s="231"/>
       <c r="N159" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O159" s="223"/>
-      <c r="P159" s="224"/>
+      <c r="O159" s="69"/>
+      <c r="P159" s="209"/>
       <c r="Q159" s="218"/>
       <c r="R159" s="219"/>
       <c r="S159" s="176"/>
@@ -29307,7 +29544,7 @@
       <c r="U159" s="49"/>
       <c r="V159" s="50"/>
     </row>
-    <row r="160" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="204"/>
       <c r="B160" s="99"/>
       <c r="C160" s="197"/>
@@ -29318,21 +29555,21 @@
       </c>
       <c r="F160" s="60"/>
       <c r="G160" s="224"/>
-      <c r="H160" s="205"/>
+      <c r="H160" s="232"/>
       <c r="I160" s="60"/>
       <c r="J160" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K160" s="234"/>
-      <c r="L160" s="235"/>
-      <c r="M160" s="235"/>
+      <c r="K160" s="233"/>
+      <c r="L160" s="231"/>
+      <c r="M160" s="231"/>
       <c r="N160" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O160" s="216"/>
-      <c r="P160" s="217"/>
+      <c r="O160" s="223"/>
+      <c r="P160" s="224"/>
       <c r="Q160" s="218"/>
       <c r="R160" s="219"/>
       <c r="S160" s="176"/>
@@ -29340,8 +29577,8 @@
       <c r="U160" s="49"/>
       <c r="V160" s="50"/>
     </row>
-    <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="236"/>
+    <row r="161" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="204"/>
       <c r="B161" s="99"/>
       <c r="C161" s="197"/>
       <c r="D161" s="197"/>
@@ -29349,23 +29586,23 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F161" s="237"/>
+      <c r="F161" s="60"/>
       <c r="G161" s="224"/>
-      <c r="H161" s="213"/>
+      <c r="H161" s="205"/>
       <c r="I161" s="60"/>
       <c r="J161" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K161" s="234"/>
-      <c r="L161" s="238"/>
-      <c r="M161" s="238"/>
+      <c r="L161" s="235"/>
+      <c r="M161" s="235"/>
       <c r="N161" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O161" s="223"/>
-      <c r="P161" s="224"/>
+      <c r="O161" s="216"/>
+      <c r="P161" s="217"/>
       <c r="Q161" s="218"/>
       <c r="R161" s="219"/>
       <c r="S161" s="176"/>
@@ -29374,7 +29611,7 @@
       <c r="V161" s="50"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="214"/>
+      <c r="A162" s="236"/>
       <c r="B162" s="99"/>
       <c r="C162" s="197"/>
       <c r="D162" s="197"/>
@@ -29382,23 +29619,23 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F162" s="60"/>
+      <c r="F162" s="237"/>
       <c r="G162" s="224"/>
-      <c r="H162" s="205"/>
+      <c r="H162" s="213"/>
       <c r="I162" s="60"/>
       <c r="J162" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K162" s="234"/>
-      <c r="L162" s="231"/>
-      <c r="M162" s="231"/>
+      <c r="L162" s="238"/>
+      <c r="M162" s="238"/>
       <c r="N162" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O162" s="216"/>
-      <c r="P162" s="217"/>
+      <c r="O162" s="223"/>
+      <c r="P162" s="224"/>
       <c r="Q162" s="218"/>
       <c r="R162" s="219"/>
       <c r="S162" s="176"/>
@@ -29406,8 +29643,8 @@
       <c r="U162" s="49"/>
       <c r="V162" s="50"/>
     </row>
-    <row r="163" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="204"/>
+    <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="214"/>
       <c r="B163" s="99"/>
       <c r="C163" s="197"/>
       <c r="D163" s="197"/>
@@ -29417,13 +29654,13 @@
       </c>
       <c r="F163" s="60"/>
       <c r="G163" s="224"/>
-      <c r="H163" s="239"/>
+      <c r="H163" s="205"/>
       <c r="I163" s="60"/>
       <c r="J163" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K163" s="81"/>
+      <c r="K163" s="234"/>
       <c r="L163" s="231"/>
       <c r="M163" s="231"/>
       <c r="N163" s="42">
@@ -29439,7 +29676,7 @@
       <c r="U163" s="49"/>
       <c r="V163" s="50"/>
     </row>
-    <row r="164" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="204"/>
       <c r="B164" s="99"/>
       <c r="C164" s="197"/>
@@ -29450,13 +29687,13 @@
       </c>
       <c r="F164" s="60"/>
       <c r="G164" s="224"/>
-      <c r="H164" s="215"/>
+      <c r="H164" s="239"/>
       <c r="I164" s="60"/>
       <c r="J164" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K164" s="234"/>
+      <c r="K164" s="81"/>
       <c r="L164" s="231"/>
       <c r="M164" s="231"/>
       <c r="N164" s="42">
@@ -29483,7 +29720,7 @@
       </c>
       <c r="F165" s="60"/>
       <c r="G165" s="224"/>
-      <c r="H165" s="175"/>
+      <c r="H165" s="215"/>
       <c r="I165" s="60"/>
       <c r="J165" s="39">
         <f t="shared" si="9"/>
@@ -29516,15 +29753,15 @@
       </c>
       <c r="F166" s="60"/>
       <c r="G166" s="224"/>
-      <c r="H166" s="240"/>
+      <c r="H166" s="175"/>
       <c r="I166" s="60"/>
       <c r="J166" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K166" s="234"/>
-      <c r="L166" s="241"/>
-      <c r="M166" s="241"/>
+      <c r="L166" s="231"/>
+      <c r="M166" s="231"/>
       <c r="N166" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29549,7 +29786,7 @@
       </c>
       <c r="F167" s="60"/>
       <c r="G167" s="224"/>
-      <c r="H167" s="175"/>
+      <c r="H167" s="240"/>
       <c r="I167" s="60"/>
       <c r="J167" s="39">
         <f t="shared" si="9"/>
@@ -29621,9 +29858,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K169" s="81"/>
-      <c r="L169" s="61"/>
-      <c r="M169" s="61"/>
+      <c r="K169" s="234"/>
+      <c r="L169" s="241"/>
+      <c r="M169" s="241"/>
       <c r="N169" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -29640,8 +29877,8 @@
     <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="204"/>
       <c r="B170" s="99"/>
-      <c r="C170" s="242"/>
-      <c r="D170" s="242"/>
+      <c r="C170" s="197"/>
+      <c r="D170" s="197"/>
       <c r="E170" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -29661,10 +29898,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O170" s="223"/>
-      <c r="P170" s="243"/>
-      <c r="Q170" s="124"/>
-      <c r="R170" s="125"/>
+      <c r="O170" s="216"/>
+      <c r="P170" s="217"/>
+      <c r="Q170" s="218"/>
+      <c r="R170" s="219"/>
       <c r="S170" s="176"/>
       <c r="T170" s="177"/>
       <c r="U170" s="49"/>
@@ -29704,17 +29941,17 @@
       <c r="V171" s="50"/>
     </row>
     <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="101"/>
+      <c r="A172" s="204"/>
       <c r="B172" s="99"/>
-      <c r="C172" s="226"/>
-      <c r="D172" s="226"/>
+      <c r="C172" s="242"/>
+      <c r="D172" s="242"/>
       <c r="E172" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F172" s="60"/>
       <c r="G172" s="224"/>
-      <c r="H172" s="227"/>
+      <c r="H172" s="175"/>
       <c r="I172" s="60"/>
       <c r="J172" s="39">
         <f t="shared" si="9"/>
@@ -29727,8 +29964,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O172" s="69"/>
-      <c r="P172" s="209"/>
+      <c r="O172" s="223"/>
+      <c r="P172" s="243"/>
       <c r="Q172" s="124"/>
       <c r="R172" s="125"/>
       <c r="S172" s="176"/>
@@ -29737,17 +29974,17 @@
       <c r="V172" s="50"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="204"/>
+      <c r="A173" s="101"/>
       <c r="B173" s="99"/>
-      <c r="C173" s="244"/>
-      <c r="D173" s="244"/>
+      <c r="C173" s="226"/>
+      <c r="D173" s="226"/>
       <c r="E173" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F173" s="60"/>
       <c r="G173" s="224"/>
-      <c r="H173" s="59"/>
+      <c r="H173" s="227"/>
       <c r="I173" s="60"/>
       <c r="J173" s="39">
         <f t="shared" si="9"/>
@@ -29770,17 +30007,17 @@
       <c r="V173" s="50"/>
     </row>
     <row r="174" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="169"/>
+      <c r="A174" s="204"/>
       <c r="B174" s="99"/>
-      <c r="C174" s="226"/>
-      <c r="D174" s="226"/>
+      <c r="C174" s="244"/>
+      <c r="D174" s="244"/>
       <c r="E174" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F174" s="60"/>
       <c r="G174" s="224"/>
-      <c r="H174" s="227"/>
+      <c r="H174" s="59"/>
       <c r="I174" s="60"/>
       <c r="J174" s="39">
         <f t="shared" si="9"/>
@@ -29802,11 +30039,11 @@
       <c r="U174" s="49"/>
       <c r="V174" s="50"/>
     </row>
-    <row r="175" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="245"/>
-      <c r="B175" s="246"/>
-      <c r="C175" s="181"/>
-      <c r="D175" s="181"/>
+    <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="169"/>
+      <c r="B175" s="99"/>
+      <c r="C175" s="226"/>
+      <c r="D175" s="226"/>
       <c r="E175" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -29826,8 +30063,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O175" s="228"/>
-      <c r="P175" s="229"/>
+      <c r="O175" s="69"/>
+      <c r="P175" s="209"/>
       <c r="Q175" s="124"/>
       <c r="R175" s="125"/>
       <c r="S175" s="176"/>
@@ -29835,11 +30072,11 @@
       <c r="U175" s="49"/>
       <c r="V175" s="50"/>
     </row>
-    <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="169"/>
-      <c r="B176" s="99"/>
-      <c r="C176" s="247"/>
-      <c r="D176" s="247"/>
+    <row r="176" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="245"/>
+      <c r="B176" s="246"/>
+      <c r="C176" s="181"/>
+      <c r="D176" s="181"/>
       <c r="E176" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -29859,8 +30096,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O176" s="69"/>
-      <c r="P176" s="209"/>
+      <c r="O176" s="228"/>
+      <c r="P176" s="229"/>
       <c r="Q176" s="124"/>
       <c r="R176" s="125"/>
       <c r="S176" s="176"/>
@@ -29902,10 +30139,10 @@
       <c r="V177" s="50"/>
     </row>
     <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="248"/>
+      <c r="A178" s="169"/>
       <c r="B178" s="99"/>
-      <c r="C178" s="249"/>
-      <c r="D178" s="249"/>
+      <c r="C178" s="247"/>
+      <c r="D178" s="247"/>
       <c r="E178" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -29935,16 +30172,16 @@
       <c r="V178" s="50"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="169"/>
+      <c r="A179" s="248"/>
       <c r="B179" s="99"/>
-      <c r="C179" s="250"/>
-      <c r="D179" s="250"/>
+      <c r="C179" s="249"/>
+      <c r="D179" s="249"/>
       <c r="E179" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F179" s="60"/>
-      <c r="G179" s="251"/>
+      <c r="G179" s="224"/>
       <c r="H179" s="227"/>
       <c r="I179" s="60"/>
       <c r="J179" s="39">
@@ -29958,8 +30195,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O179" s="62"/>
-      <c r="P179" s="252"/>
+      <c r="O179" s="69"/>
+      <c r="P179" s="209"/>
       <c r="Q179" s="124"/>
       <c r="R179" s="125"/>
       <c r="S179" s="176"/>
@@ -29977,7 +30214,7 @@
         <v>0</v>
       </c>
       <c r="F180" s="60"/>
-      <c r="G180" s="58"/>
+      <c r="G180" s="251"/>
       <c r="H180" s="227"/>
       <c r="I180" s="60"/>
       <c r="J180" s="39">
@@ -30000,41 +30237,44 @@
       <c r="U180" s="49"/>
       <c r="V180" s="50"/>
     </row>
-    <row r="181" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="169"/>
-      <c r="B181" s="203"/>
-      <c r="C181" s="253"/>
-      <c r="D181" s="253"/>
+      <c r="B181" s="99"/>
+      <c r="C181" s="250"/>
+      <c r="D181" s="250"/>
       <c r="E181" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F181" s="254"/>
-      <c r="G181" s="224"/>
-      <c r="H181" s="255"/>
-      <c r="I181" s="254"/>
+      <c r="F181" s="60"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="227"/>
+      <c r="I181" s="60"/>
       <c r="J181" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="K181" s="81"/>
+      <c r="L181" s="61"/>
+      <c r="M181" s="61"/>
       <c r="N181" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O181" s="257"/>
-      <c r="P181" s="243"/>
-      <c r="Q181" s="258"/>
-      <c r="R181" s="259"/>
-      <c r="S181" s="260"/>
-      <c r="T181" s="261"/>
-      <c r="U181" s="262"/>
-      <c r="V181" s="263"/>
-    </row>
-    <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O181" s="62"/>
+      <c r="P181" s="252"/>
+      <c r="Q181" s="124"/>
+      <c r="R181" s="125"/>
+      <c r="S181" s="176"/>
+      <c r="T181" s="177"/>
+      <c r="U181" s="49"/>
+      <c r="V181" s="50"/>
+    </row>
+    <row r="182" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="169"/>
-      <c r="B182" s="99"/>
-      <c r="C182" s="249"/>
-      <c r="D182" s="249"/>
+      <c r="B182" s="203"/>
+      <c r="C182" s="253"/>
+      <c r="D182" s="253"/>
       <c r="E182" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -30069,29 +30309,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F183" s="60"/>
+      <c r="F183" s="254"/>
       <c r="G183" s="224"/>
-      <c r="H183" s="227"/>
-      <c r="I183" s="60"/>
+      <c r="H183" s="255"/>
+      <c r="I183" s="254"/>
       <c r="J183" s="39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K183" s="81"/>
-      <c r="L183" s="61"/>
-      <c r="M183" s="61"/>
       <c r="N183" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O183" s="69"/>
-      <c r="P183" s="209"/>
-      <c r="Q183" s="124"/>
-      <c r="R183" s="125"/>
-      <c r="S183" s="176"/>
-      <c r="T183" s="177"/>
-      <c r="U183" s="49"/>
-      <c r="V183" s="50"/>
+      <c r="O183" s="257"/>
+      <c r="P183" s="243"/>
+      <c r="Q183" s="258"/>
+      <c r="R183" s="259"/>
+      <c r="S183" s="260"/>
+      <c r="T183" s="261"/>
+      <c r="U183" s="262"/>
+      <c r="V183" s="263"/>
     </row>
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="169"/>
@@ -30129,14 +30366,14 @@
     <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="169"/>
       <c r="B185" s="99"/>
-      <c r="C185" s="264"/>
-      <c r="D185" s="264"/>
+      <c r="C185" s="249"/>
+      <c r="D185" s="249"/>
       <c r="E185" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F185" s="60"/>
-      <c r="G185" s="251"/>
+      <c r="G185" s="224"/>
       <c r="H185" s="227"/>
       <c r="I185" s="60"/>
       <c r="J185" s="39">
@@ -30147,7 +30384,7 @@
       <c r="L185" s="61"/>
       <c r="M185" s="61"/>
       <c r="N185" s="42">
-        <f t="shared" ref="N185:N248" si="11">K185*I185</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O185" s="69"/>
@@ -30180,7 +30417,7 @@
       <c r="L186" s="61"/>
       <c r="M186" s="61"/>
       <c r="N186" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N186:N249" si="11">K186*I186</f>
         <v>0</v>
       </c>
       <c r="O186" s="69"/>
@@ -30225,11 +30462,11 @@
       <c r="U187" s="49"/>
       <c r="V187" s="50"/>
     </row>
-    <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="169"/>
-      <c r="B188" s="203"/>
-      <c r="C188" s="265"/>
-      <c r="D188" s="265"/>
+      <c r="B188" s="99"/>
+      <c r="C188" s="264"/>
+      <c r="D188" s="264"/>
       <c r="E188" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -30258,11 +30495,11 @@
       <c r="U188" s="49"/>
       <c r="V188" s="50"/>
     </row>
-    <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="169"/>
-      <c r="B189" s="99"/>
-      <c r="C189" s="264"/>
-      <c r="D189" s="264"/>
+      <c r="B189" s="203"/>
+      <c r="C189" s="265"/>
+      <c r="D189" s="265"/>
       <c r="E189" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -30294,14 +30531,14 @@
     <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="169"/>
       <c r="B190" s="99"/>
-      <c r="C190" s="244"/>
-      <c r="D190" s="244"/>
+      <c r="C190" s="264"/>
+      <c r="D190" s="264"/>
       <c r="E190" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F190" s="60"/>
-      <c r="G190" s="224"/>
+      <c r="G190" s="251"/>
       <c r="H190" s="227"/>
       <c r="I190" s="60"/>
       <c r="J190" s="39">
@@ -30338,7 +30575,7 @@
       <c r="H191" s="227"/>
       <c r="I191" s="60"/>
       <c r="J191" s="39">
-        <f t="shared" ref="J191:J254" si="12">I191-F191</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K191" s="81"/>
@@ -30371,7 +30608,7 @@
       <c r="H192" s="227"/>
       <c r="I192" s="60"/>
       <c r="J192" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J192:J255" si="12">I192-F192</f>
         <v>0</v>
       </c>
       <c r="K192" s="81"/>
@@ -30423,11 +30660,11 @@
       <c r="U193" s="49"/>
       <c r="V193" s="50"/>
     </row>
-    <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="248"/>
-      <c r="B194" s="203"/>
-      <c r="C194" s="249"/>
-      <c r="D194" s="249"/>
+    <row r="194" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="169"/>
+      <c r="B194" s="99"/>
+      <c r="C194" s="244"/>
+      <c r="D194" s="244"/>
       <c r="E194" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -30456,17 +30693,17 @@
       <c r="U194" s="49"/>
       <c r="V194" s="50"/>
     </row>
-    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="266"/>
-      <c r="B195" s="99"/>
-      <c r="C195" s="250"/>
-      <c r="D195" s="250"/>
+    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="248"/>
+      <c r="B195" s="203"/>
+      <c r="C195" s="249"/>
+      <c r="D195" s="249"/>
       <c r="E195" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F195" s="60"/>
-      <c r="G195" s="58"/>
+      <c r="G195" s="224"/>
       <c r="H195" s="227"/>
       <c r="I195" s="60"/>
       <c r="J195" s="39">
@@ -30480,8 +30717,8 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O195" s="62"/>
-      <c r="P195" s="252"/>
+      <c r="O195" s="69"/>
+      <c r="P195" s="209"/>
       <c r="Q195" s="124"/>
       <c r="R195" s="125"/>
       <c r="S195" s="176"/>
@@ -30489,17 +30726,17 @@
       <c r="U195" s="49"/>
       <c r="V195" s="50"/>
     </row>
-    <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="169"/>
-      <c r="B196" s="203"/>
-      <c r="C196" s="267"/>
-      <c r="D196" s="267"/>
+    <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="266"/>
+      <c r="B196" s="99"/>
+      <c r="C196" s="250"/>
+      <c r="D196" s="250"/>
       <c r="E196" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F196" s="60"/>
-      <c r="G196" s="224"/>
+      <c r="G196" s="58"/>
       <c r="H196" s="227"/>
       <c r="I196" s="60"/>
       <c r="J196" s="39">
@@ -30513,8 +30750,8 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O196" s="69"/>
-      <c r="P196" s="209"/>
+      <c r="O196" s="62"/>
+      <c r="P196" s="252"/>
       <c r="Q196" s="124"/>
       <c r="R196" s="125"/>
       <c r="S196" s="176"/>
@@ -30597,8 +30834,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F199" s="268"/>
-      <c r="G199" s="251"/>
+      <c r="F199" s="60"/>
+      <c r="G199" s="224"/>
       <c r="H199" s="227"/>
       <c r="I199" s="60"/>
       <c r="J199" s="39">
@@ -30828,7 +31065,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F206" s="60"/>
+      <c r="F206" s="268"/>
       <c r="G206" s="251"/>
       <c r="H206" s="227"/>
       <c r="I206" s="60"/>
@@ -30855,14 +31092,14 @@
     <row r="207" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="169"/>
       <c r="B207" s="203"/>
-      <c r="C207" s="244"/>
-      <c r="D207" s="244"/>
+      <c r="C207" s="267"/>
+      <c r="D207" s="267"/>
       <c r="E207" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F207" s="60"/>
-      <c r="G207" s="224"/>
+      <c r="G207" s="251"/>
       <c r="H207" s="227"/>
       <c r="I207" s="60"/>
       <c r="J207" s="39">
@@ -31116,9 +31353,9 @@
       <c r="U214" s="49"/>
       <c r="V214" s="50"/>
     </row>
-    <row r="215" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="203"/>
-      <c r="B215" s="253"/>
+    <row r="215" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="169"/>
+      <c r="B215" s="203"/>
       <c r="C215" s="244"/>
       <c r="D215" s="244"/>
       <c r="E215" s="34">
@@ -31126,8 +31363,8 @@
         <v>0</v>
       </c>
       <c r="F215" s="60"/>
-      <c r="G215" s="58"/>
-      <c r="H215" s="59"/>
+      <c r="G215" s="224"/>
+      <c r="H215" s="227"/>
       <c r="I215" s="60"/>
       <c r="J215" s="39">
         <f t="shared" si="12"/>
@@ -31149,9 +31386,9 @@
       <c r="U215" s="49"/>
       <c r="V215" s="50"/>
     </row>
-    <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="266"/>
-      <c r="B216" s="203"/>
+    <row r="216" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="203"/>
+      <c r="B216" s="253"/>
       <c r="C216" s="244"/>
       <c r="D216" s="244"/>
       <c r="E216" s="34">
@@ -31159,8 +31396,8 @@
         <v>0</v>
       </c>
       <c r="F216" s="60"/>
-      <c r="G216" s="224"/>
-      <c r="H216" s="227"/>
+      <c r="G216" s="58"/>
+      <c r="H216" s="59"/>
       <c r="I216" s="60"/>
       <c r="J216" s="39">
         <f t="shared" si="12"/>
@@ -31282,7 +31519,7 @@
       <c r="V219" s="50"/>
     </row>
     <row r="220" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="269"/>
+      <c r="A220" s="266"/>
       <c r="B220" s="203"/>
       <c r="C220" s="244"/>
       <c r="D220" s="244"/>
@@ -31315,7 +31552,7 @@
       <c r="V220" s="50"/>
     </row>
     <row r="221" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="169"/>
+      <c r="A221" s="269"/>
       <c r="B221" s="203"/>
       <c r="C221" s="244"/>
       <c r="D221" s="244"/>
@@ -31419,7 +31656,7 @@
       <c r="C224" s="244"/>
       <c r="D224" s="244"/>
       <c r="E224" s="34">
-        <f t="shared" ref="E224:E268" si="13">D224*F224</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F224" s="60"/>
@@ -31452,7 +31689,7 @@
       <c r="C225" s="244"/>
       <c r="D225" s="244"/>
       <c r="E225" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E225:E269" si="13">D225*F225</f>
         <v>0</v>
       </c>
       <c r="F225" s="60"/>
@@ -31614,8 +31851,8 @@
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="169"/>
       <c r="B230" s="203"/>
-      <c r="C230" s="270"/>
-      <c r="D230" s="270"/>
+      <c r="C230" s="244"/>
+      <c r="D230" s="244"/>
       <c r="E230" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31647,8 +31884,8 @@
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="169"/>
       <c r="B231" s="203"/>
-      <c r="C231" s="244"/>
-      <c r="D231" s="244"/>
+      <c r="C231" s="270"/>
+      <c r="D231" s="270"/>
       <c r="E231" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31680,8 +31917,8 @@
     <row r="232" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="169"/>
       <c r="B232" s="203"/>
-      <c r="C232" s="264"/>
-      <c r="D232" s="264"/>
+      <c r="C232" s="244"/>
+      <c r="D232" s="244"/>
       <c r="E232" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31713,8 +31950,8 @@
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="169"/>
       <c r="B233" s="203"/>
-      <c r="C233" s="265"/>
-      <c r="D233" s="265"/>
+      <c r="C233" s="264"/>
+      <c r="D233" s="264"/>
       <c r="E233" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31779,8 +32016,8 @@
     <row r="235" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="169"/>
       <c r="B235" s="203"/>
-      <c r="C235" s="264"/>
-      <c r="D235" s="264"/>
+      <c r="C235" s="265"/>
+      <c r="D235" s="265"/>
       <c r="E235" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31812,8 +32049,8 @@
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="169"/>
       <c r="B236" s="203"/>
-      <c r="C236" s="249"/>
-      <c r="D236" s="249"/>
+      <c r="C236" s="264"/>
+      <c r="D236" s="264"/>
       <c r="E236" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31845,8 +32082,8 @@
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="169"/>
       <c r="B237" s="203"/>
-      <c r="C237" s="197"/>
-      <c r="D237" s="197"/>
+      <c r="C237" s="249"/>
+      <c r="D237" s="249"/>
       <c r="E237" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31876,10 +32113,10 @@
       <c r="V237" s="50"/>
     </row>
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="204"/>
+      <c r="A238" s="169"/>
       <c r="B238" s="203"/>
-      <c r="C238" s="226"/>
-      <c r="D238" s="226"/>
+      <c r="C238" s="197"/>
+      <c r="D238" s="197"/>
       <c r="E238" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -31909,7 +32146,7 @@
       <c r="V238" s="50"/>
     </row>
     <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="169"/>
+      <c r="A239" s="204"/>
       <c r="B239" s="203"/>
       <c r="C239" s="226"/>
       <c r="D239" s="226"/>
@@ -31975,8 +32212,8 @@
       <c r="V240" s="50"/>
     </row>
     <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="271"/>
-      <c r="B241" s="272"/>
+      <c r="A241" s="169"/>
+      <c r="B241" s="203"/>
       <c r="C241" s="226"/>
       <c r="D241" s="226"/>
       <c r="E241" s="34">
@@ -32007,8 +32244,8 @@
       <c r="U241" s="49"/>
       <c r="V241" s="50"/>
     </row>
-    <row r="242" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="204"/>
+    <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="271"/>
       <c r="B242" s="272"/>
       <c r="C242" s="226"/>
       <c r="D242" s="226"/>
@@ -32018,7 +32255,7 @@
       </c>
       <c r="F242" s="60"/>
       <c r="G242" s="224"/>
-      <c r="H242" s="59"/>
+      <c r="H242" s="227"/>
       <c r="I242" s="60"/>
       <c r="J242" s="39">
         <f t="shared" si="12"/>
@@ -32040,7 +32277,7 @@
       <c r="U242" s="49"/>
       <c r="V242" s="50"/>
     </row>
-    <row r="243" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="204"/>
       <c r="B243" s="272"/>
       <c r="C243" s="226"/>
@@ -32051,7 +32288,7 @@
       </c>
       <c r="F243" s="60"/>
       <c r="G243" s="224"/>
-      <c r="H243" s="227"/>
+      <c r="H243" s="59"/>
       <c r="I243" s="60"/>
       <c r="J243" s="39">
         <f t="shared" si="12"/>
@@ -32074,10 +32311,10 @@
       <c r="V243" s="50"/>
     </row>
     <row r="244" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="169"/>
+      <c r="A244" s="204"/>
       <c r="B244" s="272"/>
-      <c r="C244" s="181"/>
-      <c r="D244" s="181"/>
+      <c r="C244" s="226"/>
+      <c r="D244" s="226"/>
       <c r="E244" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -32139,18 +32376,18 @@
       <c r="U245" s="49"/>
       <c r="V245" s="50"/>
     </row>
-    <row r="246" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="204"/>
+    <row r="246" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="169"/>
       <c r="B246" s="272"/>
-      <c r="C246" s="242"/>
-      <c r="D246" s="242"/>
+      <c r="C246" s="181"/>
+      <c r="D246" s="181"/>
       <c r="E246" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F246" s="60"/>
       <c r="G246" s="224"/>
-      <c r="H246" s="175"/>
+      <c r="H246" s="227"/>
       <c r="I246" s="60"/>
       <c r="J246" s="39">
         <f t="shared" si="12"/>
@@ -32163,8 +32400,8 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O246" s="223"/>
-      <c r="P246" s="243"/>
+      <c r="O246" s="69"/>
+      <c r="P246" s="209"/>
       <c r="Q246" s="124"/>
       <c r="R246" s="125"/>
       <c r="S246" s="176"/>
@@ -32175,8 +32412,8 @@
     <row r="247" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="204"/>
       <c r="B247" s="272"/>
-      <c r="C247" s="187"/>
-      <c r="D247" s="187"/>
+      <c r="C247" s="242"/>
+      <c r="D247" s="242"/>
       <c r="E247" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -32190,8 +32427,8 @@
         <v>0</v>
       </c>
       <c r="K247" s="81"/>
-      <c r="L247" s="273"/>
-      <c r="M247" s="274"/>
+      <c r="L247" s="61"/>
+      <c r="M247" s="61"/>
       <c r="N247" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -32207,17 +32444,17 @@
     </row>
     <row r="248" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="204"/>
-      <c r="B248" s="275"/>
-      <c r="C248" s="182"/>
-      <c r="D248" s="182"/>
+      <c r="B248" s="272"/>
+      <c r="C248" s="187"/>
+      <c r="D248" s="187"/>
       <c r="E248" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F248" s="182"/>
-      <c r="G248" s="276"/>
-      <c r="H248" s="277"/>
-      <c r="I248" s="57"/>
+      <c r="F248" s="60"/>
+      <c r="G248" s="224"/>
+      <c r="H248" s="175"/>
+      <c r="I248" s="60"/>
       <c r="J248" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -32259,7 +32496,7 @@
       <c r="L249" s="273"/>
       <c r="M249" s="274"/>
       <c r="N249" s="42">
-        <f t="shared" ref="N249:N268" si="14">K249*I249</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O249" s="223"/>
@@ -32273,7 +32510,7 @@
     </row>
     <row r="250" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="204"/>
-      <c r="B250" s="278"/>
+      <c r="B250" s="275"/>
       <c r="C250" s="182"/>
       <c r="D250" s="182"/>
       <c r="E250" s="34">
@@ -32292,11 +32529,11 @@
       <c r="L250" s="273"/>
       <c r="M250" s="274"/>
       <c r="N250" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O250" s="69"/>
-      <c r="P250" s="212"/>
+        <f t="shared" ref="N250:N269" si="14">K250*I250</f>
+        <v>0</v>
+      </c>
+      <c r="O250" s="223"/>
+      <c r="P250" s="243"/>
       <c r="Q250" s="124"/>
       <c r="R250" s="125"/>
       <c r="S250" s="176"/>
@@ -32370,32 +32607,32 @@
       <c r="U252" s="49"/>
       <c r="V252" s="50"/>
     </row>
-    <row r="253" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="204"/>
-      <c r="B253" s="203"/>
-      <c r="C253" s="279"/>
-      <c r="D253" s="280"/>
+      <c r="B253" s="278"/>
+      <c r="C253" s="182"/>
+      <c r="D253" s="182"/>
       <c r="E253" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F253" s="38"/>
-      <c r="G253" s="281"/>
-      <c r="H253" s="282"/>
-      <c r="I253" s="60"/>
+      <c r="F253" s="182"/>
+      <c r="G253" s="276"/>
+      <c r="H253" s="277"/>
+      <c r="I253" s="57"/>
       <c r="J253" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K253" s="81"/>
       <c r="L253" s="273"/>
-      <c r="M253" s="283"/>
+      <c r="M253" s="274"/>
       <c r="N253" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O253" s="223"/>
-      <c r="P253" s="243"/>
+      <c r="O253" s="69"/>
+      <c r="P253" s="212"/>
       <c r="Q253" s="124"/>
       <c r="R253" s="125"/>
       <c r="S253" s="176"/>
@@ -32407,14 +32644,14 @@
       <c r="A254" s="204"/>
       <c r="B254" s="203"/>
       <c r="C254" s="279"/>
-      <c r="D254" s="279"/>
+      <c r="D254" s="280"/>
       <c r="E254" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F254" s="60"/>
-      <c r="G254" s="224"/>
-      <c r="H254" s="175"/>
+      <c r="F254" s="38"/>
+      <c r="G254" s="281"/>
+      <c r="H254" s="282"/>
       <c r="I254" s="60"/>
       <c r="J254" s="39">
         <f t="shared" si="12"/>
@@ -32450,7 +32687,7 @@
       <c r="H255" s="175"/>
       <c r="I255" s="60"/>
       <c r="J255" s="39">
-        <f t="shared" ref="J255:J264" si="15">I255-F255</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K255" s="81"/>
@@ -32472,8 +32709,8 @@
     <row r="256" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="204"/>
       <c r="B256" s="203"/>
-      <c r="C256" s="284"/>
-      <c r="D256" s="284"/>
+      <c r="C256" s="279"/>
+      <c r="D256" s="279"/>
       <c r="E256" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -32483,7 +32720,7 @@
       <c r="H256" s="175"/>
       <c r="I256" s="60"/>
       <c r="J256" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J256:J265" si="15">I256-F256</f>
         <v>0</v>
       </c>
       <c r="K256" s="81"/>
@@ -32502,40 +32739,38 @@
       <c r="U256" s="49"/>
       <c r="V256" s="50"/>
     </row>
-    <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="285"/>
+    <row r="257" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="204"/>
       <c r="B257" s="203"/>
-      <c r="C257" s="203"/>
-      <c r="D257" s="203"/>
+      <c r="C257" s="284"/>
+      <c r="D257" s="284"/>
       <c r="E257" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F257" s="254"/>
+      <c r="F257" s="60"/>
       <c r="G257" s="224"/>
-      <c r="H257" s="255"/>
-      <c r="I257" s="254">
-        <v>0</v>
-      </c>
+      <c r="H257" s="175"/>
+      <c r="I257" s="60"/>
       <c r="J257" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K257" s="286"/>
-      <c r="L257" s="286"/>
-      <c r="M257" s="286"/>
+      <c r="K257" s="81"/>
+      <c r="L257" s="273"/>
+      <c r="M257" s="283"/>
       <c r="N257" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O257" s="287"/>
+      <c r="O257" s="223"/>
       <c r="P257" s="243"/>
       <c r="Q257" s="124"/>
-      <c r="R257" s="288"/>
-      <c r="S257" s="289"/>
-      <c r="T257" s="290"/>
-      <c r="U257" s="259"/>
-      <c r="V257" s="263"/>
+      <c r="R257" s="125"/>
+      <c r="S257" s="176"/>
+      <c r="T257" s="177"/>
+      <c r="U257" s="49"/>
+      <c r="V257" s="50"/>
     </row>
     <row r="258" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="285"/>
@@ -32618,7 +32853,7 @@
       </c>
       <c r="F260" s="254"/>
       <c r="G260" s="224"/>
-      <c r="H260" s="291"/>
+      <c r="H260" s="255"/>
       <c r="I260" s="254">
         <v>0</v>
       </c>
@@ -32643,7 +32878,7 @@
       <c r="V260" s="263"/>
     </row>
     <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="292"/>
+      <c r="A261" s="285"/>
       <c r="B261" s="203"/>
       <c r="C261" s="203"/>
       <c r="D261" s="203"/>
@@ -32653,7 +32888,7 @@
       </c>
       <c r="F261" s="254"/>
       <c r="G261" s="224"/>
-      <c r="H261" s="293"/>
+      <c r="H261" s="291"/>
       <c r="I261" s="254">
         <v>0</v>
       </c>
@@ -32674,34 +32909,38 @@
       <c r="R261" s="288"/>
       <c r="S261" s="289"/>
       <c r="T261" s="290"/>
-      <c r="U261" s="49"/>
-      <c r="V261" s="50"/>
+      <c r="U261" s="259"/>
+      <c r="V261" s="263"/>
     </row>
     <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="294"/>
-      <c r="B262" s="295"/>
+      <c r="A262" s="292"/>
+      <c r="B262" s="203"/>
+      <c r="C262" s="203"/>
+      <c r="D262" s="203"/>
       <c r="E262" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H262" s="299"/>
-      <c r="I262" s="297">
+      <c r="F262" s="254"/>
+      <c r="G262" s="224"/>
+      <c r="H262" s="293"/>
+      <c r="I262" s="254">
         <v>0</v>
       </c>
       <c r="J262" s="39">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K262" s="300"/>
-      <c r="L262" s="300"/>
-      <c r="M262" s="300"/>
+      <c r="K262" s="286"/>
+      <c r="L262" s="286"/>
+      <c r="M262" s="286"/>
       <c r="N262" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O262" s="287"/>
       <c r="P262" s="243"/>
-      <c r="Q262" s="258"/>
+      <c r="Q262" s="124"/>
       <c r="R262" s="288"/>
       <c r="S262" s="289"/>
       <c r="T262" s="290"/>
@@ -32715,6 +32954,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="H263" s="299"/>
       <c r="I263" s="297">
         <v>0</v>
       </c>
@@ -32745,7 +32985,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I264" s="302">
+      <c r="I264" s="297">
         <v>0</v>
       </c>
       <c r="J264" s="39">
@@ -32768,25 +33008,22 @@
       <c r="U264" s="49"/>
       <c r="V264" s="50"/>
     </row>
-    <row r="265" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="294"/>
       <c r="B265" s="295"/>
-      <c r="E265" s="34" t="e">
+      <c r="E265" s="34">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F265" s="428" t="s">
-        <v>27</v>
-      </c>
-      <c r="G265" s="428"/>
-      <c r="H265" s="429"/>
-      <c r="I265" s="303">
-        <f>SUM(I4:I264)</f>
-        <v>327138.35000000003</v>
-      </c>
-      <c r="J265" s="304"/>
+        <v>0</v>
+      </c>
+      <c r="I265" s="302">
+        <v>0</v>
+      </c>
+      <c r="J265" s="39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="K265" s="300"/>
-      <c r="L265" s="305"/>
+      <c r="L265" s="300"/>
       <c r="M265" s="300"/>
       <c r="N265" s="42">
         <f t="shared" si="14"/>
@@ -32796,19 +33033,27 @@
       <c r="P265" s="243"/>
       <c r="Q265" s="258"/>
       <c r="R265" s="288"/>
-      <c r="S265" s="306"/>
-      <c r="T265" s="261"/>
-      <c r="U265" s="262"/>
+      <c r="S265" s="289"/>
+      <c r="T265" s="290"/>
+      <c r="U265" s="49"/>
       <c r="V265" s="50"/>
     </row>
-    <row r="266" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="307"/>
+    <row r="266" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="294"/>
       <c r="B266" s="295"/>
-      <c r="E266" s="34">
+      <c r="E266" s="34" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I266" s="308"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F266" s="433" t="s">
+        <v>27</v>
+      </c>
+      <c r="G266" s="433"/>
+      <c r="H266" s="434"/>
+      <c r="I266" s="303">
+        <f>SUM(I4:I265)</f>
+        <v>359007.028689</v>
+      </c>
       <c r="J266" s="304"/>
       <c r="K266" s="300"/>
       <c r="L266" s="305"/>
@@ -32817,23 +33062,26 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O266" s="309"/>
-      <c r="Q266" s="6"/>
-      <c r="R266" s="310"/>
-      <c r="S266" s="311"/>
-      <c r="T266" s="312"/>
-      <c r="V266" s="9"/>
-    </row>
-    <row r="267" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="294"/>
+      <c r="O266" s="287"/>
+      <c r="P266" s="243"/>
+      <c r="Q266" s="258"/>
+      <c r="R266" s="288"/>
+      <c r="S266" s="306"/>
+      <c r="T266" s="261"/>
+      <c r="U266" s="262"/>
+      <c r="V266" s="50"/>
+    </row>
+    <row r="267" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="307"/>
       <c r="B267" s="295"/>
       <c r="E267" s="34">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J267" s="297"/>
+      <c r="I267" s="308"/>
+      <c r="J267" s="304"/>
       <c r="K267" s="300"/>
-      <c r="L267" s="300"/>
+      <c r="L267" s="305"/>
       <c r="M267" s="300"/>
       <c r="N267" s="42">
         <f t="shared" si="14"/>
@@ -32854,68 +33102,75 @@
         <v>0</v>
       </c>
       <c r="J268" s="297"/>
-      <c r="K268" s="314"/>
+      <c r="K268" s="300"/>
+      <c r="L268" s="300"/>
+      <c r="M268" s="300"/>
       <c r="N268" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O268" s="315"/>
+      <c r="O268" s="309"/>
       <c r="Q268" s="6"/>
       <c r="R268" s="310"/>
       <c r="S268" s="311"/>
-      <c r="T268" s="316"/>
+      <c r="T268" s="312"/>
       <c r="V268" s="9"/>
     </row>
     <row r="269" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="294"/>
-      <c r="H269" s="318"/>
-      <c r="I269" s="319" t="s">
-        <v>28</v>
-      </c>
-      <c r="J269" s="320"/>
-      <c r="K269" s="320"/>
-      <c r="L269" s="321">
-        <f>SUM(L257:L268)</f>
-        <v>0</v>
-      </c>
-      <c r="M269" s="322"/>
-      <c r="N269" s="323">
-        <f>SUM(N4:N268)</f>
-        <v>10856355.700000001</v>
-      </c>
-      <c r="O269" s="324"/>
-      <c r="Q269" s="325">
-        <f>SUM(Q4:Q268)</f>
-        <v>0</v>
-      </c>
-      <c r="R269" s="256"/>
-      <c r="S269" s="326">
-        <f>SUM(S19:S268)</f>
-        <v>0</v>
-      </c>
-      <c r="T269" s="327"/>
-      <c r="U269" s="328"/>
-      <c r="V269" s="329">
-        <f>SUM(V257:V268)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B269" s="295"/>
+      <c r="E269" s="34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J269" s="297"/>
+      <c r="K269" s="314"/>
+      <c r="N269" s="42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O269" s="315"/>
+      <c r="Q269" s="6"/>
+      <c r="R269" s="310"/>
+      <c r="S269" s="311"/>
+      <c r="T269" s="316"/>
+      <c r="V269" s="9"/>
+    </row>
+    <row r="270" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="294"/>
       <c r="H270" s="318"/>
-      <c r="I270" s="330"/>
-      <c r="J270" s="331"/>
-      <c r="K270" s="332"/>
-      <c r="L270" s="332"/>
-      <c r="M270" s="332"/>
-      <c r="N270" s="333"/>
+      <c r="I270" s="319" t="s">
+        <v>28</v>
+      </c>
+      <c r="J270" s="320"/>
+      <c r="K270" s="320"/>
+      <c r="L270" s="321">
+        <f>SUM(L258:L269)</f>
+        <v>0</v>
+      </c>
+      <c r="M270" s="322"/>
+      <c r="N270" s="323">
+        <f>SUM(N4:N269)</f>
+        <v>12149333.2956015</v>
+      </c>
       <c r="O270" s="324"/>
-      <c r="R270" s="310"/>
-      <c r="S270" s="334"/>
-      <c r="U270" s="336"/>
-      <c r="V270"/>
-    </row>
-    <row r="271" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q270" s="325">
+        <f>SUM(Q4:Q269)</f>
+        <v>0</v>
+      </c>
+      <c r="R270" s="256"/>
+      <c r="S270" s="326">
+        <f>SUM(S19:S269)</f>
+        <v>0</v>
+      </c>
+      <c r="T270" s="327"/>
+      <c r="U270" s="328"/>
+      <c r="V270" s="329">
+        <f>SUM(V258:V269)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" s="294"/>
       <c r="H271" s="318"/>
       <c r="I271" s="330"/>
@@ -32930,55 +33185,56 @@
       <c r="U271" s="336"/>
       <c r="V271"/>
     </row>
-    <row r="272" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="294"/>
-      <c r="I272" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="J272" s="338"/>
-      <c r="K272" s="338"/>
-      <c r="L272" s="339"/>
-      <c r="M272" s="339"/>
-      <c r="N272" s="340">
-        <f>V269+S269+Q269+N269+L269</f>
-        <v>10856355.700000001</v>
-      </c>
-      <c r="O272" s="341"/>
+      <c r="H272" s="318"/>
+      <c r="I272" s="330"/>
+      <c r="J272" s="331"/>
+      <c r="K272" s="332"/>
+      <c r="L272" s="332"/>
+      <c r="M272" s="332"/>
+      <c r="N272" s="333"/>
+      <c r="O272" s="324"/>
       <c r="R272" s="310"/>
       <c r="S272" s="334"/>
       <c r="U272" s="336"/>
       <c r="V272"/>
     </row>
-    <row r="273" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="342"/>
-      <c r="I273" s="343"/>
-      <c r="J273" s="344"/>
-      <c r="K273" s="344"/>
-      <c r="L273" s="345"/>
-      <c r="M273" s="345"/>
-      <c r="N273" s="346"/>
-      <c r="O273" s="347"/>
+    <row r="273" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="294"/>
+      <c r="I273" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="J273" s="338"/>
+      <c r="K273" s="338"/>
+      <c r="L273" s="339"/>
+      <c r="M273" s="339"/>
+      <c r="N273" s="340">
+        <f>V270+S270+Q270+N270+L270</f>
+        <v>12149333.2956015</v>
+      </c>
+      <c r="O273" s="341"/>
       <c r="R273" s="310"/>
       <c r="S273" s="334"/>
       <c r="U273" s="336"/>
       <c r="V273"/>
     </row>
-    <row r="274" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="342"/>
-      <c r="I274" s="330"/>
-      <c r="J274" s="331"/>
-      <c r="K274" s="332"/>
-      <c r="L274" s="332"/>
-      <c r="M274" s="332"/>
-      <c r="N274" s="333"/>
-      <c r="O274" s="324"/>
+      <c r="I274" s="343"/>
+      <c r="J274" s="344"/>
+      <c r="K274" s="344"/>
+      <c r="L274" s="345"/>
+      <c r="M274" s="345"/>
+      <c r="N274" s="346"/>
+      <c r="O274" s="347"/>
       <c r="R274" s="310"/>
       <c r="S274" s="334"/>
       <c r="U274" s="336"/>
       <c r="V274"/>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="294"/>
+    <row r="275" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="342"/>
       <c r="I275" s="330"/>
       <c r="J275" s="331"/>
       <c r="K275" s="332"/>
@@ -32994,21 +33250,26 @@
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="294"/>
       <c r="I276" s="330"/>
-      <c r="J276" s="348"/>
+      <c r="J276" s="331"/>
       <c r="K276" s="332"/>
       <c r="L276" s="332"/>
       <c r="M276" s="332"/>
       <c r="N276" s="333"/>
-      <c r="O276" s="349"/>
+      <c r="O276" s="324"/>
       <c r="R276" s="310"/>
       <c r="S276" s="334"/>
       <c r="U276" s="336"/>
       <c r="V276"/>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="342"/>
+      <c r="A277" s="294"/>
+      <c r="I277" s="330"/>
+      <c r="J277" s="348"/>
+      <c r="K277" s="332"/>
+      <c r="L277" s="332"/>
+      <c r="M277" s="332"/>
       <c r="N277" s="333"/>
-      <c r="O277" s="351"/>
+      <c r="O277" s="349"/>
       <c r="R277" s="310"/>
       <c r="S277" s="334"/>
       <c r="U277" s="336"/>
@@ -33016,22 +33277,22 @@
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" s="342"/>
+      <c r="N278" s="333"/>
       <c r="O278" s="351"/>
+      <c r="R278" s="310"/>
       <c r="S278" s="334"/>
       <c r="U278" s="336"/>
       <c r="V278"/>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="294"/>
-      <c r="B279" s="295"/>
-      <c r="N279" s="333"/>
-      <c r="O279" s="324"/>
+      <c r="A279" s="342"/>
+      <c r="O279" s="351"/>
       <c r="S279" s="334"/>
       <c r="U279" s="336"/>
       <c r="V279"/>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="342"/>
+      <c r="A280" s="294"/>
       <c r="B280" s="295"/>
       <c r="N280" s="333"/>
       <c r="O280" s="324"/>
@@ -33040,13 +33301,8 @@
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="294"/>
+      <c r="A281" s="342"/>
       <c r="B281" s="295"/>
-      <c r="I281" s="330"/>
-      <c r="J281" s="331"/>
-      <c r="K281" s="332"/>
-      <c r="L281" s="332"/>
-      <c r="M281" s="332"/>
       <c r="N281" s="333"/>
       <c r="O281" s="324"/>
       <c r="S281" s="334"/>
@@ -33054,7 +33310,7 @@
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="342"/>
+      <c r="A282" s="294"/>
       <c r="B282" s="295"/>
       <c r="I282" s="330"/>
       <c r="J282" s="331"/>
@@ -33068,11 +33324,13 @@
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="294"/>
+      <c r="A283" s="342"/>
       <c r="B283" s="295"/>
-      <c r="I283" s="352"/>
-      <c r="J283" s="328"/>
-      <c r="K283" s="328"/>
+      <c r="I283" s="330"/>
+      <c r="J283" s="331"/>
+      <c r="K283" s="332"/>
+      <c r="L283" s="332"/>
+      <c r="M283" s="332"/>
       <c r="N283" s="333"/>
       <c r="O283" s="324"/>
       <c r="S283" s="334"/>
@@ -33080,39 +33338,31 @@
       <c r="V283"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="342"/>
+      <c r="A284" s="294"/>
+      <c r="B284" s="295"/>
+      <c r="I284" s="352"/>
+      <c r="J284" s="328"/>
+      <c r="K284" s="328"/>
+      <c r="N284" s="333"/>
+      <c r="O284" s="324"/>
       <c r="S284" s="334"/>
       <c r="U284" s="336"/>
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="294"/>
+      <c r="A285" s="342"/>
       <c r="S285" s="334"/>
       <c r="U285" s="336"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="294"/>
-      <c r="B286" s="354"/>
-      <c r="C286" s="354"/>
-      <c r="D286" s="354"/>
-      <c r="E286" s="355"/>
-      <c r="F286" s="356"/>
-      <c r="G286" s="357"/>
-      <c r="H286" s="358"/>
-      <c r="I286" s="359"/>
-      <c r="J286"/>
-      <c r="K286"/>
-      <c r="L286"/>
-      <c r="M286"/>
-      <c r="P286" s="360"/>
-      <c r="Q286" s="334"/>
       <c r="S286" s="334"/>
       <c r="U286" s="336"/>
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="342"/>
+      <c r="A287" s="294"/>
       <c r="B287" s="354"/>
       <c r="C287" s="354"/>
       <c r="D287" s="354"/>
@@ -33172,7 +33422,7 @@
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="361"/>
+      <c r="A290" s="342"/>
       <c r="B290" s="354"/>
       <c r="C290" s="354"/>
       <c r="D290" s="354"/>
@@ -33192,7 +33442,7 @@
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="307"/>
+      <c r="A291" s="361"/>
       <c r="B291" s="354"/>
       <c r="C291" s="354"/>
       <c r="D291" s="354"/>
@@ -33212,7 +33462,7 @@
       <c r="V291"/>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A292" s="294"/>
+      <c r="A292" s="307"/>
       <c r="B292" s="354"/>
       <c r="C292" s="354"/>
       <c r="D292" s="354"/>
@@ -33351,16 +33601,36 @@
       <c r="U298" s="336"/>
       <c r="V298"/>
     </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A299" s="294"/>
+      <c r="B299" s="354"/>
+      <c r="C299" s="354"/>
+      <c r="D299" s="354"/>
+      <c r="E299" s="355"/>
+      <c r="F299" s="356"/>
+      <c r="G299" s="357"/>
+      <c r="H299" s="358"/>
+      <c r="I299" s="359"/>
+      <c r="J299"/>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="P299" s="360"/>
+      <c r="Q299" s="334"/>
+      <c r="S299" s="334"/>
+      <c r="U299" s="336"/>
+      <c r="V299"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F265:H265"/>
+    <mergeCell ref="F266:H266"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L93:M94"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="L94:M95"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="P101:P102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="206">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -565,6 +565,87 @@
   </si>
   <si>
     <t>CANALES  170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierna tocino, </t>
+  </si>
+  <si>
+    <t>A-337387</t>
+  </si>
+  <si>
+    <t>CHORIZO</t>
+  </si>
+  <si>
+    <t>Chile,pata,York, Americano</t>
+  </si>
+  <si>
+    <t>A-337386</t>
+  </si>
+  <si>
+    <t>CARNERO, MENUDO</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11306</t>
+  </si>
+  <si>
+    <t>A-337384</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11307</t>
+  </si>
+  <si>
+    <t>A-337385</t>
+  </si>
+  <si>
+    <t>NOTA 1408</t>
+  </si>
+  <si>
+    <t>NOTA 1395</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 1319</t>
+  </si>
+  <si>
+    <t>NOTA  2312</t>
+  </si>
+  <si>
+    <t>FOLIO  CENTRAL 11320</t>
+  </si>
+  <si>
+    <t>NOTA  2529</t>
+  </si>
+  <si>
+    <t>NOTA 1900</t>
+  </si>
+  <si>
+    <t>NOTA 1901</t>
+  </si>
+  <si>
+    <t>NOTA 1212</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11310</t>
+  </si>
+  <si>
+    <t>chorizo blanco, york, americano, chile virgilio , para res</t>
+  </si>
+  <si>
+    <t>A-337251</t>
+  </si>
+  <si>
+    <t>NOTA  1557</t>
+  </si>
+  <si>
+    <t>CANALES  108</t>
+  </si>
+  <si>
+    <t>CANALES 251</t>
+  </si>
+  <si>
+    <t>CANALES  251</t>
+  </si>
+  <si>
+    <t>CANALES  130</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="500">
+  <cellXfs count="512">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3215,15 +3296,36 @@
     <xf numFmtId="165" fontId="54" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3424,6 +3526,21 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3752,49 +3869,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="442" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="435"/>
-      <c r="H1" s="435"/>
-      <c r="I1" s="435"/>
-      <c r="J1" s="435"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="436" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="436"/>
+      <c r="S1" s="443" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="443"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="438" t="s">
+      <c r="W1" s="445" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="439"/>
+      <c r="X1" s="446"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="435"/>
-      <c r="B2" s="435"/>
-      <c r="C2" s="435"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="435"/>
-      <c r="F2" s="435"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="435"/>
-      <c r="I2" s="435"/>
-      <c r="J2" s="435"/>
+      <c r="A2" s="442"/>
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="442"/>
+      <c r="J2" s="442"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -3802,8 +3919,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="437"/>
-      <c r="T2" s="437"/>
+      <c r="S2" s="444"/>
+      <c r="T2" s="444"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -3848,10 +3965,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="440" t="s">
+      <c r="O3" s="447" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="441"/>
+      <c r="P3" s="448"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -7172,8 +7289,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="442"/>
-      <c r="M90" s="443"/>
+      <c r="L90" s="449"/>
+      <c r="M90" s="450"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7205,8 +7322,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="442"/>
-      <c r="M91" s="443"/>
+      <c r="L91" s="449"/>
+      <c r="M91" s="450"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7409,8 +7526,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="444"/>
-      <c r="P97" s="446"/>
+      <c r="O97" s="451"/>
+      <c r="P97" s="453"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -7442,8 +7559,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="445"/>
-      <c r="P98" s="447"/>
+      <c r="O98" s="452"/>
+      <c r="P98" s="454"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -12835,11 +12952,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="433" t="s">
+      <c r="F262" s="440" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="433"/>
-      <c r="H262" s="434"/>
+      <c r="G262" s="440"/>
+      <c r="H262" s="441"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -13465,49 +13582,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="442" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="435"/>
-      <c r="H1" s="435"/>
-      <c r="I1" s="435"/>
-      <c r="J1" s="435"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="436" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="436"/>
+      <c r="S1" s="443" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="443"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="438" t="s">
+      <c r="W1" s="445" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="439"/>
+      <c r="X1" s="446"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="435"/>
-      <c r="B2" s="435"/>
-      <c r="C2" s="435"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="435"/>
-      <c r="F2" s="435"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="435"/>
-      <c r="I2" s="435"/>
-      <c r="J2" s="435"/>
+      <c r="A2" s="442"/>
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="442"/>
+      <c r="J2" s="442"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -13515,8 +13632,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="437"/>
-      <c r="T2" s="437"/>
+      <c r="S2" s="444"/>
+      <c r="T2" s="444"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -13561,10 +13678,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="440" t="s">
+      <c r="O3" s="447" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="441"/>
+      <c r="P3" s="448"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -15897,13 +16014,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="490" t="s">
+      <c r="A59" s="497" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="492" t="s">
+      <c r="C59" s="499" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -15911,10 +16028,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="494">
+      <c r="G59" s="501">
         <v>44981</v>
       </c>
-      <c r="H59" s="496" t="s">
+      <c r="H59" s="503" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -15933,10 +16050,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="498" t="s">
+      <c r="O59" s="505" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="488">
+      <c r="P59" s="495">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -15947,18 +16064,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="491"/>
+      <c r="A60" s="498"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="493"/>
+      <c r="C60" s="500"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="495"/>
-      <c r="H60" s="497"/>
+      <c r="G60" s="502"/>
+      <c r="H60" s="504"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -15975,8 +16092,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="499"/>
-      <c r="P60" s="489"/>
+      <c r="O60" s="506"/>
+      <c r="P60" s="496"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -16214,7 +16331,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="448" t="s">
+      <c r="A66" s="455" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -16226,10 +16343,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="450">
+      <c r="G66" s="457">
         <v>44973</v>
       </c>
-      <c r="H66" s="452" t="s">
+      <c r="H66" s="459" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -16248,10 +16365,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="454" t="s">
+      <c r="O66" s="461" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="456">
+      <c r="P66" s="463">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -16262,7 +16379,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="449"/>
+      <c r="A67" s="456"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -16272,8 +16389,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="451"/>
-      <c r="H67" s="453"/>
+      <c r="G67" s="458"/>
+      <c r="H67" s="460"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -16290,8 +16407,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="455"/>
-      <c r="P67" s="457"/>
+      <c r="O67" s="462"/>
+      <c r="P67" s="464"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16349,13 +16466,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="478" t="s">
+      <c r="A69" s="485" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="480" t="s">
+      <c r="C69" s="487" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -16363,10 +16480,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="484">
+      <c r="G69" s="491">
         <v>44979</v>
       </c>
-      <c r="H69" s="482" t="s">
+      <c r="H69" s="489" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -16385,10 +16502,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="486" t="s">
+      <c r="O69" s="493" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="476">
+      <c r="P69" s="483">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16399,18 +16516,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="479"/>
+      <c r="A70" s="486"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="481"/>
+      <c r="C70" s="488"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="485"/>
-      <c r="H70" s="483"/>
+      <c r="G70" s="492"/>
+      <c r="H70" s="490"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -16427,8 +16544,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="487"/>
-      <c r="P70" s="477"/>
+      <c r="O70" s="494"/>
+      <c r="P70" s="484"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16437,13 +16554,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="466" t="s">
+      <c r="A71" s="473" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="464" t="s">
+      <c r="C71" s="471" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -16451,10 +16568,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="469">
+      <c r="G71" s="476">
         <v>44982</v>
       </c>
-      <c r="H71" s="471" t="s">
+      <c r="H71" s="478" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -16473,10 +16590,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="460" t="s">
+      <c r="O71" s="467" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="462">
+      <c r="P71" s="469">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16487,18 +16604,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="466"/>
+      <c r="A72" s="473"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="468"/>
+      <c r="C72" s="475"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="469"/>
-      <c r="H72" s="472"/>
+      <c r="G72" s="476"/>
+      <c r="H72" s="479"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -16515,8 +16632,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="474"/>
-      <c r="P72" s="475"/>
+      <c r="O72" s="481"/>
+      <c r="P72" s="482"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16525,18 +16642,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="467"/>
+      <c r="A73" s="474"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="465"/>
+      <c r="C73" s="472"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="470"/>
-      <c r="H73" s="473"/>
+      <c r="G73" s="477"/>
+      <c r="H73" s="480"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -16553,8 +16670,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="461"/>
-      <c r="P73" s="463"/>
+      <c r="O73" s="468"/>
+      <c r="P73" s="470"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -16730,13 +16847,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="448" t="s">
+      <c r="A80" s="455" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="464" t="s">
+      <c r="C80" s="471" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -16747,7 +16864,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="458" t="s">
+      <c r="H80" s="465" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -16766,10 +16883,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="460" t="s">
+      <c r="O80" s="467" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="462">
+      <c r="P80" s="469">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -16780,11 +16897,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="449"/>
+      <c r="A81" s="456"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="465"/>
+      <c r="C81" s="472"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -16793,7 +16910,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="459"/>
+      <c r="H81" s="466"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -16810,8 +16927,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="461"/>
-      <c r="P81" s="463"/>
+      <c r="O81" s="468"/>
+      <c r="P81" s="470"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -17362,8 +17479,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="442"/>
-      <c r="M99" s="443"/>
+      <c r="L99" s="449"/>
+      <c r="M99" s="450"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17395,8 +17512,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="442"/>
-      <c r="M100" s="443"/>
+      <c r="L100" s="449"/>
+      <c r="M100" s="450"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17599,8 +17716,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="444"/>
-      <c r="P106" s="446"/>
+      <c r="O106" s="451"/>
+      <c r="P106" s="453"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -17632,8 +17749,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="445"/>
-      <c r="P107" s="447"/>
+      <c r="O107" s="452"/>
+      <c r="P107" s="454"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -23025,11 +23142,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="433" t="s">
+      <c r="F271" s="440" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="433"/>
-      <c r="H271" s="434"/>
+      <c r="G271" s="440"/>
+      <c r="H271" s="441"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -23650,13 +23767,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:X299"/>
+  <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23686,49 +23803,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="442" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="435"/>
-      <c r="H1" s="435"/>
-      <c r="I1" s="435"/>
-      <c r="J1" s="435"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="436" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="436"/>
+      <c r="S1" s="443" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="443"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="438" t="s">
+      <c r="W1" s="445" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="439"/>
+      <c r="X1" s="446"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="435"/>
-      <c r="B2" s="435"/>
-      <c r="C2" s="435"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="435"/>
-      <c r="F2" s="435"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="435"/>
-      <c r="I2" s="435"/>
-      <c r="J2" s="435"/>
+      <c r="A2" s="442"/>
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
+      <c r="G2" s="442"/>
+      <c r="H2" s="442"/>
+      <c r="I2" s="442"/>
+      <c r="J2" s="442"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -23736,8 +23853,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="437"/>
-      <c r="T2" s="437"/>
+      <c r="S2" s="444"/>
+      <c r="T2" s="444"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -23782,10 +23899,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="440" t="s">
+      <c r="O3" s="447" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="441"/>
+      <c r="P3" s="448"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -23837,7 +23954,7 @@
         <v>12650</v>
       </c>
       <c r="J4" s="39">
-        <f t="shared" ref="J4:J127" si="1">I4-F4</f>
+        <f t="shared" ref="J4:J130" si="1">I4-F4</f>
         <v>0</v>
       </c>
       <c r="K4" s="40">
@@ -23846,7 +23963,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="42">
-        <f t="shared" ref="N4:N121" si="2">K4*I4</f>
+        <f t="shared" ref="N4:N124" si="2">K4*I4</f>
         <v>569250</v>
       </c>
       <c r="O4" s="43" t="s">
@@ -24291,7 +24408,7 @@
         <f t="shared" si="2"/>
         <v>1002852.9</v>
       </c>
-      <c r="O12" s="432" t="s">
+      <c r="O12" s="430" t="s">
         <v>26</v>
       </c>
       <c r="P12" s="74">
@@ -24566,28 +24683,40 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>202</v>
+      </c>
       <c r="C18" s="67"/>
       <c r="D18" s="56"/>
       <c r="E18" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
+      <c r="F18" s="57">
+        <v>11160.4</v>
+      </c>
+      <c r="G18" s="58">
+        <v>45008</v>
+      </c>
       <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="60">
+        <v>11160.4</v>
+      </c>
       <c r="J18" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="40">
+        <v>39.5</v>
+      </c>
       <c r="L18" s="61"/>
       <c r="M18" s="61"/>
       <c r="N18" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>440835.8</v>
       </c>
       <c r="O18" s="72"/>
       <c r="P18" s="74"/>
@@ -24603,28 +24732,40 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="C19" s="55"/>
       <c r="D19" s="56"/>
       <c r="E19" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
+      <c r="F19" s="57">
+        <v>25950</v>
+      </c>
+      <c r="G19" s="58">
+        <v>45009</v>
+      </c>
       <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="60">
+        <v>25950</v>
+      </c>
       <c r="J19" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="81"/>
+      <c r="K19" s="81">
+        <v>39.5</v>
+      </c>
       <c r="L19" s="61"/>
       <c r="M19" s="61"/>
       <c r="N19" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1025025</v>
       </c>
       <c r="O19" s="75"/>
       <c r="P19" s="74"/>
@@ -24640,28 +24781,40 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="82"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="83"/>
       <c r="D20" s="56"/>
       <c r="E20" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
+      <c r="F20" s="57">
+        <v>24850</v>
+      </c>
+      <c r="G20" s="58">
+        <v>45011</v>
+      </c>
       <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="60">
+        <v>24850</v>
+      </c>
       <c r="J20" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="81"/>
+      <c r="K20" s="81">
+        <v>36.5</v>
+      </c>
       <c r="L20" s="61"/>
       <c r="M20" s="61"/>
       <c r="N20" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>907025</v>
       </c>
       <c r="O20" s="72"/>
       <c r="P20" s="74"/>
@@ -24677,28 +24830,40 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>204</v>
+      </c>
       <c r="C21" s="84"/>
       <c r="D21" s="85"/>
       <c r="E21" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="F21" s="57">
+        <v>25040</v>
+      </c>
+      <c r="G21" s="58">
+        <v>45014</v>
+      </c>
       <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="60">
+        <v>25040</v>
+      </c>
       <c r="J21" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="81"/>
+      <c r="K21" s="81">
+        <v>36.5</v>
+      </c>
       <c r="L21" s="61"/>
       <c r="M21" s="61"/>
       <c r="N21" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>913960</v>
       </c>
       <c r="O21" s="72"/>
       <c r="P21" s="74"/>
@@ -24714,28 +24879,40 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="87"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="C22" s="88"/>
       <c r="D22" s="85"/>
       <c r="E22" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
+      <c r="F22" s="57">
+        <v>11940</v>
+      </c>
+      <c r="G22" s="58">
+        <v>45015</v>
+      </c>
       <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="60">
+        <v>11940</v>
+      </c>
       <c r="J22" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="81"/>
+      <c r="K22" s="81">
+        <v>36.5</v>
+      </c>
       <c r="L22" s="61"/>
       <c r="M22" s="61"/>
       <c r="N22" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>435810</v>
       </c>
       <c r="O22" s="69"/>
       <c r="P22" s="70"/>
@@ -24750,29 +24927,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="87"/>
-      <c r="B23" s="54"/>
+    <row r="23" spans="1:24" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C23" s="55"/>
       <c r="D23" s="56"/>
       <c r="E23" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
+      <c r="F23" s="57">
+        <v>22990</v>
+      </c>
+      <c r="G23" s="58">
+        <v>45016</v>
+      </c>
       <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="60">
+        <v>22990</v>
+      </c>
       <c r="J23" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="81"/>
+      <c r="K23" s="81">
+        <v>36.5</v>
+      </c>
       <c r="L23" s="61"/>
       <c r="M23" s="61"/>
       <c r="N23" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>839135</v>
       </c>
       <c r="O23" s="69"/>
       <c r="P23" s="70"/>
@@ -24787,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="87"/>
       <c r="B24" s="54"/>
       <c r="C24" s="55"/>
@@ -26451,7 +26640,7 @@
       <c r="U68" s="49"/>
       <c r="V68" s="50"/>
     </row>
-    <row r="69" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="172" t="s">
         <v>147</v>
       </c>
@@ -26482,10 +26671,12 @@
       <c r="K69" s="40">
         <v>23.5</v>
       </c>
-      <c r="L69" s="431">
+      <c r="L69" s="438">
         <v>1000</v>
       </c>
-      <c r="M69" s="430"/>
+      <c r="M69" s="437" t="s">
+        <v>197</v>
+      </c>
       <c r="N69" s="42">
         <f>K69*I69</f>
         <v>215049.9999815</v>
@@ -26553,7 +26744,7 @@
       <c r="U70" s="49"/>
       <c r="V70" s="50"/>
     </row>
-    <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="101" t="s">
         <v>31</v>
       </c>
@@ -26603,45 +26794,47 @@
       <c r="U71" s="49"/>
       <c r="V71" s="50"/>
     </row>
-    <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A72" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="178" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="179" t="s">
-        <v>177</v>
+        <v>147</v>
+      </c>
+      <c r="B72" s="167" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="144" t="s">
+        <v>185</v>
       </c>
       <c r="D72" s="160"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
-        <v>354.8</v>
+        <v>23374</v>
       </c>
       <c r="G72" s="156">
-        <v>45005</v>
-      </c>
-      <c r="H72" s="428">
-        <v>41742</v>
+        <v>45000</v>
+      </c>
+      <c r="H72" s="431" t="s">
+        <v>186</v>
       </c>
       <c r="I72" s="155">
-        <v>354.8</v>
+        <v>23374</v>
       </c>
       <c r="J72" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K72" s="40">
-        <v>52</v>
-      </c>
-      <c r="L72" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="439" t="s">
+        <v>190</v>
+      </c>
       <c r="M72" s="61"/>
       <c r="N72" s="42">
-        <f t="shared" ref="N72:N75" si="6">K72*I72</f>
-        <v>18449.600000000002</v>
+        <f t="shared" ref="N72:N74" si="6">K72*I72</f>
+        <v>23374</v>
       </c>
       <c r="O72" s="169" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="P72" s="58">
         <v>45016</v>
@@ -26653,42 +26846,44 @@
       <c r="U72" s="49"/>
       <c r="V72" s="50"/>
     </row>
-    <row r="73" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="152" t="s">
+    <row r="73" spans="1:22" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="142" t="s">
         <v>147</v>
       </c>
       <c r="B73" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="181" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="174"/>
+        <v>184</v>
+      </c>
+      <c r="C73" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="160"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
-        <v>680.5</v>
+        <v>24.46</v>
       </c>
       <c r="G73" s="156">
-        <v>45006</v>
-      </c>
-      <c r="H73" s="164" t="s">
-        <v>167</v>
+        <v>45001</v>
+      </c>
+      <c r="H73" s="431" t="s">
+        <v>188</v>
       </c>
       <c r="I73" s="155">
-        <v>680.50746000000004</v>
+        <v>24.46</v>
       </c>
       <c r="J73" s="39">
         <f t="shared" si="1"/>
-        <v>7.4600000000373257E-3</v>
+        <v>0</v>
       </c>
       <c r="K73" s="40">
-        <v>67</v>
-      </c>
-      <c r="L73" s="61"/>
+        <v>140</v>
+      </c>
+      <c r="L73" s="434" t="s">
+        <v>189</v>
+      </c>
       <c r="M73" s="61"/>
       <c r="N73" s="42">
         <f t="shared" si="6"/>
-        <v>45593.999820000005</v>
+        <v>3424.4</v>
       </c>
       <c r="O73" s="169" t="s">
         <v>21</v>
@@ -26703,42 +26898,44 @@
       <c r="U73" s="49"/>
       <c r="V73" s="50"/>
     </row>
-    <row r="74" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="152" t="s">
+    <row r="74" spans="1:22" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="167" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="192" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="174"/>
+      <c r="B74" s="178" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="144" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="160"/>
       <c r="E74" s="56"/>
       <c r="F74" s="155">
-        <v>3402.5</v>
+        <v>58897</v>
       </c>
       <c r="G74" s="156">
-        <v>45006</v>
-      </c>
-      <c r="H74" s="164" t="s">
-        <v>169</v>
+        <v>45002</v>
+      </c>
+      <c r="H74" s="431" t="s">
+        <v>200</v>
       </c>
       <c r="I74" s="155">
-        <v>3402.5074</v>
+        <v>58897</v>
       </c>
       <c r="J74" s="39">
         <f t="shared" si="1"/>
-        <v>7.3999999999614374E-3</v>
+        <v>0</v>
       </c>
       <c r="K74" s="40">
-        <v>67</v>
-      </c>
-      <c r="L74" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="L74" s="434" t="s">
+        <v>201</v>
+      </c>
       <c r="M74" s="61"/>
       <c r="N74" s="42">
         <f t="shared" si="6"/>
-        <v>227967.9958</v>
+        <v>58897</v>
       </c>
       <c r="O74" s="169" t="s">
         <v>21</v>
@@ -26753,42 +26950,42 @@
       <c r="U74" s="49"/>
       <c r="V74" s="50"/>
     </row>
-    <row r="75" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="152" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="184" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="170" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" s="174"/>
+    <row r="75" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="160"/>
       <c r="E75" s="56"/>
       <c r="F75" s="155">
-        <v>200</v>
+        <v>354.8</v>
       </c>
       <c r="G75" s="156">
-        <v>45010</v>
-      </c>
-      <c r="H75" s="164" t="s">
-        <v>175</v>
+        <v>45005</v>
+      </c>
+      <c r="H75" s="428">
+        <v>41742</v>
       </c>
       <c r="I75" s="155">
-        <v>200</v>
+        <v>354.8</v>
       </c>
       <c r="J75" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K75" s="40">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="L75" s="61"/>
       <c r="M75" s="61"/>
       <c r="N75" s="42">
-        <f t="shared" si="6"/>
-        <v>58000</v>
+        <f t="shared" ref="N75:N78" si="7">K75*I75</f>
+        <v>18449.600000000002</v>
       </c>
       <c r="O75" s="169" t="s">
         <v>22</v>
@@ -26803,31 +27000,51 @@
       <c r="U75" s="49"/>
       <c r="V75" s="50"/>
     </row>
-    <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="152" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="167"/>
-      <c r="C76" s="170"/>
+        <v>147</v>
+      </c>
+      <c r="B76" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="181" t="s">
+        <v>166</v>
+      </c>
       <c r="D76" s="174"/>
       <c r="E76" s="56"/>
-      <c r="F76" s="155"/>
-      <c r="G76" s="156"/>
-      <c r="H76" s="168"/>
-      <c r="I76" s="155"/>
+      <c r="F76" s="155">
+        <v>680.5</v>
+      </c>
+      <c r="G76" s="156">
+        <v>45006</v>
+      </c>
+      <c r="H76" s="164" t="s">
+        <v>167</v>
+      </c>
+      <c r="I76" s="155">
+        <v>680.50746000000004</v>
+      </c>
       <c r="J76" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="40"/>
-      <c r="L76" s="61"/>
+        <v>7.4600000000373257E-3</v>
+      </c>
+      <c r="K76" s="40">
+        <v>67</v>
+      </c>
+      <c r="L76" s="61" t="s">
+        <v>195</v>
+      </c>
       <c r="M76" s="61"/>
       <c r="N76" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="158"/>
-      <c r="P76" s="183"/>
+        <f t="shared" si="7"/>
+        <v>45593.999820000005</v>
+      </c>
+      <c r="O76" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="58">
+        <v>45016</v>
+      </c>
       <c r="Q76" s="166"/>
       <c r="R76" s="125"/>
       <c r="S76" s="176"/>
@@ -26835,31 +27052,51 @@
       <c r="U76" s="49"/>
       <c r="V76" s="50"/>
     </row>
-    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="152" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
+        <v>147</v>
+      </c>
+      <c r="B77" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="192" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="174"/>
       <c r="E77" s="56"/>
-      <c r="F77" s="155"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="168"/>
-      <c r="I77" s="155"/>
+      <c r="F77" s="155">
+        <v>3402.5</v>
+      </c>
+      <c r="G77" s="156">
+        <v>45006</v>
+      </c>
+      <c r="H77" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="I77" s="155">
+        <v>3402.5074</v>
+      </c>
       <c r="J77" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="40"/>
-      <c r="L77" s="61"/>
+        <v>7.3999999999614374E-3</v>
+      </c>
+      <c r="K77" s="40">
+        <v>67</v>
+      </c>
+      <c r="L77" s="61" t="s">
+        <v>196</v>
+      </c>
       <c r="M77" s="61"/>
       <c r="N77" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="158"/>
-      <c r="P77" s="183"/>
+        <f t="shared" si="7"/>
+        <v>227967.9958</v>
+      </c>
+      <c r="O77" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="58">
+        <v>45016</v>
+      </c>
       <c r="Q77" s="166"/>
       <c r="R77" s="125"/>
       <c r="S77" s="176"/>
@@ -26867,43 +27104,63 @@
       <c r="U77" s="49"/>
       <c r="V77" s="50"/>
     </row>
-    <row r="78" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="152" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="184"/>
-      <c r="C78" s="170"/>
+        <v>173</v>
+      </c>
+      <c r="B78" s="184" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="170" t="s">
+        <v>174</v>
+      </c>
       <c r="D78" s="174"/>
       <c r="E78" s="56"/>
-      <c r="F78" s="155"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="168"/>
-      <c r="I78" s="155"/>
+      <c r="F78" s="155">
+        <v>200</v>
+      </c>
+      <c r="G78" s="156">
+        <v>45010</v>
+      </c>
+      <c r="H78" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="I78" s="155">
+        <v>200</v>
+      </c>
       <c r="J78" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K78" s="40"/>
+      <c r="K78" s="40">
+        <v>290</v>
+      </c>
       <c r="L78" s="61"/>
       <c r="M78" s="61"/>
       <c r="N78" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="158"/>
-      <c r="P78" s="183"/>
-      <c r="Q78" s="158"/>
+        <f t="shared" si="7"/>
+        <v>58000</v>
+      </c>
+      <c r="O78" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="P78" s="58">
+        <v>45016</v>
+      </c>
+      <c r="Q78" s="166"/>
       <c r="R78" s="125"/>
       <c r="S78" s="176"/>
       <c r="T78" s="177"/>
       <c r="U78" s="49"/>
       <c r="V78" s="50"/>
     </row>
-    <row r="79" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="152"/>
+    <row r="79" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="152" t="s">
+        <v>135</v>
+      </c>
       <c r="B79" s="167"/>
       <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="56"/>
       <c r="F79" s="155"/>
       <c r="G79" s="156"/>
@@ -26922,22 +27179,24 @@
       </c>
       <c r="O79" s="158"/>
       <c r="P79" s="183"/>
-      <c r="Q79" s="158"/>
+      <c r="Q79" s="166"/>
       <c r="R79" s="125"/>
       <c r="S79" s="176"/>
       <c r="T79" s="177"/>
       <c r="U79" s="49"/>
       <c r="V79" s="50"/>
     </row>
-    <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="152"/>
+    <row r="80" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="152" t="s">
+        <v>135</v>
+      </c>
       <c r="B80" s="178"/>
       <c r="C80" s="170"/>
       <c r="D80" s="170"/>
       <c r="E80" s="56"/>
       <c r="F80" s="155"/>
-      <c r="G80" s="185"/>
-      <c r="H80" s="164"/>
+      <c r="G80" s="156"/>
+      <c r="H80" s="168"/>
       <c r="I80" s="155"/>
       <c r="J80" s="39">
         <f t="shared" si="1"/>
@@ -26951,37 +27210,59 @@
         <v>0</v>
       </c>
       <c r="O80" s="158"/>
-      <c r="P80" s="186"/>
-      <c r="Q80" s="158"/>
+      <c r="P80" s="183"/>
+      <c r="Q80" s="166"/>
       <c r="R80" s="125"/>
       <c r="S80" s="176"/>
       <c r="T80" s="177"/>
       <c r="U80" s="49"/>
       <c r="V80" s="50"/>
     </row>
-    <row r="81" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="152"/>
-      <c r="B81" s="178"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
+    <row r="81" spans="1:22" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="184" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="174"/>
       <c r="E81" s="56"/>
-      <c r="F81" s="155"/>
-      <c r="G81" s="185"/>
-      <c r="H81" s="164"/>
-      <c r="I81" s="155"/>
+      <c r="F81" s="155">
+        <v>25757</v>
+      </c>
+      <c r="G81" s="147">
+        <v>45014</v>
+      </c>
+      <c r="H81" s="168" t="s">
+        <v>183</v>
+      </c>
+      <c r="I81" s="155">
+        <v>25757</v>
+      </c>
       <c r="J81" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K81" s="40"/>
-      <c r="L81" s="61"/>
+      <c r="K81" s="40">
+        <v>1</v>
+      </c>
+      <c r="L81" s="435" t="s">
+        <v>192</v>
+      </c>
       <c r="M81" s="61"/>
       <c r="N81" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O81" s="158"/>
-      <c r="P81" s="186"/>
+        <v>25757</v>
+      </c>
+      <c r="O81" s="158" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" s="183">
+        <v>45016</v>
+      </c>
       <c r="Q81" s="158"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -26989,29 +27270,51 @@
       <c r="U81" s="49"/>
       <c r="V81" s="50"/>
     </row>
-    <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="152"/>
-      <c r="B82" s="178"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="170"/>
+    <row r="82" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="455" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="397" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="471" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="433"/>
       <c r="E82" s="56"/>
-      <c r="F82" s="155"/>
-      <c r="G82" s="185"/>
-      <c r="H82" s="164"/>
-      <c r="I82" s="155"/>
+      <c r="F82" s="410">
+        <v>27.48</v>
+      </c>
+      <c r="G82" s="501">
+        <v>45014</v>
+      </c>
+      <c r="H82" s="507" t="s">
+        <v>180</v>
+      </c>
+      <c r="I82" s="155">
+        <v>27.48</v>
+      </c>
       <c r="J82" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K82" s="40"/>
-      <c r="L82" s="61"/>
+      <c r="K82" s="40">
+        <v>70</v>
+      </c>
+      <c r="L82" s="511" t="s">
+        <v>194</v>
+      </c>
       <c r="M82" s="61"/>
       <c r="N82" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O82" s="158"/>
-      <c r="P82" s="186"/>
+        <v>1923.6000000000001</v>
+      </c>
+      <c r="O82" s="451" t="s">
+        <v>21</v>
+      </c>
+      <c r="P82" s="509">
+        <v>45016</v>
+      </c>
       <c r="Q82" s="158"/>
       <c r="R82" s="125"/>
       <c r="S82" s="176"/>
@@ -27019,29 +27322,37 @@
       <c r="U82" s="49"/>
       <c r="V82" s="50"/>
     </row>
-    <row r="83" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="152"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="170"/>
-      <c r="D83" s="170"/>
+    <row r="83" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="456"/>
+      <c r="B83" s="432" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="472"/>
+      <c r="D83" s="433"/>
       <c r="E83" s="56"/>
-      <c r="F83" s="155"/>
-      <c r="G83" s="185"/>
-      <c r="H83" s="164"/>
-      <c r="I83" s="155"/>
+      <c r="F83" s="410">
+        <v>142.5</v>
+      </c>
+      <c r="G83" s="502"/>
+      <c r="H83" s="508"/>
+      <c r="I83" s="155">
+        <v>142.5771</v>
+      </c>
       <c r="J83" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="40"/>
-      <c r="L83" s="61"/>
+        <v>7.7100000000001501E-2</v>
+      </c>
+      <c r="K83" s="40">
+        <v>70</v>
+      </c>
+      <c r="L83" s="511"/>
       <c r="M83" s="61"/>
       <c r="N83" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O83" s="158"/>
-      <c r="P83" s="186"/>
+        <v>9980.3970000000008</v>
+      </c>
+      <c r="O83" s="452"/>
+      <c r="P83" s="510"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -27049,15 +27360,15 @@
       <c r="U83" s="49"/>
       <c r="V83" s="50"/>
     </row>
-    <row r="84" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="152"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="170"/>
-      <c r="D84" s="174"/>
+      <c r="B84" s="178"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="170"/>
       <c r="E84" s="56"/>
       <c r="F84" s="155"/>
-      <c r="G84" s="156"/>
-      <c r="H84" s="168"/>
+      <c r="G84" s="436"/>
+      <c r="H84" s="164"/>
       <c r="I84" s="155"/>
       <c r="J84" s="39">
         <f t="shared" si="1"/>
@@ -27071,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="158"/>
-      <c r="P84" s="183"/>
+      <c r="P84" s="186"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -27079,21 +27390,21 @@
       <c r="U84" s="49"/>
       <c r="V84" s="50"/>
     </row>
-    <row r="85" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="152"/>
-      <c r="B85" s="167"/>
+      <c r="B85" s="178"/>
       <c r="C85" s="170"/>
-      <c r="D85" s="187"/>
+      <c r="D85" s="170"/>
       <c r="E85" s="56"/>
       <c r="F85" s="155"/>
-      <c r="G85" s="156"/>
-      <c r="H85" s="168"/>
+      <c r="G85" s="185"/>
+      <c r="H85" s="164"/>
       <c r="I85" s="155"/>
       <c r="J85" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K85" s="81"/>
+      <c r="K85" s="40"/>
       <c r="L85" s="61"/>
       <c r="M85" s="61"/>
       <c r="N85" s="42">
@@ -27101,7 +27412,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="158"/>
-      <c r="P85" s="183"/>
+      <c r="P85" s="186"/>
       <c r="Q85" s="158"/>
       <c r="R85" s="125"/>
       <c r="S85" s="176"/>
@@ -27109,21 +27420,21 @@
       <c r="U85" s="49"/>
       <c r="V85" s="50"/>
     </row>
-    <row r="86" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="152"/>
-      <c r="B86" s="167"/>
+      <c r="B86" s="178"/>
       <c r="C86" s="170"/>
-      <c r="D86" s="187"/>
+      <c r="D86" s="170"/>
       <c r="E86" s="56"/>
       <c r="F86" s="155"/>
-      <c r="G86" s="156"/>
+      <c r="G86" s="185"/>
       <c r="H86" s="164"/>
       <c r="I86" s="155"/>
       <c r="J86" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K86" s="81"/>
+      <c r="K86" s="40"/>
       <c r="L86" s="61"/>
       <c r="M86" s="61"/>
       <c r="N86" s="42">
@@ -27139,21 +27450,21 @@
       <c r="U86" s="49"/>
       <c r="V86" s="50"/>
     </row>
-    <row r="87" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="152"/>
       <c r="B87" s="167"/>
       <c r="C87" s="170"/>
-      <c r="D87" s="187"/>
+      <c r="D87" s="174"/>
       <c r="E87" s="56"/>
       <c r="F87" s="155"/>
       <c r="G87" s="156"/>
-      <c r="H87" s="164"/>
+      <c r="H87" s="168"/>
       <c r="I87" s="155"/>
       <c r="J87" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K87" s="81"/>
+      <c r="K87" s="40"/>
       <c r="L87" s="61"/>
       <c r="M87" s="61"/>
       <c r="N87" s="42">
@@ -27161,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="158"/>
-      <c r="P87" s="186"/>
+      <c r="P87" s="183"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -27173,11 +27484,11 @@
       <c r="A88" s="152"/>
       <c r="B88" s="167"/>
       <c r="C88" s="170"/>
-      <c r="D88" s="181"/>
+      <c r="D88" s="187"/>
       <c r="E88" s="56"/>
       <c r="F88" s="155"/>
       <c r="G88" s="156"/>
-      <c r="H88" s="164"/>
+      <c r="H88" s="168"/>
       <c r="I88" s="155"/>
       <c r="J88" s="39">
         <f t="shared" si="1"/>
@@ -27191,7 +27502,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="158"/>
-      <c r="P88" s="186"/>
+      <c r="P88" s="183"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -27203,11 +27514,8 @@
       <c r="A89" s="152"/>
       <c r="B89" s="167"/>
       <c r="C89" s="170"/>
-      <c r="D89" s="181"/>
-      <c r="E89" s="56">
-        <f t="shared" ref="E89:E154" si="7">D89*F89</f>
-        <v>0</v>
-      </c>
+      <c r="D89" s="187"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="155"/>
       <c r="G89" s="156"/>
       <c r="H89" s="164"/>
@@ -27233,17 +27541,14 @@
       <c r="V89" s="50"/>
     </row>
     <row r="90" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="98"/>
+      <c r="A90" s="152"/>
       <c r="B90" s="167"/>
-      <c r="C90" s="188"/>
+      <c r="C90" s="170"/>
       <c r="D90" s="187"/>
-      <c r="E90" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="E90" s="56"/>
       <c r="F90" s="155"/>
       <c r="G90" s="156"/>
-      <c r="H90" s="168"/>
+      <c r="H90" s="164"/>
       <c r="I90" s="155"/>
       <c r="J90" s="39">
         <f t="shared" si="1"/>
@@ -27257,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="158"/>
-      <c r="P90" s="183"/>
+      <c r="P90" s="186"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="125"/>
       <c r="S90" s="176"/>
@@ -27266,17 +27571,14 @@
       <c r="V90" s="50"/>
     </row>
     <row r="91" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="98"/>
+      <c r="A91" s="152"/>
       <c r="B91" s="167"/>
-      <c r="C91" s="189"/>
-      <c r="D91" s="187"/>
-      <c r="E91" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="C91" s="170"/>
+      <c r="D91" s="181"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="155"/>
       <c r="G91" s="156"/>
-      <c r="H91" s="168"/>
+      <c r="H91" s="164"/>
       <c r="I91" s="155"/>
       <c r="J91" s="39">
         <f t="shared" si="1"/>
@@ -27290,7 +27592,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="158"/>
-      <c r="P91" s="190"/>
+      <c r="P91" s="186"/>
       <c r="Q91" s="158"/>
       <c r="R91" s="125"/>
       <c r="S91" s="176"/>
@@ -27299,17 +27601,17 @@
       <c r="V91" s="50"/>
     </row>
     <row r="92" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="98"/>
+      <c r="A92" s="152"/>
       <c r="B92" s="167"/>
-      <c r="C92" s="187"/>
-      <c r="D92" s="191"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="181"/>
       <c r="E92" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E92:E157" si="8">D92*F92</f>
         <v>0</v>
       </c>
       <c r="F92" s="155"/>
       <c r="G92" s="156"/>
-      <c r="H92" s="168"/>
+      <c r="H92" s="164"/>
       <c r="I92" s="155"/>
       <c r="J92" s="39">
         <f t="shared" si="1"/>
@@ -27323,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="158"/>
-      <c r="P92" s="190"/>
+      <c r="P92" s="186"/>
       <c r="Q92" s="158"/>
       <c r="R92" s="125"/>
       <c r="S92" s="176"/>
@@ -27332,18 +27634,18 @@
       <c r="V92" s="50"/>
     </row>
     <row r="93" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="110"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="187"/>
-      <c r="D93" s="191"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="187"/>
       <c r="E93" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="60"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="60"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="155"/>
+      <c r="G93" s="156"/>
+      <c r="H93" s="168"/>
+      <c r="I93" s="155"/>
       <c r="J93" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27356,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="158"/>
-      <c r="P93" s="190"/>
+      <c r="P93" s="183"/>
       <c r="Q93" s="158"/>
       <c r="R93" s="125"/>
       <c r="S93" s="176"/>
@@ -27364,26 +27666,26 @@
       <c r="U93" s="49"/>
       <c r="V93" s="50"/>
     </row>
-    <row r="94" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="110"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="191"/>
+    <row r="94" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="98"/>
+      <c r="B94" s="167"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="187"/>
       <c r="E94" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="60"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="60"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="155"/>
+      <c r="G94" s="156"/>
+      <c r="H94" s="168"/>
+      <c r="I94" s="155"/>
       <c r="J94" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K94" s="81"/>
-      <c r="L94" s="442"/>
-      <c r="M94" s="443"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
       <c r="N94" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27397,26 +27699,26 @@
       <c r="U94" s="49"/>
       <c r="V94" s="50"/>
     </row>
-    <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="110"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="182"/>
+    <row r="95" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="98"/>
+      <c r="B95" s="167"/>
+      <c r="C95" s="187"/>
       <c r="D95" s="191"/>
       <c r="E95" s="56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="60"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="155"/>
+      <c r="G95" s="156"/>
+      <c r="H95" s="168"/>
+      <c r="I95" s="155"/>
       <c r="J95" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K95" s="81"/>
-      <c r="L95" s="442"/>
-      <c r="M95" s="443"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="61"/>
       <c r="N95" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27430,13 +27732,13 @@
       <c r="U95" s="49"/>
       <c r="V95" s="50"/>
     </row>
-    <row r="96" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="193"/>
+    <row r="96" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="110"/>
       <c r="B96" s="99"/>
-      <c r="C96" s="194"/>
+      <c r="C96" s="187"/>
       <c r="D96" s="191"/>
       <c r="E96" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F96" s="60"/>
@@ -27448,8 +27750,8 @@
         <v>0</v>
       </c>
       <c r="K96" s="81"/>
-      <c r="L96" s="195"/>
-      <c r="M96" s="195"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="61"/>
       <c r="N96" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27463,13 +27765,13 @@
       <c r="U96" s="49"/>
       <c r="V96" s="50"/>
     </row>
-    <row r="97" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="196"/>
+    <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="110"/>
       <c r="B97" s="99"/>
-      <c r="C97" s="154"/>
+      <c r="C97" s="192"/>
       <c r="D97" s="191"/>
       <c r="E97" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F97" s="60"/>
@@ -27481,8 +27783,8 @@
         <v>0</v>
       </c>
       <c r="K97" s="81"/>
-      <c r="L97" s="195"/>
-      <c r="M97" s="195"/>
+      <c r="L97" s="449"/>
+      <c r="M97" s="450"/>
       <c r="N97" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27497,12 +27799,12 @@
       <c r="V97" s="50"/>
     </row>
     <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="101"/>
+      <c r="A98" s="110"/>
       <c r="B98" s="99"/>
-      <c r="C98" s="191"/>
+      <c r="C98" s="182"/>
       <c r="D98" s="191"/>
       <c r="E98" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F98" s="60"/>
@@ -27514,8 +27816,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="61"/>
-      <c r="M98" s="61"/>
+      <c r="L98" s="449"/>
+      <c r="M98" s="450"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27529,13 +27831,13 @@
       <c r="U98" s="49"/>
       <c r="V98" s="50"/>
     </row>
-    <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="101"/>
+    <row r="99" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="193"/>
       <c r="B99" s="99"/>
-      <c r="C99" s="191"/>
+      <c r="C99" s="194"/>
       <c r="D99" s="191"/>
       <c r="E99" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F99" s="60"/>
@@ -27547,8 +27849,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="61"/>
-      <c r="M99" s="61"/>
+      <c r="L99" s="195"/>
+      <c r="M99" s="195"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27562,13 +27864,13 @@
       <c r="U99" s="49"/>
       <c r="V99" s="50"/>
     </row>
-    <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="101"/>
+    <row r="100" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="196"/>
       <c r="B100" s="99"/>
-      <c r="C100" s="191"/>
+      <c r="C100" s="154"/>
       <c r="D100" s="191"/>
       <c r="E100" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F100" s="60"/>
@@ -27580,8 +27882,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="61"/>
-      <c r="M100" s="61"/>
+      <c r="L100" s="195"/>
+      <c r="M100" s="195"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27596,12 +27898,12 @@
       <c r="V100" s="50"/>
     </row>
     <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="110"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="99"/>
-      <c r="C101" s="187"/>
+      <c r="C101" s="191"/>
       <c r="D101" s="191"/>
       <c r="E101" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F101" s="60"/>
@@ -27619,8 +27921,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O101" s="444"/>
-      <c r="P101" s="446"/>
+      <c r="O101" s="158"/>
+      <c r="P101" s="190"/>
       <c r="Q101" s="158"/>
       <c r="R101" s="125"/>
       <c r="S101" s="176"/>
@@ -27629,12 +27931,12 @@
       <c r="V101" s="50"/>
     </row>
     <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="110"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="99"/>
-      <c r="C102" s="187"/>
+      <c r="C102" s="191"/>
       <c r="D102" s="191"/>
       <c r="E102" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F102" s="60"/>
@@ -27652,8 +27954,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O102" s="445"/>
-      <c r="P102" s="447"/>
+      <c r="O102" s="158"/>
+      <c r="P102" s="190"/>
       <c r="Q102" s="158"/>
       <c r="R102" s="125"/>
       <c r="S102" s="176"/>
@@ -27662,12 +27964,12 @@
       <c r="V102" s="50"/>
     </row>
     <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="99"/>
+      <c r="A103" s="101"/>
       <c r="B103" s="99"/>
       <c r="C103" s="191"/>
       <c r="D103" s="191"/>
       <c r="E103" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F103" s="60"/>
@@ -27695,12 +27997,12 @@
       <c r="V103" s="50"/>
     </row>
     <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="99"/>
+      <c r="A104" s="110"/>
       <c r="B104" s="99"/>
-      <c r="C104" s="191"/>
+      <c r="C104" s="187"/>
       <c r="D104" s="191"/>
       <c r="E104" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F104" s="60"/>
@@ -27718,8 +28020,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O104" s="158"/>
-      <c r="P104" s="190"/>
+      <c r="O104" s="451"/>
+      <c r="P104" s="453"/>
       <c r="Q104" s="158"/>
       <c r="R104" s="125"/>
       <c r="S104" s="176"/>
@@ -27728,12 +28030,12 @@
       <c r="V104" s="50"/>
     </row>
     <row r="105" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="102"/>
+      <c r="A105" s="110"/>
       <c r="B105" s="99"/>
-      <c r="C105" s="197"/>
-      <c r="D105" s="197"/>
+      <c r="C105" s="187"/>
+      <c r="D105" s="191"/>
       <c r="E105" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F105" s="60"/>
@@ -27751,8 +28053,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="158"/>
-      <c r="P105" s="190"/>
+      <c r="O105" s="452"/>
+      <c r="P105" s="454"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -27760,13 +28062,13 @@
       <c r="U105" s="49"/>
       <c r="V105" s="50"/>
     </row>
-    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="152"/>
-      <c r="B106" s="110"/>
-      <c r="C106" s="194"/>
-      <c r="D106" s="194"/>
+    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="99"/>
+      <c r="B106" s="99"/>
+      <c r="C106" s="191"/>
+      <c r="D106" s="191"/>
       <c r="E106" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F106" s="60"/>
@@ -27793,13 +28095,13 @@
       <c r="U106" s="49"/>
       <c r="V106" s="50"/>
     </row>
-    <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="152"/>
-      <c r="B107" s="110"/>
-      <c r="C107" s="197"/>
-      <c r="D107" s="197"/>
+    <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="99"/>
+      <c r="B107" s="99"/>
+      <c r="C107" s="191"/>
+      <c r="D107" s="191"/>
       <c r="E107" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F107" s="60"/>
@@ -27826,13 +28128,13 @@
       <c r="U107" s="49"/>
       <c r="V107" s="50"/>
     </row>
-    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="152"/>
-      <c r="B108" s="110"/>
+    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="102"/>
+      <c r="B108" s="99"/>
       <c r="C108" s="197"/>
       <c r="D108" s="197"/>
       <c r="E108" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F108" s="60"/>
@@ -27859,13 +28161,13 @@
       <c r="U108" s="49"/>
       <c r="V108" s="50"/>
     </row>
-    <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="101"/>
-      <c r="B109" s="99"/>
-      <c r="C109" s="197"/>
-      <c r="D109" s="197"/>
+    <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="152"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="194"/>
+      <c r="D109" s="194"/>
       <c r="E109" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F109" s="60"/>
@@ -27888,17 +28190,17 @@
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
-      <c r="T109" s="176"/>
+      <c r="T109" s="177"/>
       <c r="U109" s="49"/>
       <c r="V109" s="50"/>
     </row>
-    <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="101"/>
-      <c r="B110" s="99"/>
+    <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="152"/>
+      <c r="B110" s="110"/>
       <c r="C110" s="197"/>
       <c r="D110" s="197"/>
       <c r="E110" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F110" s="60"/>
@@ -27921,17 +28223,17 @@
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
-      <c r="T110" s="176"/>
+      <c r="T110" s="177"/>
       <c r="U110" s="49"/>
       <c r="V110" s="50"/>
     </row>
-    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="101"/>
-      <c r="B111" s="99"/>
+    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="152"/>
+      <c r="B111" s="110"/>
       <c r="C111" s="197"/>
       <c r="D111" s="197"/>
       <c r="E111" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F111" s="60"/>
@@ -27954,17 +28256,17 @@
       <c r="Q111" s="158"/>
       <c r="R111" s="125"/>
       <c r="S111" s="176"/>
-      <c r="T111" s="176"/>
+      <c r="T111" s="177"/>
       <c r="U111" s="49"/>
       <c r="V111" s="50"/>
     </row>
-    <row r="112" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="99"/>
-      <c r="B112" s="198"/>
+    <row r="112" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="101"/>
+      <c r="B112" s="99"/>
       <c r="C112" s="197"/>
       <c r="D112" s="197"/>
       <c r="E112" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F112" s="60"/>
@@ -27987,17 +28289,17 @@
       <c r="Q112" s="158"/>
       <c r="R112" s="125"/>
       <c r="S112" s="176"/>
-      <c r="T112" s="177"/>
+      <c r="T112" s="176"/>
       <c r="U112" s="49"/>
       <c r="V112" s="50"/>
     </row>
     <row r="113" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="99"/>
+      <c r="A113" s="101"/>
       <c r="B113" s="99"/>
       <c r="C113" s="197"/>
       <c r="D113" s="197"/>
       <c r="E113" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F113" s="60"/>
@@ -28020,17 +28322,17 @@
       <c r="Q113" s="158"/>
       <c r="R113" s="125"/>
       <c r="S113" s="176"/>
-      <c r="T113" s="177"/>
+      <c r="T113" s="176"/>
       <c r="U113" s="49"/>
       <c r="V113" s="50"/>
     </row>
     <row r="114" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="99"/>
+      <c r="A114" s="101"/>
       <c r="B114" s="99"/>
       <c r="C114" s="197"/>
       <c r="D114" s="197"/>
       <c r="E114" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F114" s="60"/>
@@ -28053,17 +28355,17 @@
       <c r="Q114" s="158"/>
       <c r="R114" s="125"/>
       <c r="S114" s="176"/>
-      <c r="T114" s="177"/>
+      <c r="T114" s="176"/>
       <c r="U114" s="49"/>
       <c r="V114" s="50"/>
     </row>
-    <row r="115" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="152"/>
-      <c r="B115" s="99"/>
+    <row r="115" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="99"/>
+      <c r="B115" s="198"/>
       <c r="C115" s="197"/>
       <c r="D115" s="197"/>
       <c r="E115" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F115" s="60"/>
@@ -28090,18 +28392,18 @@
       <c r="U115" s="49"/>
       <c r="V115" s="50"/>
     </row>
-    <row r="116" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="199"/>
-      <c r="B116" s="199"/>
-      <c r="C116" s="200"/>
-      <c r="D116" s="200"/>
-      <c r="E116" s="201">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F116" s="38"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="37"/>
+    <row r="116" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="99"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="197"/>
+      <c r="D116" s="197"/>
+      <c r="E116" s="56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="60"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="59"/>
       <c r="I116" s="60"/>
       <c r="J116" s="39">
         <f t="shared" si="1"/>
@@ -28123,13 +28425,13 @@
       <c r="U116" s="49"/>
       <c r="V116" s="50"/>
     </row>
-    <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="99"/>
       <c r="B117" s="99"/>
       <c r="C117" s="197"/>
       <c r="D117" s="197"/>
-      <c r="E117" s="34">
-        <f t="shared" si="7"/>
+      <c r="E117" s="56">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F117" s="60"/>
@@ -28156,13 +28458,13 @@
       <c r="U117" s="49"/>
       <c r="V117" s="50"/>
     </row>
-    <row r="118" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="110"/>
+    <row r="118" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="152"/>
       <c r="B118" s="99"/>
       <c r="C118" s="197"/>
       <c r="D118" s="197"/>
-      <c r="E118" s="34">
-        <f t="shared" si="7"/>
+      <c r="E118" s="56">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F118" s="60"/>
@@ -28189,18 +28491,18 @@
       <c r="U118" s="49"/>
       <c r="V118" s="50"/>
     </row>
-    <row r="119" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="110"/>
-      <c r="B119" s="99"/>
-      <c r="C119" s="197"/>
-      <c r="D119" s="197"/>
-      <c r="E119" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="60"/>
-      <c r="G119" s="58"/>
-      <c r="H119" s="59"/>
+    <row r="119" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="199"/>
+      <c r="B119" s="199"/>
+      <c r="C119" s="200"/>
+      <c r="D119" s="200"/>
+      <c r="E119" s="201">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="38"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="37"/>
       <c r="I119" s="60"/>
       <c r="J119" s="39">
         <f t="shared" si="1"/>
@@ -28223,12 +28525,12 @@
       <c r="V119" s="50"/>
     </row>
     <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="110"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="99"/>
       <c r="C120" s="197"/>
       <c r="D120" s="197"/>
       <c r="E120" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F120" s="60"/>
@@ -28256,12 +28558,12 @@
       <c r="V120" s="50"/>
     </row>
     <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="99"/>
+      <c r="A121" s="110"/>
       <c r="B121" s="99"/>
       <c r="C121" s="197"/>
       <c r="D121" s="197"/>
       <c r="E121" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F121" s="60"/>
@@ -28289,12 +28591,12 @@
       <c r="V121" s="50"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="98"/>
+      <c r="A122" s="110"/>
       <c r="B122" s="99"/>
       <c r="C122" s="197"/>
       <c r="D122" s="197"/>
       <c r="E122" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F122" s="60"/>
@@ -28309,7 +28611,7 @@
       <c r="L122" s="61"/>
       <c r="M122" s="61"/>
       <c r="N122" s="42">
-        <f t="shared" ref="N122:N185" si="8">K122*I122</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O122" s="158"/>
@@ -28322,12 +28624,12 @@
       <c r="V122" s="50"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="101"/>
+      <c r="A123" s="110"/>
       <c r="B123" s="99"/>
       <c r="C123" s="197"/>
       <c r="D123" s="197"/>
       <c r="E123" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F123" s="60"/>
@@ -28342,7 +28644,7 @@
       <c r="L123" s="61"/>
       <c r="M123" s="61"/>
       <c r="N123" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O123" s="158"/>
@@ -28355,12 +28657,12 @@
       <c r="V123" s="50"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="101"/>
+      <c r="A124" s="99"/>
       <c r="B124" s="99"/>
       <c r="C124" s="197"/>
       <c r="D124" s="197"/>
       <c r="E124" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F124" s="60"/>
@@ -28375,7 +28677,7 @@
       <c r="L124" s="61"/>
       <c r="M124" s="61"/>
       <c r="N124" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O124" s="158"/>
@@ -28388,12 +28690,12 @@
       <c r="V124" s="50"/>
     </row>
     <row r="125" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="202"/>
+      <c r="A125" s="98"/>
       <c r="B125" s="99"/>
       <c r="C125" s="197"/>
       <c r="D125" s="197"/>
       <c r="E125" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F125" s="60"/>
@@ -28408,7 +28710,7 @@
       <c r="L125" s="61"/>
       <c r="M125" s="61"/>
       <c r="N125" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N125:N188" si="9">K125*I125</f>
         <v>0</v>
       </c>
       <c r="O125" s="158"/>
@@ -28421,12 +28723,12 @@
       <c r="V125" s="50"/>
     </row>
     <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="203"/>
+      <c r="A126" s="101"/>
       <c r="B126" s="99"/>
       <c r="C126" s="197"/>
       <c r="D126" s="197"/>
       <c r="E126" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F126" s="60"/>
@@ -28441,7 +28743,7 @@
       <c r="L126" s="61"/>
       <c r="M126" s="61"/>
       <c r="N126" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O126" s="158"/>
@@ -28454,12 +28756,12 @@
       <c r="V126" s="50"/>
     </row>
     <row r="127" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="204"/>
+      <c r="A127" s="101"/>
       <c r="B127" s="99"/>
       <c r="C127" s="197"/>
       <c r="D127" s="197"/>
       <c r="E127" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F127" s="60"/>
@@ -28474,7 +28776,7 @@
       <c r="L127" s="61"/>
       <c r="M127" s="61"/>
       <c r="N127" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O127" s="158"/>
@@ -28487,12 +28789,12 @@
       <c r="V127" s="50"/>
     </row>
     <row r="128" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="204"/>
+      <c r="A128" s="202"/>
       <c r="B128" s="99"/>
-      <c r="C128" s="154"/>
-      <c r="D128" s="154"/>
+      <c r="C128" s="197"/>
+      <c r="D128" s="197"/>
       <c r="E128" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F128" s="60"/>
@@ -28500,14 +28802,14 @@
       <c r="H128" s="59"/>
       <c r="I128" s="60"/>
       <c r="J128" s="39">
-        <f t="shared" ref="J128:J191" si="9">I128-F128</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K128" s="81"/>
       <c r="L128" s="61"/>
       <c r="M128" s="61"/>
       <c r="N128" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O128" s="158"/>
@@ -28525,22 +28827,22 @@
       <c r="C129" s="197"/>
       <c r="D129" s="197"/>
       <c r="E129" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F129" s="60"/>
       <c r="G129" s="58"/>
-      <c r="H129" s="205"/>
+      <c r="H129" s="59"/>
       <c r="I129" s="60"/>
       <c r="J129" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K129" s="81"/>
       <c r="L129" s="61"/>
       <c r="M129" s="61"/>
       <c r="N129" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O129" s="158"/>
@@ -28553,27 +28855,27 @@
       <c r="V129" s="50"/>
     </row>
     <row r="130" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="203"/>
+      <c r="A130" s="204"/>
       <c r="B130" s="99"/>
-      <c r="C130" s="154"/>
-      <c r="D130" s="154"/>
+      <c r="C130" s="197"/>
+      <c r="D130" s="197"/>
       <c r="E130" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F130" s="60"/>
       <c r="G130" s="58"/>
-      <c r="H130" s="205"/>
+      <c r="H130" s="59"/>
       <c r="I130" s="60"/>
       <c r="J130" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K130" s="81"/>
       <c r="L130" s="61"/>
       <c r="M130" s="61"/>
       <c r="N130" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O130" s="158"/>
@@ -28586,27 +28888,27 @@
       <c r="V130" s="50"/>
     </row>
     <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="203"/>
+      <c r="A131" s="204"/>
       <c r="B131" s="99"/>
-      <c r="C131" s="197"/>
-      <c r="D131" s="197"/>
+      <c r="C131" s="154"/>
+      <c r="D131" s="154"/>
       <c r="E131" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F131" s="60"/>
       <c r="G131" s="58"/>
-      <c r="H131" s="205"/>
+      <c r="H131" s="59"/>
       <c r="I131" s="60"/>
       <c r="J131" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J131:J194" si="10">I131-F131</f>
         <v>0</v>
       </c>
       <c r="K131" s="81"/>
       <c r="L131" s="61"/>
       <c r="M131" s="61"/>
       <c r="N131" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O131" s="158"/>
@@ -28621,10 +28923,10 @@
     <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="203"/>
       <c r="B132" s="99"/>
-      <c r="C132" s="194"/>
-      <c r="D132" s="194"/>
+      <c r="C132" s="197"/>
+      <c r="D132" s="197"/>
       <c r="E132" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F132" s="60"/>
@@ -28632,18 +28934,18 @@
       <c r="H132" s="205"/>
       <c r="I132" s="60"/>
       <c r="J132" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K132" s="81"/>
       <c r="L132" s="61"/>
       <c r="M132" s="61"/>
       <c r="N132" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O132" s="158"/>
-      <c r="P132" s="183"/>
+      <c r="P132" s="190"/>
       <c r="Q132" s="158"/>
       <c r="R132" s="125"/>
       <c r="S132" s="176"/>
@@ -28651,100 +28953,100 @@
       <c r="U132" s="49"/>
       <c r="V132" s="50"/>
     </row>
-    <row r="133" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="99"/>
+    <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="203"/>
       <c r="B133" s="99"/>
-      <c r="C133" s="197"/>
-      <c r="D133" s="197"/>
+      <c r="C133" s="154"/>
+      <c r="D133" s="154"/>
       <c r="E133" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F133" s="60"/>
       <c r="G133" s="58"/>
-      <c r="H133" s="206"/>
+      <c r="H133" s="205"/>
       <c r="I133" s="60"/>
       <c r="J133" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K133" s="81"/>
       <c r="L133" s="61"/>
       <c r="M133" s="61"/>
       <c r="N133" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O133" s="158"/>
-      <c r="P133" s="207"/>
+      <c r="P133" s="190"/>
       <c r="Q133" s="158"/>
-      <c r="R133" s="208"/>
+      <c r="R133" s="125"/>
       <c r="S133" s="176"/>
       <c r="T133" s="177"/>
       <c r="U133" s="49"/>
       <c r="V133" s="50"/>
     </row>
-    <row r="134" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="99"/>
+    <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="203"/>
       <c r="B134" s="99"/>
       <c r="C134" s="197"/>
       <c r="D134" s="197"/>
       <c r="E134" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F134" s="60"/>
       <c r="G134" s="58"/>
-      <c r="H134" s="206"/>
+      <c r="H134" s="205"/>
       <c r="I134" s="60"/>
       <c r="J134" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K134" s="81"/>
       <c r="L134" s="61"/>
       <c r="M134" s="61"/>
       <c r="N134" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O134" s="158"/>
-      <c r="P134" s="207"/>
+      <c r="P134" s="190"/>
       <c r="Q134" s="158"/>
-      <c r="R134" s="208"/>
+      <c r="R134" s="125"/>
       <c r="S134" s="176"/>
       <c r="T134" s="177"/>
       <c r="U134" s="49"/>
       <c r="V134" s="50"/>
     </row>
-    <row r="135" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="99"/>
+    <row r="135" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="203"/>
       <c r="B135" s="99"/>
-      <c r="C135" s="197"/>
-      <c r="D135" s="197"/>
+      <c r="C135" s="194"/>
+      <c r="D135" s="194"/>
       <c r="E135" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F135" s="60"/>
       <c r="G135" s="58"/>
-      <c r="H135" s="206"/>
+      <c r="H135" s="205"/>
       <c r="I135" s="60"/>
       <c r="J135" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K135" s="81"/>
       <c r="L135" s="61"/>
       <c r="M135" s="61"/>
       <c r="N135" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O135" s="158"/>
-      <c r="P135" s="207"/>
+      <c r="P135" s="183"/>
       <c r="Q135" s="158"/>
-      <c r="R135" s="208"/>
+      <c r="R135" s="125"/>
       <c r="S135" s="176"/>
       <c r="T135" s="177"/>
       <c r="U135" s="49"/>
@@ -28756,7 +29058,7 @@
       <c r="C136" s="197"/>
       <c r="D136" s="197"/>
       <c r="E136" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F136" s="60"/>
@@ -28764,14 +29066,14 @@
       <c r="H136" s="206"/>
       <c r="I136" s="60"/>
       <c r="J136" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K136" s="81"/>
       <c r="L136" s="61"/>
       <c r="M136" s="61"/>
       <c r="N136" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O136" s="158"/>
@@ -28783,99 +29085,99 @@
       <c r="U136" s="49"/>
       <c r="V136" s="50"/>
     </row>
-    <row r="137" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="102"/>
+    <row r="137" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="99"/>
       <c r="B137" s="99"/>
       <c r="C137" s="197"/>
       <c r="D137" s="197"/>
       <c r="E137" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F137" s="60"/>
       <c r="G137" s="58"/>
-      <c r="H137" s="205"/>
+      <c r="H137" s="206"/>
       <c r="I137" s="60"/>
       <c r="J137" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K137" s="81"/>
       <c r="L137" s="61"/>
       <c r="M137" s="61"/>
       <c r="N137" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O137" s="69"/>
-      <c r="P137" s="209"/>
-      <c r="Q137" s="210"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="158"/>
+      <c r="P137" s="207"/>
+      <c r="Q137" s="158"/>
       <c r="R137" s="208"/>
       <c r="S137" s="176"/>
       <c r="T137" s="177"/>
       <c r="U137" s="49"/>
       <c r="V137" s="50"/>
     </row>
-    <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="99"/>
       <c r="B138" s="99"/>
       <c r="C138" s="197"/>
       <c r="D138" s="197"/>
       <c r="E138" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F138" s="60"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="205"/>
+      <c r="H138" s="206"/>
       <c r="I138" s="60"/>
       <c r="J138" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K138" s="81"/>
       <c r="L138" s="61"/>
       <c r="M138" s="61"/>
       <c r="N138" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O138" s="69"/>
-      <c r="P138" s="209"/>
-      <c r="Q138" s="210"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O138" s="158"/>
+      <c r="P138" s="207"/>
+      <c r="Q138" s="158"/>
       <c r="R138" s="208"/>
       <c r="S138" s="176"/>
       <c r="T138" s="177"/>
       <c r="U138" s="49"/>
       <c r="V138" s="50"/>
     </row>
-    <row r="139" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="101"/>
+    <row r="139" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="99"/>
       <c r="B139" s="99"/>
-      <c r="C139" s="181"/>
-      <c r="D139" s="181"/>
+      <c r="C139" s="197"/>
+      <c r="D139" s="197"/>
       <c r="E139" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F139" s="60"/>
       <c r="G139" s="58"/>
-      <c r="H139" s="205"/>
+      <c r="H139" s="206"/>
       <c r="I139" s="60"/>
       <c r="J139" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K139" s="81"/>
       <c r="L139" s="61"/>
       <c r="M139" s="61"/>
       <c r="N139" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O139" s="69"/>
-      <c r="P139" s="209"/>
-      <c r="Q139" s="210"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O139" s="158"/>
+      <c r="P139" s="207"/>
+      <c r="Q139" s="158"/>
       <c r="R139" s="208"/>
       <c r="S139" s="176"/>
       <c r="T139" s="177"/>
@@ -28883,12 +29185,12 @@
       <c r="V139" s="50"/>
     </row>
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="101"/>
+      <c r="A140" s="102"/>
       <c r="B140" s="99"/>
-      <c r="C140" s="181"/>
-      <c r="D140" s="181"/>
+      <c r="C140" s="197"/>
+      <c r="D140" s="197"/>
       <c r="E140" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F140" s="60"/>
@@ -28896,14 +29198,14 @@
       <c r="H140" s="205"/>
       <c r="I140" s="60"/>
       <c r="J140" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K140" s="81"/>
       <c r="L140" s="61"/>
       <c r="M140" s="61"/>
       <c r="N140" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O140" s="69"/>
@@ -28916,12 +29218,12 @@
       <c r="V140" s="50"/>
     </row>
     <row r="141" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="101"/>
+      <c r="A141" s="99"/>
       <c r="B141" s="99"/>
-      <c r="C141" s="181"/>
-      <c r="D141" s="181"/>
+      <c r="C141" s="197"/>
+      <c r="D141" s="197"/>
       <c r="E141" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F141" s="60"/>
@@ -28929,14 +29231,14 @@
       <c r="H141" s="205"/>
       <c r="I141" s="60"/>
       <c r="J141" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K141" s="81"/>
       <c r="L141" s="61"/>
       <c r="M141" s="61"/>
       <c r="N141" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O141" s="69"/>
@@ -28954,7 +29256,7 @@
       <c r="C142" s="181"/>
       <c r="D142" s="181"/>
       <c r="E142" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F142" s="60"/>
@@ -28962,14 +29264,14 @@
       <c r="H142" s="205"/>
       <c r="I142" s="60"/>
       <c r="J142" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K142" s="81"/>
       <c r="L142" s="61"/>
       <c r="M142" s="61"/>
       <c r="N142" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O142" s="69"/>
@@ -28987,7 +29289,7 @@
       <c r="C143" s="181"/>
       <c r="D143" s="181"/>
       <c r="E143" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F143" s="60"/>
@@ -28995,14 +29297,14 @@
       <c r="H143" s="205"/>
       <c r="I143" s="60"/>
       <c r="J143" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K143" s="81"/>
       <c r="L143" s="61"/>
       <c r="M143" s="61"/>
       <c r="N143" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O143" s="69"/>
@@ -29015,12 +29317,12 @@
       <c r="V143" s="50"/>
     </row>
     <row r="144" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="203"/>
+      <c r="A144" s="101"/>
       <c r="B144" s="99"/>
-      <c r="C144" s="197"/>
-      <c r="D144" s="197"/>
+      <c r="C144" s="181"/>
+      <c r="D144" s="181"/>
       <c r="E144" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F144" s="60"/>
@@ -29028,14 +29330,14 @@
       <c r="H144" s="205"/>
       <c r="I144" s="60"/>
       <c r="J144" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K144" s="81"/>
       <c r="L144" s="61"/>
       <c r="M144" s="61"/>
       <c r="N144" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O144" s="69"/>
@@ -29048,12 +29350,12 @@
       <c r="V144" s="50"/>
     </row>
     <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="169"/>
+      <c r="A145" s="101"/>
       <c r="B145" s="99"/>
-      <c r="C145" s="182"/>
-      <c r="D145" s="182"/>
+      <c r="C145" s="181"/>
+      <c r="D145" s="181"/>
       <c r="E145" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F145" s="60"/>
@@ -29061,14 +29363,14 @@
       <c r="H145" s="205"/>
       <c r="I145" s="60"/>
       <c r="J145" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K145" s="81"/>
       <c r="L145" s="61"/>
       <c r="M145" s="61"/>
       <c r="N145" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O145" s="69"/>
@@ -29081,12 +29383,12 @@
       <c r="V145" s="50"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="169"/>
+      <c r="A146" s="101"/>
       <c r="B146" s="99"/>
-      <c r="C146" s="182"/>
-      <c r="D146" s="182"/>
+      <c r="C146" s="181"/>
+      <c r="D146" s="181"/>
       <c r="E146" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F146" s="60"/>
@@ -29094,19 +29396,19 @@
       <c r="H146" s="205"/>
       <c r="I146" s="60"/>
       <c r="J146" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K146" s="81"/>
       <c r="L146" s="61"/>
       <c r="M146" s="61"/>
       <c r="N146" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O146" s="69"/>
       <c r="P146" s="209"/>
-      <c r="Q146" s="211"/>
+      <c r="Q146" s="210"/>
       <c r="R146" s="208"/>
       <c r="S146" s="176"/>
       <c r="T146" s="177"/>
@@ -29114,12 +29416,12 @@
       <c r="V146" s="50"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="169"/>
+      <c r="A147" s="203"/>
       <c r="B147" s="99"/>
-      <c r="C147" s="182"/>
-      <c r="D147" s="182"/>
+      <c r="C147" s="197"/>
+      <c r="D147" s="197"/>
       <c r="E147" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F147" s="60"/>
@@ -29127,14 +29429,14 @@
       <c r="H147" s="205"/>
       <c r="I147" s="60"/>
       <c r="J147" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K147" s="81"/>
       <c r="L147" s="61"/>
       <c r="M147" s="61"/>
       <c r="N147" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O147" s="69"/>
@@ -29147,12 +29449,12 @@
       <c r="V147" s="50"/>
     </row>
     <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="203"/>
+      <c r="A148" s="169"/>
       <c r="B148" s="99"/>
-      <c r="C148" s="197"/>
-      <c r="D148" s="197"/>
+      <c r="C148" s="182"/>
+      <c r="D148" s="182"/>
       <c r="E148" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F148" s="60"/>
@@ -29160,18 +29462,18 @@
       <c r="H148" s="205"/>
       <c r="I148" s="60"/>
       <c r="J148" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K148" s="81"/>
       <c r="L148" s="61"/>
       <c r="M148" s="61"/>
       <c r="N148" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O148" s="69"/>
-      <c r="P148" s="212"/>
+      <c r="P148" s="209"/>
       <c r="Q148" s="210"/>
       <c r="R148" s="208"/>
       <c r="S148" s="176"/>
@@ -29179,33 +29481,33 @@
       <c r="U148" s="49"/>
       <c r="V148" s="50"/>
     </row>
-    <row r="149" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="203"/>
+    <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="169"/>
       <c r="B149" s="99"/>
-      <c r="C149" s="197"/>
-      <c r="D149" s="197"/>
+      <c r="C149" s="182"/>
+      <c r="D149" s="182"/>
       <c r="E149" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F149" s="60"/>
       <c r="G149" s="58"/>
-      <c r="H149" s="206"/>
+      <c r="H149" s="205"/>
       <c r="I149" s="60"/>
       <c r="J149" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K149" s="81"/>
       <c r="L149" s="61"/>
       <c r="M149" s="61"/>
       <c r="N149" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O149" s="69"/>
-      <c r="P149" s="212"/>
-      <c r="Q149" s="210"/>
+      <c r="P149" s="209"/>
+      <c r="Q149" s="211"/>
       <c r="R149" s="208"/>
       <c r="S149" s="176"/>
       <c r="T149" s="177"/>
@@ -29213,31 +29515,31 @@
       <c r="V149" s="50"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="203"/>
+      <c r="A150" s="169"/>
       <c r="B150" s="99"/>
-      <c r="C150" s="197"/>
-      <c r="D150" s="197"/>
+      <c r="C150" s="182"/>
+      <c r="D150" s="182"/>
       <c r="E150" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F150" s="60"/>
       <c r="G150" s="58"/>
-      <c r="H150" s="213"/>
+      <c r="H150" s="205"/>
       <c r="I150" s="60"/>
       <c r="J150" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K150" s="81"/>
       <c r="L150" s="61"/>
       <c r="M150" s="61"/>
       <c r="N150" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O150" s="69"/>
-      <c r="P150" s="212"/>
+      <c r="P150" s="209"/>
       <c r="Q150" s="210"/>
       <c r="R150" s="208"/>
       <c r="S150" s="176"/>
@@ -29251,7 +29553,7 @@
       <c r="C151" s="197"/>
       <c r="D151" s="197"/>
       <c r="E151" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F151" s="60"/>
@@ -29259,14 +29561,14 @@
       <c r="H151" s="205"/>
       <c r="I151" s="60"/>
       <c r="J151" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K151" s="81"/>
       <c r="L151" s="61"/>
       <c r="M151" s="61"/>
       <c r="N151" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O151" s="69"/>
@@ -29278,65 +29580,65 @@
       <c r="U151" s="49"/>
       <c r="V151" s="50"/>
     </row>
-    <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="214"/>
+    <row r="152" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="203"/>
       <c r="B152" s="99"/>
       <c r="C152" s="197"/>
       <c r="D152" s="197"/>
       <c r="E152" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F152" s="60"/>
       <c r="G152" s="58"/>
-      <c r="H152" s="215"/>
+      <c r="H152" s="206"/>
       <c r="I152" s="60"/>
       <c r="J152" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K152" s="81"/>
       <c r="L152" s="61"/>
       <c r="M152" s="61"/>
       <c r="N152" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O152" s="216"/>
-      <c r="P152" s="217"/>
-      <c r="Q152" s="218"/>
-      <c r="R152" s="219"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="69"/>
+      <c r="P152" s="212"/>
+      <c r="Q152" s="210"/>
+      <c r="R152" s="208"/>
       <c r="S152" s="176"/>
       <c r="T152" s="177"/>
       <c r="U152" s="49"/>
       <c r="V152" s="50"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="220"/>
+      <c r="A153" s="203"/>
       <c r="B153" s="99"/>
       <c r="C153" s="197"/>
       <c r="D153" s="197"/>
       <c r="E153" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F153" s="60"/>
-      <c r="G153" s="221"/>
-      <c r="H153" s="222"/>
+      <c r="G153" s="58"/>
+      <c r="H153" s="213"/>
       <c r="I153" s="60"/>
       <c r="J153" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K153" s="81"/>
       <c r="L153" s="61"/>
       <c r="M153" s="61"/>
       <c r="N153" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O153" s="223"/>
-      <c r="P153" s="224"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="69"/>
+      <c r="P153" s="212"/>
       <c r="Q153" s="210"/>
       <c r="R153" s="208"/>
       <c r="S153" s="176"/>
@@ -29345,31 +29647,31 @@
       <c r="V153" s="50"/>
     </row>
     <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="204"/>
+      <c r="A154" s="203"/>
       <c r="B154" s="99"/>
       <c r="C154" s="197"/>
       <c r="D154" s="197"/>
       <c r="E154" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F154" s="60"/>
-      <c r="G154" s="224"/>
-      <c r="H154" s="215"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="205"/>
       <c r="I154" s="60"/>
       <c r="J154" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K154" s="81"/>
       <c r="L154" s="61"/>
       <c r="M154" s="61"/>
       <c r="N154" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O154" s="223"/>
-      <c r="P154" s="224"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="69"/>
+      <c r="P154" s="212"/>
       <c r="Q154" s="210"/>
       <c r="R154" s="208"/>
       <c r="S154" s="176"/>
@@ -29378,29 +29680,27 @@
       <c r="V154" s="50"/>
     </row>
     <row r="155" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="204"/>
+      <c r="A155" s="214"/>
       <c r="B155" s="99"/>
       <c r="C155" s="197"/>
       <c r="D155" s="197"/>
       <c r="E155" s="34">
-        <f t="shared" ref="E155:E224" si="10">D155*F155</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F155" s="60"/>
-      <c r="G155" s="224"/>
-      <c r="H155" s="222"/>
+      <c r="G155" s="58"/>
+      <c r="H155" s="215"/>
       <c r="I155" s="60"/>
       <c r="J155" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K155" s="81"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="61"/>
+      <c r="N155" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K155" s="225"/>
-      <c r="L155" s="61"/>
-      <c r="M155" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="N155" s="42">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O155" s="216"/>
@@ -29413,27 +29713,27 @@
       <c r="V155" s="50"/>
     </row>
     <row r="156" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="203"/>
+      <c r="A156" s="220"/>
       <c r="B156" s="99"/>
       <c r="C156" s="197"/>
       <c r="D156" s="197"/>
       <c r="E156" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F156" s="60"/>
-      <c r="G156" s="224"/>
+      <c r="G156" s="221"/>
       <c r="H156" s="222"/>
       <c r="I156" s="60"/>
       <c r="J156" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K156" s="225"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="81"/>
       <c r="L156" s="61"/>
       <c r="M156" s="61"/>
       <c r="N156" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O156" s="223"/>
@@ -29446,64 +29746,66 @@
       <c r="V156" s="50"/>
     </row>
     <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="169"/>
+      <c r="A157" s="204"/>
       <c r="B157" s="99"/>
-      <c r="C157" s="226"/>
-      <c r="D157" s="226"/>
+      <c r="C157" s="197"/>
+      <c r="D157" s="197"/>
       <c r="E157" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F157" s="60"/>
       <c r="G157" s="224"/>
-      <c r="H157" s="227"/>
+      <c r="H157" s="215"/>
       <c r="I157" s="60"/>
       <c r="J157" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K157" s="81"/>
       <c r="L157" s="61"/>
       <c r="M157" s="61"/>
       <c r="N157" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O157" s="228"/>
-      <c r="P157" s="229"/>
-      <c r="Q157" s="124"/>
-      <c r="R157" s="125"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="223"/>
+      <c r="P157" s="224"/>
+      <c r="Q157" s="210"/>
+      <c r="R157" s="208"/>
       <c r="S157" s="176"/>
       <c r="T157" s="177"/>
       <c r="U157" s="49"/>
       <c r="V157" s="50"/>
     </row>
     <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="230"/>
+      <c r="A158" s="204"/>
       <c r="B158" s="99"/>
       <c r="C158" s="197"/>
       <c r="D158" s="197"/>
       <c r="E158" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E158:E227" si="11">D158*F158</f>
         <v>0</v>
       </c>
       <c r="F158" s="60"/>
       <c r="G158" s="224"/>
-      <c r="H158" s="205"/>
+      <c r="H158" s="222"/>
       <c r="I158" s="60"/>
       <c r="J158" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K158" s="225"/>
+      <c r="L158" s="61"/>
+      <c r="M158" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N158" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K158" s="225"/>
-      <c r="L158" s="231"/>
-      <c r="M158" s="231"/>
-      <c r="N158" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O158" s="228"/>
-      <c r="P158" s="229"/>
+      <c r="O158" s="216"/>
+      <c r="P158" s="217"/>
       <c r="Q158" s="218"/>
       <c r="R158" s="219"/>
       <c r="S158" s="176"/>
@@ -29517,73 +29819,73 @@
       <c r="C159" s="197"/>
       <c r="D159" s="197"/>
       <c r="E159" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F159" s="60"/>
       <c r="G159" s="224"/>
-      <c r="H159" s="205"/>
+      <c r="H159" s="222"/>
       <c r="I159" s="60"/>
       <c r="J159" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="225"/>
+      <c r="L159" s="61"/>
+      <c r="M159" s="61"/>
+      <c r="N159" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K159" s="225"/>
-      <c r="L159" s="231"/>
-      <c r="M159" s="231"/>
-      <c r="N159" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O159" s="69"/>
-      <c r="P159" s="209"/>
-      <c r="Q159" s="218"/>
-      <c r="R159" s="219"/>
+      <c r="O159" s="223"/>
+      <c r="P159" s="224"/>
+      <c r="Q159" s="210"/>
+      <c r="R159" s="208"/>
       <c r="S159" s="176"/>
       <c r="T159" s="177"/>
       <c r="U159" s="49"/>
       <c r="V159" s="50"/>
     </row>
     <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="204"/>
+      <c r="A160" s="169"/>
       <c r="B160" s="99"/>
-      <c r="C160" s="197"/>
-      <c r="D160" s="197"/>
+      <c r="C160" s="226"/>
+      <c r="D160" s="226"/>
       <c r="E160" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F160" s="60"/>
       <c r="G160" s="224"/>
-      <c r="H160" s="232"/>
+      <c r="H160" s="227"/>
       <c r="I160" s="60"/>
       <c r="J160" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="81"/>
+      <c r="L160" s="61"/>
+      <c r="M160" s="61"/>
+      <c r="N160" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K160" s="233"/>
-      <c r="L160" s="231"/>
-      <c r="M160" s="231"/>
-      <c r="N160" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O160" s="223"/>
-      <c r="P160" s="224"/>
-      <c r="Q160" s="218"/>
-      <c r="R160" s="219"/>
+      <c r="O160" s="228"/>
+      <c r="P160" s="229"/>
+      <c r="Q160" s="124"/>
+      <c r="R160" s="125"/>
       <c r="S160" s="176"/>
       <c r="T160" s="177"/>
       <c r="U160" s="49"/>
       <c r="V160" s="50"/>
     </row>
-    <row r="161" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="204"/>
+    <row r="161" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="230"/>
       <c r="B161" s="99"/>
       <c r="C161" s="197"/>
       <c r="D161" s="197"/>
       <c r="E161" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F161" s="60"/>
@@ -29591,18 +29893,18 @@
       <c r="H161" s="205"/>
       <c r="I161" s="60"/>
       <c r="J161" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K161" s="225"/>
+      <c r="L161" s="231"/>
+      <c r="M161" s="231"/>
+      <c r="N161" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K161" s="234"/>
-      <c r="L161" s="235"/>
-      <c r="M161" s="235"/>
-      <c r="N161" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O161" s="216"/>
-      <c r="P161" s="217"/>
+      <c r="O161" s="228"/>
+      <c r="P161" s="229"/>
       <c r="Q161" s="218"/>
       <c r="R161" s="219"/>
       <c r="S161" s="176"/>
@@ -29611,31 +29913,31 @@
       <c r="V161" s="50"/>
     </row>
     <row r="162" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="236"/>
+      <c r="A162" s="203"/>
       <c r="B162" s="99"/>
       <c r="C162" s="197"/>
       <c r="D162" s="197"/>
       <c r="E162" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F162" s="237"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="60"/>
       <c r="G162" s="224"/>
-      <c r="H162" s="213"/>
+      <c r="H162" s="205"/>
       <c r="I162" s="60"/>
       <c r="J162" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="225"/>
+      <c r="L162" s="231"/>
+      <c r="M162" s="231"/>
+      <c r="N162" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K162" s="234"/>
-      <c r="L162" s="238"/>
-      <c r="M162" s="238"/>
-      <c r="N162" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O162" s="223"/>
-      <c r="P162" s="224"/>
+      <c r="O162" s="69"/>
+      <c r="P162" s="209"/>
       <c r="Q162" s="218"/>
       <c r="R162" s="219"/>
       <c r="S162" s="176"/>
@@ -29644,31 +29946,31 @@
       <c r="V162" s="50"/>
     </row>
     <row r="163" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="214"/>
+      <c r="A163" s="204"/>
       <c r="B163" s="99"/>
       <c r="C163" s="197"/>
       <c r="D163" s="197"/>
       <c r="E163" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F163" s="60"/>
       <c r="G163" s="224"/>
-      <c r="H163" s="205"/>
+      <c r="H163" s="232"/>
       <c r="I163" s="60"/>
       <c r="J163" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K163" s="234"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="233"/>
       <c r="L163" s="231"/>
       <c r="M163" s="231"/>
       <c r="N163" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O163" s="216"/>
-      <c r="P163" s="217"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O163" s="223"/>
+      <c r="P163" s="224"/>
       <c r="Q163" s="218"/>
       <c r="R163" s="219"/>
       <c r="S163" s="176"/>
@@ -29682,22 +29984,22 @@
       <c r="C164" s="197"/>
       <c r="D164" s="197"/>
       <c r="E164" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F164" s="60"/>
       <c r="G164" s="224"/>
-      <c r="H164" s="239"/>
+      <c r="H164" s="205"/>
       <c r="I164" s="60"/>
       <c r="J164" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="234"/>
+      <c r="L164" s="235"/>
+      <c r="M164" s="235"/>
+      <c r="N164" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K164" s="81"/>
-      <c r="L164" s="231"/>
-      <c r="M164" s="231"/>
-      <c r="N164" s="42">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O164" s="216"/>
@@ -29710,31 +30012,31 @@
       <c r="V164" s="50"/>
     </row>
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="204"/>
+      <c r="A165" s="236"/>
       <c r="B165" s="99"/>
       <c r="C165" s="197"/>
       <c r="D165" s="197"/>
       <c r="E165" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F165" s="60"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F165" s="237"/>
       <c r="G165" s="224"/>
-      <c r="H165" s="215"/>
+      <c r="H165" s="213"/>
       <c r="I165" s="60"/>
       <c r="J165" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K165" s="234"/>
+      <c r="L165" s="238"/>
+      <c r="M165" s="238"/>
+      <c r="N165" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K165" s="234"/>
-      <c r="L165" s="231"/>
-      <c r="M165" s="231"/>
-      <c r="N165" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O165" s="216"/>
-      <c r="P165" s="217"/>
+      <c r="O165" s="223"/>
+      <c r="P165" s="224"/>
       <c r="Q165" s="218"/>
       <c r="R165" s="219"/>
       <c r="S165" s="176"/>
@@ -29743,27 +30045,27 @@
       <c r="V165" s="50"/>
     </row>
     <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="204"/>
+      <c r="A166" s="214"/>
       <c r="B166" s="99"/>
       <c r="C166" s="197"/>
       <c r="D166" s="197"/>
       <c r="E166" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F166" s="60"/>
       <c r="G166" s="224"/>
-      <c r="H166" s="175"/>
+      <c r="H166" s="205"/>
       <c r="I166" s="60"/>
       <c r="J166" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K166" s="234"/>
       <c r="L166" s="231"/>
       <c r="M166" s="231"/>
       <c r="N166" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O166" s="216"/>
@@ -29775,28 +30077,28 @@
       <c r="U166" s="49"/>
       <c r="V166" s="50"/>
     </row>
-    <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="204"/>
       <c r="B167" s="99"/>
       <c r="C167" s="197"/>
       <c r="D167" s="197"/>
       <c r="E167" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F167" s="60"/>
       <c r="G167" s="224"/>
-      <c r="H167" s="240"/>
+      <c r="H167" s="239"/>
       <c r="I167" s="60"/>
       <c r="J167" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="81"/>
+      <c r="L167" s="231"/>
+      <c r="M167" s="231"/>
+      <c r="N167" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K167" s="234"/>
-      <c r="L167" s="241"/>
-      <c r="M167" s="241"/>
-      <c r="N167" s="42">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O167" s="216"/>
@@ -29814,22 +30116,22 @@
       <c r="C168" s="197"/>
       <c r="D168" s="197"/>
       <c r="E168" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F168" s="60"/>
       <c r="G168" s="224"/>
-      <c r="H168" s="175"/>
+      <c r="H168" s="215"/>
       <c r="I168" s="60"/>
       <c r="J168" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="234"/>
+      <c r="L168" s="231"/>
+      <c r="M168" s="231"/>
+      <c r="N168" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K168" s="234"/>
-      <c r="L168" s="241"/>
-      <c r="M168" s="241"/>
-      <c r="N168" s="42">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O168" s="216"/>
@@ -29847,7 +30149,7 @@
       <c r="C169" s="197"/>
       <c r="D169" s="197"/>
       <c r="E169" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F169" s="60"/>
@@ -29855,14 +30157,14 @@
       <c r="H169" s="175"/>
       <c r="I169" s="60"/>
       <c r="J169" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="234"/>
+      <c r="L169" s="231"/>
+      <c r="M169" s="231"/>
+      <c r="N169" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K169" s="234"/>
-      <c r="L169" s="241"/>
-      <c r="M169" s="241"/>
-      <c r="N169" s="42">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O169" s="216"/>
@@ -29880,22 +30182,22 @@
       <c r="C170" s="197"/>
       <c r="D170" s="197"/>
       <c r="E170" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F170" s="60"/>
       <c r="G170" s="224"/>
-      <c r="H170" s="175"/>
+      <c r="H170" s="240"/>
       <c r="I170" s="60"/>
       <c r="J170" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="234"/>
+      <c r="L170" s="241"/>
+      <c r="M170" s="241"/>
+      <c r="N170" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K170" s="81"/>
-      <c r="L170" s="61"/>
-      <c r="M170" s="61"/>
-      <c r="N170" s="42">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O170" s="216"/>
@@ -29910,10 +30212,10 @@
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="204"/>
       <c r="B171" s="99"/>
-      <c r="C171" s="242"/>
-      <c r="D171" s="242"/>
+      <c r="C171" s="197"/>
+      <c r="D171" s="197"/>
       <c r="E171" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F171" s="60"/>
@@ -29921,20 +30223,20 @@
       <c r="H171" s="175"/>
       <c r="I171" s="60"/>
       <c r="J171" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="234"/>
+      <c r="L171" s="241"/>
+      <c r="M171" s="241"/>
+      <c r="N171" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K171" s="81"/>
-      <c r="L171" s="61"/>
-      <c r="M171" s="61"/>
-      <c r="N171" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O171" s="223"/>
-      <c r="P171" s="243"/>
-      <c r="Q171" s="124"/>
-      <c r="R171" s="125"/>
+      <c r="O171" s="216"/>
+      <c r="P171" s="217"/>
+      <c r="Q171" s="218"/>
+      <c r="R171" s="219"/>
       <c r="S171" s="176"/>
       <c r="T171" s="177"/>
       <c r="U171" s="49"/>
@@ -29943,10 +30245,10 @@
     <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="204"/>
       <c r="B172" s="99"/>
-      <c r="C172" s="242"/>
-      <c r="D172" s="242"/>
+      <c r="C172" s="197"/>
+      <c r="D172" s="197"/>
       <c r="E172" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F172" s="60"/>
@@ -29954,53 +30256,53 @@
       <c r="H172" s="175"/>
       <c r="I172" s="60"/>
       <c r="J172" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="234"/>
+      <c r="L172" s="241"/>
+      <c r="M172" s="241"/>
+      <c r="N172" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K172" s="81"/>
-      <c r="L172" s="61"/>
-      <c r="M172" s="61"/>
-      <c r="N172" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O172" s="223"/>
-      <c r="P172" s="243"/>
-      <c r="Q172" s="124"/>
-      <c r="R172" s="125"/>
+      <c r="O172" s="216"/>
+      <c r="P172" s="217"/>
+      <c r="Q172" s="218"/>
+      <c r="R172" s="219"/>
       <c r="S172" s="176"/>
       <c r="T172" s="177"/>
       <c r="U172" s="49"/>
       <c r="V172" s="50"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="101"/>
+      <c r="A173" s="204"/>
       <c r="B173" s="99"/>
-      <c r="C173" s="226"/>
-      <c r="D173" s="226"/>
+      <c r="C173" s="197"/>
+      <c r="D173" s="197"/>
       <c r="E173" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F173" s="60"/>
       <c r="G173" s="224"/>
-      <c r="H173" s="227"/>
+      <c r="H173" s="175"/>
       <c r="I173" s="60"/>
       <c r="J173" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K173" s="81"/>
       <c r="L173" s="61"/>
       <c r="M173" s="61"/>
       <c r="N173" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O173" s="69"/>
-      <c r="P173" s="209"/>
-      <c r="Q173" s="124"/>
-      <c r="R173" s="125"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O173" s="216"/>
+      <c r="P173" s="217"/>
+      <c r="Q173" s="218"/>
+      <c r="R173" s="219"/>
       <c r="S173" s="176"/>
       <c r="T173" s="177"/>
       <c r="U173" s="49"/>
@@ -30009,29 +30311,29 @@
     <row r="174" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="204"/>
       <c r="B174" s="99"/>
-      <c r="C174" s="244"/>
-      <c r="D174" s="244"/>
+      <c r="C174" s="242"/>
+      <c r="D174" s="242"/>
       <c r="E174" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F174" s="60"/>
       <c r="G174" s="224"/>
-      <c r="H174" s="59"/>
+      <c r="H174" s="175"/>
       <c r="I174" s="60"/>
       <c r="J174" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K174" s="81"/>
       <c r="L174" s="61"/>
       <c r="M174" s="61"/>
       <c r="N174" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O174" s="69"/>
-      <c r="P174" s="209"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O174" s="223"/>
+      <c r="P174" s="243"/>
       <c r="Q174" s="124"/>
       <c r="R174" s="125"/>
       <c r="S174" s="176"/>
@@ -30040,31 +30342,31 @@
       <c r="V174" s="50"/>
     </row>
     <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="169"/>
+      <c r="A175" s="204"/>
       <c r="B175" s="99"/>
-      <c r="C175" s="226"/>
-      <c r="D175" s="226"/>
+      <c r="C175" s="242"/>
+      <c r="D175" s="242"/>
       <c r="E175" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F175" s="60"/>
       <c r="G175" s="224"/>
-      <c r="H175" s="227"/>
+      <c r="H175" s="175"/>
       <c r="I175" s="60"/>
       <c r="J175" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K175" s="81"/>
       <c r="L175" s="61"/>
       <c r="M175" s="61"/>
       <c r="N175" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O175" s="69"/>
-      <c r="P175" s="209"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O175" s="223"/>
+      <c r="P175" s="243"/>
       <c r="Q175" s="124"/>
       <c r="R175" s="125"/>
       <c r="S175" s="176"/>
@@ -30072,13 +30374,13 @@
       <c r="U175" s="49"/>
       <c r="V175" s="50"/>
     </row>
-    <row r="176" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="245"/>
-      <c r="B176" s="246"/>
-      <c r="C176" s="181"/>
-      <c r="D176" s="181"/>
+    <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="101"/>
+      <c r="B176" s="99"/>
+      <c r="C176" s="226"/>
+      <c r="D176" s="226"/>
       <c r="E176" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F176" s="60"/>
@@ -30086,18 +30388,18 @@
       <c r="H176" s="227"/>
       <c r="I176" s="60"/>
       <c r="J176" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K176" s="81"/>
       <c r="L176" s="61"/>
       <c r="M176" s="61"/>
       <c r="N176" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O176" s="228"/>
-      <c r="P176" s="229"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O176" s="69"/>
+      <c r="P176" s="209"/>
       <c r="Q176" s="124"/>
       <c r="R176" s="125"/>
       <c r="S176" s="176"/>
@@ -30106,27 +30408,27 @@
       <c r="V176" s="50"/>
     </row>
     <row r="177" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="169"/>
+      <c r="A177" s="204"/>
       <c r="B177" s="99"/>
-      <c r="C177" s="247"/>
-      <c r="D177" s="247"/>
+      <c r="C177" s="244"/>
+      <c r="D177" s="244"/>
       <c r="E177" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F177" s="60"/>
       <c r="G177" s="224"/>
-      <c r="H177" s="227"/>
+      <c r="H177" s="59"/>
       <c r="I177" s="60"/>
       <c r="J177" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K177" s="81"/>
       <c r="L177" s="61"/>
       <c r="M177" s="61"/>
       <c r="N177" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O177" s="69"/>
@@ -30141,10 +30443,10 @@
     <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="169"/>
       <c r="B178" s="99"/>
-      <c r="C178" s="247"/>
-      <c r="D178" s="247"/>
+      <c r="C178" s="226"/>
+      <c r="D178" s="226"/>
       <c r="E178" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F178" s="60"/>
@@ -30152,14 +30454,14 @@
       <c r="H178" s="227"/>
       <c r="I178" s="60"/>
       <c r="J178" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K178" s="81"/>
       <c r="L178" s="61"/>
       <c r="M178" s="61"/>
       <c r="N178" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O178" s="69"/>
@@ -30171,13 +30473,13 @@
       <c r="U178" s="49"/>
       <c r="V178" s="50"/>
     </row>
-    <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="248"/>
-      <c r="B179" s="99"/>
-      <c r="C179" s="249"/>
-      <c r="D179" s="249"/>
+    <row r="179" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="245"/>
+      <c r="B179" s="246"/>
+      <c r="C179" s="181"/>
+      <c r="D179" s="181"/>
       <c r="E179" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F179" s="60"/>
@@ -30185,18 +30487,18 @@
       <c r="H179" s="227"/>
       <c r="I179" s="60"/>
       <c r="J179" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K179" s="81"/>
       <c r="L179" s="61"/>
       <c r="M179" s="61"/>
       <c r="N179" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O179" s="69"/>
-      <c r="P179" s="209"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O179" s="228"/>
+      <c r="P179" s="229"/>
       <c r="Q179" s="124"/>
       <c r="R179" s="125"/>
       <c r="S179" s="176"/>
@@ -30207,29 +30509,29 @@
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="169"/>
       <c r="B180" s="99"/>
-      <c r="C180" s="250"/>
-      <c r="D180" s="250"/>
+      <c r="C180" s="247"/>
+      <c r="D180" s="247"/>
       <c r="E180" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F180" s="60"/>
-      <c r="G180" s="251"/>
+      <c r="G180" s="224"/>
       <c r="H180" s="227"/>
       <c r="I180" s="60"/>
       <c r="J180" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K180" s="81"/>
       <c r="L180" s="61"/>
       <c r="M180" s="61"/>
       <c r="N180" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O180" s="62"/>
-      <c r="P180" s="252"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O180" s="69"/>
+      <c r="P180" s="209"/>
       <c r="Q180" s="124"/>
       <c r="R180" s="125"/>
       <c r="S180" s="176"/>
@@ -30240,29 +30542,29 @@
     <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="169"/>
       <c r="B181" s="99"/>
-      <c r="C181" s="250"/>
-      <c r="D181" s="250"/>
+      <c r="C181" s="247"/>
+      <c r="D181" s="247"/>
       <c r="E181" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F181" s="60"/>
-      <c r="G181" s="58"/>
+      <c r="G181" s="224"/>
       <c r="H181" s="227"/>
       <c r="I181" s="60"/>
       <c r="J181" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K181" s="81"/>
       <c r="L181" s="61"/>
       <c r="M181" s="61"/>
       <c r="N181" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O181" s="62"/>
-      <c r="P181" s="252"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O181" s="69"/>
+      <c r="P181" s="209"/>
       <c r="Q181" s="124"/>
       <c r="R181" s="125"/>
       <c r="S181" s="176"/>
@@ -30270,92 +30572,98 @@
       <c r="U181" s="49"/>
       <c r="V181" s="50"/>
     </row>
-    <row r="182" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="169"/>
-      <c r="B182" s="203"/>
-      <c r="C182" s="253"/>
-      <c r="D182" s="253"/>
+    <row r="182" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="248"/>
+      <c r="B182" s="99"/>
+      <c r="C182" s="249"/>
+      <c r="D182" s="249"/>
       <c r="E182" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="60"/>
+      <c r="G182" s="224"/>
+      <c r="H182" s="227"/>
+      <c r="I182" s="60"/>
+      <c r="J182" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F182" s="254"/>
-      <c r="G182" s="224"/>
-      <c r="H182" s="255"/>
-      <c r="I182" s="254"/>
-      <c r="J182" s="39">
+      <c r="K182" s="81"/>
+      <c r="L182" s="61"/>
+      <c r="M182" s="61"/>
+      <c r="N182" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N182" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O182" s="257"/>
-      <c r="P182" s="243"/>
-      <c r="Q182" s="258"/>
-      <c r="R182" s="259"/>
-      <c r="S182" s="260"/>
-      <c r="T182" s="261"/>
-      <c r="U182" s="262"/>
-      <c r="V182" s="263"/>
+      <c r="O182" s="69"/>
+      <c r="P182" s="209"/>
+      <c r="Q182" s="124"/>
+      <c r="R182" s="125"/>
+      <c r="S182" s="176"/>
+      <c r="T182" s="177"/>
+      <c r="U182" s="49"/>
+      <c r="V182" s="50"/>
     </row>
     <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="169"/>
       <c r="B183" s="99"/>
-      <c r="C183" s="249"/>
-      <c r="D183" s="249"/>
+      <c r="C183" s="250"/>
+      <c r="D183" s="250"/>
       <c r="E183" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F183" s="60"/>
+      <c r="G183" s="251"/>
+      <c r="H183" s="227"/>
+      <c r="I183" s="60"/>
+      <c r="J183" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F183" s="254"/>
-      <c r="G183" s="224"/>
-      <c r="H183" s="255"/>
-      <c r="I183" s="254"/>
-      <c r="J183" s="39">
+      <c r="K183" s="81"/>
+      <c r="L183" s="61"/>
+      <c r="M183" s="61"/>
+      <c r="N183" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N183" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O183" s="257"/>
-      <c r="P183" s="243"/>
-      <c r="Q183" s="258"/>
-      <c r="R183" s="259"/>
-      <c r="S183" s="260"/>
-      <c r="T183" s="261"/>
-      <c r="U183" s="262"/>
-      <c r="V183" s="263"/>
+      <c r="O183" s="62"/>
+      <c r="P183" s="252"/>
+      <c r="Q183" s="124"/>
+      <c r="R183" s="125"/>
+      <c r="S183" s="176"/>
+      <c r="T183" s="177"/>
+      <c r="U183" s="49"/>
+      <c r="V183" s="50"/>
     </row>
     <row r="184" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="169"/>
       <c r="B184" s="99"/>
-      <c r="C184" s="249"/>
-      <c r="D184" s="249"/>
+      <c r="C184" s="250"/>
+      <c r="D184" s="250"/>
       <c r="E184" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F184" s="60"/>
-      <c r="G184" s="224"/>
+      <c r="G184" s="58"/>
       <c r="H184" s="227"/>
       <c r="I184" s="60"/>
       <c r="J184" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K184" s="81"/>
       <c r="L184" s="61"/>
       <c r="M184" s="61"/>
       <c r="N184" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O184" s="69"/>
-      <c r="P184" s="209"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O184" s="62"/>
+      <c r="P184" s="252"/>
       <c r="Q184" s="124"/>
       <c r="R184" s="125"/>
       <c r="S184" s="176"/>
@@ -30363,94 +30671,88 @@
       <c r="U184" s="49"/>
       <c r="V184" s="50"/>
     </row>
-    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="169"/>
-      <c r="B185" s="99"/>
-      <c r="C185" s="249"/>
-      <c r="D185" s="249"/>
+      <c r="B185" s="203"/>
+      <c r="C185" s="253"/>
+      <c r="D185" s="253"/>
       <c r="E185" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F185" s="254"/>
+      <c r="G185" s="224"/>
+      <c r="H185" s="255"/>
+      <c r="I185" s="254"/>
+      <c r="J185" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F185" s="60"/>
-      <c r="G185" s="224"/>
-      <c r="H185" s="227"/>
-      <c r="I185" s="60"/>
-      <c r="J185" s="39">
+      <c r="N185" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K185" s="81"/>
-      <c r="L185" s="61"/>
-      <c r="M185" s="61"/>
-      <c r="N185" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O185" s="69"/>
-      <c r="P185" s="209"/>
-      <c r="Q185" s="124"/>
-      <c r="R185" s="125"/>
-      <c r="S185" s="176"/>
-      <c r="T185" s="177"/>
-      <c r="U185" s="49"/>
-      <c r="V185" s="50"/>
+      <c r="O185" s="257"/>
+      <c r="P185" s="243"/>
+      <c r="Q185" s="258"/>
+      <c r="R185" s="259"/>
+      <c r="S185" s="260"/>
+      <c r="T185" s="261"/>
+      <c r="U185" s="262"/>
+      <c r="V185" s="263"/>
     </row>
     <row r="186" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="169"/>
       <c r="B186" s="99"/>
-      <c r="C186" s="264"/>
-      <c r="D186" s="264"/>
+      <c r="C186" s="249"/>
+      <c r="D186" s="249"/>
       <c r="E186" s="34">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="254"/>
+      <c r="G186" s="224"/>
+      <c r="H186" s="255"/>
+      <c r="I186" s="254"/>
+      <c r="J186" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F186" s="60"/>
-      <c r="G186" s="251"/>
-      <c r="H186" s="227"/>
-      <c r="I186" s="60"/>
-      <c r="J186" s="39">
+      <c r="N186" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K186" s="81"/>
-      <c r="L186" s="61"/>
-      <c r="M186" s="61"/>
-      <c r="N186" s="42">
-        <f t="shared" ref="N186:N249" si="11">K186*I186</f>
-        <v>0</v>
-      </c>
-      <c r="O186" s="69"/>
-      <c r="P186" s="209"/>
-      <c r="Q186" s="124"/>
-      <c r="R186" s="125"/>
-      <c r="S186" s="176"/>
-      <c r="T186" s="177"/>
-      <c r="U186" s="49"/>
-      <c r="V186" s="50"/>
+      <c r="O186" s="257"/>
+      <c r="P186" s="243"/>
+      <c r="Q186" s="258"/>
+      <c r="R186" s="259"/>
+      <c r="S186" s="260"/>
+      <c r="T186" s="261"/>
+      <c r="U186" s="262"/>
+      <c r="V186" s="263"/>
     </row>
     <row r="187" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="169"/>
       <c r="B187" s="99"/>
-      <c r="C187" s="264"/>
-      <c r="D187" s="264"/>
+      <c r="C187" s="249"/>
+      <c r="D187" s="249"/>
       <c r="E187" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F187" s="60"/>
-      <c r="G187" s="251"/>
+      <c r="G187" s="224"/>
       <c r="H187" s="227"/>
       <c r="I187" s="60"/>
       <c r="J187" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K187" s="81"/>
       <c r="L187" s="61"/>
       <c r="M187" s="61"/>
       <c r="N187" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O187" s="69"/>
@@ -30465,25 +30767,25 @@
     <row r="188" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="169"/>
       <c r="B188" s="99"/>
-      <c r="C188" s="264"/>
-      <c r="D188" s="264"/>
+      <c r="C188" s="249"/>
+      <c r="D188" s="249"/>
       <c r="E188" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F188" s="60"/>
-      <c r="G188" s="251"/>
+      <c r="G188" s="224"/>
       <c r="H188" s="227"/>
       <c r="I188" s="60"/>
       <c r="J188" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K188" s="81"/>
       <c r="L188" s="61"/>
       <c r="M188" s="61"/>
       <c r="N188" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O188" s="69"/>
@@ -30495,13 +30797,13 @@
       <c r="U188" s="49"/>
       <c r="V188" s="50"/>
     </row>
-    <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="169"/>
-      <c r="B189" s="203"/>
-      <c r="C189" s="265"/>
-      <c r="D189" s="265"/>
+      <c r="B189" s="99"/>
+      <c r="C189" s="264"/>
+      <c r="D189" s="264"/>
       <c r="E189" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F189" s="60"/>
@@ -30509,14 +30811,14 @@
       <c r="H189" s="227"/>
       <c r="I189" s="60"/>
       <c r="J189" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K189" s="81"/>
       <c r="L189" s="61"/>
       <c r="M189" s="61"/>
       <c r="N189" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N189:N252" si="12">K189*I189</f>
         <v>0</v>
       </c>
       <c r="O189" s="69"/>
@@ -30534,7 +30836,7 @@
       <c r="C190" s="264"/>
       <c r="D190" s="264"/>
       <c r="E190" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F190" s="60"/>
@@ -30542,14 +30844,14 @@
       <c r="H190" s="227"/>
       <c r="I190" s="60"/>
       <c r="J190" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K190" s="81"/>
       <c r="L190" s="61"/>
       <c r="M190" s="61"/>
       <c r="N190" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O190" s="69"/>
@@ -30564,25 +30866,25 @@
     <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="169"/>
       <c r="B191" s="99"/>
-      <c r="C191" s="244"/>
-      <c r="D191" s="244"/>
+      <c r="C191" s="264"/>
+      <c r="D191" s="264"/>
       <c r="E191" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F191" s="60"/>
-      <c r="G191" s="224"/>
+      <c r="G191" s="251"/>
       <c r="H191" s="227"/>
       <c r="I191" s="60"/>
       <c r="J191" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K191" s="81"/>
       <c r="L191" s="61"/>
       <c r="M191" s="61"/>
       <c r="N191" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O191" s="69"/>
@@ -30594,28 +30896,28 @@
       <c r="U191" s="49"/>
       <c r="V191" s="50"/>
     </row>
-    <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="169"/>
-      <c r="B192" s="99"/>
-      <c r="C192" s="244"/>
-      <c r="D192" s="244"/>
+      <c r="B192" s="203"/>
+      <c r="C192" s="265"/>
+      <c r="D192" s="265"/>
       <c r="E192" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F192" s="60"/>
-      <c r="G192" s="224"/>
+      <c r="G192" s="251"/>
       <c r="H192" s="227"/>
       <c r="I192" s="60"/>
       <c r="J192" s="39">
-        <f t="shared" ref="J192:J255" si="12">I192-F192</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K192" s="81"/>
       <c r="L192" s="61"/>
       <c r="M192" s="61"/>
       <c r="N192" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O192" s="69"/>
@@ -30630,25 +30932,25 @@
     <row r="193" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="169"/>
       <c r="B193" s="99"/>
-      <c r="C193" s="244"/>
-      <c r="D193" s="244"/>
+      <c r="C193" s="264"/>
+      <c r="D193" s="264"/>
       <c r="E193" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F193" s="60"/>
-      <c r="G193" s="224"/>
+      <c r="G193" s="251"/>
       <c r="H193" s="227"/>
       <c r="I193" s="60"/>
       <c r="J193" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K193" s="81"/>
       <c r="L193" s="61"/>
       <c r="M193" s="61"/>
       <c r="N193" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O193" s="69"/>
@@ -30666,7 +30968,7 @@
       <c r="C194" s="244"/>
       <c r="D194" s="244"/>
       <c r="E194" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F194" s="60"/>
@@ -30674,14 +30976,14 @@
       <c r="H194" s="227"/>
       <c r="I194" s="60"/>
       <c r="J194" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K194" s="81"/>
       <c r="L194" s="61"/>
       <c r="M194" s="61"/>
       <c r="N194" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O194" s="69"/>
@@ -30693,13 +30995,13 @@
       <c r="U194" s="49"/>
       <c r="V194" s="50"/>
     </row>
-    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="248"/>
-      <c r="B195" s="203"/>
-      <c r="C195" s="249"/>
-      <c r="D195" s="249"/>
+    <row r="195" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="169"/>
+      <c r="B195" s="99"/>
+      <c r="C195" s="244"/>
+      <c r="D195" s="244"/>
       <c r="E195" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F195" s="60"/>
@@ -30707,14 +31009,14 @@
       <c r="H195" s="227"/>
       <c r="I195" s="60"/>
       <c r="J195" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J195:J258" si="13">I195-F195</f>
         <v>0</v>
       </c>
       <c r="K195" s="81"/>
       <c r="L195" s="61"/>
       <c r="M195" s="61"/>
       <c r="N195" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O195" s="69"/>
@@ -30727,31 +31029,31 @@
       <c r="V195" s="50"/>
     </row>
     <row r="196" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="266"/>
+      <c r="A196" s="169"/>
       <c r="B196" s="99"/>
-      <c r="C196" s="250"/>
-      <c r="D196" s="250"/>
+      <c r="C196" s="244"/>
+      <c r="D196" s="244"/>
       <c r="E196" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F196" s="60"/>
-      <c r="G196" s="58"/>
+      <c r="G196" s="224"/>
       <c r="H196" s="227"/>
       <c r="I196" s="60"/>
       <c r="J196" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K196" s="81"/>
       <c r="L196" s="61"/>
       <c r="M196" s="61"/>
       <c r="N196" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O196" s="62"/>
-      <c r="P196" s="252"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O196" s="69"/>
+      <c r="P196" s="209"/>
       <c r="Q196" s="124"/>
       <c r="R196" s="125"/>
       <c r="S196" s="176"/>
@@ -30759,13 +31061,13 @@
       <c r="U196" s="49"/>
       <c r="V196" s="50"/>
     </row>
-    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="169"/>
-      <c r="B197" s="203"/>
-      <c r="C197" s="267"/>
-      <c r="D197" s="267"/>
+      <c r="B197" s="99"/>
+      <c r="C197" s="244"/>
+      <c r="D197" s="244"/>
       <c r="E197" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F197" s="60"/>
@@ -30773,14 +31075,14 @@
       <c r="H197" s="227"/>
       <c r="I197" s="60"/>
       <c r="J197" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K197" s="81"/>
       <c r="L197" s="61"/>
       <c r="M197" s="61"/>
       <c r="N197" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O197" s="69"/>
@@ -30793,12 +31095,12 @@
       <c r="V197" s="50"/>
     </row>
     <row r="198" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="169"/>
+      <c r="A198" s="248"/>
       <c r="B198" s="203"/>
-      <c r="C198" s="267"/>
-      <c r="D198" s="267"/>
+      <c r="C198" s="249"/>
+      <c r="D198" s="249"/>
       <c r="E198" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F198" s="60"/>
@@ -30806,14 +31108,14 @@
       <c r="H198" s="227"/>
       <c r="I198" s="60"/>
       <c r="J198" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K198" s="81"/>
       <c r="L198" s="61"/>
       <c r="M198" s="61"/>
       <c r="N198" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O198" s="69"/>
@@ -30825,32 +31127,32 @@
       <c r="U198" s="49"/>
       <c r="V198" s="50"/>
     </row>
-    <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="169"/>
-      <c r="B199" s="203"/>
-      <c r="C199" s="267"/>
-      <c r="D199" s="267"/>
+    <row r="199" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="266"/>
+      <c r="B199" s="99"/>
+      <c r="C199" s="250"/>
+      <c r="D199" s="250"/>
       <c r="E199" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F199" s="60"/>
-      <c r="G199" s="224"/>
+      <c r="G199" s="58"/>
       <c r="H199" s="227"/>
       <c r="I199" s="60"/>
       <c r="J199" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K199" s="81"/>
       <c r="L199" s="61"/>
       <c r="M199" s="61"/>
       <c r="N199" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O199" s="69"/>
-      <c r="P199" s="209"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O199" s="62"/>
+      <c r="P199" s="252"/>
       <c r="Q199" s="124"/>
       <c r="R199" s="125"/>
       <c r="S199" s="176"/>
@@ -30864,22 +31166,22 @@
       <c r="C200" s="267"/>
       <c r="D200" s="267"/>
       <c r="E200" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F200" s="268"/>
-      <c r="G200" s="251"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F200" s="60"/>
+      <c r="G200" s="224"/>
       <c r="H200" s="227"/>
       <c r="I200" s="60"/>
       <c r="J200" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K200" s="81"/>
       <c r="L200" s="61"/>
       <c r="M200" s="61"/>
       <c r="N200" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O200" s="69"/>
@@ -30897,22 +31199,22 @@
       <c r="C201" s="267"/>
       <c r="D201" s="267"/>
       <c r="E201" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F201" s="268"/>
-      <c r="G201" s="251"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F201" s="60"/>
+      <c r="G201" s="224"/>
       <c r="H201" s="227"/>
       <c r="I201" s="60"/>
       <c r="J201" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K201" s="81"/>
       <c r="L201" s="61"/>
       <c r="M201" s="61"/>
       <c r="N201" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O201" s="69"/>
@@ -30930,22 +31232,22 @@
       <c r="C202" s="267"/>
       <c r="D202" s="267"/>
       <c r="E202" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F202" s="268"/>
-      <c r="G202" s="251"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="60"/>
+      <c r="G202" s="224"/>
       <c r="H202" s="227"/>
       <c r="I202" s="60"/>
       <c r="J202" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K202" s="81"/>
       <c r="L202" s="61"/>
       <c r="M202" s="61"/>
       <c r="N202" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O202" s="69"/>
@@ -30963,7 +31265,7 @@
       <c r="C203" s="267"/>
       <c r="D203" s="267"/>
       <c r="E203" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F203" s="268"/>
@@ -30971,14 +31273,14 @@
       <c r="H203" s="227"/>
       <c r="I203" s="60"/>
       <c r="J203" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K203" s="81"/>
       <c r="L203" s="61"/>
       <c r="M203" s="61"/>
       <c r="N203" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O203" s="69"/>
@@ -30996,7 +31298,7 @@
       <c r="C204" s="267"/>
       <c r="D204" s="267"/>
       <c r="E204" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F204" s="268"/>
@@ -31004,14 +31306,14 @@
       <c r="H204" s="227"/>
       <c r="I204" s="60"/>
       <c r="J204" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K204" s="81"/>
       <c r="L204" s="61"/>
       <c r="M204" s="61"/>
       <c r="N204" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O204" s="69"/>
@@ -31029,7 +31331,7 @@
       <c r="C205" s="267"/>
       <c r="D205" s="267"/>
       <c r="E205" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F205" s="268"/>
@@ -31037,14 +31339,14 @@
       <c r="H205" s="227"/>
       <c r="I205" s="60"/>
       <c r="J205" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K205" s="81"/>
       <c r="L205" s="61"/>
       <c r="M205" s="61"/>
       <c r="N205" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O205" s="69"/>
@@ -31062,7 +31364,7 @@
       <c r="C206" s="267"/>
       <c r="D206" s="267"/>
       <c r="E206" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F206" s="268"/>
@@ -31070,14 +31372,14 @@
       <c r="H206" s="227"/>
       <c r="I206" s="60"/>
       <c r="J206" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K206" s="81"/>
       <c r="L206" s="61"/>
       <c r="M206" s="61"/>
       <c r="N206" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O206" s="69"/>
@@ -31095,22 +31397,22 @@
       <c r="C207" s="267"/>
       <c r="D207" s="267"/>
       <c r="E207" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F207" s="60"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="268"/>
       <c r="G207" s="251"/>
       <c r="H207" s="227"/>
       <c r="I207" s="60"/>
       <c r="J207" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K207" s="81"/>
       <c r="L207" s="61"/>
       <c r="M207" s="61"/>
       <c r="N207" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O207" s="69"/>
@@ -31125,25 +31427,25 @@
     <row r="208" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="169"/>
       <c r="B208" s="203"/>
-      <c r="C208" s="244"/>
-      <c r="D208" s="244"/>
+      <c r="C208" s="267"/>
+      <c r="D208" s="267"/>
       <c r="E208" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F208" s="60"/>
-      <c r="G208" s="224"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="268"/>
+      <c r="G208" s="251"/>
       <c r="H208" s="227"/>
       <c r="I208" s="60"/>
       <c r="J208" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K208" s="81"/>
       <c r="L208" s="61"/>
       <c r="M208" s="61"/>
       <c r="N208" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O208" s="69"/>
@@ -31158,25 +31460,25 @@
     <row r="209" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="169"/>
       <c r="B209" s="203"/>
-      <c r="C209" s="244"/>
-      <c r="D209" s="244"/>
+      <c r="C209" s="267"/>
+      <c r="D209" s="267"/>
       <c r="E209" s="34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F209" s="60"/>
-      <c r="G209" s="224"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F209" s="268"/>
+      <c r="G209" s="251"/>
       <c r="H209" s="227"/>
       <c r="I209" s="60"/>
       <c r="J209" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K209" s="81"/>
       <c r="L209" s="61"/>
       <c r="M209" s="61"/>
       <c r="N209" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O209" s="69"/>
@@ -31191,25 +31493,25 @@
     <row r="210" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="169"/>
       <c r="B210" s="203"/>
-      <c r="C210" s="244"/>
-      <c r="D210" s="244"/>
+      <c r="C210" s="267"/>
+      <c r="D210" s="267"/>
       <c r="E210" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F210" s="60"/>
-      <c r="G210" s="224"/>
+      <c r="G210" s="251"/>
       <c r="H210" s="227"/>
       <c r="I210" s="60"/>
       <c r="J210" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K210" s="81"/>
       <c r="L210" s="61"/>
       <c r="M210" s="61"/>
       <c r="N210" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O210" s="69"/>
@@ -31227,7 +31529,7 @@
       <c r="C211" s="244"/>
       <c r="D211" s="244"/>
       <c r="E211" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F211" s="60"/>
@@ -31235,14 +31537,14 @@
       <c r="H211" s="227"/>
       <c r="I211" s="60"/>
       <c r="J211" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K211" s="81"/>
       <c r="L211" s="61"/>
       <c r="M211" s="61"/>
       <c r="N211" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O211" s="69"/>
@@ -31260,7 +31562,7 @@
       <c r="C212" s="244"/>
       <c r="D212" s="244"/>
       <c r="E212" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F212" s="60"/>
@@ -31268,14 +31570,14 @@
       <c r="H212" s="227"/>
       <c r="I212" s="60"/>
       <c r="J212" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K212" s="81"/>
       <c r="L212" s="61"/>
       <c r="M212" s="61"/>
       <c r="N212" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O212" s="69"/>
@@ -31293,7 +31595,7 @@
       <c r="C213" s="244"/>
       <c r="D213" s="244"/>
       <c r="E213" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F213" s="60"/>
@@ -31301,14 +31603,14 @@
       <c r="H213" s="227"/>
       <c r="I213" s="60"/>
       <c r="J213" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K213" s="81"/>
       <c r="L213" s="61"/>
       <c r="M213" s="61"/>
       <c r="N213" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O213" s="69"/>
@@ -31326,7 +31628,7 @@
       <c r="C214" s="244"/>
       <c r="D214" s="244"/>
       <c r="E214" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F214" s="60"/>
@@ -31334,14 +31636,14 @@
       <c r="H214" s="227"/>
       <c r="I214" s="60"/>
       <c r="J214" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K214" s="81"/>
       <c r="L214" s="61"/>
       <c r="M214" s="61"/>
       <c r="N214" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O214" s="69"/>
@@ -31359,7 +31661,7 @@
       <c r="C215" s="244"/>
       <c r="D215" s="244"/>
       <c r="E215" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F215" s="60"/>
@@ -31367,14 +31669,14 @@
       <c r="H215" s="227"/>
       <c r="I215" s="60"/>
       <c r="J215" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K215" s="81"/>
       <c r="L215" s="61"/>
       <c r="M215" s="61"/>
       <c r="N215" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O215" s="69"/>
@@ -31386,28 +31688,28 @@
       <c r="U215" s="49"/>
       <c r="V215" s="50"/>
     </row>
-    <row r="216" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="203"/>
-      <c r="B216" s="253"/>
+    <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="169"/>
+      <c r="B216" s="203"/>
       <c r="C216" s="244"/>
       <c r="D216" s="244"/>
       <c r="E216" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F216" s="60"/>
-      <c r="G216" s="58"/>
-      <c r="H216" s="59"/>
+      <c r="G216" s="224"/>
+      <c r="H216" s="227"/>
       <c r="I216" s="60"/>
       <c r="J216" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K216" s="81"/>
       <c r="L216" s="61"/>
       <c r="M216" s="61"/>
       <c r="N216" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O216" s="69"/>
@@ -31420,12 +31722,12 @@
       <c r="V216" s="50"/>
     </row>
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="266"/>
+      <c r="A217" s="169"/>
       <c r="B217" s="203"/>
       <c r="C217" s="244"/>
       <c r="D217" s="244"/>
       <c r="E217" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F217" s="60"/>
@@ -31433,14 +31735,14 @@
       <c r="H217" s="227"/>
       <c r="I217" s="60"/>
       <c r="J217" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K217" s="81"/>
       <c r="L217" s="61"/>
       <c r="M217" s="61"/>
       <c r="N217" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O217" s="69"/>
@@ -31453,12 +31755,12 @@
       <c r="V217" s="50"/>
     </row>
     <row r="218" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="266"/>
+      <c r="A218" s="169"/>
       <c r="B218" s="203"/>
       <c r="C218" s="244"/>
       <c r="D218" s="244"/>
       <c r="E218" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F218" s="60"/>
@@ -31466,14 +31768,14 @@
       <c r="H218" s="227"/>
       <c r="I218" s="60"/>
       <c r="J218" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K218" s="81"/>
       <c r="L218" s="61"/>
       <c r="M218" s="61"/>
       <c r="N218" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O218" s="69"/>
@@ -31485,28 +31787,28 @@
       <c r="U218" s="49"/>
       <c r="V218" s="50"/>
     </row>
-    <row r="219" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="266"/>
-      <c r="B219" s="203"/>
+    <row r="219" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="203"/>
+      <c r="B219" s="253"/>
       <c r="C219" s="244"/>
       <c r="D219" s="244"/>
       <c r="E219" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F219" s="60"/>
-      <c r="G219" s="224"/>
-      <c r="H219" s="227"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="59"/>
       <c r="I219" s="60"/>
       <c r="J219" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K219" s="81"/>
       <c r="L219" s="61"/>
       <c r="M219" s="61"/>
       <c r="N219" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O219" s="69"/>
@@ -31524,7 +31826,7 @@
       <c r="C220" s="244"/>
       <c r="D220" s="244"/>
       <c r="E220" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F220" s="60"/>
@@ -31532,14 +31834,14 @@
       <c r="H220" s="227"/>
       <c r="I220" s="60"/>
       <c r="J220" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K220" s="81"/>
       <c r="L220" s="61"/>
       <c r="M220" s="61"/>
       <c r="N220" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O220" s="69"/>
@@ -31552,12 +31854,12 @@
       <c r="V220" s="50"/>
     </row>
     <row r="221" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="269"/>
+      <c r="A221" s="266"/>
       <c r="B221" s="203"/>
       <c r="C221" s="244"/>
       <c r="D221" s="244"/>
       <c r="E221" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F221" s="60"/>
@@ -31565,14 +31867,14 @@
       <c r="H221" s="227"/>
       <c r="I221" s="60"/>
       <c r="J221" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K221" s="81"/>
       <c r="L221" s="61"/>
       <c r="M221" s="61"/>
       <c r="N221" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O221" s="69"/>
@@ -31585,12 +31887,12 @@
       <c r="V221" s="50"/>
     </row>
     <row r="222" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="169"/>
+      <c r="A222" s="266"/>
       <c r="B222" s="203"/>
       <c r="C222" s="244"/>
       <c r="D222" s="244"/>
       <c r="E222" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F222" s="60"/>
@@ -31598,14 +31900,14 @@
       <c r="H222" s="227"/>
       <c r="I222" s="60"/>
       <c r="J222" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K222" s="81"/>
       <c r="L222" s="61"/>
       <c r="M222" s="61"/>
       <c r="N222" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O222" s="69"/>
@@ -31618,12 +31920,12 @@
       <c r="V222" s="50"/>
     </row>
     <row r="223" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="169"/>
+      <c r="A223" s="266"/>
       <c r="B223" s="203"/>
       <c r="C223" s="244"/>
       <c r="D223" s="244"/>
       <c r="E223" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F223" s="60"/>
@@ -31631,14 +31933,14 @@
       <c r="H223" s="227"/>
       <c r="I223" s="60"/>
       <c r="J223" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K223" s="81"/>
       <c r="L223" s="61"/>
       <c r="M223" s="61"/>
       <c r="N223" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O223" s="69"/>
@@ -31651,12 +31953,12 @@
       <c r="V223" s="50"/>
     </row>
     <row r="224" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="169"/>
+      <c r="A224" s="269"/>
       <c r="B224" s="203"/>
       <c r="C224" s="244"/>
       <c r="D224" s="244"/>
       <c r="E224" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F224" s="60"/>
@@ -31664,14 +31966,14 @@
       <c r="H224" s="227"/>
       <c r="I224" s="60"/>
       <c r="J224" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K224" s="81"/>
       <c r="L224" s="61"/>
       <c r="M224" s="61"/>
       <c r="N224" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O224" s="69"/>
@@ -31689,7 +31991,7 @@
       <c r="C225" s="244"/>
       <c r="D225" s="244"/>
       <c r="E225" s="34">
-        <f t="shared" ref="E225:E269" si="13">D225*F225</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F225" s="60"/>
@@ -31697,14 +31999,14 @@
       <c r="H225" s="227"/>
       <c r="I225" s="60"/>
       <c r="J225" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K225" s="81"/>
       <c r="L225" s="61"/>
       <c r="M225" s="61"/>
       <c r="N225" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O225" s="69"/>
@@ -31722,7 +32024,7 @@
       <c r="C226" s="244"/>
       <c r="D226" s="244"/>
       <c r="E226" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F226" s="60"/>
@@ -31730,14 +32032,14 @@
       <c r="H226" s="227"/>
       <c r="I226" s="60"/>
       <c r="J226" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K226" s="81"/>
       <c r="L226" s="61"/>
       <c r="M226" s="61"/>
       <c r="N226" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O226" s="69"/>
@@ -31755,7 +32057,7 @@
       <c r="C227" s="244"/>
       <c r="D227" s="244"/>
       <c r="E227" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F227" s="60"/>
@@ -31763,14 +32065,14 @@
       <c r="H227" s="227"/>
       <c r="I227" s="60"/>
       <c r="J227" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K227" s="81"/>
       <c r="L227" s="61"/>
       <c r="M227" s="61"/>
       <c r="N227" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O227" s="69"/>
@@ -31788,7 +32090,7 @@
       <c r="C228" s="244"/>
       <c r="D228" s="244"/>
       <c r="E228" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E228:E272" si="14">D228*F228</f>
         <v>0</v>
       </c>
       <c r="F228" s="60"/>
@@ -31796,14 +32098,14 @@
       <c r="H228" s="227"/>
       <c r="I228" s="60"/>
       <c r="J228" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K228" s="81"/>
       <c r="L228" s="61"/>
       <c r="M228" s="61"/>
       <c r="N228" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O228" s="69"/>
@@ -31821,7 +32123,7 @@
       <c r="C229" s="244"/>
       <c r="D229" s="244"/>
       <c r="E229" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F229" s="60"/>
@@ -31829,14 +32131,14 @@
       <c r="H229" s="227"/>
       <c r="I229" s="60"/>
       <c r="J229" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K229" s="81"/>
       <c r="L229" s="61"/>
       <c r="M229" s="61"/>
       <c r="N229" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O229" s="69"/>
@@ -31854,7 +32156,7 @@
       <c r="C230" s="244"/>
       <c r="D230" s="244"/>
       <c r="E230" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F230" s="60"/>
@@ -31862,14 +32164,14 @@
       <c r="H230" s="227"/>
       <c r="I230" s="60"/>
       <c r="J230" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K230" s="81"/>
       <c r="L230" s="61"/>
       <c r="M230" s="61"/>
       <c r="N230" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O230" s="69"/>
@@ -31884,10 +32186,10 @@
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="169"/>
       <c r="B231" s="203"/>
-      <c r="C231" s="270"/>
-      <c r="D231" s="270"/>
+      <c r="C231" s="244"/>
+      <c r="D231" s="244"/>
       <c r="E231" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F231" s="60"/>
@@ -31895,14 +32197,14 @@
       <c r="H231" s="227"/>
       <c r="I231" s="60"/>
       <c r="J231" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K231" s="81"/>
       <c r="L231" s="61"/>
       <c r="M231" s="61"/>
       <c r="N231" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O231" s="69"/>
@@ -31920,7 +32222,7 @@
       <c r="C232" s="244"/>
       <c r="D232" s="244"/>
       <c r="E232" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F232" s="60"/>
@@ -31928,14 +32230,14 @@
       <c r="H232" s="227"/>
       <c r="I232" s="60"/>
       <c r="J232" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K232" s="81"/>
       <c r="L232" s="61"/>
       <c r="M232" s="61"/>
       <c r="N232" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O232" s="69"/>
@@ -31950,10 +32252,10 @@
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="169"/>
       <c r="B233" s="203"/>
-      <c r="C233" s="264"/>
-      <c r="D233" s="264"/>
+      <c r="C233" s="244"/>
+      <c r="D233" s="244"/>
       <c r="E233" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F233" s="60"/>
@@ -31961,14 +32263,14 @@
       <c r="H233" s="227"/>
       <c r="I233" s="60"/>
       <c r="J233" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K233" s="81"/>
       <c r="L233" s="61"/>
       <c r="M233" s="61"/>
       <c r="N233" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O233" s="69"/>
@@ -31983,10 +32285,10 @@
     <row r="234" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="169"/>
       <c r="B234" s="203"/>
-      <c r="C234" s="265"/>
-      <c r="D234" s="265"/>
+      <c r="C234" s="270"/>
+      <c r="D234" s="270"/>
       <c r="E234" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F234" s="60"/>
@@ -31994,14 +32296,14 @@
       <c r="H234" s="227"/>
       <c r="I234" s="60"/>
       <c r="J234" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K234" s="81"/>
       <c r="L234" s="61"/>
       <c r="M234" s="61"/>
       <c r="N234" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O234" s="69"/>
@@ -32016,10 +32318,10 @@
     <row r="235" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="169"/>
       <c r="B235" s="203"/>
-      <c r="C235" s="265"/>
-      <c r="D235" s="265"/>
+      <c r="C235" s="244"/>
+      <c r="D235" s="244"/>
       <c r="E235" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F235" s="60"/>
@@ -32027,14 +32329,14 @@
       <c r="H235" s="227"/>
       <c r="I235" s="60"/>
       <c r="J235" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K235" s="81"/>
       <c r="L235" s="61"/>
       <c r="M235" s="61"/>
       <c r="N235" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O235" s="69"/>
@@ -32052,7 +32354,7 @@
       <c r="C236" s="264"/>
       <c r="D236" s="264"/>
       <c r="E236" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F236" s="60"/>
@@ -32060,14 +32362,14 @@
       <c r="H236" s="227"/>
       <c r="I236" s="60"/>
       <c r="J236" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K236" s="81"/>
       <c r="L236" s="61"/>
       <c r="M236" s="61"/>
       <c r="N236" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O236" s="69"/>
@@ -32082,10 +32384,10 @@
     <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="169"/>
       <c r="B237" s="203"/>
-      <c r="C237" s="249"/>
-      <c r="D237" s="249"/>
+      <c r="C237" s="265"/>
+      <c r="D237" s="265"/>
       <c r="E237" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F237" s="60"/>
@@ -32093,14 +32395,14 @@
       <c r="H237" s="227"/>
       <c r="I237" s="60"/>
       <c r="J237" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K237" s="81"/>
       <c r="L237" s="61"/>
       <c r="M237" s="61"/>
       <c r="N237" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O237" s="69"/>
@@ -32115,10 +32417,10 @@
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="169"/>
       <c r="B238" s="203"/>
-      <c r="C238" s="197"/>
-      <c r="D238" s="197"/>
+      <c r="C238" s="265"/>
+      <c r="D238" s="265"/>
       <c r="E238" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F238" s="60"/>
@@ -32126,14 +32428,14 @@
       <c r="H238" s="227"/>
       <c r="I238" s="60"/>
       <c r="J238" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K238" s="81"/>
       <c r="L238" s="61"/>
       <c r="M238" s="61"/>
       <c r="N238" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O238" s="69"/>
@@ -32146,12 +32448,12 @@
       <c r="V238" s="50"/>
     </row>
     <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="204"/>
+      <c r="A239" s="169"/>
       <c r="B239" s="203"/>
-      <c r="C239" s="226"/>
-      <c r="D239" s="226"/>
+      <c r="C239" s="264"/>
+      <c r="D239" s="264"/>
       <c r="E239" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F239" s="60"/>
@@ -32159,14 +32461,14 @@
       <c r="H239" s="227"/>
       <c r="I239" s="60"/>
       <c r="J239" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K239" s="81"/>
       <c r="L239" s="61"/>
       <c r="M239" s="61"/>
       <c r="N239" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O239" s="69"/>
@@ -32181,10 +32483,10 @@
     <row r="240" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="169"/>
       <c r="B240" s="203"/>
-      <c r="C240" s="226"/>
-      <c r="D240" s="226"/>
+      <c r="C240" s="249"/>
+      <c r="D240" s="249"/>
       <c r="E240" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F240" s="60"/>
@@ -32192,14 +32494,14 @@
       <c r="H240" s="227"/>
       <c r="I240" s="60"/>
       <c r="J240" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K240" s="81"/>
       <c r="L240" s="61"/>
       <c r="M240" s="61"/>
       <c r="N240" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O240" s="69"/>
@@ -32214,10 +32516,10 @@
     <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="169"/>
       <c r="B241" s="203"/>
-      <c r="C241" s="226"/>
-      <c r="D241" s="226"/>
+      <c r="C241" s="197"/>
+      <c r="D241" s="197"/>
       <c r="E241" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F241" s="60"/>
@@ -32225,14 +32527,14 @@
       <c r="H241" s="227"/>
       <c r="I241" s="60"/>
       <c r="J241" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K241" s="81"/>
       <c r="L241" s="61"/>
       <c r="M241" s="61"/>
       <c r="N241" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O241" s="69"/>
@@ -32245,12 +32547,12 @@
       <c r="V241" s="50"/>
     </row>
     <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="271"/>
-      <c r="B242" s="272"/>
+      <c r="A242" s="204"/>
+      <c r="B242" s="203"/>
       <c r="C242" s="226"/>
       <c r="D242" s="226"/>
       <c r="E242" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F242" s="60"/>
@@ -32258,14 +32560,14 @@
       <c r="H242" s="227"/>
       <c r="I242" s="60"/>
       <c r="J242" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K242" s="81"/>
       <c r="L242" s="61"/>
       <c r="M242" s="61"/>
       <c r="N242" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O242" s="69"/>
@@ -32277,28 +32579,28 @@
       <c r="U242" s="49"/>
       <c r="V242" s="50"/>
     </row>
-    <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="204"/>
-      <c r="B243" s="272"/>
+    <row r="243" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="169"/>
+      <c r="B243" s="203"/>
       <c r="C243" s="226"/>
       <c r="D243" s="226"/>
       <c r="E243" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F243" s="60"/>
       <c r="G243" s="224"/>
-      <c r="H243" s="59"/>
+      <c r="H243" s="227"/>
       <c r="I243" s="60"/>
       <c r="J243" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K243" s="81"/>
       <c r="L243" s="61"/>
       <c r="M243" s="61"/>
       <c r="N243" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O243" s="69"/>
@@ -32311,12 +32613,12 @@
       <c r="V243" s="50"/>
     </row>
     <row r="244" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="204"/>
-      <c r="B244" s="272"/>
+      <c r="A244" s="169"/>
+      <c r="B244" s="203"/>
       <c r="C244" s="226"/>
       <c r="D244" s="226"/>
       <c r="E244" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F244" s="60"/>
@@ -32324,14 +32626,14 @@
       <c r="H244" s="227"/>
       <c r="I244" s="60"/>
       <c r="J244" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K244" s="81"/>
       <c r="L244" s="61"/>
       <c r="M244" s="61"/>
       <c r="N244" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O244" s="69"/>
@@ -32344,12 +32646,12 @@
       <c r="V244" s="50"/>
     </row>
     <row r="245" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="169"/>
+      <c r="A245" s="271"/>
       <c r="B245" s="272"/>
-      <c r="C245" s="181"/>
-      <c r="D245" s="181"/>
+      <c r="C245" s="226"/>
+      <c r="D245" s="226"/>
       <c r="E245" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F245" s="60"/>
@@ -32357,14 +32659,14 @@
       <c r="H245" s="227"/>
       <c r="I245" s="60"/>
       <c r="J245" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K245" s="81"/>
       <c r="L245" s="61"/>
       <c r="M245" s="61"/>
       <c r="N245" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O245" s="69"/>
@@ -32376,28 +32678,28 @@
       <c r="U245" s="49"/>
       <c r="V245" s="50"/>
     </row>
-    <row r="246" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="169"/>
+    <row r="246" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="204"/>
       <c r="B246" s="272"/>
-      <c r="C246" s="181"/>
-      <c r="D246" s="181"/>
+      <c r="C246" s="226"/>
+      <c r="D246" s="226"/>
       <c r="E246" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F246" s="60"/>
       <c r="G246" s="224"/>
-      <c r="H246" s="227"/>
+      <c r="H246" s="59"/>
       <c r="I246" s="60"/>
       <c r="J246" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K246" s="81"/>
       <c r="L246" s="61"/>
       <c r="M246" s="61"/>
       <c r="N246" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O246" s="69"/>
@@ -32409,32 +32711,32 @@
       <c r="U246" s="49"/>
       <c r="V246" s="50"/>
     </row>
-    <row r="247" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="204"/>
       <c r="B247" s="272"/>
-      <c r="C247" s="242"/>
-      <c r="D247" s="242"/>
+      <c r="C247" s="226"/>
+      <c r="D247" s="226"/>
       <c r="E247" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F247" s="60"/>
       <c r="G247" s="224"/>
-      <c r="H247" s="175"/>
+      <c r="H247" s="227"/>
       <c r="I247" s="60"/>
       <c r="J247" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K247" s="81"/>
       <c r="L247" s="61"/>
       <c r="M247" s="61"/>
       <c r="N247" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O247" s="223"/>
-      <c r="P247" s="243"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O247" s="69"/>
+      <c r="P247" s="209"/>
       <c r="Q247" s="124"/>
       <c r="R247" s="125"/>
       <c r="S247" s="176"/>
@@ -32442,32 +32744,32 @@
       <c r="U247" s="49"/>
       <c r="V247" s="50"/>
     </row>
-    <row r="248" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="204"/>
+    <row r="248" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="169"/>
       <c r="B248" s="272"/>
-      <c r="C248" s="187"/>
-      <c r="D248" s="187"/>
+      <c r="C248" s="181"/>
+      <c r="D248" s="181"/>
       <c r="E248" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F248" s="60"/>
       <c r="G248" s="224"/>
-      <c r="H248" s="175"/>
+      <c r="H248" s="227"/>
       <c r="I248" s="60"/>
       <c r="J248" s="39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K248" s="81"/>
+      <c r="L248" s="61"/>
+      <c r="M248" s="61"/>
+      <c r="N248" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K248" s="81"/>
-      <c r="L248" s="273"/>
-      <c r="M248" s="274"/>
-      <c r="N248" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O248" s="223"/>
-      <c r="P248" s="243"/>
+      <c r="O248" s="69"/>
+      <c r="P248" s="209"/>
       <c r="Q248" s="124"/>
       <c r="R248" s="125"/>
       <c r="S248" s="176"/>
@@ -32475,32 +32777,32 @@
       <c r="U248" s="49"/>
       <c r="V248" s="50"/>
     </row>
-    <row r="249" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="204"/>
-      <c r="B249" s="275"/>
-      <c r="C249" s="182"/>
-      <c r="D249" s="182"/>
+    <row r="249" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="169"/>
+      <c r="B249" s="272"/>
+      <c r="C249" s="181"/>
+      <c r="D249" s="181"/>
       <c r="E249" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F249" s="60"/>
+      <c r="G249" s="224"/>
+      <c r="H249" s="227"/>
+      <c r="I249" s="60"/>
+      <c r="J249" s="39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F249" s="182"/>
-      <c r="G249" s="276"/>
-      <c r="H249" s="277"/>
-      <c r="I249" s="57"/>
-      <c r="J249" s="39">
+      <c r="K249" s="81"/>
+      <c r="L249" s="61"/>
+      <c r="M249" s="61"/>
+      <c r="N249" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K249" s="81"/>
-      <c r="L249" s="273"/>
-      <c r="M249" s="274"/>
-      <c r="N249" s="42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O249" s="223"/>
-      <c r="P249" s="243"/>
+      <c r="O249" s="69"/>
+      <c r="P249" s="209"/>
       <c r="Q249" s="124"/>
       <c r="R249" s="125"/>
       <c r="S249" s="176"/>
@@ -32510,26 +32812,26 @@
     </row>
     <row r="250" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="204"/>
-      <c r="B250" s="275"/>
-      <c r="C250" s="182"/>
-      <c r="D250" s="182"/>
+      <c r="B250" s="272"/>
+      <c r="C250" s="242"/>
+      <c r="D250" s="242"/>
       <c r="E250" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="60"/>
+      <c r="G250" s="224"/>
+      <c r="H250" s="175"/>
+      <c r="I250" s="60"/>
+      <c r="J250" s="39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F250" s="182"/>
-      <c r="G250" s="276"/>
-      <c r="H250" s="277"/>
-      <c r="I250" s="57"/>
-      <c r="J250" s="39">
+      <c r="K250" s="81"/>
+      <c r="L250" s="61"/>
+      <c r="M250" s="61"/>
+      <c r="N250" s="42">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K250" s="81"/>
-      <c r="L250" s="273"/>
-      <c r="M250" s="274"/>
-      <c r="N250" s="42">
-        <f t="shared" ref="N250:N269" si="14">K250*I250</f>
         <v>0</v>
       </c>
       <c r="O250" s="223"/>
@@ -32543,30 +32845,30 @@
     </row>
     <row r="251" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="204"/>
-      <c r="B251" s="278"/>
-      <c r="C251" s="182"/>
-      <c r="D251" s="182"/>
+      <c r="B251" s="272"/>
+      <c r="C251" s="187"/>
+      <c r="D251" s="187"/>
       <c r="E251" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F251" s="60"/>
+      <c r="G251" s="224"/>
+      <c r="H251" s="175"/>
+      <c r="I251" s="60"/>
+      <c r="J251" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F251" s="182"/>
-      <c r="G251" s="276"/>
-      <c r="H251" s="277"/>
-      <c r="I251" s="57"/>
-      <c r="J251" s="39">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K251" s="81"/>
       <c r="L251" s="273"/>
       <c r="M251" s="274"/>
       <c r="N251" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O251" s="69"/>
-      <c r="P251" s="212"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O251" s="223"/>
+      <c r="P251" s="243"/>
       <c r="Q251" s="124"/>
       <c r="R251" s="125"/>
       <c r="S251" s="176"/>
@@ -32576,11 +32878,11 @@
     </row>
     <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="204"/>
-      <c r="B252" s="278"/>
+      <c r="B252" s="275"/>
       <c r="C252" s="182"/>
       <c r="D252" s="182"/>
       <c r="E252" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F252" s="182"/>
@@ -32588,18 +32890,18 @@
       <c r="H252" s="277"/>
       <c r="I252" s="57"/>
       <c r="J252" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K252" s="81"/>
       <c r="L252" s="273"/>
       <c r="M252" s="274"/>
       <c r="N252" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O252" s="69"/>
-      <c r="P252" s="212"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O252" s="223"/>
+      <c r="P252" s="243"/>
       <c r="Q252" s="124"/>
       <c r="R252" s="125"/>
       <c r="S252" s="176"/>
@@ -32609,11 +32911,11 @@
     </row>
     <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="204"/>
-      <c r="B253" s="278"/>
+      <c r="B253" s="275"/>
       <c r="C253" s="182"/>
       <c r="D253" s="182"/>
       <c r="E253" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F253" s="182"/>
@@ -32621,18 +32923,18 @@
       <c r="H253" s="277"/>
       <c r="I253" s="57"/>
       <c r="J253" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K253" s="81"/>
       <c r="L253" s="273"/>
       <c r="M253" s="274"/>
       <c r="N253" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O253" s="69"/>
-      <c r="P253" s="212"/>
+        <f t="shared" ref="N253:N272" si="15">K253*I253</f>
+        <v>0</v>
+      </c>
+      <c r="O253" s="223"/>
+      <c r="P253" s="243"/>
       <c r="Q253" s="124"/>
       <c r="R253" s="125"/>
       <c r="S253" s="176"/>
@@ -32640,32 +32942,32 @@
       <c r="U253" s="49"/>
       <c r="V253" s="50"/>
     </row>
-    <row r="254" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="204"/>
-      <c r="B254" s="203"/>
-      <c r="C254" s="279"/>
-      <c r="D254" s="280"/>
+      <c r="B254" s="278"/>
+      <c r="C254" s="182"/>
+      <c r="D254" s="182"/>
       <c r="E254" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F254" s="182"/>
+      <c r="G254" s="276"/>
+      <c r="H254" s="277"/>
+      <c r="I254" s="57"/>
+      <c r="J254" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F254" s="38"/>
-      <c r="G254" s="281"/>
-      <c r="H254" s="282"/>
-      <c r="I254" s="60"/>
-      <c r="J254" s="39">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K254" s="81"/>
       <c r="L254" s="273"/>
-      <c r="M254" s="283"/>
+      <c r="M254" s="274"/>
       <c r="N254" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O254" s="223"/>
-      <c r="P254" s="243"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O254" s="69"/>
+      <c r="P254" s="212"/>
       <c r="Q254" s="124"/>
       <c r="R254" s="125"/>
       <c r="S254" s="176"/>
@@ -32673,32 +32975,32 @@
       <c r="U254" s="49"/>
       <c r="V254" s="50"/>
     </row>
-    <row r="255" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="204"/>
-      <c r="B255" s="203"/>
-      <c r="C255" s="279"/>
-      <c r="D255" s="279"/>
+      <c r="B255" s="278"/>
+      <c r="C255" s="182"/>
+      <c r="D255" s="182"/>
       <c r="E255" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F255" s="182"/>
+      <c r="G255" s="276"/>
+      <c r="H255" s="277"/>
+      <c r="I255" s="57"/>
+      <c r="J255" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F255" s="60"/>
-      <c r="G255" s="224"/>
-      <c r="H255" s="175"/>
-      <c r="I255" s="60"/>
-      <c r="J255" s="39">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K255" s="81"/>
       <c r="L255" s="273"/>
-      <c r="M255" s="283"/>
+      <c r="M255" s="274"/>
       <c r="N255" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O255" s="223"/>
-      <c r="P255" s="243"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O255" s="69"/>
+      <c r="P255" s="212"/>
       <c r="Q255" s="124"/>
       <c r="R255" s="125"/>
       <c r="S255" s="176"/>
@@ -32706,32 +33008,32 @@
       <c r="U255" s="49"/>
       <c r="V255" s="50"/>
     </row>
-    <row r="256" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="204"/>
-      <c r="B256" s="203"/>
-      <c r="C256" s="279"/>
-      <c r="D256" s="279"/>
+      <c r="B256" s="278"/>
+      <c r="C256" s="182"/>
+      <c r="D256" s="182"/>
       <c r="E256" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F256" s="182"/>
+      <c r="G256" s="276"/>
+      <c r="H256" s="277"/>
+      <c r="I256" s="57"/>
+      <c r="J256" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F256" s="60"/>
-      <c r="G256" s="224"/>
-      <c r="H256" s="175"/>
-      <c r="I256" s="60"/>
-      <c r="J256" s="39">
-        <f t="shared" ref="J256:J265" si="15">I256-F256</f>
         <v>0</v>
       </c>
       <c r="K256" s="81"/>
       <c r="L256" s="273"/>
-      <c r="M256" s="283"/>
+      <c r="M256" s="274"/>
       <c r="N256" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O256" s="223"/>
-      <c r="P256" s="243"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O256" s="69"/>
+      <c r="P256" s="212"/>
       <c r="Q256" s="124"/>
       <c r="R256" s="125"/>
       <c r="S256" s="176"/>
@@ -32742,25 +33044,25 @@
     <row r="257" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="204"/>
       <c r="B257" s="203"/>
-      <c r="C257" s="284"/>
-      <c r="D257" s="284"/>
+      <c r="C257" s="279"/>
+      <c r="D257" s="280"/>
       <c r="E257" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F257" s="60"/>
-      <c r="G257" s="224"/>
-      <c r="H257" s="175"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F257" s="38"/>
+      <c r="G257" s="281"/>
+      <c r="H257" s="282"/>
       <c r="I257" s="60"/>
       <c r="J257" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K257" s="81"/>
       <c r="L257" s="273"/>
       <c r="M257" s="283"/>
       <c r="N257" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O257" s="223"/>
@@ -32772,110 +33074,104 @@
       <c r="U257" s="49"/>
       <c r="V257" s="50"/>
     </row>
-    <row r="258" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="285"/>
+    <row r="258" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="204"/>
       <c r="B258" s="203"/>
-      <c r="C258" s="203"/>
-      <c r="D258" s="203"/>
+      <c r="C258" s="279"/>
+      <c r="D258" s="279"/>
       <c r="E258" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F258" s="60"/>
+      <c r="G258" s="224"/>
+      <c r="H258" s="175"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="39">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F258" s="254"/>
-      <c r="G258" s="224"/>
-      <c r="H258" s="255"/>
-      <c r="I258" s="254">
-        <v>0</v>
-      </c>
-      <c r="J258" s="39">
+      <c r="K258" s="81"/>
+      <c r="L258" s="273"/>
+      <c r="M258" s="283"/>
+      <c r="N258" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K258" s="286"/>
-      <c r="L258" s="286"/>
-      <c r="M258" s="286"/>
-      <c r="N258" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O258" s="287"/>
+      <c r="O258" s="223"/>
       <c r="P258" s="243"/>
       <c r="Q258" s="124"/>
-      <c r="R258" s="288"/>
-      <c r="S258" s="289"/>
-      <c r="T258" s="290"/>
-      <c r="U258" s="259"/>
-      <c r="V258" s="263"/>
-    </row>
-    <row r="259" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="285"/>
+      <c r="R258" s="125"/>
+      <c r="S258" s="176"/>
+      <c r="T258" s="177"/>
+      <c r="U258" s="49"/>
+      <c r="V258" s="50"/>
+    </row>
+    <row r="259" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="204"/>
       <c r="B259" s="203"/>
-      <c r="C259" s="203"/>
-      <c r="D259" s="203"/>
+      <c r="C259" s="279"/>
+      <c r="D259" s="279"/>
       <c r="E259" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F259" s="254"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F259" s="60"/>
       <c r="G259" s="224"/>
-      <c r="H259" s="255"/>
-      <c r="I259" s="254">
-        <v>0</v>
-      </c>
+      <c r="H259" s="175"/>
+      <c r="I259" s="60"/>
       <c r="J259" s="39">
+        <f t="shared" ref="J259:J268" si="16">I259-F259</f>
+        <v>0</v>
+      </c>
+      <c r="K259" s="81"/>
+      <c r="L259" s="273"/>
+      <c r="M259" s="283"/>
+      <c r="N259" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K259" s="286"/>
-      <c r="L259" s="286"/>
-      <c r="M259" s="286"/>
-      <c r="N259" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O259" s="287"/>
+      <c r="O259" s="223"/>
       <c r="P259" s="243"/>
       <c r="Q259" s="124"/>
-      <c r="R259" s="288"/>
-      <c r="S259" s="289"/>
-      <c r="T259" s="290"/>
-      <c r="U259" s="259"/>
-      <c r="V259" s="263"/>
-    </row>
-    <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="285"/>
+      <c r="R259" s="125"/>
+      <c r="S259" s="176"/>
+      <c r="T259" s="177"/>
+      <c r="U259" s="49"/>
+      <c r="V259" s="50"/>
+    </row>
+    <row r="260" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="204"/>
       <c r="B260" s="203"/>
-      <c r="C260" s="203"/>
-      <c r="D260" s="203"/>
+      <c r="C260" s="284"/>
+      <c r="D260" s="284"/>
       <c r="E260" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F260" s="254"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F260" s="60"/>
       <c r="G260" s="224"/>
-      <c r="H260" s="255"/>
-      <c r="I260" s="254">
-        <v>0</v>
-      </c>
+      <c r="H260" s="175"/>
+      <c r="I260" s="60"/>
       <c r="J260" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K260" s="81"/>
+      <c r="L260" s="273"/>
+      <c r="M260" s="283"/>
+      <c r="N260" s="42">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K260" s="286"/>
-      <c r="L260" s="286"/>
-      <c r="M260" s="286"/>
-      <c r="N260" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O260" s="287"/>
+      <c r="O260" s="223"/>
       <c r="P260" s="243"/>
       <c r="Q260" s="124"/>
-      <c r="R260" s="288"/>
-      <c r="S260" s="289"/>
-      <c r="T260" s="290"/>
-      <c r="U260" s="259"/>
-      <c r="V260" s="263"/>
+      <c r="R260" s="125"/>
+      <c r="S260" s="176"/>
+      <c r="T260" s="177"/>
+      <c r="U260" s="49"/>
+      <c r="V260" s="50"/>
     </row>
     <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="285"/>
@@ -32883,24 +33179,24 @@
       <c r="C261" s="203"/>
       <c r="D261" s="203"/>
       <c r="E261" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F261" s="254"/>
       <c r="G261" s="224"/>
-      <c r="H261" s="291"/>
+      <c r="H261" s="255"/>
       <c r="I261" s="254">
         <v>0</v>
       </c>
       <c r="J261" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K261" s="286"/>
       <c r="L261" s="286"/>
       <c r="M261" s="286"/>
       <c r="N261" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O261" s="287"/>
@@ -32913,29 +33209,29 @@
       <c r="V261" s="263"/>
     </row>
     <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="292"/>
+      <c r="A262" s="285"/>
       <c r="B262" s="203"/>
       <c r="C262" s="203"/>
       <c r="D262" s="203"/>
       <c r="E262" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F262" s="254"/>
       <c r="G262" s="224"/>
-      <c r="H262" s="293"/>
+      <c r="H262" s="255"/>
       <c r="I262" s="254">
         <v>0</v>
       </c>
       <c r="J262" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K262" s="286"/>
       <c r="L262" s="286"/>
       <c r="M262" s="286"/>
       <c r="N262" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O262" s="287"/>
@@ -32944,297 +33240,355 @@
       <c r="R262" s="288"/>
       <c r="S262" s="289"/>
       <c r="T262" s="290"/>
-      <c r="U262" s="49"/>
-      <c r="V262" s="50"/>
+      <c r="U262" s="259"/>
+      <c r="V262" s="263"/>
     </row>
     <row r="263" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="294"/>
-      <c r="B263" s="295"/>
+      <c r="A263" s="285"/>
+      <c r="B263" s="203"/>
+      <c r="C263" s="203"/>
+      <c r="D263" s="203"/>
       <c r="E263" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H263" s="299"/>
-      <c r="I263" s="297">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="254"/>
+      <c r="G263" s="224"/>
+      <c r="H263" s="255"/>
+      <c r="I263" s="254">
         <v>0</v>
       </c>
       <c r="J263" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K263" s="286"/>
+      <c r="L263" s="286"/>
+      <c r="M263" s="286"/>
+      <c r="N263" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K263" s="300"/>
-      <c r="L263" s="300"/>
-      <c r="M263" s="300"/>
-      <c r="N263" s="42">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O263" s="287"/>
       <c r="P263" s="243"/>
-      <c r="Q263" s="258"/>
+      <c r="Q263" s="124"/>
       <c r="R263" s="288"/>
       <c r="S263" s="289"/>
       <c r="T263" s="290"/>
-      <c r="U263" s="49"/>
-      <c r="V263" s="50"/>
+      <c r="U263" s="259"/>
+      <c r="V263" s="263"/>
     </row>
     <row r="264" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="294"/>
-      <c r="B264" s="295"/>
+      <c r="A264" s="285"/>
+      <c r="B264" s="203"/>
+      <c r="C264" s="203"/>
+      <c r="D264" s="203"/>
       <c r="E264" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I264" s="297">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F264" s="254"/>
+      <c r="G264" s="224"/>
+      <c r="H264" s="291"/>
+      <c r="I264" s="254">
         <v>0</v>
       </c>
       <c r="J264" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K264" s="286"/>
+      <c r="L264" s="286"/>
+      <c r="M264" s="286"/>
+      <c r="N264" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K264" s="300"/>
-      <c r="L264" s="300"/>
-      <c r="M264" s="300"/>
-      <c r="N264" s="42">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O264" s="287"/>
       <c r="P264" s="243"/>
-      <c r="Q264" s="258"/>
+      <c r="Q264" s="124"/>
       <c r="R264" s="288"/>
       <c r="S264" s="289"/>
       <c r="T264" s="290"/>
-      <c r="U264" s="49"/>
-      <c r="V264" s="50"/>
+      <c r="U264" s="259"/>
+      <c r="V264" s="263"/>
     </row>
     <row r="265" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="294"/>
-      <c r="B265" s="295"/>
+      <c r="A265" s="292"/>
+      <c r="B265" s="203"/>
+      <c r="C265" s="203"/>
+      <c r="D265" s="203"/>
       <c r="E265" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I265" s="302">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F265" s="254"/>
+      <c r="G265" s="224"/>
+      <c r="H265" s="293"/>
+      <c r="I265" s="254">
         <v>0</v>
       </c>
       <c r="J265" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K265" s="286"/>
+      <c r="L265" s="286"/>
+      <c r="M265" s="286"/>
+      <c r="N265" s="42">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K265" s="300"/>
-      <c r="L265" s="300"/>
-      <c r="M265" s="300"/>
-      <c r="N265" s="42">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O265" s="287"/>
       <c r="P265" s="243"/>
-      <c r="Q265" s="258"/>
+      <c r="Q265" s="124"/>
       <c r="R265" s="288"/>
       <c r="S265" s="289"/>
       <c r="T265" s="290"/>
       <c r="U265" s="49"/>
       <c r="V265" s="50"/>
     </row>
-    <row r="266" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="294"/>
       <c r="B266" s="295"/>
-      <c r="E266" s="34" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F266" s="433" t="s">
-        <v>27</v>
-      </c>
-      <c r="G266" s="433"/>
-      <c r="H266" s="434"/>
-      <c r="I266" s="303">
-        <f>SUM(I4:I265)</f>
-        <v>359007.028689</v>
-      </c>
-      <c r="J266" s="304"/>
+      <c r="E266" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H266" s="299"/>
+      <c r="I266" s="297">
+        <v>0</v>
+      </c>
+      <c r="J266" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="K266" s="300"/>
-      <c r="L266" s="305"/>
+      <c r="L266" s="300"/>
       <c r="M266" s="300"/>
       <c r="N266" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O266" s="287"/>
       <c r="P266" s="243"/>
       <c r="Q266" s="258"/>
       <c r="R266" s="288"/>
-      <c r="S266" s="306"/>
-      <c r="T266" s="261"/>
-      <c r="U266" s="262"/>
+      <c r="S266" s="289"/>
+      <c r="T266" s="290"/>
+      <c r="U266" s="49"/>
       <c r="V266" s="50"/>
     </row>
-    <row r="267" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="307"/>
+    <row r="267" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="294"/>
       <c r="B267" s="295"/>
       <c r="E267" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I267" s="308"/>
-      <c r="J267" s="304"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I267" s="297">
+        <v>0</v>
+      </c>
+      <c r="J267" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="K267" s="300"/>
-      <c r="L267" s="305"/>
+      <c r="L267" s="300"/>
       <c r="M267" s="300"/>
       <c r="N267" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O267" s="309"/>
-      <c r="Q267" s="6"/>
-      <c r="R267" s="310"/>
-      <c r="S267" s="311"/>
-      <c r="T267" s="312"/>
-      <c r="V267" s="9"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O267" s="287"/>
+      <c r="P267" s="243"/>
+      <c r="Q267" s="258"/>
+      <c r="R267" s="288"/>
+      <c r="S267" s="289"/>
+      <c r="T267" s="290"/>
+      <c r="U267" s="49"/>
+      <c r="V267" s="50"/>
     </row>
     <row r="268" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="294"/>
       <c r="B268" s="295"/>
       <c r="E268" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J268" s="297"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I268" s="302">
+        <v>0</v>
+      </c>
+      <c r="J268" s="39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="K268" s="300"/>
       <c r="L268" s="300"/>
       <c r="M268" s="300"/>
       <c r="N268" s="42">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O268" s="309"/>
-      <c r="Q268" s="6"/>
-      <c r="R268" s="310"/>
-      <c r="S268" s="311"/>
-      <c r="T268" s="312"/>
-      <c r="V268" s="9"/>
-    </row>
-    <row r="269" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O268" s="287"/>
+      <c r="P268" s="243"/>
+      <c r="Q268" s="258"/>
+      <c r="R268" s="288"/>
+      <c r="S268" s="289"/>
+      <c r="T268" s="290"/>
+      <c r="U268" s="49"/>
+      <c r="V268" s="50"/>
+    </row>
+    <row r="269" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="294"/>
       <c r="B269" s="295"/>
-      <c r="E269" s="34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J269" s="297"/>
-      <c r="K269" s="314"/>
+      <c r="E269" s="34" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F269" s="440" t="s">
+        <v>27</v>
+      </c>
+      <c r="G269" s="440"/>
+      <c r="H269" s="441"/>
+      <c r="I269" s="303">
+        <f>SUM(I4:I268)</f>
+        <v>589159.94578900014</v>
+      </c>
+      <c r="J269" s="304"/>
+      <c r="K269" s="300"/>
+      <c r="L269" s="305"/>
+      <c r="M269" s="300"/>
       <c r="N269" s="42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O269" s="287"/>
+      <c r="P269" s="243"/>
+      <c r="Q269" s="258"/>
+      <c r="R269" s="288"/>
+      <c r="S269" s="306"/>
+      <c r="T269" s="261"/>
+      <c r="U269" s="262"/>
+      <c r="V269" s="50"/>
+    </row>
+    <row r="270" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="307"/>
+      <c r="B270" s="295"/>
+      <c r="E270" s="34">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O269" s="315"/>
-      <c r="Q269" s="6"/>
-      <c r="R269" s="310"/>
-      <c r="S269" s="311"/>
-      <c r="T269" s="316"/>
-      <c r="V269" s="9"/>
-    </row>
-    <row r="270" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="294"/>
-      <c r="H270" s="318"/>
-      <c r="I270" s="319" t="s">
+      <c r="I270" s="308"/>
+      <c r="J270" s="304"/>
+      <c r="K270" s="300"/>
+      <c r="L270" s="305"/>
+      <c r="M270" s="300"/>
+      <c r="N270" s="42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O270" s="309"/>
+      <c r="Q270" s="6"/>
+      <c r="R270" s="310"/>
+      <c r="S270" s="311"/>
+      <c r="T270" s="312"/>
+      <c r="V270" s="9"/>
+    </row>
+    <row r="271" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="294"/>
+      <c r="B271" s="295"/>
+      <c r="E271" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J271" s="297"/>
+      <c r="K271" s="300"/>
+      <c r="L271" s="300"/>
+      <c r="M271" s="300"/>
+      <c r="N271" s="42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O271" s="309"/>
+      <c r="Q271" s="6"/>
+      <c r="R271" s="310"/>
+      <c r="S271" s="311"/>
+      <c r="T271" s="312"/>
+      <c r="V271" s="9"/>
+    </row>
+    <row r="272" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="294"/>
+      <c r="B272" s="295"/>
+      <c r="E272" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J272" s="297"/>
+      <c r="K272" s="314"/>
+      <c r="N272" s="42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O272" s="315"/>
+      <c r="Q272" s="6"/>
+      <c r="R272" s="310"/>
+      <c r="S272" s="311"/>
+      <c r="T272" s="316"/>
+      <c r="V272" s="9"/>
+    </row>
+    <row r="273" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="294"/>
+      <c r="H273" s="318"/>
+      <c r="I273" s="319" t="s">
         <v>28</v>
       </c>
-      <c r="J270" s="320"/>
-      <c r="K270" s="320"/>
-      <c r="L270" s="321">
-        <f>SUM(L258:L269)</f>
-        <v>0</v>
-      </c>
-      <c r="M270" s="322"/>
-      <c r="N270" s="323">
-        <f>SUM(N4:N269)</f>
-        <v>12149333.2956015</v>
-      </c>
-      <c r="O270" s="324"/>
-      <c r="Q270" s="325">
-        <f>SUM(Q4:Q269)</f>
-        <v>0</v>
-      </c>
-      <c r="R270" s="256"/>
-      <c r="S270" s="326">
-        <f>SUM(S19:S269)</f>
-        <v>0</v>
-      </c>
-      <c r="T270" s="327"/>
-      <c r="U270" s="328"/>
-      <c r="V270" s="329">
-        <f>SUM(V258:V269)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A271" s="294"/>
-      <c r="H271" s="318"/>
-      <c r="I271" s="330"/>
-      <c r="J271" s="331"/>
-      <c r="K271" s="332"/>
-      <c r="L271" s="332"/>
-      <c r="M271" s="332"/>
-      <c r="N271" s="333"/>
-      <c r="O271" s="324"/>
-      <c r="R271" s="310"/>
-      <c r="S271" s="334"/>
-      <c r="U271" s="336"/>
-      <c r="V271"/>
-    </row>
-    <row r="272" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="294"/>
-      <c r="H272" s="318"/>
-      <c r="I272" s="330"/>
-      <c r="J272" s="331"/>
-      <c r="K272" s="332"/>
-      <c r="L272" s="332"/>
-      <c r="M272" s="332"/>
-      <c r="N272" s="333"/>
-      <c r="O272" s="324"/>
-      <c r="R272" s="310"/>
-      <c r="S272" s="334"/>
-      <c r="U272" s="336"/>
-      <c r="V272"/>
-    </row>
-    <row r="273" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="294"/>
-      <c r="I273" s="337" t="s">
-        <v>29</v>
-      </c>
-      <c r="J273" s="338"/>
-      <c r="K273" s="338"/>
-      <c r="L273" s="339"/>
-      <c r="M273" s="339"/>
-      <c r="N273" s="340">
-        <f>V270+S270+Q270+N270+L270</f>
-        <v>12149333.2956015</v>
-      </c>
-      <c r="O273" s="341"/>
-      <c r="R273" s="310"/>
-      <c r="S273" s="334"/>
-      <c r="U273" s="336"/>
-      <c r="V273"/>
-    </row>
-    <row r="274" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="342"/>
-      <c r="I274" s="343"/>
-      <c r="J274" s="344"/>
-      <c r="K274" s="344"/>
-      <c r="L274" s="345"/>
-      <c r="M274" s="345"/>
-      <c r="N274" s="346"/>
-      <c r="O274" s="347"/>
+      <c r="J273" s="320"/>
+      <c r="K273" s="320"/>
+      <c r="L273" s="321">
+        <f>SUM(L261:L272)</f>
+        <v>0</v>
+      </c>
+      <c r="M273" s="322"/>
+      <c r="N273" s="323">
+        <f>SUM(N4:N272)</f>
+        <v>16834480.492601503</v>
+      </c>
+      <c r="O273" s="324"/>
+      <c r="Q273" s="325">
+        <f>SUM(Q4:Q272)</f>
+        <v>0</v>
+      </c>
+      <c r="R273" s="256"/>
+      <c r="S273" s="326">
+        <f>SUM(S19:S272)</f>
+        <v>0</v>
+      </c>
+      <c r="T273" s="327"/>
+      <c r="U273" s="328"/>
+      <c r="V273" s="329">
+        <f>SUM(V261:V272)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A274" s="294"/>
+      <c r="H274" s="318"/>
+      <c r="I274" s="330"/>
+      <c r="J274" s="331"/>
+      <c r="K274" s="332"/>
+      <c r="L274" s="332"/>
+      <c r="M274" s="332"/>
+      <c r="N274" s="333"/>
+      <c r="O274" s="324"/>
       <c r="R274" s="310"/>
       <c r="S274" s="334"/>
       <c r="U274" s="336"/>
       <c r="V274"/>
     </row>
-    <row r="275" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="342"/>
+    <row r="275" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="294"/>
+      <c r="H275" s="318"/>
       <c r="I275" s="330"/>
       <c r="J275" s="331"/>
       <c r="K275" s="332"/>
@@ -33247,90 +33601,100 @@
       <c r="U275" s="336"/>
       <c r="V275"/>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A276" s="294"/>
-      <c r="I276" s="330"/>
-      <c r="J276" s="331"/>
-      <c r="K276" s="332"/>
-      <c r="L276" s="332"/>
-      <c r="M276" s="332"/>
-      <c r="N276" s="333"/>
-      <c r="O276" s="324"/>
+      <c r="I276" s="337" t="s">
+        <v>29</v>
+      </c>
+      <c r="J276" s="338"/>
+      <c r="K276" s="338"/>
+      <c r="L276" s="339"/>
+      <c r="M276" s="339"/>
+      <c r="N276" s="340">
+        <f>V273+S273+Q273+N273+L273</f>
+        <v>16834480.492601503</v>
+      </c>
+      <c r="O276" s="341"/>
       <c r="R276" s="310"/>
       <c r="S276" s="334"/>
       <c r="U276" s="336"/>
       <c r="V276"/>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="294"/>
-      <c r="I277" s="330"/>
-      <c r="J277" s="348"/>
-      <c r="K277" s="332"/>
-      <c r="L277" s="332"/>
-      <c r="M277" s="332"/>
-      <c r="N277" s="333"/>
-      <c r="O277" s="349"/>
+    <row r="277" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="342"/>
+      <c r="I277" s="343"/>
+      <c r="J277" s="344"/>
+      <c r="K277" s="344"/>
+      <c r="L277" s="345"/>
+      <c r="M277" s="345"/>
+      <c r="N277" s="346"/>
+      <c r="O277" s="347"/>
       <c r="R277" s="310"/>
       <c r="S277" s="334"/>
       <c r="U277" s="336"/>
       <c r="V277"/>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A278" s="342"/>
+      <c r="I278" s="330"/>
+      <c r="J278" s="331"/>
+      <c r="K278" s="332"/>
+      <c r="L278" s="332"/>
+      <c r="M278" s="332"/>
       <c r="N278" s="333"/>
-      <c r="O278" s="351"/>
+      <c r="O278" s="324"/>
       <c r="R278" s="310"/>
       <c r="S278" s="334"/>
       <c r="U278" s="336"/>
       <c r="V278"/>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="342"/>
-      <c r="O279" s="351"/>
+      <c r="A279" s="294"/>
+      <c r="I279" s="330"/>
+      <c r="J279" s="331"/>
+      <c r="K279" s="332"/>
+      <c r="L279" s="332"/>
+      <c r="M279" s="332"/>
+      <c r="N279" s="333"/>
+      <c r="O279" s="324"/>
+      <c r="R279" s="310"/>
       <c r="S279" s="334"/>
       <c r="U279" s="336"/>
       <c r="V279"/>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" s="294"/>
-      <c r="B280" s="295"/>
+      <c r="I280" s="330"/>
+      <c r="J280" s="348"/>
+      <c r="K280" s="332"/>
+      <c r="L280" s="332"/>
+      <c r="M280" s="332"/>
       <c r="N280" s="333"/>
-      <c r="O280" s="324"/>
+      <c r="O280" s="349"/>
+      <c r="R280" s="310"/>
       <c r="S280" s="334"/>
       <c r="U280" s="336"/>
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="342"/>
-      <c r="B281" s="295"/>
       <c r="N281" s="333"/>
-      <c r="O281" s="324"/>
+      <c r="O281" s="351"/>
+      <c r="R281" s="310"/>
       <c r="S281" s="334"/>
       <c r="U281" s="336"/>
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="294"/>
-      <c r="B282" s="295"/>
-      <c r="I282" s="330"/>
-      <c r="J282" s="331"/>
-      <c r="K282" s="332"/>
-      <c r="L282" s="332"/>
-      <c r="M282" s="332"/>
-      <c r="N282" s="333"/>
-      <c r="O282" s="324"/>
+      <c r="A282" s="342"/>
+      <c r="O282" s="351"/>
       <c r="S282" s="334"/>
       <c r="U282" s="336"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="342"/>
+      <c r="A283" s="294"/>
       <c r="B283" s="295"/>
-      <c r="I283" s="330"/>
-      <c r="J283" s="331"/>
-      <c r="K283" s="332"/>
-      <c r="L283" s="332"/>
-      <c r="M283" s="332"/>
       <c r="N283" s="333"/>
       <c r="O283" s="324"/>
       <c r="S283" s="334"/>
@@ -33338,11 +33702,8 @@
       <c r="V283"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="294"/>
+      <c r="A284" s="342"/>
       <c r="B284" s="295"/>
-      <c r="I284" s="352"/>
-      <c r="J284" s="328"/>
-      <c r="K284" s="328"/>
       <c r="N284" s="333"/>
       <c r="O284" s="324"/>
       <c r="S284" s="334"/>
@@ -33350,79 +33711,59 @@
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="342"/>
+      <c r="A285" s="294"/>
+      <c r="B285" s="295"/>
+      <c r="I285" s="330"/>
+      <c r="J285" s="331"/>
+      <c r="K285" s="332"/>
+      <c r="L285" s="332"/>
+      <c r="M285" s="332"/>
+      <c r="N285" s="333"/>
+      <c r="O285" s="324"/>
       <c r="S285" s="334"/>
       <c r="U285" s="336"/>
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="294"/>
+      <c r="A286" s="342"/>
+      <c r="B286" s="295"/>
+      <c r="I286" s="330"/>
+      <c r="J286" s="331"/>
+      <c r="K286" s="332"/>
+      <c r="L286" s="332"/>
+      <c r="M286" s="332"/>
+      <c r="N286" s="333"/>
+      <c r="O286" s="324"/>
       <c r="S286" s="334"/>
       <c r="U286" s="336"/>
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" s="294"/>
-      <c r="B287" s="354"/>
-      <c r="C287" s="354"/>
-      <c r="D287" s="354"/>
-      <c r="E287" s="355"/>
-      <c r="F287" s="356"/>
-      <c r="G287" s="357"/>
-      <c r="H287" s="358"/>
-      <c r="I287" s="359"/>
-      <c r="J287"/>
-      <c r="K287"/>
-      <c r="L287"/>
-      <c r="M287"/>
-      <c r="P287" s="360"/>
-      <c r="Q287" s="334"/>
+      <c r="B287" s="295"/>
+      <c r="I287" s="352"/>
+      <c r="J287" s="328"/>
+      <c r="K287" s="328"/>
+      <c r="N287" s="333"/>
+      <c r="O287" s="324"/>
       <c r="S287" s="334"/>
       <c r="U287" s="336"/>
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" s="342"/>
-      <c r="B288" s="354"/>
-      <c r="C288" s="354"/>
-      <c r="D288" s="354"/>
-      <c r="E288" s="355"/>
-      <c r="F288" s="356"/>
-      <c r="G288" s="357"/>
-      <c r="H288" s="358"/>
-      <c r="I288" s="359"/>
-      <c r="J288"/>
-      <c r="K288"/>
-      <c r="L288"/>
-      <c r="M288"/>
-      <c r="P288" s="360"/>
-      <c r="Q288" s="334"/>
       <c r="S288" s="334"/>
       <c r="U288" s="336"/>
       <c r="V288"/>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="342"/>
-      <c r="B289" s="354"/>
-      <c r="C289" s="354"/>
-      <c r="D289" s="354"/>
-      <c r="E289" s="355"/>
-      <c r="F289" s="356"/>
-      <c r="G289" s="357"/>
-      <c r="H289" s="358"/>
-      <c r="I289" s="359"/>
-      <c r="J289"/>
-      <c r="K289"/>
-      <c r="L289"/>
-      <c r="M289"/>
-      <c r="P289" s="360"/>
-      <c r="Q289" s="334"/>
+      <c r="A289" s="294"/>
       <c r="S289" s="334"/>
       <c r="U289" s="336"/>
       <c r="V289"/>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="342"/>
+      <c r="A290" s="294"/>
       <c r="B290" s="354"/>
       <c r="C290" s="354"/>
       <c r="D290" s="354"/>
@@ -33442,7 +33783,7 @@
       <c r="V290"/>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="361"/>
+      <c r="A291" s="342"/>
       <c r="B291" s="354"/>
       <c r="C291" s="354"/>
       <c r="D291" s="354"/>
@@ -33462,7 +33803,7 @@
       <c r="V291"/>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A292" s="307"/>
+      <c r="A292" s="342"/>
       <c r="B292" s="354"/>
       <c r="C292" s="354"/>
       <c r="D292" s="354"/>
@@ -33482,7 +33823,7 @@
       <c r="V292"/>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A293" s="294"/>
+      <c r="A293" s="342"/>
       <c r="B293" s="354"/>
       <c r="C293" s="354"/>
       <c r="D293" s="354"/>
@@ -33502,7 +33843,7 @@
       <c r="V293"/>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A294" s="294"/>
+      <c r="A294" s="361"/>
       <c r="B294" s="354"/>
       <c r="C294" s="354"/>
       <c r="D294" s="354"/>
@@ -33522,7 +33863,7 @@
       <c r="V294"/>
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A295" s="294"/>
+      <c r="A295" s="307"/>
       <c r="B295" s="354"/>
       <c r="C295" s="354"/>
       <c r="D295" s="354"/>
@@ -33621,16 +33962,83 @@
       <c r="U299" s="336"/>
       <c r="V299"/>
     </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A300" s="294"/>
+      <c r="B300" s="354"/>
+      <c r="C300" s="354"/>
+      <c r="D300" s="354"/>
+      <c r="E300" s="355"/>
+      <c r="F300" s="356"/>
+      <c r="G300" s="357"/>
+      <c r="H300" s="358"/>
+      <c r="I300" s="359"/>
+      <c r="J300"/>
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="P300" s="360"/>
+      <c r="Q300" s="334"/>
+      <c r="S300" s="334"/>
+      <c r="U300" s="336"/>
+      <c r="V300"/>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A301" s="294"/>
+      <c r="B301" s="354"/>
+      <c r="C301" s="354"/>
+      <c r="D301" s="354"/>
+      <c r="E301" s="355"/>
+      <c r="F301" s="356"/>
+      <c r="G301" s="357"/>
+      <c r="H301" s="358"/>
+      <c r="I301" s="359"/>
+      <c r="J301"/>
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="P301" s="360"/>
+      <c r="Q301" s="334"/>
+      <c r="S301" s="334"/>
+      <c r="U301" s="336"/>
+      <c r="V301"/>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A302" s="294"/>
+      <c r="B302" s="354"/>
+      <c r="C302" s="354"/>
+      <c r="D302" s="354"/>
+      <c r="E302" s="355"/>
+      <c r="F302" s="356"/>
+      <c r="G302" s="357"/>
+      <c r="H302" s="358"/>
+      <c r="I302" s="359"/>
+      <c r="J302"/>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="P302" s="360"/>
+      <c r="Q302" s="334"/>
+      <c r="S302" s="334"/>
+      <c r="U302" s="336"/>
+      <c r="V302"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F266:H266"/>
+  <mergeCells count="15">
+    <mergeCell ref="F269:H269"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L94:M95"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="L97:M98"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="L82:L83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="208">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>CANALES  130</t>
+  </si>
+  <si>
+    <t>0267 C1</t>
+  </si>
+  <si>
+    <t>0270 C1</t>
   </si>
 </sst>
 </file>
@@ -23770,10 +23776,10 @@
   <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23781,8 +23787,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -24049,11 +24055,15 @@
       <c r="B6" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="C6" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="56">
+        <v>47</v>
+      </c>
       <c r="E6" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>474277</v>
       </c>
       <c r="F6" s="57">
         <v>10091</v>
@@ -24104,11 +24114,15 @@
       <c r="B7" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="56">
+        <v>50</v>
+      </c>
       <c r="E7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1290000</v>
       </c>
       <c r="F7" s="57">
         <v>25800</v>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="215">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -652,6 +652,40 @@
   </si>
   <si>
     <t>0270 C1</t>
+  </si>
+  <si>
+    <t>0289 C1</t>
+  </si>
+  <si>
+    <t>0303 C1</t>
+  </si>
+  <si>
+    <t>0319 C1</t>
+  </si>
+  <si>
+    <t>0326 C1</t>
+  </si>
+  <si>
+    <t>0333 C1</t>
+  </si>
+  <si>
+    <r>
+      <t>CANALES  219--</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--217</t>
+    </r>
+  </si>
+  <si>
+    <t>0353 C1</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3331,6 +3365,9 @@
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3557,9 +3594,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
       <color rgb="FF66CCFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF660033"/>
     </mruColors>
   </colors>
@@ -3875,49 +3912,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="443" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="443" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="443"/>
+      <c r="S1" s="444" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="444"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="445" t="s">
+      <c r="W1" s="446" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="446"/>
+      <c r="X1" s="447"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="442"/>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
-      <c r="I2" s="442"/>
-      <c r="J2" s="442"/>
+      <c r="A2" s="443"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -3925,8 +3962,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="444"/>
-      <c r="T2" s="444"/>
+      <c r="S2" s="445"/>
+      <c r="T2" s="445"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -3971,10 +4008,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="447" t="s">
+      <c r="O3" s="448" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="448"/>
+      <c r="P3" s="449"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -7295,8 +7332,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="449"/>
-      <c r="M90" s="450"/>
+      <c r="L90" s="450"/>
+      <c r="M90" s="451"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7328,8 +7365,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="449"/>
-      <c r="M91" s="450"/>
+      <c r="L91" s="450"/>
+      <c r="M91" s="451"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7532,8 +7569,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="451"/>
-      <c r="P97" s="453"/>
+      <c r="O97" s="452"/>
+      <c r="P97" s="454"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -7565,8 +7602,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="452"/>
-      <c r="P98" s="454"/>
+      <c r="O98" s="453"/>
+      <c r="P98" s="455"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -12958,11 +12995,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="440" t="s">
+      <c r="F262" s="441" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="440"/>
-      <c r="H262" s="441"/>
+      <c r="G262" s="441"/>
+      <c r="H262" s="442"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -13588,49 +13625,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="443" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="443" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="443"/>
+      <c r="S1" s="444" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="444"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="445" t="s">
+      <c r="W1" s="446" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="446"/>
+      <c r="X1" s="447"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="442"/>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
-      <c r="I2" s="442"/>
-      <c r="J2" s="442"/>
+      <c r="A2" s="443"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -13638,8 +13675,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="444"/>
-      <c r="T2" s="444"/>
+      <c r="S2" s="445"/>
+      <c r="T2" s="445"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -13684,10 +13721,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="447" t="s">
+      <c r="O3" s="448" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="448"/>
+      <c r="P3" s="449"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -16020,13 +16057,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="497" t="s">
+      <c r="A59" s="498" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="499" t="s">
+      <c r="C59" s="500" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16034,10 +16071,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="501">
+      <c r="G59" s="502">
         <v>44981</v>
       </c>
-      <c r="H59" s="503" t="s">
+      <c r="H59" s="504" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16056,10 +16093,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="505" t="s">
+      <c r="O59" s="506" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="495">
+      <c r="P59" s="496">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16070,18 +16107,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="498"/>
+      <c r="A60" s="499"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="500"/>
+      <c r="C60" s="501"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="502"/>
-      <c r="H60" s="504"/>
+      <c r="G60" s="503"/>
+      <c r="H60" s="505"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -16098,8 +16135,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="506"/>
-      <c r="P60" s="496"/>
+      <c r="O60" s="507"/>
+      <c r="P60" s="497"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -16337,7 +16374,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="455" t="s">
+      <c r="A66" s="456" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -16349,10 +16386,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="457">
+      <c r="G66" s="458">
         <v>44973</v>
       </c>
-      <c r="H66" s="459" t="s">
+      <c r="H66" s="460" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -16371,10 +16408,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="461" t="s">
+      <c r="O66" s="462" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="463">
+      <c r="P66" s="464">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -16385,7 +16422,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="456"/>
+      <c r="A67" s="457"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -16395,8 +16432,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="458"/>
-      <c r="H67" s="460"/>
+      <c r="G67" s="459"/>
+      <c r="H67" s="461"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -16413,8 +16450,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="462"/>
-      <c r="P67" s="464"/>
+      <c r="O67" s="463"/>
+      <c r="P67" s="465"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16472,13 +16509,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="485" t="s">
+      <c r="A69" s="486" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="487" t="s">
+      <c r="C69" s="488" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -16486,10 +16523,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="491">
+      <c r="G69" s="492">
         <v>44979</v>
       </c>
-      <c r="H69" s="489" t="s">
+      <c r="H69" s="490" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -16508,10 +16545,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="493" t="s">
+      <c r="O69" s="494" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="483">
+      <c r="P69" s="484">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16522,18 +16559,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="486"/>
+      <c r="A70" s="487"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="488"/>
+      <c r="C70" s="489"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="492"/>
-      <c r="H70" s="490"/>
+      <c r="G70" s="493"/>
+      <c r="H70" s="491"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -16550,8 +16587,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="494"/>
-      <c r="P70" s="484"/>
+      <c r="O70" s="495"/>
+      <c r="P70" s="485"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16560,13 +16597,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="473" t="s">
+      <c r="A71" s="474" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="471" t="s">
+      <c r="C71" s="472" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -16574,10 +16611,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="476">
+      <c r="G71" s="477">
         <v>44982</v>
       </c>
-      <c r="H71" s="478" t="s">
+      <c r="H71" s="479" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -16596,10 +16633,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="467" t="s">
+      <c r="O71" s="468" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="469">
+      <c r="P71" s="470">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16610,18 +16647,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="473"/>
+      <c r="A72" s="474"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="475"/>
+      <c r="C72" s="476"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="476"/>
-      <c r="H72" s="479"/>
+      <c r="G72" s="477"/>
+      <c r="H72" s="480"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -16638,8 +16675,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="481"/>
-      <c r="P72" s="482"/>
+      <c r="O72" s="482"/>
+      <c r="P72" s="483"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16648,18 +16685,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="474"/>
+      <c r="A73" s="475"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="472"/>
+      <c r="C73" s="473"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="477"/>
-      <c r="H73" s="480"/>
+      <c r="G73" s="478"/>
+      <c r="H73" s="481"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -16676,8 +16713,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="468"/>
-      <c r="P73" s="470"/>
+      <c r="O73" s="469"/>
+      <c r="P73" s="471"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -16853,13 +16890,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="455" t="s">
+      <c r="A80" s="456" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="471" t="s">
+      <c r="C80" s="472" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -16870,7 +16907,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="465" t="s">
+      <c r="H80" s="466" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -16889,10 +16926,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="467" t="s">
+      <c r="O80" s="468" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="469">
+      <c r="P80" s="470">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -16903,11 +16940,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="456"/>
+      <c r="A81" s="457"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="472"/>
+      <c r="C81" s="473"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -16916,7 +16953,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="466"/>
+      <c r="H81" s="467"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -16933,8 +16970,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="468"/>
-      <c r="P81" s="470"/>
+      <c r="O81" s="469"/>
+      <c r="P81" s="471"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -17485,8 +17522,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="449"/>
-      <c r="M99" s="450"/>
+      <c r="L99" s="450"/>
+      <c r="M99" s="451"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17518,8 +17555,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="449"/>
-      <c r="M100" s="450"/>
+      <c r="L100" s="450"/>
+      <c r="M100" s="451"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17722,8 +17759,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="451"/>
-      <c r="P106" s="453"/>
+      <c r="O106" s="452"/>
+      <c r="P106" s="454"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -17755,8 +17792,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="452"/>
-      <c r="P107" s="454"/>
+      <c r="O107" s="453"/>
+      <c r="P107" s="455"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -23148,11 +23185,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="440" t="s">
+      <c r="F271" s="441" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="440"/>
-      <c r="H271" s="441"/>
+      <c r="G271" s="441"/>
+      <c r="H271" s="442"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -23776,10 +23813,10 @@
   <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23809,49 +23846,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="443" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="443" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="443"/>
+      <c r="S1" s="444" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="444"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="445" t="s">
+      <c r="W1" s="446" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="446"/>
+      <c r="X1" s="447"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="442"/>
-      <c r="B2" s="442"/>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
-      <c r="I2" s="442"/>
-      <c r="J2" s="442"/>
+      <c r="A2" s="443"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -23859,8 +23896,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="444"/>
-      <c r="T2" s="444"/>
+      <c r="S2" s="445"/>
+      <c r="T2" s="445"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -23905,10 +23942,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="447" t="s">
+      <c r="O3" s="448" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="448"/>
+      <c r="P3" s="449"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -24173,11 +24210,15 @@
       <c r="B8" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="56">
+        <v>50</v>
+      </c>
       <c r="E8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1373000</v>
       </c>
       <c r="F8" s="57">
         <v>27460</v>
@@ -24228,11 +24269,15 @@
       <c r="B9" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="56">
+        <v>50</v>
+      </c>
       <c r="E9" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1222000</v>
       </c>
       <c r="F9" s="57">
         <v>24440</v>
@@ -24283,11 +24328,15 @@
       <c r="B10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="56">
+        <v>50</v>
+      </c>
       <c r="E10" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1217000</v>
       </c>
       <c r="F10" s="57">
         <v>24340</v>
@@ -24336,11 +24385,15 @@
       <c r="B11" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="73">
+        <v>43</v>
+      </c>
       <c r="E11" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>464013</v>
       </c>
       <c r="F11" s="57">
         <v>10791</v>
@@ -24388,14 +24441,18 @@
       <c r="A12" s="413" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="B12" s="440" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="56">
+        <v>43</v>
+      </c>
       <c r="E12" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1026730.35</v>
       </c>
       <c r="F12" s="57">
         <v>23877.45</v>
@@ -24446,11 +24503,15 @@
       <c r="B13" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="56">
+        <v>50</v>
+      </c>
       <c r="E13" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>617500</v>
       </c>
       <c r="F13" s="57">
         <v>12350</v>
@@ -27285,13 +27346,13 @@
       <c r="V81" s="50"/>
     </row>
     <row r="82" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="455" t="s">
+      <c r="A82" s="456" t="s">
         <v>147</v>
       </c>
       <c r="B82" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="471" t="s">
+      <c r="C82" s="472" t="s">
         <v>193</v>
       </c>
       <c r="D82" s="433"/>
@@ -27299,10 +27360,10 @@
       <c r="F82" s="410">
         <v>27.48</v>
       </c>
-      <c r="G82" s="501">
+      <c r="G82" s="502">
         <v>45014</v>
       </c>
-      <c r="H82" s="507" t="s">
+      <c r="H82" s="508" t="s">
         <v>180</v>
       </c>
       <c r="I82" s="155">
@@ -27315,7 +27376,7 @@
       <c r="K82" s="40">
         <v>70</v>
       </c>
-      <c r="L82" s="511" t="s">
+      <c r="L82" s="512" t="s">
         <v>194</v>
       </c>
       <c r="M82" s="61"/>
@@ -27323,10 +27384,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O82" s="451" t="s">
+      <c r="O82" s="452" t="s">
         <v>21</v>
       </c>
-      <c r="P82" s="509">
+      <c r="P82" s="510">
         <v>45016</v>
       </c>
       <c r="Q82" s="158"/>
@@ -27337,18 +27398,18 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="456"/>
+      <c r="A83" s="457"/>
       <c r="B83" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="472"/>
+      <c r="C83" s="473"/>
       <c r="D83" s="433"/>
       <c r="E83" s="56"/>
       <c r="F83" s="410">
         <v>142.5</v>
       </c>
-      <c r="G83" s="502"/>
-      <c r="H83" s="508"/>
+      <c r="G83" s="503"/>
+      <c r="H83" s="509"/>
       <c r="I83" s="155">
         <v>142.5771</v>
       </c>
@@ -27359,14 +27420,14 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="511"/>
+      <c r="L83" s="512"/>
       <c r="M83" s="61"/>
       <c r="N83" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O83" s="452"/>
-      <c r="P83" s="510"/>
+      <c r="O83" s="453"/>
+      <c r="P83" s="511"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -27797,8 +27858,8 @@
         <v>0</v>
       </c>
       <c r="K97" s="81"/>
-      <c r="L97" s="449"/>
-      <c r="M97" s="450"/>
+      <c r="L97" s="450"/>
+      <c r="M97" s="451"/>
       <c r="N97" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27830,8 +27891,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="449"/>
-      <c r="M98" s="450"/>
+      <c r="L98" s="450"/>
+      <c r="M98" s="451"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28034,8 +28095,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O104" s="451"/>
-      <c r="P104" s="453"/>
+      <c r="O104" s="452"/>
+      <c r="P104" s="454"/>
       <c r="Q104" s="158"/>
       <c r="R104" s="125"/>
       <c r="S104" s="176"/>
@@ -28067,8 +28128,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="452"/>
-      <c r="P105" s="454"/>
+      <c r="O105" s="453"/>
+      <c r="P105" s="455"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -33460,11 +33521,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F269" s="440" t="s">
+      <c r="F269" s="441" t="s">
         <v>27</v>
       </c>
-      <c r="G269" s="440"/>
-      <c r="H269" s="441"/>
+      <c r="G269" s="441"/>
+      <c r="H269" s="442"/>
       <c r="I269" s="303">
         <f>SUM(I4:I268)</f>
         <v>589159.94578900014</v>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/ENTRADAS  OBRADOR  MARZO   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="224">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -686,6 +686,33 @@
   </si>
   <si>
     <t>0353 C1</t>
+  </si>
+  <si>
+    <t>0369 C1</t>
+  </si>
+  <si>
+    <t>0378 C1</t>
+  </si>
+  <si>
+    <t>0406 C1</t>
+  </si>
+  <si>
+    <t>0408 C1</t>
+  </si>
+  <si>
+    <t>0416 C1</t>
+  </si>
+  <si>
+    <t>0425 C1</t>
+  </si>
+  <si>
+    <t>0446 C1</t>
+  </si>
+  <si>
+    <t>0462 C1</t>
+  </si>
+  <si>
+    <t>0471 C1</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="513">
+  <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3369,6 +3396,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3414,6 +3444,126 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3450,126 +3600,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3583,6 +3613,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3912,49 +3951,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="443" t="s">
+      <c r="A1" s="444" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="444" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="444"/>
+      <c r="S1" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="445"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="446" t="s">
+      <c r="W1" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="447"/>
+      <c r="X1" s="448"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="443"/>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
+      <c r="A2" s="444"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
+      <c r="J2" s="444"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -3962,8 +4001,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="445"/>
-      <c r="T2" s="445"/>
+      <c r="S2" s="446"/>
+      <c r="T2" s="446"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -4008,10 +4047,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="448" t="s">
+      <c r="O3" s="449" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="449"/>
+      <c r="P3" s="450"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -7332,8 +7371,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="450"/>
-      <c r="M90" s="451"/>
+      <c r="L90" s="451"/>
+      <c r="M90" s="452"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7365,8 +7404,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="450"/>
-      <c r="M91" s="451"/>
+      <c r="L91" s="451"/>
+      <c r="M91" s="452"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7569,8 +7608,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="452"/>
-      <c r="P97" s="454"/>
+      <c r="O97" s="453"/>
+      <c r="P97" s="455"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -7602,8 +7641,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="453"/>
-      <c r="P98" s="455"/>
+      <c r="O98" s="454"/>
+      <c r="P98" s="456"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -12995,11 +13034,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="441" t="s">
+      <c r="F262" s="442" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="441"/>
-      <c r="H262" s="442"/>
+      <c r="G262" s="442"/>
+      <c r="H262" s="443"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -13625,49 +13664,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="443" t="s">
+      <c r="A1" s="444" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="444" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="444"/>
+      <c r="S1" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="445"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="446" t="s">
+      <c r="W1" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="447"/>
+      <c r="X1" s="448"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="443"/>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
+      <c r="A2" s="444"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
+      <c r="J2" s="444"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -13675,8 +13714,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="445"/>
-      <c r="T2" s="445"/>
+      <c r="S2" s="446"/>
+      <c r="T2" s="446"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -13721,10 +13760,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="448" t="s">
+      <c r="O3" s="449" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="449"/>
+      <c r="P3" s="450"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -16057,13 +16096,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="498" t="s">
+      <c r="A59" s="459" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="500" t="s">
+      <c r="C59" s="461" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -16071,10 +16110,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="502">
+      <c r="G59" s="463">
         <v>44981</v>
       </c>
-      <c r="H59" s="504" t="s">
+      <c r="H59" s="465" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -16093,10 +16132,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="506" t="s">
+      <c r="O59" s="467" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="496">
+      <c r="P59" s="457">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -16107,18 +16146,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="499"/>
+      <c r="A60" s="460"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="501"/>
+      <c r="C60" s="462"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="503"/>
-      <c r="H60" s="505"/>
+      <c r="G60" s="464"/>
+      <c r="H60" s="466"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -16135,8 +16174,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="507"/>
-      <c r="P60" s="497"/>
+      <c r="O60" s="468"/>
+      <c r="P60" s="458"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -16374,7 +16413,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="456" t="s">
+      <c r="A66" s="497" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -16386,10 +16425,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="458">
+      <c r="G66" s="499">
         <v>44973</v>
       </c>
-      <c r="H66" s="460" t="s">
+      <c r="H66" s="501" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -16408,10 +16447,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="462" t="s">
+      <c r="O66" s="503" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="464">
+      <c r="P66" s="505">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -16422,7 +16461,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="457"/>
+      <c r="A67" s="498"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -16432,8 +16471,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="459"/>
-      <c r="H67" s="461"/>
+      <c r="G67" s="500"/>
+      <c r="H67" s="502"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -16450,8 +16489,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="463"/>
-      <c r="P67" s="465"/>
+      <c r="O67" s="504"/>
+      <c r="P67" s="506"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -16509,13 +16548,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="486" t="s">
+      <c r="A69" s="471" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="488" t="s">
+      <c r="C69" s="473" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -16523,10 +16562,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="492">
+      <c r="G69" s="477">
         <v>44979</v>
       </c>
-      <c r="H69" s="490" t="s">
+      <c r="H69" s="475" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -16545,10 +16584,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="494" t="s">
+      <c r="O69" s="479" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="484">
+      <c r="P69" s="469">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -16559,18 +16598,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="487"/>
+      <c r="A70" s="472"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="489"/>
+      <c r="C70" s="474"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="493"/>
-      <c r="H70" s="491"/>
+      <c r="G70" s="478"/>
+      <c r="H70" s="476"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -16587,8 +16626,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="495"/>
-      <c r="P70" s="485"/>
+      <c r="O70" s="480"/>
+      <c r="P70" s="470"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -16597,13 +16636,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="474" t="s">
+      <c r="A71" s="485" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="472" t="s">
+      <c r="C71" s="483" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -16611,10 +16650,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="477">
+      <c r="G71" s="488">
         <v>44982</v>
       </c>
-      <c r="H71" s="479" t="s">
+      <c r="H71" s="490" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -16633,10 +16672,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="468" t="s">
+      <c r="O71" s="493" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="470">
+      <c r="P71" s="481">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -16647,18 +16686,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="474"/>
+      <c r="A72" s="485"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="476"/>
+      <c r="C72" s="487"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="477"/>
-      <c r="H72" s="480"/>
+      <c r="G72" s="488"/>
+      <c r="H72" s="491"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -16675,8 +16714,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="482"/>
-      <c r="P72" s="483"/>
+      <c r="O72" s="494"/>
+      <c r="P72" s="496"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -16685,18 +16724,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="475"/>
+      <c r="A73" s="486"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="473"/>
+      <c r="C73" s="484"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="478"/>
-      <c r="H73" s="481"/>
+      <c r="G73" s="489"/>
+      <c r="H73" s="492"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -16713,8 +16752,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="469"/>
-      <c r="P73" s="471"/>
+      <c r="O73" s="495"/>
+      <c r="P73" s="482"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -16890,13 +16929,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="456" t="s">
+      <c r="A80" s="497" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="472" t="s">
+      <c r="C80" s="483" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -16907,7 +16946,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="466" t="s">
+      <c r="H80" s="507" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -16926,10 +16965,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="468" t="s">
+      <c r="O80" s="493" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="470">
+      <c r="P80" s="481">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -16940,11 +16979,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="457"/>
+      <c r="A81" s="498"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="473"/>
+      <c r="C81" s="484"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -16953,7 +16992,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="467"/>
+      <c r="H81" s="508"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -16970,8 +17009,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="469"/>
-      <c r="P81" s="471"/>
+      <c r="O81" s="495"/>
+      <c r="P81" s="482"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -17522,8 +17561,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="450"/>
-      <c r="M99" s="451"/>
+      <c r="L99" s="451"/>
+      <c r="M99" s="452"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17555,8 +17594,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="450"/>
-      <c r="M100" s="451"/>
+      <c r="L100" s="451"/>
+      <c r="M100" s="452"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17759,8 +17798,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="452"/>
-      <c r="P106" s="454"/>
+      <c r="O106" s="453"/>
+      <c r="P106" s="455"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -17792,8 +17831,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="453"/>
-      <c r="P107" s="455"/>
+      <c r="O107" s="454"/>
+      <c r="P107" s="456"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -23185,11 +23224,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="441" t="s">
+      <c r="F271" s="442" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="441"/>
-      <c r="H271" s="442"/>
+      <c r="G271" s="442"/>
+      <c r="H271" s="443"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -23763,26 +23802,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -23799,6 +23818,26 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23813,10 +23852,10 @@
   <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23846,49 +23885,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="443" t="s">
+      <c r="A1" s="444" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="443"/>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
+      <c r="B1" s="444"/>
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="444" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="444"/>
+      <c r="S1" s="445" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="445"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="446" t="s">
+      <c r="W1" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="447"/>
+      <c r="X1" s="448"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="443"/>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
-      <c r="D2" s="443"/>
-      <c r="E2" s="443"/>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="443"/>
-      <c r="I2" s="443"/>
-      <c r="J2" s="443"/>
+      <c r="A2" s="444"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
+      <c r="J2" s="444"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -23896,8 +23935,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="445"/>
-      <c r="T2" s="445"/>
+      <c r="S2" s="446"/>
+      <c r="T2" s="446"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -23942,10 +23981,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="448" t="s">
+      <c r="O3" s="449" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="449"/>
+      <c r="P3" s="450"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -24562,9 +24601,9 @@
       <c r="B14" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="34">
+      <c r="C14" s="514"/>
+      <c r="D14" s="515"/>
+      <c r="E14" s="516">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24611,11 +24650,15 @@
       <c r="B15" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="56">
+        <v>50</v>
+      </c>
       <c r="E15" s="34">
         <f t="shared" ref="E15:E16" si="3">D15*F15</f>
-        <v>0</v>
+        <v>659500</v>
       </c>
       <c r="F15" s="57">
         <v>13190</v>
@@ -24666,11 +24709,15 @@
       <c r="B16" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="56">
+        <v>50</v>
+      </c>
       <c r="E16" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1206500</v>
       </c>
       <c r="F16" s="57">
         <v>24130</v>
@@ -24715,11 +24762,15 @@
       <c r="B17" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="56">
+        <v>50</v>
+      </c>
       <c r="E17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>860500</v>
       </c>
       <c r="F17" s="57">
         <v>17210</v>
@@ -24764,11 +24815,15 @@
       <c r="B18" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="56"/>
+      <c r="C18" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="56">
+        <v>50</v>
+      </c>
       <c r="E18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>558020</v>
       </c>
       <c r="F18" s="57">
         <v>11160.4</v>
@@ -24813,11 +24868,15 @@
       <c r="B19" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="56">
+        <v>50</v>
+      </c>
       <c r="E19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1297500</v>
       </c>
       <c r="F19" s="57">
         <v>25950</v>
@@ -24862,11 +24921,15 @@
       <c r="B20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="56">
+        <v>50</v>
+      </c>
       <c r="E20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1242500</v>
       </c>
       <c r="F20" s="57">
         <v>24850</v>
@@ -24911,11 +24974,15 @@
       <c r="B21" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
+      <c r="C21" s="441" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="85">
+        <v>50</v>
+      </c>
       <c r="E21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1252000</v>
       </c>
       <c r="F21" s="57">
         <v>25040</v>
@@ -24960,11 +25027,15 @@
       <c r="B22" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="85">
+        <v>50</v>
+      </c>
       <c r="E22" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>597000</v>
       </c>
       <c r="F22" s="57">
         <v>11940</v>
@@ -25009,11 +25080,15 @@
       <c r="B23" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="56">
+        <v>50</v>
+      </c>
       <c r="E23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1149500</v>
       </c>
       <c r="F23" s="57">
         <v>22990</v>
@@ -27346,13 +27421,13 @@
       <c r="V81" s="50"/>
     </row>
     <row r="82" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="456" t="s">
+      <c r="A82" s="497" t="s">
         <v>147</v>
       </c>
       <c r="B82" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="472" t="s">
+      <c r="C82" s="483" t="s">
         <v>193</v>
       </c>
       <c r="D82" s="433"/>
@@ -27360,10 +27435,10 @@
       <c r="F82" s="410">
         <v>27.48</v>
       </c>
-      <c r="G82" s="502">
+      <c r="G82" s="463">
         <v>45014</v>
       </c>
-      <c r="H82" s="508" t="s">
+      <c r="H82" s="509" t="s">
         <v>180</v>
       </c>
       <c r="I82" s="155">
@@ -27376,7 +27451,7 @@
       <c r="K82" s="40">
         <v>70</v>
       </c>
-      <c r="L82" s="512" t="s">
+      <c r="L82" s="513" t="s">
         <v>194</v>
       </c>
       <c r="M82" s="61"/>
@@ -27384,10 +27459,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O82" s="452" t="s">
+      <c r="O82" s="453" t="s">
         <v>21</v>
       </c>
-      <c r="P82" s="510">
+      <c r="P82" s="511">
         <v>45016</v>
       </c>
       <c r="Q82" s="158"/>
@@ -27398,18 +27473,18 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="457"/>
+      <c r="A83" s="498"/>
       <c r="B83" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="473"/>
+      <c r="C83" s="484"/>
       <c r="D83" s="433"/>
       <c r="E83" s="56"/>
       <c r="F83" s="410">
         <v>142.5</v>
       </c>
-      <c r="G83" s="503"/>
-      <c r="H83" s="509"/>
+      <c r="G83" s="464"/>
+      <c r="H83" s="510"/>
       <c r="I83" s="155">
         <v>142.5771</v>
       </c>
@@ -27420,14 +27495,14 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="512"/>
+      <c r="L83" s="513"/>
       <c r="M83" s="61"/>
       <c r="N83" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O83" s="453"/>
-      <c r="P83" s="511"/>
+      <c r="O83" s="454"/>
+      <c r="P83" s="512"/>
       <c r="Q83" s="158"/>
       <c r="R83" s="125"/>
       <c r="S83" s="176"/>
@@ -27858,8 +27933,8 @@
         <v>0</v>
       </c>
       <c r="K97" s="81"/>
-      <c r="L97" s="450"/>
-      <c r="M97" s="451"/>
+      <c r="L97" s="451"/>
+      <c r="M97" s="452"/>
       <c r="N97" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27891,8 +27966,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="450"/>
-      <c r="M98" s="451"/>
+      <c r="L98" s="451"/>
+      <c r="M98" s="452"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28095,8 +28170,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O104" s="452"/>
-      <c r="P104" s="454"/>
+      <c r="O104" s="453"/>
+      <c r="P104" s="455"/>
       <c r="Q104" s="158"/>
       <c r="R104" s="125"/>
       <c r="S104" s="176"/>
@@ -28128,8 +28203,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="453"/>
-      <c r="P105" s="455"/>
+      <c r="O105" s="454"/>
+      <c r="P105" s="456"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -33521,11 +33596,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F269" s="441" t="s">
+      <c r="F269" s="442" t="s">
         <v>27</v>
       </c>
-      <c r="G269" s="441"/>
-      <c r="H269" s="442"/>
+      <c r="G269" s="442"/>
+      <c r="H269" s="443"/>
       <c r="I269" s="303">
         <f>SUM(I4:I268)</f>
         <v>589159.94578900014</v>
